--- a/ofc/estimates/परोपकार भवन मर्मत/V-परोपकार भवन मर्मत.xlsx
+++ b/ofc/estimates/परोपकार भवन मर्मत/V-परोपकार भवन मर्मत.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\परोपकार भवन मर्मत\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\परोपकार भवन मर्मत\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="backyard" sheetId="22" r:id="rId1"/>
@@ -116,7 +116,7 @@
     <definedName name="Ttile">'[1]update Rate'!$N$43</definedName>
     <definedName name="unskilled">'[2]Material rate'!$D$154</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="167">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -864,15 +864,21 @@
   <si>
     <t>at compound</t>
   </si>
+  <si>
+    <t>Detail Valuated Sheet</t>
+  </si>
+  <si>
+    <t>Total Valuated</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="50">
     <font>
@@ -1265,10 +1271,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1276,7 +1282,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1296,14 +1302,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1312,7 +1318,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1336,7 +1342,7 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1371,7 +1377,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1386,7 +1392,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1402,7 +1408,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1444,7 +1450,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1482,7 +1488,7 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1569,7 +1575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1593,7 +1599,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1617,115 +1623,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1735,7 +1632,7 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="42" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1784,7 +1681,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1812,6 +1709,118 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2810,127 +2819,127 @@
       <selection activeCell="A104" sqref="A104:XFD104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.8">
-      <c r="A2" s="160" t="s">
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5">
+      <c r="A2" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.399999999999999">
-      <c r="A5" s="161" t="s">
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="190"/>
+      <c r="J4" s="190"/>
+      <c r="K4" s="190"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75">
+      <c r="A5" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.6">
-      <c r="A6" s="152" t="s">
+      <c r="B5" s="191"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="191"/>
+      <c r="K5" s="191"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75">
+      <c r="A6" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="158" t="s">
+      <c r="H6" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.6">
-      <c r="A7" s="162" t="s">
+      <c r="I6" s="193"/>
+      <c r="J6" s="193"/>
+      <c r="K6" s="193"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75">
+      <c r="A7" s="194" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="163" t="s">
+      <c r="H7" s="195" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="195"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -2967,7 +2976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="27.6">
+    <row r="9" spans="1:14" ht="28.5">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -3055,7 +3064,7 @@
       <c r="J12" s="40"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:14" ht="27.6">
+    <row r="13" spans="1:14" ht="28.5">
       <c r="A13" s="18">
         <v>2</v>
       </c>
@@ -3186,7 +3195,7 @@
       <c r="J18" s="40"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" ht="55.2">
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="57">
       <c r="A19" s="58">
         <v>3</v>
       </c>
@@ -3341,7 +3350,7 @@
       <c r="J25" s="40"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:14" ht="27.6">
+    <row r="26" spans="1:14" ht="28.5">
       <c r="A26" s="18">
         <v>4</v>
       </c>
@@ -3444,7 +3453,7 @@
       <c r="J30" s="40"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:14" ht="27.6">
+    <row r="31" spans="1:14" ht="28.5">
       <c r="A31" s="18">
         <v>5</v>
       </c>
@@ -3544,7 +3553,7 @@
       <c r="J35" s="40"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:19" ht="41.4">
+    <row r="36" spans="1:19" ht="42.75">
       <c r="A36" s="18">
         <v>6</v>
       </c>
@@ -3648,7 +3657,7 @@
       <c r="J40" s="40"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:19" ht="30.6">
+    <row r="41" spans="1:19" ht="30.75">
       <c r="A41" s="18">
         <v>7</v>
       </c>
@@ -3737,7 +3746,7 @@
       <c r="J44" s="39"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:19" ht="15">
+    <row r="45" spans="1:19">
       <c r="A45" s="18">
         <v>8</v>
       </c>
@@ -4042,7 +4051,7 @@
       </c>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:20" ht="15">
+    <row r="58" spans="1:20">
       <c r="A58" s="18"/>
       <c r="B58" s="88"/>
       <c r="C58" s="19"/>
@@ -4055,7 +4064,7 @@
       <c r="J58" s="39"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:20" ht="39">
+    <row r="59" spans="1:20" ht="39.75">
       <c r="A59" s="18">
         <v>10</v>
       </c>
@@ -4107,15 +4116,15 @@
       <c r="I60" s="38"/>
       <c r="J60" s="38"/>
       <c r="K60" s="60"/>
-      <c r="N60" s="166" t="s">
+      <c r="N60" s="196" t="s">
         <v>87</v>
       </c>
-      <c r="O60" s="166"/>
-      <c r="P60" s="166"/>
-      <c r="Q60" s="166"/>
-      <c r="R60" s="166"/>
-      <c r="S60" s="166"/>
-      <c r="T60" s="166"/>
+      <c r="O60" s="196"/>
+      <c r="P60" s="196"/>
+      <c r="Q60" s="196"/>
+      <c r="R60" s="196"/>
+      <c r="S60" s="196"/>
+      <c r="T60" s="196"/>
     </row>
     <row r="61" spans="1:20" ht="15" customHeight="1">
       <c r="A61" s="18"/>
@@ -4412,15 +4421,15 @@
       <c r="I73" s="38"/>
       <c r="J73" s="38"/>
       <c r="K73" s="60"/>
-      <c r="N73" s="166" t="s">
+      <c r="N73" s="196" t="s">
         <v>87</v>
       </c>
-      <c r="O73" s="166"/>
-      <c r="P73" s="166"/>
-      <c r="Q73" s="166"/>
-      <c r="R73" s="166"/>
-      <c r="S73" s="166"/>
-      <c r="T73" s="166"/>
+      <c r="O73" s="196"/>
+      <c r="P73" s="196"/>
+      <c r="Q73" s="196"/>
+      <c r="R73" s="196"/>
+      <c r="S73" s="196"/>
+      <c r="T73" s="196"/>
     </row>
     <row r="74" spans="1:20" ht="15" customHeight="1">
       <c r="A74" s="18"/>
@@ -4616,15 +4625,15 @@
       <c r="I81" s="38"/>
       <c r="J81" s="38"/>
       <c r="K81" s="60"/>
-      <c r="N81" s="166" t="s">
+      <c r="N81" s="196" t="s">
         <v>87</v>
       </c>
-      <c r="O81" s="166"/>
-      <c r="P81" s="166"/>
-      <c r="Q81" s="166"/>
-      <c r="R81" s="166"/>
-      <c r="S81" s="166"/>
-      <c r="T81" s="166"/>
+      <c r="O81" s="196"/>
+      <c r="P81" s="196"/>
+      <c r="Q81" s="196"/>
+      <c r="R81" s="196"/>
+      <c r="S81" s="196"/>
+      <c r="T81" s="196"/>
     </row>
     <row r="82" spans="1:20" ht="15" customHeight="1">
       <c r="A82" s="18"/>
@@ -4747,7 +4756,7 @@
       <c r="J86" s="40"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:20" ht="30.6">
+    <row r="87" spans="1:20" ht="30.75">
       <c r="A87" s="18">
         <v>14</v>
       </c>
@@ -4857,7 +4866,7 @@
       <c r="J90" s="123"/>
       <c r="K90" s="121"/>
     </row>
-    <row r="91" spans="1:20" s="1" customFormat="1" ht="27.6">
+    <row r="91" spans="1:20" s="1" customFormat="1" ht="30">
       <c r="A91" s="120"/>
       <c r="B91" s="125" t="s">
         <v>125</v>
@@ -4915,7 +4924,7 @@
       <c r="K92" s="121"/>
       <c r="M92" s="127"/>
     </row>
-    <row r="93" spans="1:20" s="1" customFormat="1" ht="41.4">
+    <row r="93" spans="1:20" s="1" customFormat="1" ht="45">
       <c r="A93" s="120"/>
       <c r="B93" s="125" t="s">
         <v>126</v>
@@ -5027,7 +5036,7 @@
       <c r="K96" s="121"/>
       <c r="M96" s="127"/>
     </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" ht="27.6">
+    <row r="97" spans="1:13" s="1" customFormat="1" ht="30">
       <c r="A97" s="120"/>
       <c r="B97" s="125" t="s">
         <v>132</v>
@@ -5511,7 +5520,7 @@
       <c r="J117" s="123"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" ht="30.6">
+    <row r="118" spans="1:11" ht="30.75">
       <c r="A118" s="18">
         <v>16</v>
       </c>
@@ -5604,7 +5613,7 @@
       <c r="J122" s="39"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" s="1" customFormat="1" ht="46.2">
+    <row r="123" spans="1:11" s="1" customFormat="1" ht="48">
       <c r="A123" s="18">
         <v>17</v>
       </c>
@@ -5727,7 +5736,7 @@
       <c r="J128" s="39"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:20" s="138" customFormat="1" ht="17.399999999999999">
+    <row r="129" spans="1:20" s="138" customFormat="1" ht="18">
       <c r="A129" s="135">
         <v>18</v>
       </c>
@@ -5852,15 +5861,15 @@
       <c r="J133" s="38"/>
       <c r="K133" s="21"/>
       <c r="M133" s="1"/>
-      <c r="N133" s="180" t="s">
+      <c r="N133" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="O133" s="180"/>
-      <c r="P133" s="180"/>
-      <c r="Q133" s="180"/>
-      <c r="R133" s="180"/>
-      <c r="S133" s="180"/>
-      <c r="T133" s="180"/>
+      <c r="O133" s="186"/>
+      <c r="P133" s="186"/>
+      <c r="Q133" s="186"/>
+      <c r="R133" s="186"/>
+      <c r="S133" s="186"/>
+      <c r="T133" s="186"/>
     </row>
     <row r="134" spans="1:20" ht="15" customHeight="1">
       <c r="A134" s="18"/>
@@ -5885,15 +5894,15 @@
       <c r="J134" s="38"/>
       <c r="K134" s="21"/>
       <c r="M134" s="1"/>
-      <c r="N134" s="180" t="s">
+      <c r="N134" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="O134" s="180"/>
-      <c r="P134" s="180"/>
-      <c r="Q134" s="180"/>
-      <c r="R134" s="180"/>
-      <c r="S134" s="180"/>
-      <c r="T134" s="180"/>
+      <c r="O134" s="186"/>
+      <c r="P134" s="186"/>
+      <c r="Q134" s="186"/>
+      <c r="R134" s="186"/>
+      <c r="S134" s="186"/>
+      <c r="T134" s="186"/>
     </row>
     <row r="135" spans="1:20" ht="15" customHeight="1">
       <c r="A135" s="38"/>
@@ -5952,7 +5961,7 @@
       <c r="J137" s="40"/>
       <c r="K137" s="34"/>
     </row>
-    <row r="138" spans="1:20" ht="41.4">
+    <row r="138" spans="1:20" ht="42.75">
       <c r="A138" s="18">
         <v>19</v>
       </c>
@@ -6172,11 +6181,11 @@
       <c r="B149" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C149" s="164">
+      <c r="C149" s="185">
         <f>J147</f>
         <v>564973.01951057301</v>
       </c>
-      <c r="D149" s="164"/>
+      <c r="D149" s="185"/>
       <c r="E149" s="37">
         <v>100</v>
       </c>
@@ -6192,10 +6201,10 @@
       <c r="B150" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C150" s="165">
+      <c r="C150" s="187">
         <v>500000</v>
       </c>
-      <c r="D150" s="165"/>
+      <c r="D150" s="187"/>
       <c r="E150" s="37"/>
       <c r="F150" s="44"/>
       <c r="G150" s="43"/>
@@ -6209,11 +6218,11 @@
       <c r="B151" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C151" s="165">
+      <c r="C151" s="187">
         <f>C150-C153-C154</f>
         <v>475000</v>
       </c>
-      <c r="D151" s="165"/>
+      <c r="D151" s="187"/>
       <c r="E151" s="37">
         <f>C151/C149*100</f>
         <v>84.074811291251535</v>
@@ -6230,11 +6239,11 @@
       <c r="B152" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C152" s="164">
+      <c r="C152" s="185">
         <f>C149-C151</f>
         <v>89973.019510573009</v>
       </c>
-      <c r="D152" s="164"/>
+      <c r="D152" s="185"/>
       <c r="E152" s="37">
         <f>100-E151</f>
         <v>15.925188708748465</v>
@@ -6251,11 +6260,11 @@
       <c r="B153" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C153" s="164">
+      <c r="C153" s="185">
         <f>C150*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D153" s="164"/>
+      <c r="D153" s="185"/>
       <c r="E153" s="37">
         <v>3</v>
       </c>
@@ -6271,11 +6280,11 @@
       <c r="B154" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C154" s="164">
+      <c r="C154" s="185">
         <f>C150*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D154" s="164"/>
+      <c r="D154" s="185"/>
       <c r="E154" s="37">
         <v>2</v>
       </c>
@@ -6357,13 +6366,6 @@
     <row r="211" s="33" customFormat="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="N134:T134"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
     <mergeCell ref="N133:T133"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -6377,6 +6379,13 @@
     <mergeCell ref="N60:T60"/>
     <mergeCell ref="N73:T73"/>
     <mergeCell ref="N81:T81"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="N134:T134"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B103" r:id="rId1"/>
@@ -6396,110 +6405,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.6">
-      <c r="A2" s="147" t="s">
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5">
+      <c r="A2" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-    </row>
-    <row r="5" spans="1:11" ht="18">
-      <c r="A5" s="149" t="s">
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="190"/>
+      <c r="J4" s="190"/>
+      <c r="K4" s="190"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75">
+      <c r="A5" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-    </row>
-    <row r="6" spans="1:11" ht="18">
+      <c r="B5" s="208"/>
+      <c r="C5" s="208"/>
+      <c r="D5" s="208"/>
+      <c r="E5" s="208"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="208"/>
+      <c r="I5" s="208"/>
+      <c r="J5" s="208"/>
+      <c r="K5" s="208"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="144">
+      <c r="C6" s="204">
         <f>F71</f>
         <v>564973.01951057301</v>
       </c>
-      <c r="D6" s="145"/>
+      <c r="D6" s="205"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -6507,11 +6516,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="144">
+      <c r="J6" s="204">
         <f>I71</f>
-        <v>450558.50226700824</v>
-      </c>
-      <c r="K6" s="145"/>
+        <v>425480.08486204845</v>
+      </c>
+      <c r="K6" s="205"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="25" t="s">
@@ -6520,77 +6529,77 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="I7" s="154" t="s">
+      <c r="F7" s="199"/>
+      <c r="G7" s="199"/>
+      <c r="I7" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="154"/>
-      <c r="K7" s="154"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6">
-      <c r="A8" s="152" t="e">
+      <c r="J7" s="200"/>
+      <c r="K7" s="200"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75">
+      <c r="A8" s="192" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="152"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="I8" s="155" t="s">
+      <c r="B8" s="192"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="I8" s="201" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="201"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="156" t="e">
+      <c r="A9" s="202" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="156"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="I9" s="155" t="s">
+      <c r="B9" s="202"/>
+      <c r="C9" s="202"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="202"/>
+      <c r="F9" s="202"/>
+      <c r="I9" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="155"/>
-      <c r="K9" s="155"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="150" t="s">
+      <c r="A11" s="197" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="150" t="s">
+      <c r="B11" s="197" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="157" t="s">
+      <c r="D11" s="203" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157" t="s">
+      <c r="E11" s="203"/>
+      <c r="F11" s="203"/>
+      <c r="G11" s="203" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="150" t="s">
+      <c r="H11" s="203"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="151" t="s">
+      <c r="K11" s="198" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="150"/>
-      <c r="B12" s="150"/>
-      <c r="C12" s="150"/>
+      <c r="A12" s="197"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="197"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -6609,10 +6618,10 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="150"/>
-      <c r="K12" s="151"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="27.6">
+      <c r="J12" s="197"/>
+      <c r="K12" s="198"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="28.5">
       <c r="A13" s="26">
         <f>backyard!A9</f>
         <v>1</v>
@@ -6655,7 +6664,7 @@
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A14" s="26"/>
       <c r="B14" s="31"/>
       <c r="C14" s="12"/>
@@ -6668,7 +6677,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="27.6">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="28.5">
       <c r="A15" s="26">
         <f>backyard!A13</f>
         <v>2</v>
@@ -6711,7 +6720,7 @@
       </c>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A16" s="26"/>
       <c r="B16" s="31" t="str">
         <f>backyard!B17</f>
@@ -6736,7 +6745,7 @@
       </c>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A17" s="26"/>
       <c r="B17" s="31"/>
       <c r="C17" s="12"/>
@@ -6749,7 +6758,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="41.4">
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="57">
       <c r="A18" s="26">
         <f>backyard!A19</f>
         <v>3</v>
@@ -6792,7 +6801,7 @@
       </c>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A19" s="26"/>
       <c r="B19" s="31" t="str">
         <f>backyard!B24</f>
@@ -6817,7 +6826,7 @@
       </c>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A20" s="26"/>
       <c r="B20" s="31"/>
       <c r="C20" s="12"/>
@@ -6830,7 +6839,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="27.6">
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="28.5">
       <c r="A21" s="26">
         <f>backyard!A26</f>
         <v>4</v>
@@ -6873,7 +6882,7 @@
       </c>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A22" s="26"/>
       <c r="B22" s="31" t="str">
         <f>backyard!B29</f>
@@ -6898,7 +6907,7 @@
       </c>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A23" s="26"/>
       <c r="B23" s="31"/>
       <c r="C23" s="12"/>
@@ -6911,7 +6920,7 @@
       <c r="J23" s="27"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" ht="27.6">
+    <row r="24" spans="1:11" s="1" customFormat="1" ht="28.5">
       <c r="A24" s="26">
         <f>backyard!A31</f>
         <v>5</v>
@@ -6954,7 +6963,7 @@
       </c>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A25" s="26"/>
       <c r="B25" s="31" t="str">
         <f>backyard!B34</f>
@@ -6979,7 +6988,7 @@
       </c>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="26" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A26" s="26"/>
       <c r="B26" s="31"/>
       <c r="C26" s="12"/>
@@ -6992,7 +7001,7 @@
       <c r="J26" s="27"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" ht="27.6">
+    <row r="27" spans="1:11" s="1" customFormat="1" ht="42.75">
       <c r="A27" s="26">
         <f>backyard!A36</f>
         <v>6</v>
@@ -7035,7 +7044,7 @@
       </c>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A28" s="26"/>
       <c r="B28" s="31" t="str">
         <f>backyard!B39</f>
@@ -7060,7 +7069,7 @@
       </c>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A29" s="26"/>
       <c r="B29" s="31"/>
       <c r="C29" s="12"/>
@@ -7073,7 +7082,7 @@
       <c r="J29" s="27"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" ht="27.6">
+    <row r="30" spans="1:11" s="1" customFormat="1" ht="28.5">
       <c r="A30" s="26">
         <f>backyard!A41</f>
         <v>7</v>
@@ -7116,7 +7125,7 @@
       </c>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="31" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A31" s="26"/>
       <c r="B31" s="31"/>
       <c r="C31" s="12"/>
@@ -7172,7 +7181,7 @@
       </c>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A33" s="26"/>
       <c r="B33" s="31" t="str">
         <f>backyard!B50</f>
@@ -7197,7 +7206,7 @@
       </c>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="34" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A34" s="26"/>
       <c r="B34" s="31"/>
       <c r="C34" s="12"/>
@@ -7210,7 +7219,7 @@
       <c r="J34" s="27"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" ht="27.6">
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="28.5">
       <c r="A35" s="26">
         <f>backyard!A52</f>
         <v>9</v>
@@ -7253,7 +7262,7 @@
       </c>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A36" s="26"/>
       <c r="B36" s="31" t="str">
         <f>backyard!B57</f>
@@ -7278,7 +7287,7 @@
       </c>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="37" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A37" s="26"/>
       <c r="B37" s="31"/>
       <c r="C37" s="12"/>
@@ -7291,7 +7300,7 @@
       <c r="J37" s="27"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" ht="25.2">
+    <row r="38" spans="1:11" s="1" customFormat="1" ht="28.5">
       <c r="A38" s="26">
         <f>backyard!A59</f>
         <v>10</v>
@@ -7333,7 +7342,7 @@
       </c>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="39" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A39" s="26"/>
       <c r="B39" s="31" t="str">
         <f>backyard!B62</f>
@@ -7358,7 +7367,7 @@
       </c>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="40" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A40" s="26"/>
       <c r="B40" s="31"/>
       <c r="C40" s="12"/>
@@ -7371,7 +7380,7 @@
       <c r="J40" s="27"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" ht="27.6">
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="28.5">
       <c r="A41" s="26">
         <f>backyard!A64</f>
         <v>11</v>
@@ -7414,7 +7423,7 @@
       </c>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="42" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A42" s="26"/>
       <c r="B42" s="31" t="str">
         <f>backyard!B70</f>
@@ -7439,7 +7448,7 @@
       </c>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="43" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A43" s="26"/>
       <c r="B43" s="31"/>
       <c r="C43" s="12"/>
@@ -7452,12 +7461,12 @@
       <c r="J43" s="27"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1">
+    <row r="44" spans="1:11" s="1" customFormat="1" ht="28.5">
       <c r="A44" s="26">
         <f>backyard!A72</f>
         <v>12</v>
       </c>
-      <c r="B44" s="219" t="str">
+      <c r="B44" s="182" t="str">
         <f>backyard!B72</f>
         <v>kmnfd]sf] kfOk / KnfOaf]8{af6 kmdf{ agfpg] sfd</v>
       </c>
@@ -7495,7 +7504,7 @@
       </c>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="45" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A45" s="26"/>
       <c r="B45" s="31" t="str">
         <f>backyard!B78</f>
@@ -7520,7 +7529,7 @@
       </c>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A46" s="26"/>
       <c r="B46" s="31"/>
       <c r="C46" s="12"/>
@@ -7533,12 +7542,12 @@
       <c r="J46" s="27"/>
       <c r="K46" s="14"/>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" ht="27.6">
+    <row r="47" spans="1:11" s="1" customFormat="1" ht="28.5">
       <c r="A47" s="26">
         <f>backyard!A80</f>
         <v>13</v>
       </c>
-      <c r="B47" s="219" t="str">
+      <c r="B47" s="182" t="str">
         <f>backyard!B80</f>
         <v>d]lzgsf] k|of]u u/L ;'k/ :6«Sr/df l;d]G6 s+lqm6 ug]{ sfd -!M!=%M#_</v>
       </c>
@@ -7576,7 +7585,7 @@
       </c>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="48" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A48" s="26"/>
       <c r="B48" s="31" t="str">
         <f>backyard!B85</f>
@@ -7601,7 +7610,7 @@
       </c>
       <c r="K48" s="14"/>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="49" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A49" s="26"/>
       <c r="B49" s="31"/>
       <c r="C49" s="12"/>
@@ -7614,12 +7623,12 @@
       <c r="J49" s="27"/>
       <c r="K49" s="14"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" ht="27.6">
+    <row r="50" spans="1:11" s="1" customFormat="1" ht="28.5">
       <c r="A50" s="26">
         <f>backyard!A87</f>
         <v>14</v>
       </c>
-      <c r="B50" s="219" t="str">
+      <c r="B50" s="182" t="str">
         <f>backyard!B87</f>
         <v>ljleGg ;fO{hsf] kmnfd] PËn km]lj|s]zg u/L k|fOd/ k]G6 ;lxt ug]{</v>
       </c>
@@ -7657,7 +7666,7 @@
       </c>
       <c r="K50" s="14"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="51" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A51" s="26"/>
       <c r="B51" s="31" t="str">
         <f>backyard!B101</f>
@@ -7682,7 +7691,7 @@
       </c>
       <c r="K51" s="14"/>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="52" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A52" s="26"/>
       <c r="B52" s="31"/>
       <c r="C52" s="12"/>
@@ -7722,7 +7731,7 @@
       </c>
       <c r="G53" s="12">
         <f>V!G170</f>
-        <v>187.88588744285281</v>
+        <v>128.22878564462053</v>
       </c>
       <c r="H53" s="12">
         <f>V!I170</f>
@@ -7730,15 +7739,15 @@
       </c>
       <c r="I53" s="12">
         <f t="shared" ref="I53" si="38">G53*H53</f>
-        <v>76255.366277556241</v>
+        <v>52042.934941725689</v>
       </c>
       <c r="J53" s="27">
         <f t="shared" ref="J53:J54" si="39">I53-F53</f>
-        <v>39952.60671052432</v>
+        <v>15740.175374693768</v>
       </c>
       <c r="K53" s="14"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="54" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A54" s="26"/>
       <c r="B54" s="31" t="str">
         <f>backyard!B116</f>
@@ -7755,15 +7764,15 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12">
         <f>V!J171</f>
-        <v>2727.3628152736983</v>
+        <v>1861.3767461444502</v>
       </c>
       <c r="J54" s="27">
         <f t="shared" si="39"/>
-        <v>1428.9519444300342</v>
+        <v>562.96587530078614</v>
       </c>
       <c r="K54" s="14"/>
     </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="55" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A55" s="26"/>
       <c r="B55" s="31"/>
       <c r="C55" s="12"/>
@@ -7776,7 +7785,7 @@
       <c r="J55" s="27"/>
       <c r="K55" s="14"/>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" ht="27.6">
+    <row r="56" spans="1:11" s="1" customFormat="1" ht="28.5">
       <c r="A56" s="26">
         <f>backyard!A118</f>
         <v>16</v>
@@ -7819,7 +7828,7 @@
       </c>
       <c r="K56" s="14"/>
     </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="57" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A57" s="26"/>
       <c r="B57" s="31" t="str">
         <f>backyard!B121</f>
@@ -7844,7 +7853,7 @@
       </c>
       <c r="K57" s="14"/>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="58" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A58" s="26"/>
       <c r="B58" s="31"/>
       <c r="C58" s="12"/>
@@ -7857,7 +7866,7 @@
       <c r="J58" s="27"/>
       <c r="K58" s="14"/>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" ht="52.2">
+    <row r="59" spans="1:11" s="1" customFormat="1" ht="54">
       <c r="A59" s="26">
         <f>backyard!A123</f>
         <v>17</v>
@@ -7899,7 +7908,7 @@
       </c>
       <c r="K59" s="14"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="60" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A60" s="26"/>
       <c r="B60" s="31"/>
       <c r="C60" s="12"/>
@@ -7921,7 +7930,7 @@
       </c>
       <c r="K60" s="14"/>
     </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="61" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A61" s="26"/>
       <c r="B61" s="31"/>
       <c r="C61" s="12"/>
@@ -7977,7 +7986,7 @@
       </c>
       <c r="K62" s="14"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="63" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A63" s="26"/>
       <c r="B63" s="31" t="str">
         <f>backyard!B136</f>
@@ -8002,7 +8011,7 @@
       </c>
       <c r="K63" s="14"/>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="64" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A64" s="26"/>
       <c r="B64" s="31"/>
       <c r="C64" s="12"/>
@@ -8015,7 +8024,7 @@
       <c r="J64" s="27"/>
       <c r="K64" s="14"/>
     </row>
-    <row r="65" spans="1:11" s="1" customFormat="1" ht="41.4">
+    <row r="65" spans="1:11" s="1" customFormat="1" ht="42.75">
       <c r="A65" s="26">
         <f>backyard!A138</f>
         <v>19</v>
@@ -8058,7 +8067,7 @@
       </c>
       <c r="K65" s="14"/>
     </row>
-    <row r="66" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="66" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A66" s="26"/>
       <c r="B66" s="31"/>
       <c r="C66" s="12"/>
@@ -8071,7 +8080,7 @@
       <c r="J66" s="27"/>
       <c r="K66" s="14"/>
     </row>
-    <row r="67" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="67" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A67" s="26">
         <f>backyard!A143</f>
         <v>20</v>
@@ -8199,16 +8208,23 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7">
         <f>SUM(I13:I69)</f>
-        <v>450558.50226700824</v>
+        <v>425480.08486204845</v>
       </c>
       <c r="J71" s="13">
         <f>I71-F71</f>
-        <v>-114414.51724356477</v>
+        <v>-139492.93464852456</v>
       </c>
       <c r="K71" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -8222,13 +8238,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8250,21 +8259,21 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="63"/>
-    <col min="2" max="2" width="11.44140625" style="63" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="63" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="63"/>
-    <col min="6" max="6" width="10.44140625" style="63" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="63" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="63" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="63"/>
+    <col min="1" max="1" width="8.85546875" style="63"/>
+    <col min="2" max="2" width="11.42578125" style="63" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="63" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="63"/>
+    <col min="6" max="6" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="63" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="63" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="63"/>
     <col min="10" max="10" width="12" style="63" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="63"/>
+    <col min="11" max="16384" width="8.85546875" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="20.25">
       <c r="A1" s="61" t="e">
         <f>+#REF!+1</f>
         <v>#REF!</v>
@@ -8289,33 +8298,33 @@
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="17.399999999999999">
+    <row r="3" spans="1:10" ht="18">
       <c r="A3" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-    </row>
-    <row r="4" spans="1:10" ht="15">
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="67"/>
-      <c r="B4" s="168" t="s">
+      <c r="B4" s="219" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-    </row>
-    <row r="5" spans="1:10" ht="32.4">
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="219"/>
+      <c r="H4" s="219"/>
+    </row>
+    <row r="5" spans="1:10" ht="31.5">
       <c r="A5" s="67"/>
       <c r="B5" s="68" t="s">
         <v>52</v>
@@ -8339,9 +8348,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18">
+    <row r="6" spans="1:10" ht="17.25">
       <c r="A6" s="67"/>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="220" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="68" t="s">
@@ -8362,9 +8371,9 @@
       </c>
       <c r="H6" s="73"/>
     </row>
-    <row r="7" spans="1:10" ht="18">
+    <row r="7" spans="1:10" ht="17.25">
       <c r="A7" s="67"/>
-      <c r="B7" s="170"/>
+      <c r="B7" s="221"/>
       <c r="C7" s="70" t="s">
         <v>62</v>
       </c>
@@ -8386,9 +8395,9 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="43.8">
+    <row r="8" spans="1:10" ht="45">
       <c r="A8" s="67"/>
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="220" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="74" t="s">
@@ -8409,9 +8418,9 @@
       </c>
       <c r="H8" s="73"/>
     </row>
-    <row r="9" spans="1:10" ht="18">
+    <row r="9" spans="1:10" ht="17.25">
       <c r="A9" s="67"/>
-      <c r="B9" s="169"/>
+      <c r="B9" s="220"/>
       <c r="C9" s="70" t="s">
         <v>66</v>
       </c>
@@ -8430,9 +8439,9 @@
       </c>
       <c r="H9" s="76"/>
     </row>
-    <row r="10" spans="1:10" ht="18">
+    <row r="10" spans="1:10" ht="17.25">
       <c r="A10" s="67"/>
-      <c r="B10" s="169"/>
+      <c r="B10" s="220"/>
       <c r="C10" s="70" t="s">
         <v>68</v>
       </c>
@@ -8455,9 +8464,9 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18">
+    <row r="11" spans="1:10" ht="17.25">
       <c r="A11" s="67"/>
-      <c r="B11" s="169"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="70" t="s">
         <v>70</v>
       </c>
@@ -8477,9 +8486,9 @@
       </c>
       <c r="H11" s="76"/>
     </row>
-    <row r="12" spans="1:10" ht="18">
+    <row r="12" spans="1:10" ht="17.25">
       <c r="A12" s="67"/>
-      <c r="B12" s="169"/>
+      <c r="B12" s="220"/>
       <c r="C12" s="70" t="s">
         <v>71</v>
       </c>
@@ -8503,9 +8512,9 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18">
+    <row r="13" spans="1:10" ht="17.25">
       <c r="A13" s="67"/>
-      <c r="B13" s="169"/>
+      <c r="B13" s="220"/>
       <c r="C13" s="70" t="s">
         <v>73</v>
       </c>
@@ -8528,7 +8537,7 @@
         <v>5504.3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18">
+    <row r="14" spans="1:10" ht="17.25">
       <c r="A14" s="67"/>
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
@@ -8543,7 +8552,7 @@
         <v>8569.2999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18">
+    <row r="15" spans="1:10" ht="17.25">
       <c r="B15" s="82" t="s">
         <v>76</v>
       </c>
@@ -8557,7 +8566,7 @@
         <v>1285.3900000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18">
+    <row r="16" spans="1:10" ht="17.25">
       <c r="A16" s="83" t="s">
         <v>78</v>
       </c>
@@ -8579,7 +8588,7 @@
         <v>9854.6899999999987</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18">
+    <row r="17" spans="1:8" ht="17.25">
       <c r="A17" s="83"/>
       <c r="B17" s="84"/>
       <c r="C17" s="67"/>
@@ -8594,7 +8603,7 @@
         <v>1094.9655555555555</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18">
+    <row r="18" spans="1:8" ht="17.25">
       <c r="A18" s="83"/>
       <c r="B18" s="84"/>
       <c r="C18" s="67"/>
@@ -8609,7 +8618,7 @@
         <v>952.14396135265702</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18">
+    <row r="19" spans="1:8" ht="17.25">
       <c r="A19" s="83"/>
       <c r="B19" s="85" t="s">
         <v>83</v>
@@ -8621,43 +8630,43 @@
       <c r="G19" s="80"/>
       <c r="H19" s="84"/>
     </row>
-    <row r="22" spans="1:8" s="93" customFormat="1" ht="21">
+    <row r="22" spans="1:8" s="93" customFormat="1" ht="20.25">
       <c r="A22" s="92">
         <f>+A9+1</f>
         <v>1</v>
       </c>
-      <c r="B22" s="171"/>
-      <c r="C22" s="171"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-    </row>
-    <row r="23" spans="1:8" s="93" customFormat="1" ht="19.8">
+      <c r="B22" s="210"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="210"/>
+      <c r="F22" s="210"/>
+      <c r="G22" s="210"/>
+      <c r="H22" s="210"/>
+    </row>
+    <row r="23" spans="1:8" s="93" customFormat="1" ht="19.5">
       <c r="A23" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="171" t="s">
+      <c r="B23" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="171"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="210"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="210"/>
     </row>
     <row r="24" spans="1:8" s="93" customFormat="1" ht="15">
-      <c r="B24" s="173" t="s">
+      <c r="B24" s="211" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="173"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="173"/>
+      <c r="C24" s="211"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="211"/>
     </row>
     <row r="25" spans="1:8" s="93" customFormat="1" ht="30" customHeight="1">
       <c r="B25" s="95" t="s">
@@ -8683,7 +8692,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="93" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B26" s="174" t="s">
+      <c r="B26" s="212" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="96" t="s">
@@ -8704,8 +8713,8 @@
       </c>
       <c r="H26" s="101"/>
     </row>
-    <row r="27" spans="1:8" s="93" customFormat="1" ht="18">
-      <c r="B27" s="175"/>
+    <row r="27" spans="1:8" s="93" customFormat="1" ht="17.25">
+      <c r="B27" s="213"/>
       <c r="C27" s="102" t="s">
         <v>62</v>
       </c>
@@ -8727,8 +8736,8 @@
         <v>44714</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="93" customFormat="1" ht="18">
-      <c r="B28" s="176" t="s">
+    <row r="28" spans="1:8" s="93" customFormat="1" ht="17.25">
+      <c r="B28" s="214" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="98" t="s">
@@ -8749,8 +8758,8 @@
       </c>
       <c r="H28" s="101"/>
     </row>
-    <row r="29" spans="1:8" s="93" customFormat="1" ht="18">
-      <c r="B29" s="177"/>
+    <row r="29" spans="1:8" s="93" customFormat="1" ht="17.25">
+      <c r="B29" s="215"/>
       <c r="C29" s="102" t="s">
         <v>106</v>
       </c>
@@ -8770,8 +8779,8 @@
       </c>
       <c r="H29" s="106"/>
     </row>
-    <row r="30" spans="1:8" s="93" customFormat="1" ht="27.6">
-      <c r="B30" s="177"/>
+    <row r="30" spans="1:8" s="93" customFormat="1" ht="27.75">
+      <c r="B30" s="215"/>
       <c r="C30" s="109" t="s">
         <v>117</v>
       </c>
@@ -8791,8 +8800,8 @@
       </c>
       <c r="H30" s="106"/>
     </row>
-    <row r="31" spans="1:8" s="93" customFormat="1" ht="18">
-      <c r="B31" s="178"/>
+    <row r="31" spans="1:8" s="93" customFormat="1" ht="17.25">
+      <c r="B31" s="216"/>
       <c r="C31" s="104" t="s">
         <v>108</v>
       </c>
@@ -8815,7 +8824,7 @@
         <v>36690.270000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="93" customFormat="1" ht="18">
+    <row r="32" spans="1:8" s="93" customFormat="1" ht="17.25">
       <c r="F32" s="113" t="s">
         <v>75</v>
       </c>
@@ -8825,7 +8834,7 @@
         <v>81404.27</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="93" customFormat="1" ht="18">
+    <row r="33" spans="1:8" s="93" customFormat="1" ht="17.25">
       <c r="B33" s="93" t="s">
         <v>110</v>
       </c>
@@ -8869,16 +8878,16 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="93" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="179" t="s">
+      <c r="A36" s="217" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="179"/>
-      <c r="C36" s="179"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="179"/>
-      <c r="F36" s="179"/>
-      <c r="G36" s="179"/>
-      <c r="H36" s="179"/>
+      <c r="B36" s="217"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="217"/>
+      <c r="E36" s="217"/>
+      <c r="F36" s="217"/>
+      <c r="G36" s="217"/>
+      <c r="H36" s="217"/>
     </row>
     <row r="37" spans="1:8" s="93" customFormat="1" ht="12" customHeight="1">
       <c r="B37" s="118" t="s">
@@ -8886,16 +8895,16 @@
       </c>
     </row>
     <row r="38" spans="1:8" s="93" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="172" t="s">
+      <c r="A38" s="209" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="172"/>
-      <c r="C38" s="172"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172"/>
+      <c r="B38" s="209"/>
+      <c r="C38" s="209"/>
+      <c r="D38" s="209"/>
+      <c r="E38" s="209"/>
+      <c r="F38" s="209"/>
+      <c r="G38" s="209"/>
+      <c r="H38" s="209"/>
     </row>
     <row r="39" spans="1:8" s="93" customFormat="1" ht="12" customHeight="1">
       <c r="B39" s="118" t="s">
@@ -8903,16 +8912,16 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="93" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="172" t="s">
+      <c r="A40" s="209" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="172"/>
-      <c r="C40" s="172"/>
-      <c r="D40" s="172"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="172"/>
+      <c r="B40" s="209"/>
+      <c r="C40" s="209"/>
+      <c r="D40" s="209"/>
+      <c r="E40" s="209"/>
+      <c r="F40" s="209"/>
+      <c r="G40" s="209"/>
+      <c r="H40" s="209"/>
     </row>
     <row r="41" spans="1:8" s="93" customFormat="1" ht="12" customHeight="1">
       <c r="B41" s="118" t="s">
@@ -8924,6 +8933,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B22:H22"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="B23:H23"/>
@@ -8931,11 +8945,6 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="A36:H36"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B22:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8946,131 +8955,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V267"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G171" sqref="G171"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.8">
-      <c r="A2" s="160" t="s">
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5">
+      <c r="A2" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.399999999999999">
-      <c r="A5" s="161" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.6">
-      <c r="A6" s="152" t="s">
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="190"/>
+      <c r="J4" s="190"/>
+      <c r="K4" s="190"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75">
+      <c r="A5" s="191" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="191"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="191"/>
+      <c r="K5" s="191"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75">
+      <c r="A6" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="158" t="s">
+      <c r="H6" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.6">
-      <c r="A7" s="162" t="s">
+      <c r="I6" s="193"/>
+      <c r="J6" s="193"/>
+      <c r="K6" s="193"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75">
+      <c r="A7" s="194" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="163" t="s">
+      <c r="H7" s="195" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="195"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -9107,7 +9116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="27.6">
+    <row r="9" spans="1:14" ht="28.5">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -9151,7 +9160,7 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
-      <c r="K10" s="60"/>
+      <c r="K10" s="222"/>
       <c r="N10">
         <f>5.84+1.76</f>
         <v>7.6</v>
@@ -9182,7 +9191,7 @@
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
-      <c r="K11" s="60"/>
+      <c r="K11" s="222"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="18"/>
@@ -9209,7 +9218,7 @@
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
-      <c r="K12" s="60"/>
+      <c r="K12" s="222"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="18"/>
@@ -9236,7 +9245,7 @@
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
-      <c r="K13" s="60"/>
+      <c r="K13" s="222"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="18"/>
@@ -9263,7 +9272,7 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
-      <c r="K14" s="60"/>
+      <c r="K14" s="222"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="18"/>
@@ -9303,7 +9312,7 @@
       <c r="J16" s="40"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:14" ht="27.6">
+    <row r="17" spans="1:14" ht="28.5">
       <c r="A17" s="18">
         <v>2</v>
       </c>
@@ -9346,7 +9355,7 @@
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
-      <c r="K18" s="60"/>
+      <c r="K18" s="222"/>
       <c r="N18">
         <f>5.84+1.76</f>
         <v>7.6</v>
@@ -9376,7 +9385,7 @@
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="60"/>
+      <c r="K19" s="222"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="18"/>
@@ -9402,7 +9411,7 @@
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
-      <c r="K20" s="60"/>
+      <c r="K20" s="222"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="18"/>
@@ -9428,7 +9437,7 @@
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
-      <c r="K21" s="60"/>
+      <c r="K21" s="222"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1">
       <c r="A22" s="18"/>
@@ -9454,7 +9463,7 @@
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
-      <c r="K22" s="60"/>
+      <c r="K22" s="222"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="18"/>
@@ -9480,7 +9489,7 @@
       <c r="H23" s="38"/>
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
-      <c r="K23" s="60"/>
+      <c r="K23" s="222"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="18"/>
@@ -9506,7 +9515,7 @@
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
       <c r="J24" s="38"/>
-      <c r="K24" s="60"/>
+      <c r="K24" s="222"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="18"/>
@@ -9532,7 +9541,7 @@
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
       <c r="J25" s="38"/>
-      <c r="K25" s="60"/>
+      <c r="K25" s="222"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="18"/>
@@ -9558,7 +9567,7 @@
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
-      <c r="K26" s="60"/>
+      <c r="K26" s="222"/>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="18"/>
@@ -9584,7 +9593,7 @@
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
-      <c r="K27" s="60"/>
+      <c r="K27" s="222"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="18"/>
@@ -9610,7 +9619,7 @@
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
-      <c r="K28" s="60"/>
+      <c r="K28" s="222"/>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="18"/>
@@ -9636,7 +9645,7 @@
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
       <c r="J29" s="38"/>
-      <c r="K29" s="60"/>
+      <c r="K29" s="222"/>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="18"/>
@@ -9662,7 +9671,7 @@
       <c r="H30" s="38"/>
       <c r="I30" s="38"/>
       <c r="J30" s="38"/>
-      <c r="K30" s="60"/>
+      <c r="K30" s="222"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="18"/>
@@ -9688,7 +9697,7 @@
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
-      <c r="K31" s="60"/>
+      <c r="K31" s="222"/>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="18"/>
@@ -9716,7 +9725,7 @@
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
       <c r="J32" s="38"/>
-      <c r="K32" s="60"/>
+      <c r="K32" s="222"/>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="18"/>
@@ -9742,7 +9751,7 @@
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
-      <c r="K33" s="60"/>
+      <c r="K33" s="222"/>
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="18"/>
@@ -9768,7 +9777,7 @@
       <c r="H34" s="38"/>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
-      <c r="K34" s="60"/>
+      <c r="K34" s="222"/>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="18"/>
@@ -9794,7 +9803,7 @@
       <c r="H35" s="38"/>
       <c r="I35" s="38"/>
       <c r="J35" s="38"/>
-      <c r="K35" s="60"/>
+      <c r="K35" s="222"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="18"/>
@@ -9818,7 +9827,7 @@
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
-      <c r="K36" s="60"/>
+      <c r="K36" s="222"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1">
       <c r="A37" s="18"/>
@@ -9842,7 +9851,7 @@
       <c r="H37" s="38"/>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
-      <c r="K37" s="60"/>
+      <c r="K37" s="222"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1">
       <c r="A38" s="18"/>
@@ -9900,8 +9909,8 @@
       <c r="J40" s="40"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" ht="55.2">
-      <c r="A41" s="182">
+    <row r="41" spans="1:14" s="1" customFormat="1" ht="57">
+      <c r="A41" s="145">
         <v>3</v>
       </c>
       <c r="B41" s="59" t="s">
@@ -9941,7 +9950,7 @@
       <c r="H42" s="38"/>
       <c r="I42" s="38"/>
       <c r="J42" s="38"/>
-      <c r="K42" s="60"/>
+      <c r="K42" s="222"/>
       <c r="N42">
         <f>5.84+1.76</f>
         <v>7.6</v>
@@ -9969,7 +9978,7 @@
       <c r="H43" s="38"/>
       <c r="I43" s="38"/>
       <c r="J43" s="38"/>
-      <c r="K43" s="60"/>
+      <c r="K43" s="222"/>
       <c r="N43">
         <f>3.87+1.86</f>
         <v>5.73</v>
@@ -9997,7 +10006,7 @@
       <c r="H44" s="38"/>
       <c r="I44" s="38"/>
       <c r="J44" s="38"/>
-      <c r="K44" s="60"/>
+      <c r="K44" s="222"/>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1">
       <c r="A45" s="18"/>
@@ -10055,7 +10064,7 @@
       <c r="J47" s="40"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:14" ht="27.6">
+    <row r="48" spans="1:14" ht="28.5">
       <c r="A48" s="18">
         <v>4</v>
       </c>
@@ -10096,7 +10105,7 @@
       <c r="H49" s="38"/>
       <c r="I49" s="38"/>
       <c r="J49" s="38"/>
-      <c r="K49" s="60"/>
+      <c r="K49" s="222"/>
       <c r="N49">
         <f>5.84+1.76</f>
         <v>7.6</v>
@@ -10158,8 +10167,8 @@
       <c r="J52" s="40"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:19" ht="27.6">
-      <c r="A53" s="181">
+    <row r="53" spans="1:19" ht="28.5">
+      <c r="A53" s="144">
         <v>5</v>
       </c>
       <c r="B53" s="59" t="s">
@@ -10196,7 +10205,7 @@
       <c r="H54" s="38"/>
       <c r="I54" s="38"/>
       <c r="J54" s="38"/>
-      <c r="K54" s="60"/>
+      <c r="K54" s="222"/>
       <c r="N54">
         <f>5.84+1.76</f>
         <v>7.6</v>
@@ -10258,7 +10267,7 @@
       <c r="J57" s="40"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:19" ht="41.4">
+    <row r="58" spans="1:19" ht="42.75">
       <c r="A58" s="18">
         <v>6</v>
       </c>
@@ -10300,7 +10309,7 @@
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
       <c r="J59" s="38"/>
-      <c r="K59" s="60"/>
+      <c r="K59" s="222"/>
       <c r="N59">
         <f>5.84+1.76</f>
         <v>7.6</v>
@@ -10362,8 +10371,8 @@
       <c r="J62" s="40"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:19" ht="30.6">
-      <c r="A63" s="181">
+    <row r="63" spans="1:19" ht="30.75">
+      <c r="A63" s="144">
         <v>7</v>
       </c>
       <c r="B63" s="86" t="s">
@@ -10451,7 +10460,7 @@
       <c r="J66" s="39"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" ht="15">
+    <row r="67" spans="1:11">
       <c r="A67" s="18">
         <v>8</v>
       </c>
@@ -10495,9 +10504,9 @@
       <c r="J68" s="39"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" s="193" customFormat="1" ht="15" customHeight="1">
+    <row r="69" spans="1:11" s="156" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="18"/>
-      <c r="B69" s="189" t="s">
+      <c r="B69" s="152" t="s">
         <v>152</v>
       </c>
       <c r="C69" s="19">
@@ -10512,18 +10521,18 @@
         <v>0.53</v>
       </c>
       <c r="F69" s="21"/>
-      <c r="G69" s="191">
+      <c r="G69" s="154">
         <f>PRODUCT(C69:F69)</f>
         <v>3.7153306918622371</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="23"/>
-      <c r="J69" s="192"/>
+      <c r="J69" s="155"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" s="193" customFormat="1" ht="15" customHeight="1">
+    <row r="70" spans="1:11" s="156" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="18"/>
-      <c r="B70" s="189" t="str">
+      <c r="B70" s="152" t="str">
         <f>B117</f>
         <v>-at entrance</v>
       </c>
@@ -10531,20 +10540,20 @@
         <f>C117</f>
         <v>1</v>
       </c>
-      <c r="D70" s="190">
+      <c r="D70" s="153">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E70" s="190">
+      <c r="E70" s="153">
         <v>0.9</v>
       </c>
-      <c r="F70" s="189"/>
-      <c r="G70" s="191">
+      <c r="F70" s="152"/>
+      <c r="G70" s="154">
         <f>PRODUCT(C70:F70)</f>
         <v>1.9800000000000002</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="23"/>
-      <c r="J70" s="192"/>
+      <c r="J70" s="155"/>
       <c r="K70" s="21"/>
     </row>
     <row r="71" spans="1:11" ht="15" customHeight="1">
@@ -10779,7 +10788,7 @@
       </c>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:20" ht="15">
+    <row r="81" spans="1:20">
       <c r="A81" s="18"/>
       <c r="B81" s="88"/>
       <c r="C81" s="19"/>
@@ -10792,7 +10801,7 @@
       <c r="J81" s="39"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:20" ht="39">
+    <row r="82" spans="1:20" ht="39.75">
       <c r="A82" s="18">
         <v>10</v>
       </c>
@@ -10843,16 +10852,16 @@
       <c r="H83" s="38"/>
       <c r="I83" s="38"/>
       <c r="J83" s="38"/>
-      <c r="K83" s="60"/>
-      <c r="N83" s="166" t="s">
+      <c r="K83" s="222"/>
+      <c r="N83" s="196" t="s">
         <v>87</v>
       </c>
-      <c r="O83" s="166"/>
-      <c r="P83" s="166"/>
-      <c r="Q83" s="166"/>
-      <c r="R83" s="166"/>
-      <c r="S83" s="166"/>
-      <c r="T83" s="166"/>
+      <c r="O83" s="196"/>
+      <c r="P83" s="196"/>
+      <c r="Q83" s="196"/>
+      <c r="R83" s="196"/>
+      <c r="S83" s="196"/>
+      <c r="T83" s="196"/>
     </row>
     <row r="84" spans="1:20" ht="15" customHeight="1">
       <c r="A84" s="18"/>
@@ -10876,7 +10885,7 @@
       <c r="H84" s="38"/>
       <c r="I84" s="38"/>
       <c r="J84" s="38"/>
-      <c r="K84" s="60"/>
+      <c r="K84" s="222"/>
       <c r="N84" s="143"/>
       <c r="O84" s="143"/>
       <c r="P84" s="143"/>
@@ -11038,7 +11047,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="20">
-        <f t="shared" ref="D91:D94" si="5">0.66-0.1</f>
+        <f t="shared" ref="D91" si="5">0.66-0.1</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="E91" s="21">
@@ -11255,184 +11264,184 @@
       <c r="K99" s="21"/>
     </row>
     <row r="100" spans="1:22" ht="30">
-      <c r="A100" s="181">
+      <c r="A100" s="144">
         <v>12</v>
       </c>
-      <c r="B100" s="194" t="s">
+      <c r="B100" s="157" t="s">
         <v>100</v>
       </c>
-      <c r="C100" s="184"/>
-      <c r="D100" s="185"/>
-      <c r="E100" s="186"/>
-      <c r="F100" s="186"/>
-      <c r="G100" s="195"/>
-      <c r="H100" s="196"/>
-      <c r="I100" s="195"/>
-      <c r="J100" s="197"/>
+      <c r="C100" s="147"/>
+      <c r="D100" s="148"/>
+      <c r="E100" s="149"/>
+      <c r="F100" s="149"/>
+      <c r="G100" s="158"/>
+      <c r="H100" s="159"/>
+      <c r="I100" s="158"/>
+      <c r="J100" s="160"/>
       <c r="K100" s="21"/>
     </row>
     <row r="101" spans="1:22" ht="15" customHeight="1">
-      <c r="A101" s="181"/>
-      <c r="B101" s="183" t="s">
+      <c r="A101" s="144"/>
+      <c r="B101" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="198">
+      <c r="C101" s="161">
         <f>2*8</f>
         <v>16</v>
       </c>
-      <c r="D101" s="199">
+      <c r="D101" s="162">
         <v>0.66</v>
       </c>
-      <c r="E101" s="199"/>
-      <c r="F101" s="199">
+      <c r="E101" s="162"/>
+      <c r="F101" s="162">
         <v>0.1</v>
       </c>
-      <c r="G101" s="187">
+      <c r="G101" s="150">
         <f>PRODUCT(C101:F101)</f>
         <v>1.056</v>
       </c>
-      <c r="H101" s="200"/>
-      <c r="I101" s="200"/>
-      <c r="J101" s="200"/>
-      <c r="K101" s="60"/>
+      <c r="H101" s="163"/>
+      <c r="I101" s="163"/>
+      <c r="J101" s="163"/>
+      <c r="K101" s="222"/>
     </row>
     <row r="102" spans="1:22" ht="15" customHeight="1">
-      <c r="A102" s="181"/>
-      <c r="B102" s="183"/>
-      <c r="C102" s="198">
+      <c r="A102" s="144"/>
+      <c r="B102" s="146"/>
+      <c r="C102" s="161">
         <f>2*8</f>
         <v>16</v>
       </c>
-      <c r="D102" s="199">
+      <c r="D102" s="162">
         <v>0.92</v>
       </c>
-      <c r="E102" s="199"/>
-      <c r="F102" s="199">
+      <c r="E102" s="162"/>
+      <c r="F102" s="162">
         <v>0.1</v>
       </c>
-      <c r="G102" s="187">
+      <c r="G102" s="150">
         <f t="shared" ref="G102:G108" si="9">PRODUCT(C102:F102)</f>
         <v>1.4720000000000002</v>
       </c>
-      <c r="H102" s="200"/>
-      <c r="I102" s="200"/>
-      <c r="J102" s="200"/>
-      <c r="K102" s="60"/>
+      <c r="H102" s="163"/>
+      <c r="I102" s="163"/>
+      <c r="J102" s="163"/>
+      <c r="K102" s="222"/>
     </row>
     <row r="103" spans="1:22" ht="15" customHeight="1">
-      <c r="A103" s="181"/>
-      <c r="B103" s="183"/>
-      <c r="C103" s="198">
+      <c r="A103" s="144"/>
+      <c r="B103" s="146"/>
+      <c r="C103" s="161">
         <f>2*1</f>
         <v>2</v>
       </c>
-      <c r="D103" s="199">
+      <c r="D103" s="162">
         <v>0.66</v>
       </c>
-      <c r="E103" s="199"/>
-      <c r="F103" s="199">
+      <c r="E103" s="162"/>
+      <c r="F103" s="162">
         <v>0.1</v>
       </c>
-      <c r="G103" s="187">
+      <c r="G103" s="150">
         <f t="shared" si="9"/>
         <v>0.13200000000000001</v>
       </c>
-      <c r="H103" s="200"/>
-      <c r="I103" s="200"/>
-      <c r="J103" s="200"/>
-      <c r="K103" s="60"/>
+      <c r="H103" s="163"/>
+      <c r="I103" s="163"/>
+      <c r="J103" s="163"/>
+      <c r="K103" s="222"/>
     </row>
     <row r="104" spans="1:22" ht="15" customHeight="1">
-      <c r="A104" s="181"/>
-      <c r="B104" s="183"/>
-      <c r="C104" s="198">
+      <c r="A104" s="144"/>
+      <c r="B104" s="146"/>
+      <c r="C104" s="161">
         <f>2*1</f>
         <v>2</v>
       </c>
-      <c r="D104" s="199">
+      <c r="D104" s="162">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E104" s="199"/>
-      <c r="F104" s="199">
+      <c r="E104" s="162"/>
+      <c r="F104" s="162">
         <v>0.1</v>
       </c>
-      <c r="G104" s="187">
+      <c r="G104" s="150">
         <f t="shared" si="9"/>
         <v>0.11399999999999999</v>
       </c>
-      <c r="H104" s="200"/>
-      <c r="I104" s="200"/>
-      <c r="J104" s="200"/>
-      <c r="K104" s="60"/>
+      <c r="H104" s="163"/>
+      <c r="I104" s="163"/>
+      <c r="J104" s="163"/>
+      <c r="K104" s="222"/>
     </row>
     <row r="105" spans="1:22" ht="15" customHeight="1">
-      <c r="A105" s="181"/>
-      <c r="B105" s="183"/>
-      <c r="C105" s="198">
+      <c r="A105" s="144"/>
+      <c r="B105" s="146"/>
+      <c r="C105" s="161">
         <f t="shared" ref="C105:C108" si="10">2*1</f>
         <v>2</v>
       </c>
-      <c r="D105" s="199">
+      <c r="D105" s="162">
         <v>1.65</v>
       </c>
-      <c r="E105" s="199"/>
-      <c r="F105" s="199">
+      <c r="E105" s="162"/>
+      <c r="F105" s="162">
         <v>0.1</v>
       </c>
-      <c r="G105" s="187">
+      <c r="G105" s="150">
         <f t="shared" si="9"/>
         <v>0.33</v>
       </c>
-      <c r="H105" s="200"/>
-      <c r="I105" s="200"/>
-      <c r="J105" s="200"/>
-      <c r="K105" s="60"/>
+      <c r="H105" s="163"/>
+      <c r="I105" s="163"/>
+      <c r="J105" s="163"/>
+      <c r="K105" s="222"/>
     </row>
     <row r="106" spans="1:22" ht="15" customHeight="1">
-      <c r="A106" s="181"/>
-      <c r="B106" s="183"/>
-      <c r="C106" s="198">
+      <c r="A106" s="144"/>
+      <c r="B106" s="146"/>
+      <c r="C106" s="161">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="D106" s="199">
+      <c r="D106" s="162">
         <v>0.84</v>
       </c>
-      <c r="E106" s="199"/>
-      <c r="F106" s="199">
+      <c r="E106" s="162"/>
+      <c r="F106" s="162">
         <v>0.1</v>
       </c>
-      <c r="G106" s="187">
+      <c r="G106" s="150">
         <f t="shared" si="9"/>
         <v>0.16800000000000001</v>
       </c>
-      <c r="H106" s="200"/>
-      <c r="I106" s="200"/>
-      <c r="J106" s="200"/>
-      <c r="K106" s="60"/>
+      <c r="H106" s="163"/>
+      <c r="I106" s="163"/>
+      <c r="J106" s="163"/>
+      <c r="K106" s="222"/>
     </row>
     <row r="107" spans="1:22" ht="15" customHeight="1">
-      <c r="A107" s="181"/>
-      <c r="B107" s="183"/>
-      <c r="C107" s="198">
+      <c r="A107" s="144"/>
+      <c r="B107" s="146"/>
+      <c r="C107" s="161">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="D107" s="199">
+      <c r="D107" s="162">
         <v>0.92</v>
       </c>
-      <c r="E107" s="199"/>
-      <c r="F107" s="199">
+      <c r="E107" s="162"/>
+      <c r="F107" s="162">
         <v>0.1</v>
       </c>
-      <c r="G107" s="187">
+      <c r="G107" s="150">
         <f t="shared" si="9"/>
         <v>0.18400000000000002</v>
       </c>
-      <c r="H107" s="200"/>
-      <c r="I107" s="200"/>
-      <c r="J107" s="200"/>
-      <c r="K107" s="60"/>
+      <c r="H107" s="163"/>
+      <c r="I107" s="163"/>
+      <c r="J107" s="163"/>
+      <c r="K107" s="222"/>
       <c r="M107" s="127"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
@@ -11445,27 +11454,27 @@
       <c r="V107" s="1"/>
     </row>
     <row r="108" spans="1:22" ht="15" customHeight="1">
-      <c r="A108" s="181"/>
-      <c r="B108" s="183"/>
-      <c r="C108" s="198">
+      <c r="A108" s="144"/>
+      <c r="B108" s="146"/>
+      <c r="C108" s="161">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="D108" s="199">
+      <c r="D108" s="162">
         <v>0.8</v>
       </c>
-      <c r="E108" s="199"/>
-      <c r="F108" s="199">
+      <c r="E108" s="162"/>
+      <c r="F108" s="162">
         <v>0.1</v>
       </c>
-      <c r="G108" s="187">
+      <c r="G108" s="150">
         <f t="shared" si="9"/>
         <v>0.16000000000000003</v>
       </c>
-      <c r="H108" s="200"/>
-      <c r="I108" s="200"/>
-      <c r="J108" s="200"/>
-      <c r="K108" s="60"/>
+      <c r="H108" s="163"/>
+      <c r="I108" s="163"/>
+      <c r="J108" s="163"/>
+      <c r="K108" s="222"/>
       <c r="M108" s="127"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
@@ -11478,26 +11487,26 @@
       <c r="V108" s="1"/>
     </row>
     <row r="109" spans="1:22" ht="15" customHeight="1">
-      <c r="A109" s="181"/>
-      <c r="B109" s="183" t="s">
+      <c r="A109" s="144"/>
+      <c r="B109" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="C109" s="198"/>
-      <c r="D109" s="199"/>
-      <c r="E109" s="199"/>
-      <c r="F109" s="199"/>
-      <c r="G109" s="201">
+      <c r="C109" s="161"/>
+      <c r="D109" s="162"/>
+      <c r="E109" s="162"/>
+      <c r="F109" s="162"/>
+      <c r="G109" s="164">
         <f>SUM(G101:G108)</f>
         <v>3.616000000000001</v>
       </c>
-      <c r="H109" s="200" t="s">
+      <c r="H109" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="I109" s="195">
+      <c r="I109" s="158">
         <f>81404.27/100</f>
         <v>814.04270000000008</v>
       </c>
-      <c r="J109" s="202">
+      <c r="J109" s="165">
         <f>G109*I109</f>
         <v>2943.578403200001</v>
       </c>
@@ -11514,18 +11523,18 @@
       <c r="V109" s="1"/>
     </row>
     <row r="110" spans="1:22" ht="15" customHeight="1">
-      <c r="A110" s="181"/>
-      <c r="B110" s="183" t="s">
+      <c r="A110" s="144"/>
+      <c r="B110" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="C110" s="198"/>
-      <c r="D110" s="199"/>
-      <c r="E110" s="199"/>
-      <c r="F110" s="199"/>
-      <c r="G110" s="187"/>
-      <c r="H110" s="200"/>
-      <c r="I110" s="200"/>
-      <c r="J110" s="202">
+      <c r="C110" s="161"/>
+      <c r="D110" s="162"/>
+      <c r="E110" s="162"/>
+      <c r="F110" s="162"/>
+      <c r="G110" s="150"/>
+      <c r="H110" s="163"/>
+      <c r="I110" s="163"/>
+      <c r="J110" s="165">
         <f>0.13*G109*36690.27/100</f>
         <v>172.47362121600003</v>
       </c>
@@ -11616,7 +11625,7 @@
       <c r="H113" s="38"/>
       <c r="I113" s="38"/>
       <c r="J113" s="38"/>
-      <c r="K113" s="60"/>
+      <c r="K113" s="222"/>
       <c r="M113" s="127"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
@@ -11651,7 +11660,7 @@
       <c r="H114" s="38"/>
       <c r="I114" s="38"/>
       <c r="J114" s="38"/>
-      <c r="K114" s="60"/>
+      <c r="K114" s="222"/>
       <c r="M114" s="127">
         <f>E113*8+E114+D115+D116</f>
         <v>10.5</v>
@@ -11689,7 +11698,7 @@
       <c r="H115" s="38"/>
       <c r="I115" s="38"/>
       <c r="J115" s="38"/>
-      <c r="K115" s="60"/>
+      <c r="K115" s="222"/>
       <c r="M115" s="127"/>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
@@ -11724,7 +11733,7 @@
       <c r="H116" s="38"/>
       <c r="I116" s="38"/>
       <c r="J116" s="38"/>
-      <c r="K116" s="60"/>
+      <c r="K116" s="222"/>
       <c r="M116" s="127"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
@@ -11762,7 +11771,7 @@
       <c r="H117" s="38"/>
       <c r="I117" s="38"/>
       <c r="J117" s="38"/>
-      <c r="K117" s="60"/>
+      <c r="K117" s="222"/>
     </row>
     <row r="118" spans="1:22" ht="15" customHeight="1">
       <c r="A118" s="18"/>
@@ -11830,7 +11839,7 @@
       <c r="U120" s="1"/>
       <c r="V120" s="1"/>
     </row>
-    <row r="121" spans="1:22" ht="30.6">
+    <row r="121" spans="1:22" ht="30.75">
       <c r="A121" s="18">
         <v>14</v>
       </c>
@@ -11982,7 +11991,7 @@
       <c r="U124" s="1"/>
       <c r="V124" s="1"/>
     </row>
-    <row r="125" spans="1:22" s="1" customFormat="1" ht="27.6">
+    <row r="125" spans="1:22" s="1" customFormat="1" ht="30">
       <c r="A125" s="120"/>
       <c r="B125" s="125" t="s">
         <v>125</v>
@@ -12061,7 +12070,7 @@
     </row>
     <row r="128" spans="1:22" s="1" customFormat="1">
       <c r="A128" s="120"/>
-      <c r="B128" s="221" t="s">
+      <c r="B128" s="184" t="s">
         <v>157</v>
       </c>
       <c r="C128" s="122">
@@ -12088,7 +12097,7 @@
     </row>
     <row r="129" spans="1:22" s="1" customFormat="1">
       <c r="A129" s="120"/>
-      <c r="B129" s="220"/>
+      <c r="B129" s="183"/>
       <c r="C129" s="122">
         <v>4</v>
       </c>
@@ -12111,7 +12120,7 @@
       <c r="J129" s="123"/>
       <c r="K129" s="121"/>
     </row>
-    <row r="130" spans="1:22" s="1" customFormat="1" ht="41.4">
+    <row r="130" spans="1:22" s="1" customFormat="1" ht="45">
       <c r="A130" s="120"/>
       <c r="B130" s="125" t="s">
         <v>126</v>
@@ -12217,7 +12226,7 @@
       <c r="J133" s="123"/>
       <c r="K133" s="121"/>
     </row>
-    <row r="134" spans="1:22" s="1" customFormat="1" ht="27.6">
+    <row r="134" spans="1:22" s="1" customFormat="1" ht="30">
       <c r="A134" s="120"/>
       <c r="B134" s="125" t="s">
         <v>132</v>
@@ -12421,7 +12430,7 @@
       <c r="H141" s="38"/>
       <c r="I141" s="38"/>
       <c r="J141" s="38"/>
-      <c r="K141" s="60"/>
+      <c r="K141" s="222"/>
       <c r="N141">
         <f>5.84+1.76</f>
         <v>7.6</v>
@@ -12449,7 +12458,7 @@
       <c r="H142" s="38"/>
       <c r="I142" s="38"/>
       <c r="J142" s="38"/>
-      <c r="K142" s="60"/>
+      <c r="K142" s="222"/>
     </row>
     <row r="143" spans="1:22" ht="15" customHeight="1">
       <c r="A143" s="18"/>
@@ -12473,7 +12482,7 @@
       <c r="H143" s="38"/>
       <c r="I143" s="38"/>
       <c r="J143" s="38"/>
-      <c r="K143" s="60"/>
+      <c r="K143" s="222"/>
     </row>
     <row r="144" spans="1:22" ht="15" customHeight="1">
       <c r="A144" s="18"/>
@@ -12497,7 +12506,7 @@
       <c r="H144" s="38"/>
       <c r="I144" s="38"/>
       <c r="J144" s="38"/>
-      <c r="K144" s="60"/>
+      <c r="K144" s="222"/>
     </row>
     <row r="145" spans="1:11" ht="15" customHeight="1">
       <c r="A145" s="18"/>
@@ -12521,7 +12530,7 @@
       <c r="H145" s="38"/>
       <c r="I145" s="38"/>
       <c r="J145" s="38"/>
-      <c r="K145" s="60"/>
+      <c r="K145" s="222"/>
     </row>
     <row r="146" spans="1:11" ht="15" customHeight="1">
       <c r="A146" s="18"/>
@@ -12545,7 +12554,7 @@
       <c r="H146" s="38"/>
       <c r="I146" s="38"/>
       <c r="J146" s="38"/>
-      <c r="K146" s="60"/>
+      <c r="K146" s="222"/>
     </row>
     <row r="147" spans="1:11" ht="15" customHeight="1">
       <c r="A147" s="18"/>
@@ -12569,7 +12578,7 @@
       <c r="H147" s="38"/>
       <c r="I147" s="38"/>
       <c r="J147" s="38"/>
-      <c r="K147" s="60"/>
+      <c r="K147" s="222"/>
     </row>
     <row r="148" spans="1:11" ht="15" customHeight="1">
       <c r="A148" s="18"/>
@@ -12593,7 +12602,7 @@
       <c r="H148" s="38"/>
       <c r="I148" s="38"/>
       <c r="J148" s="38"/>
-      <c r="K148" s="60"/>
+      <c r="K148" s="222"/>
     </row>
     <row r="149" spans="1:11" ht="15" customHeight="1">
       <c r="A149" s="18"/>
@@ -12617,7 +12626,7 @@
       <c r="H149" s="38"/>
       <c r="I149" s="38"/>
       <c r="J149" s="38"/>
-      <c r="K149" s="60"/>
+      <c r="K149" s="222"/>
     </row>
     <row r="150" spans="1:11" ht="15" customHeight="1">
       <c r="A150" s="18"/>
@@ -12641,7 +12650,7 @@
       <c r="H150" s="38"/>
       <c r="I150" s="38"/>
       <c r="J150" s="38"/>
-      <c r="K150" s="60"/>
+      <c r="K150" s="222"/>
     </row>
     <row r="151" spans="1:11" ht="15" customHeight="1">
       <c r="A151" s="18"/>
@@ -12665,7 +12674,7 @@
       <c r="H151" s="38"/>
       <c r="I151" s="38"/>
       <c r="J151" s="38"/>
-      <c r="K151" s="60"/>
+      <c r="K151" s="222"/>
     </row>
     <row r="152" spans="1:11" ht="15" customHeight="1">
       <c r="A152" s="18"/>
@@ -12689,7 +12698,7 @@
       <c r="H152" s="38"/>
       <c r="I152" s="38"/>
       <c r="J152" s="38"/>
-      <c r="K152" s="60"/>
+      <c r="K152" s="222"/>
     </row>
     <row r="153" spans="1:11" ht="15" customHeight="1">
       <c r="A153" s="18"/>
@@ -12712,7 +12721,7 @@
       <c r="H153" s="38"/>
       <c r="I153" s="38"/>
       <c r="J153" s="38"/>
-      <c r="K153" s="60"/>
+      <c r="K153" s="222"/>
     </row>
     <row r="154" spans="1:11" ht="15" customHeight="1">
       <c r="A154" s="18"/>
@@ -12738,7 +12747,7 @@
       <c r="H154" s="38"/>
       <c r="I154" s="38"/>
       <c r="J154" s="38"/>
-      <c r="K154" s="60"/>
+      <c r="K154" s="222"/>
     </row>
     <row r="155" spans="1:11" ht="15" customHeight="1">
       <c r="A155" s="18"/>
@@ -12763,13 +12772,13 @@
       <c r="H155" s="38"/>
       <c r="I155" s="38"/>
       <c r="J155" s="38"/>
-      <c r="K155" s="60"/>
+      <c r="K155" s="222"/>
     </row>
     <row r="156" spans="1:11" ht="15" customHeight="1">
       <c r="A156" s="18"/>
       <c r="B156" s="35"/>
       <c r="C156" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156" s="36">
         <f>14/3.281</f>
@@ -12782,18 +12791,18 @@
       </c>
       <c r="G156" s="37">
         <f t="shared" si="27"/>
-        <v>14.507772020725389</v>
+        <v>7.2538860103626943</v>
       </c>
       <c r="H156" s="38"/>
       <c r="I156" s="38"/>
       <c r="J156" s="38"/>
-      <c r="K156" s="60"/>
+      <c r="K156" s="222"/>
     </row>
     <row r="157" spans="1:11" ht="15" customHeight="1">
       <c r="A157" s="18"/>
       <c r="B157" s="35"/>
       <c r="C157" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157" s="36">
         <f>(22.5/3.281)</f>
@@ -12806,18 +12815,18 @@
       </c>
       <c r="G157" s="37">
         <f t="shared" si="27"/>
-        <v>17.829929899420907</v>
+        <v>8.9149649497104537</v>
       </c>
       <c r="H157" s="38"/>
       <c r="I157" s="38"/>
       <c r="J157" s="38"/>
-      <c r="K157" s="60"/>
+      <c r="K157" s="222"/>
     </row>
     <row r="158" spans="1:11" ht="15" customHeight="1">
       <c r="A158" s="18"/>
       <c r="B158" s="35"/>
       <c r="C158" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158" s="36">
         <f>(19/3.281)</f>
@@ -12830,18 +12839,18 @@
       </c>
       <c r="G158" s="37">
         <f t="shared" si="27"/>
-        <v>13.377019201462968</v>
+        <v>6.6885096007314839</v>
       </c>
       <c r="H158" s="38"/>
       <c r="I158" s="38"/>
       <c r="J158" s="38"/>
-      <c r="K158" s="60"/>
+      <c r="K158" s="222"/>
     </row>
     <row r="159" spans="1:11" ht="15" customHeight="1">
       <c r="A159" s="18"/>
       <c r="B159" s="35"/>
       <c r="C159" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159" s="36">
         <f>34.5/3.281</f>
@@ -12854,18 +12863,18 @@
       </c>
       <c r="G159" s="37">
         <f t="shared" si="27"/>
-        <v>15.24687595245352</v>
+        <v>7.6234379762267599</v>
       </c>
       <c r="H159" s="38"/>
       <c r="I159" s="38"/>
       <c r="J159" s="38"/>
-      <c r="K159" s="60"/>
+      <c r="K159" s="222"/>
     </row>
     <row r="160" spans="1:11" ht="15" customHeight="1">
       <c r="A160" s="18"/>
       <c r="B160" s="35"/>
       <c r="C160" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160" s="36">
         <f>34.75/3.281</f>
@@ -12877,18 +12886,18 @@
       </c>
       <c r="G160" s="37">
         <f t="shared" si="27"/>
-        <v>27.537336177994515</v>
+        <v>13.768668088997257</v>
       </c>
       <c r="H160" s="38"/>
       <c r="I160" s="38"/>
       <c r="J160" s="38"/>
-      <c r="K160" s="60"/>
+      <c r="K160" s="222"/>
     </row>
     <row r="161" spans="1:22" ht="15" customHeight="1">
       <c r="A161" s="18"/>
       <c r="B161" s="35"/>
       <c r="C161" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161" s="36">
         <f>3.12-0.3</f>
@@ -12900,18 +12909,18 @@
       </c>
       <c r="G161" s="37">
         <f t="shared" si="27"/>
-        <v>10.716000000000001</v>
+        <v>5.3580000000000005</v>
       </c>
       <c r="H161" s="38"/>
       <c r="I161" s="38"/>
       <c r="J161" s="38"/>
-      <c r="K161" s="60"/>
+      <c r="K161" s="222"/>
     </row>
     <row r="162" spans="1:22" ht="15" customHeight="1">
       <c r="A162" s="18"/>
       <c r="B162" s="35"/>
       <c r="C162" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162" s="36">
         <f>22.583/3.281</f>
@@ -12924,18 +12933,18 @@
       </c>
       <c r="G162" s="37">
         <f t="shared" si="27"/>
-        <v>7.8465772630295634</v>
+        <v>3.9232886315147817</v>
       </c>
       <c r="H162" s="38"/>
       <c r="I162" s="38"/>
       <c r="J162" s="38"/>
-      <c r="K162" s="60"/>
+      <c r="K162" s="222"/>
     </row>
     <row r="163" spans="1:22" ht="15" customHeight="1">
       <c r="A163" s="18"/>
       <c r="B163" s="35"/>
       <c r="C163" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163" s="36">
         <f>13/3.281</f>
@@ -12948,18 +12957,18 @@
       </c>
       <c r="G163" s="37">
         <f t="shared" si="27"/>
-        <v>4.5169155745199641</v>
+        <v>2.258457787259982</v>
       </c>
       <c r="H163" s="38"/>
       <c r="I163" s="38"/>
       <c r="J163" s="38"/>
-      <c r="K163" s="60"/>
+      <c r="K163" s="222"/>
     </row>
     <row r="164" spans="1:22" ht="15" customHeight="1">
       <c r="A164" s="18"/>
       <c r="B164" s="35"/>
       <c r="C164" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164" s="36">
         <f>22.583/3.281</f>
@@ -12971,18 +12980,18 @@
       </c>
       <c r="G164" s="37">
         <f t="shared" si="27"/>
-        <v>4.1297775068576641</v>
+        <v>2.064888753428832</v>
       </c>
       <c r="H164" s="38"/>
       <c r="I164" s="38"/>
       <c r="J164" s="38"/>
-      <c r="K164" s="60"/>
+      <c r="K164" s="222"/>
     </row>
     <row r="165" spans="1:22" ht="15" customHeight="1">
       <c r="A165" s="18"/>
       <c r="B165" s="35"/>
       <c r="C165" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165" s="36">
         <v>2.1</v>
@@ -12993,18 +13002,18 @@
       </c>
       <c r="G165" s="37">
         <f t="shared" si="27"/>
-        <v>2.4359999999999999</v>
+        <v>1.218</v>
       </c>
       <c r="H165" s="38"/>
       <c r="I165" s="38"/>
       <c r="J165" s="38"/>
-      <c r="K165" s="60"/>
+      <c r="K165" s="222"/>
     </row>
     <row r="166" spans="1:22" ht="15" customHeight="1">
       <c r="A166" s="18"/>
       <c r="B166" s="35"/>
       <c r="C166" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166" s="36">
         <v>1.5</v>
@@ -13015,12 +13024,12 @@
       </c>
       <c r="G166" s="37">
         <f t="shared" si="27"/>
-        <v>1.17</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="H166" s="38"/>
       <c r="I166" s="38"/>
       <c r="J166" s="38"/>
-      <c r="K166" s="60"/>
+      <c r="K166" s="222"/>
     </row>
     <row r="167" spans="1:22" ht="15" customHeight="1">
       <c r="A167" s="18"/>
@@ -13043,7 +13052,7 @@
       <c r="H167" s="38"/>
       <c r="I167" s="38"/>
       <c r="J167" s="38"/>
-      <c r="K167" s="60"/>
+      <c r="K167" s="222"/>
     </row>
     <row r="168" spans="1:22" ht="15" customHeight="1">
       <c r="A168" s="18"/>
@@ -13067,7 +13076,7 @@
       <c r="H168" s="38"/>
       <c r="I168" s="38"/>
       <c r="J168" s="38"/>
-      <c r="K168" s="60"/>
+      <c r="K168" s="222"/>
     </row>
     <row r="169" spans="1:22" ht="15" customHeight="1">
       <c r="A169" s="18"/>
@@ -13090,7 +13099,7 @@
       <c r="H169" s="38"/>
       <c r="I169" s="38"/>
       <c r="J169" s="38"/>
-      <c r="K169" s="60"/>
+      <c r="K169" s="222"/>
     </row>
     <row r="170" spans="1:22" ht="15" customHeight="1">
       <c r="A170" s="18"/>
@@ -13103,7 +13112,7 @@
       <c r="F170" s="36"/>
       <c r="G170" s="37">
         <f>SUM(G141:G169)</f>
-        <v>187.88588744285281</v>
+        <v>128.22878564462053</v>
       </c>
       <c r="H170" s="38" t="s">
         <v>43</v>
@@ -13113,11 +13122,11 @@
       </c>
       <c r="J170" s="38">
         <f>G170*I170</f>
-        <v>76255.366277556241</v>
-      </c>
-      <c r="K170" s="60"/>
-    </row>
-    <row r="171" spans="1:22" s="1" customFormat="1" ht="17.399999999999999">
+        <v>52042.934941725689</v>
+      </c>
+      <c r="K170" s="222"/>
+    </row>
+    <row r="171" spans="1:22" s="1" customFormat="1" ht="18">
       <c r="A171" s="18"/>
       <c r="B171" s="125" t="s">
         <v>130</v>
@@ -13131,22 +13140,22 @@
       <c r="I171" s="23"/>
       <c r="J171" s="123">
         <f>0.13*G170*11166.2/100</f>
-        <v>2727.3628152736983</v>
+        <v>1861.3767461444502</v>
       </c>
       <c r="K171" s="21"/>
-      <c r="N171" s="180" t="s">
+      <c r="N171" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="O171" s="180"/>
-      <c r="P171" s="180"/>
-      <c r="Q171" s="180"/>
-      <c r="R171" s="180"/>
-      <c r="S171" s="180"/>
-      <c r="T171" s="180"/>
+      <c r="O171" s="186"/>
+      <c r="P171" s="186"/>
+      <c r="Q171" s="186"/>
+      <c r="R171" s="186"/>
+      <c r="S171" s="186"/>
+      <c r="T171" s="186"/>
       <c r="U171"/>
       <c r="V171"/>
     </row>
-    <row r="172" spans="1:22" s="1" customFormat="1" ht="17.399999999999999">
+    <row r="172" spans="1:22" s="1" customFormat="1" ht="18">
       <c r="A172" s="18"/>
       <c r="B172" s="125"/>
       <c r="C172" s="19"/>
@@ -13158,19 +13167,19 @@
       <c r="I172" s="23"/>
       <c r="J172" s="123"/>
       <c r="K172" s="21"/>
-      <c r="N172" s="180" t="s">
+      <c r="N172" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="O172" s="180"/>
-      <c r="P172" s="180"/>
-      <c r="Q172" s="180"/>
-      <c r="R172" s="180"/>
-      <c r="S172" s="180"/>
-      <c r="T172" s="180"/>
+      <c r="O172" s="186"/>
+      <c r="P172" s="186"/>
+      <c r="Q172" s="186"/>
+      <c r="R172" s="186"/>
+      <c r="S172" s="186"/>
+      <c r="T172" s="186"/>
       <c r="U172"/>
       <c r="V172"/>
     </row>
-    <row r="173" spans="1:22" ht="30.6">
+    <row r="173" spans="1:22" ht="30.75">
       <c r="A173" s="18">
         <v>16</v>
       </c>
@@ -13200,7 +13209,7 @@
       <c r="F174" s="21"/>
       <c r="G174" s="37">
         <f>G170-G155</f>
-        <v>183.2658874428528</v>
+        <v>123.60878564462053</v>
       </c>
       <c r="H174" s="22"/>
       <c r="I174" s="23"/>
@@ -13263,7 +13272,7 @@
       <c r="J177" s="39"/>
       <c r="K177" s="21"/>
     </row>
-    <row r="178" spans="1:22" s="1" customFormat="1" ht="46.2">
+    <row r="178" spans="1:22" s="1" customFormat="1" ht="48">
       <c r="A178" s="18">
         <v>17</v>
       </c>
@@ -13272,6 +13281,8 @@
       </c>
       <c r="C178" s="140"/>
       <c r="D178" s="20"/>
+      <c r="E178" s="121"/>
+      <c r="F178" s="121"/>
       <c r="G178" s="123"/>
       <c r="H178" s="22"/>
       <c r="I178" s="23"/>
@@ -13423,365 +13434,365 @@
       <c r="J184" s="39"/>
       <c r="K184" s="21"/>
     </row>
-    <row r="185" spans="1:22" s="210" customFormat="1" ht="17.399999999999999">
-      <c r="A185" s="203">
+    <row r="185" spans="1:22" s="173" customFormat="1" ht="18">
+      <c r="A185" s="166">
         <v>18</v>
       </c>
-      <c r="B185" s="204" t="s">
+      <c r="B185" s="167" t="s">
         <v>139</v>
       </c>
-      <c r="C185" s="205"/>
-      <c r="D185" s="206"/>
-      <c r="E185" s="207"/>
-      <c r="F185" s="206" t="s">
+      <c r="C185" s="168"/>
+      <c r="D185" s="169"/>
+      <c r="E185" s="170"/>
+      <c r="F185" s="169" t="s">
         <v>163</v>
       </c>
-      <c r="G185" s="206"/>
-      <c r="H185" s="206"/>
-      <c r="I185" s="206"/>
-      <c r="J185" s="208"/>
-      <c r="K185" s="209"/>
-      <c r="M185" s="211"/>
-      <c r="N185" s="211"/>
-      <c r="O185" s="211"/>
-      <c r="P185" s="211"/>
-      <c r="Q185" s="211"/>
-      <c r="R185" s="211"/>
-      <c r="S185" s="211"/>
-      <c r="T185" s="211"/>
-      <c r="U185" s="211"/>
-      <c r="V185" s="211"/>
-    </row>
-    <row r="186" spans="1:22" s="211" customFormat="1" ht="15" customHeight="1">
-      <c r="A186" s="181"/>
-      <c r="B186" s="183" t="s">
+      <c r="G185" s="169"/>
+      <c r="H185" s="169"/>
+      <c r="I185" s="169"/>
+      <c r="J185" s="171"/>
+      <c r="K185" s="172"/>
+      <c r="M185" s="174"/>
+      <c r="N185" s="174"/>
+      <c r="O185" s="174"/>
+      <c r="P185" s="174"/>
+      <c r="Q185" s="174"/>
+      <c r="R185" s="174"/>
+      <c r="S185" s="174"/>
+      <c r="T185" s="174"/>
+      <c r="U185" s="174"/>
+      <c r="V185" s="174"/>
+    </row>
+    <row r="186" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A186" s="144"/>
+      <c r="B186" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="C186" s="198">
+      <c r="C186" s="161">
         <v>1</v>
       </c>
-      <c r="D186" s="199"/>
-      <c r="E186" s="212"/>
-      <c r="F186" s="213">
+      <c r="D186" s="162"/>
+      <c r="E186" s="175"/>
+      <c r="F186" s="176">
         <f>CONVERT(48.3735,"ft2","m2")</f>
         <v>4.49404520544</v>
       </c>
-      <c r="G186" s="214">
+      <c r="G186" s="177">
         <f>PRODUCT(C186:F186)</f>
         <v>4.49404520544</v>
       </c>
-      <c r="H186" s="200"/>
-      <c r="I186" s="200"/>
-      <c r="J186" s="200"/>
-      <c r="K186" s="186"/>
-    </row>
-    <row r="187" spans="1:22" s="211" customFormat="1" ht="15" customHeight="1">
-      <c r="A187" s="181"/>
-      <c r="B187" s="183"/>
-      <c r="C187" s="198">
+      <c r="H186" s="163"/>
+      <c r="I186" s="163"/>
+      <c r="J186" s="163"/>
+      <c r="K186" s="149"/>
+    </row>
+    <row r="187" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A187" s="144"/>
+      <c r="B187" s="146"/>
+      <c r="C187" s="161">
         <v>1</v>
       </c>
-      <c r="D187" s="199"/>
-      <c r="E187" s="212"/>
-      <c r="F187" s="213">
+      <c r="D187" s="162"/>
+      <c r="E187" s="175"/>
+      <c r="F187" s="176">
         <f>CONVERT(224.2762,"ft2","m2")</f>
         <v>20.835940779647999</v>
       </c>
-      <c r="G187" s="214">
+      <c r="G187" s="177">
         <f>PRODUCT(C187:F187)</f>
         <v>20.835940779647999</v>
       </c>
-      <c r="H187" s="200"/>
-      <c r="I187" s="200"/>
-      <c r="J187" s="200"/>
-      <c r="K187" s="186"/>
-    </row>
-    <row r="188" spans="1:22" s="211" customFormat="1" ht="15" customHeight="1">
-      <c r="A188" s="181"/>
-      <c r="B188" s="183"/>
-      <c r="C188" s="198">
+      <c r="H187" s="163"/>
+      <c r="I187" s="163"/>
+      <c r="J187" s="163"/>
+      <c r="K187" s="149"/>
+    </row>
+    <row r="188" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A188" s="144"/>
+      <c r="B188" s="146"/>
+      <c r="C188" s="161">
         <v>1</v>
       </c>
-      <c r="D188" s="199">
+      <c r="D188" s="162">
         <f>(4.1+4.4)/2</f>
         <v>4.25</v>
       </c>
-      <c r="E188" s="199">
+      <c r="E188" s="162">
         <f>2.6</f>
         <v>2.6</v>
       </c>
-      <c r="F188" s="199"/>
-      <c r="G188" s="214">
+      <c r="F188" s="162"/>
+      <c r="G188" s="177">
         <f t="shared" ref="G188:G190" si="29">PRODUCT(C188:F188)</f>
         <v>11.05</v>
       </c>
-      <c r="H188" s="200"/>
-      <c r="I188" s="200"/>
-      <c r="J188" s="200"/>
-      <c r="K188" s="186"/>
-      <c r="M188" s="215"/>
-      <c r="N188" s="215"/>
-      <c r="O188" s="215"/>
-      <c r="P188" s="215"/>
-      <c r="Q188" s="215"/>
-      <c r="R188" s="215"/>
-      <c r="S188" s="215"/>
-      <c r="T188" s="215"/>
-      <c r="U188" s="215"/>
-      <c r="V188" s="215"/>
-    </row>
-    <row r="189" spans="1:22" s="211" customFormat="1" ht="15" customHeight="1">
-      <c r="A189" s="181"/>
-      <c r="B189" s="183"/>
-      <c r="C189" s="198">
+      <c r="H188" s="163"/>
+      <c r="I188" s="163"/>
+      <c r="J188" s="163"/>
+      <c r="K188" s="149"/>
+      <c r="M188" s="178"/>
+      <c r="N188" s="178"/>
+      <c r="O188" s="178"/>
+      <c r="P188" s="178"/>
+      <c r="Q188" s="178"/>
+      <c r="R188" s="178"/>
+      <c r="S188" s="178"/>
+      <c r="T188" s="178"/>
+      <c r="U188" s="178"/>
+      <c r="V188" s="178"/>
+    </row>
+    <row r="189" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A189" s="144"/>
+      <c r="B189" s="146"/>
+      <c r="C189" s="161">
         <v>1</v>
       </c>
-      <c r="D189" s="199">
+      <c r="D189" s="162">
         <v>7</v>
       </c>
-      <c r="E189" s="199">
+      <c r="E189" s="162">
         <f>((2.5+4.75)/2)/3.281</f>
         <v>1.1048460835111247</v>
       </c>
-      <c r="F189" s="199"/>
-      <c r="G189" s="214">
+      <c r="F189" s="162"/>
+      <c r="G189" s="177">
         <f t="shared" si="29"/>
         <v>7.733922584577873</v>
       </c>
-      <c r="H189" s="200"/>
-      <c r="I189" s="200"/>
-      <c r="J189" s="200"/>
-      <c r="K189" s="186"/>
-    </row>
-    <row r="190" spans="1:22" s="211" customFormat="1" ht="15" customHeight="1">
-      <c r="A190" s="181"/>
-      <c r="B190" s="183"/>
-      <c r="C190" s="198">
+      <c r="H189" s="163"/>
+      <c r="I189" s="163"/>
+      <c r="J189" s="163"/>
+      <c r="K189" s="149"/>
+    </row>
+    <row r="190" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A190" s="144"/>
+      <c r="B190" s="146"/>
+      <c r="C190" s="161">
         <v>1</v>
       </c>
-      <c r="D190" s="199">
+      <c r="D190" s="162">
         <v>6.55</v>
       </c>
-      <c r="E190" s="199">
+      <c r="E190" s="162">
         <f>((16.17+1)/2)/3.281</f>
         <v>2.616580310880829</v>
       </c>
-      <c r="F190" s="199"/>
-      <c r="G190" s="214">
+      <c r="F190" s="162"/>
+      <c r="G190" s="177">
         <f t="shared" si="29"/>
         <v>17.138601036269428</v>
       </c>
-      <c r="H190" s="200"/>
-      <c r="I190" s="200"/>
-      <c r="J190" s="200"/>
-      <c r="K190" s="186"/>
-    </row>
-    <row r="191" spans="1:22" s="211" customFormat="1" ht="15" customHeight="1">
-      <c r="A191" s="200"/>
-      <c r="B191" s="183" t="s">
+      <c r="H190" s="163"/>
+      <c r="I190" s="163"/>
+      <c r="J190" s="163"/>
+      <c r="K190" s="149"/>
+    </row>
+    <row r="191" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A191" s="163"/>
+      <c r="B191" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="C191" s="205"/>
-      <c r="D191" s="206"/>
-      <c r="E191" s="206"/>
-      <c r="F191" s="206"/>
-      <c r="G191" s="216">
+      <c r="C191" s="168"/>
+      <c r="D191" s="169"/>
+      <c r="E191" s="169"/>
+      <c r="F191" s="169"/>
+      <c r="G191" s="179">
         <f>0*SUM(G186:G190)</f>
         <v>0</v>
       </c>
-      <c r="H191" s="216" t="s">
+      <c r="H191" s="179" t="s">
         <v>141</v>
       </c>
-      <c r="I191" s="216">
+      <c r="I191" s="179">
         <f>35*10.7639</f>
         <v>376.73649999999998</v>
       </c>
-      <c r="J191" s="208">
+      <c r="J191" s="171">
         <f>G191*I191</f>
         <v>0</v>
       </c>
-      <c r="K191" s="198"/>
-    </row>
-    <row r="192" spans="1:22" s="211" customFormat="1" ht="15" customHeight="1">
-      <c r="A192" s="200"/>
-      <c r="B192" s="183" t="s">
+      <c r="K191" s="161"/>
+    </row>
+    <row r="192" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A192" s="163"/>
+      <c r="B192" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="C192" s="205"/>
-      <c r="D192" s="206"/>
-      <c r="E192" s="206"/>
-      <c r="F192" s="206"/>
-      <c r="G192" s="206"/>
-      <c r="H192" s="206"/>
-      <c r="I192" s="206"/>
-      <c r="J192" s="202">
+      <c r="C192" s="168"/>
+      <c r="D192" s="169"/>
+      <c r="E192" s="169"/>
+      <c r="F192" s="169"/>
+      <c r="G192" s="169"/>
+      <c r="H192" s="169"/>
+      <c r="I192" s="169"/>
+      <c r="J192" s="165">
         <f>0.13*J191</f>
         <v>0</v>
       </c>
-      <c r="K192" s="198"/>
-    </row>
-    <row r="193" spans="1:22" s="211" customFormat="1" ht="15" customHeight="1">
-      <c r="A193" s="200"/>
-      <c r="B193" s="183"/>
-      <c r="C193" s="205"/>
-      <c r="D193" s="206"/>
-      <c r="E193" s="206"/>
-      <c r="F193" s="206"/>
-      <c r="G193" s="206"/>
-      <c r="H193" s="206"/>
-      <c r="I193" s="206"/>
-      <c r="J193" s="202"/>
-      <c r="K193" s="198"/>
-    </row>
-    <row r="194" spans="1:22" s="211" customFormat="1" ht="41.4">
-      <c r="A194" s="181">
+      <c r="K192" s="161"/>
+    </row>
+    <row r="193" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A193" s="163"/>
+      <c r="B193" s="146"/>
+      <c r="C193" s="168"/>
+      <c r="D193" s="169"/>
+      <c r="E193" s="169"/>
+      <c r="F193" s="169"/>
+      <c r="G193" s="169"/>
+      <c r="H193" s="169"/>
+      <c r="I193" s="169"/>
+      <c r="J193" s="165"/>
+      <c r="K193" s="161"/>
+    </row>
+    <row r="194" spans="1:22" s="174" customFormat="1" ht="42.75">
+      <c r="A194" s="144">
         <v>19</v>
       </c>
-      <c r="B194" s="217" t="s">
+      <c r="B194" s="180" t="s">
         <v>145</v>
       </c>
-      <c r="C194" s="198"/>
-      <c r="D194" s="199"/>
-      <c r="E194" s="199"/>
-      <c r="F194" s="199"/>
-      <c r="G194" s="187"/>
-      <c r="H194" s="200"/>
-      <c r="I194" s="200"/>
-      <c r="J194" s="202"/>
-      <c r="K194" s="186"/>
-      <c r="M194" s="218"/>
-      <c r="N194" s="218"/>
-      <c r="O194" s="218"/>
-      <c r="P194" s="218"/>
-      <c r="Q194" s="218"/>
-      <c r="R194" s="218"/>
-      <c r="S194" s="218"/>
-      <c r="T194" s="218"/>
-      <c r="U194" s="218"/>
-      <c r="V194" s="218"/>
-    </row>
-    <row r="195" spans="1:22" s="211" customFormat="1" ht="15" customHeight="1">
-      <c r="A195" s="200"/>
-      <c r="B195" s="183" t="s">
+      <c r="C194" s="161"/>
+      <c r="D194" s="162"/>
+      <c r="E194" s="162"/>
+      <c r="F194" s="162"/>
+      <c r="G194" s="150"/>
+      <c r="H194" s="163"/>
+      <c r="I194" s="163"/>
+      <c r="J194" s="165"/>
+      <c r="K194" s="149"/>
+      <c r="M194" s="181"/>
+      <c r="N194" s="181"/>
+      <c r="O194" s="181"/>
+      <c r="P194" s="181"/>
+      <c r="Q194" s="181"/>
+      <c r="R194" s="181"/>
+      <c r="S194" s="181"/>
+      <c r="T194" s="181"/>
+      <c r="U194" s="181"/>
+      <c r="V194" s="181"/>
+    </row>
+    <row r="195" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A195" s="163"/>
+      <c r="B195" s="146" t="s">
         <v>146</v>
       </c>
-      <c r="C195" s="184"/>
-      <c r="D195" s="206"/>
-      <c r="E195" s="206"/>
-      <c r="F195" s="206"/>
-      <c r="G195" s="206">
+      <c r="C195" s="147"/>
+      <c r="D195" s="169"/>
+      <c r="E195" s="169"/>
+      <c r="F195" s="169"/>
+      <c r="G195" s="169">
         <f>G191</f>
         <v>0</v>
       </c>
-      <c r="H195" s="206"/>
-      <c r="I195" s="206"/>
-      <c r="J195" s="202"/>
-      <c r="K195" s="198"/>
-      <c r="M195" s="218"/>
-      <c r="N195" s="218"/>
-      <c r="O195" s="218"/>
-      <c r="P195" s="218"/>
-      <c r="Q195" s="218"/>
-      <c r="R195" s="218"/>
-      <c r="S195" s="218"/>
-      <c r="T195" s="218"/>
-      <c r="U195" s="218"/>
-      <c r="V195" s="218"/>
-    </row>
-    <row r="196" spans="1:22" s="211" customFormat="1" ht="15" customHeight="1">
-      <c r="A196" s="200"/>
-      <c r="B196" s="183" t="str">
+      <c r="H195" s="169"/>
+      <c r="I195" s="169"/>
+      <c r="J195" s="165"/>
+      <c r="K195" s="161"/>
+      <c r="M195" s="181"/>
+      <c r="N195" s="181"/>
+      <c r="O195" s="181"/>
+      <c r="P195" s="181"/>
+      <c r="Q195" s="181"/>
+      <c r="R195" s="181"/>
+      <c r="S195" s="181"/>
+      <c r="T195" s="181"/>
+      <c r="U195" s="181"/>
+      <c r="V195" s="181"/>
+    </row>
+    <row r="196" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A196" s="163"/>
+      <c r="B196" s="146" t="str">
         <f>B117</f>
         <v>-at entrance</v>
       </c>
-      <c r="C196" s="184">
+      <c r="C196" s="147">
         <v>1</v>
       </c>
-      <c r="D196" s="188">
+      <c r="D196" s="151">
         <f>D117</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E196" s="188">
+      <c r="E196" s="151">
         <f>E117</f>
         <v>0.9</v>
       </c>
-      <c r="F196" s="188"/>
-      <c r="G196" s="214">
+      <c r="F196" s="151"/>
+      <c r="G196" s="177">
         <f t="shared" ref="G196" si="30">PRODUCT(C196:F196)</f>
         <v>1.9800000000000002</v>
       </c>
-      <c r="H196" s="206"/>
-      <c r="I196" s="206"/>
-      <c r="J196" s="202"/>
-      <c r="K196" s="198"/>
-      <c r="M196" s="218"/>
-      <c r="N196" s="218"/>
-      <c r="O196" s="218"/>
-      <c r="P196" s="218"/>
-      <c r="Q196" s="218"/>
-      <c r="R196" s="218"/>
-      <c r="S196" s="218"/>
-      <c r="T196" s="218"/>
-      <c r="U196" s="218"/>
-      <c r="V196" s="218"/>
-    </row>
-    <row r="197" spans="1:22" s="211" customFormat="1" ht="15" customHeight="1">
-      <c r="A197" s="200"/>
-      <c r="B197" s="183" t="s">
+      <c r="H196" s="169"/>
+      <c r="I196" s="169"/>
+      <c r="J196" s="165"/>
+      <c r="K196" s="161"/>
+      <c r="M196" s="181"/>
+      <c r="N196" s="181"/>
+      <c r="O196" s="181"/>
+      <c r="P196" s="181"/>
+      <c r="Q196" s="181"/>
+      <c r="R196" s="181"/>
+      <c r="S196" s="181"/>
+      <c r="T196" s="181"/>
+      <c r="U196" s="181"/>
+      <c r="V196" s="181"/>
+    </row>
+    <row r="197" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A197" s="163"/>
+      <c r="B197" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="C197" s="205"/>
-      <c r="D197" s="206"/>
-      <c r="E197" s="206"/>
-      <c r="F197" s="206"/>
-      <c r="G197" s="216">
+      <c r="C197" s="168"/>
+      <c r="D197" s="169"/>
+      <c r="E197" s="169"/>
+      <c r="F197" s="169"/>
+      <c r="G197" s="179">
         <f>0*SUM(G195:G196)</f>
         <v>0</v>
       </c>
-      <c r="H197" s="216" t="s">
+      <c r="H197" s="179" t="s">
         <v>141</v>
       </c>
-      <c r="I197" s="216">
+      <c r="I197" s="179">
         <v>9.1999999999999993</v>
       </c>
-      <c r="J197" s="208">
+      <c r="J197" s="171">
         <f>G197*I197</f>
         <v>0</v>
       </c>
-      <c r="K197" s="198"/>
-      <c r="M197" s="218"/>
-      <c r="N197" s="218"/>
-      <c r="O197" s="218"/>
-      <c r="P197" s="218"/>
-      <c r="Q197" s="218"/>
-      <c r="R197" s="218"/>
-      <c r="S197" s="218"/>
-      <c r="T197" s="218"/>
-      <c r="U197" s="218"/>
-      <c r="V197" s="218"/>
-    </row>
-    <row r="198" spans="1:22" s="211" customFormat="1" ht="15" customHeight="1">
-      <c r="A198" s="181"/>
-      <c r="B198" s="183"/>
-      <c r="C198" s="184"/>
-      <c r="D198" s="185"/>
-      <c r="E198" s="186"/>
-      <c r="F198" s="186"/>
-      <c r="G198" s="195"/>
-      <c r="H198" s="196"/>
-      <c r="I198" s="195"/>
-      <c r="J198" s="197"/>
-      <c r="K198" s="186"/>
-      <c r="M198" s="218"/>
-      <c r="N198" s="218"/>
-      <c r="O198" s="218"/>
-      <c r="P198" s="218"/>
-      <c r="Q198" s="218"/>
-      <c r="R198" s="218"/>
-      <c r="S198" s="218"/>
-      <c r="T198" s="218"/>
-      <c r="U198" s="218"/>
-      <c r="V198" s="218"/>
+      <c r="K197" s="161"/>
+      <c r="M197" s="181"/>
+      <c r="N197" s="181"/>
+      <c r="O197" s="181"/>
+      <c r="P197" s="181"/>
+      <c r="Q197" s="181"/>
+      <c r="R197" s="181"/>
+      <c r="S197" s="181"/>
+      <c r="T197" s="181"/>
+      <c r="U197" s="181"/>
+      <c r="V197" s="181"/>
+    </row>
+    <row r="198" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A198" s="144"/>
+      <c r="B198" s="146"/>
+      <c r="C198" s="147"/>
+      <c r="D198" s="148"/>
+      <c r="E198" s="149"/>
+      <c r="F198" s="149"/>
+      <c r="G198" s="158"/>
+      <c r="H198" s="159"/>
+      <c r="I198" s="158"/>
+      <c r="J198" s="160"/>
+      <c r="K198" s="149"/>
+      <c r="M198" s="181"/>
+      <c r="N198" s="181"/>
+      <c r="O198" s="181"/>
+      <c r="P198" s="181"/>
+      <c r="Q198" s="181"/>
+      <c r="R198" s="181"/>
+      <c r="S198" s="181"/>
+      <c r="T198" s="181"/>
+      <c r="U198" s="181"/>
+      <c r="V198" s="181"/>
     </row>
     <row r="199" spans="1:22" ht="15" customHeight="1">
       <c r="A199" s="18">
@@ -13921,7 +13932,7 @@
       <c r="I203" s="39"/>
       <c r="J203" s="39">
         <f>SUM(J10:J201)</f>
-        <v>450558.50226700824</v>
+        <v>425480.08486204845</v>
       </c>
       <c r="K203" s="34"/>
       <c r="M203" s="33"/>
@@ -13961,13 +13972,13 @@
     <row r="205" spans="1:22" s="1" customFormat="1">
       <c r="A205" s="45"/>
       <c r="B205" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C205" s="164">
+        <v>166</v>
+      </c>
+      <c r="C205" s="185">
         <f>J203</f>
-        <v>450558.50226700824</v>
-      </c>
-      <c r="D205" s="164"/>
+        <v>425480.08486204845</v>
+      </c>
+      <c r="D205" s="185"/>
       <c r="E205" s="37">
         <v>100</v>
       </c>
@@ -13993,10 +14004,10 @@
       <c r="B206" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C206" s="165">
+      <c r="C206" s="187">
         <v>500000</v>
       </c>
-      <c r="D206" s="165"/>
+      <c r="D206" s="187"/>
       <c r="E206" s="37"/>
       <c r="F206" s="44"/>
       <c r="G206" s="43"/>
@@ -14020,14 +14031,14 @@
       <c r="B207" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C207" s="165">
+      <c r="C207" s="187">
         <f>C206-C209-C210</f>
         <v>475000</v>
       </c>
-      <c r="D207" s="165"/>
+      <c r="D207" s="187"/>
       <c r="E207" s="37">
         <f>C207/C205*100</f>
-        <v>105.42471124393683</v>
+        <v>111.63859764529454</v>
       </c>
       <c r="F207" s="44"/>
       <c r="G207" s="43"/>
@@ -14051,14 +14062,14 @@
       <c r="B208" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C208" s="164">
+      <c r="C208" s="185">
         <f>C205-C207</f>
-        <v>-24441.49773299176</v>
-      </c>
-      <c r="D208" s="164"/>
+        <v>-49519.915137951553</v>
+      </c>
+      <c r="D208" s="185"/>
       <c r="E208" s="37">
         <f>100-E207</f>
-        <v>-5.4247112439368266</v>
+        <v>-11.638597645294539</v>
       </c>
       <c r="F208" s="44"/>
       <c r="G208" s="43"/>
@@ -14082,11 +14093,11 @@
       <c r="B209" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C209" s="164">
+      <c r="C209" s="185">
         <f>C206*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D209" s="164"/>
+      <c r="D209" s="185"/>
       <c r="E209" s="37">
         <v>3</v>
       </c>
@@ -14112,11 +14123,11 @@
       <c r="B210" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C210" s="164">
+      <c r="C210" s="185">
         <f>C206*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D210" s="164"/>
+      <c r="D210" s="185"/>
       <c r="E210" s="37">
         <v>2</v>
       </c>
@@ -14395,13 +14406,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="N172:T172"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="C209:D209"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="N83:T83"/>
@@ -14413,6 +14417,13 @@
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="N172:T172"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="C209:D209"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B140" r:id="rId1"/>

--- a/ofc/estimates/परोपकार भवन मर्मत/V-परोपकार भवन मर्मत.xlsx
+++ b/ofc/estimates/परोपकार भवन मर्मत/V-परोपकार भवन मर्मत.xlsx
@@ -97,7 +97,7 @@
     <definedName name="plywood4">'[1]update Rate'!$N$69</definedName>
     <definedName name="plywood6">'[1]update Rate'!$N$71</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">backyard!$A$1:$K$154</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">V!$A$1:$K$210</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">V!$A$1:$K$211</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">backyard!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">V!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
@@ -139,7 +139,7 @@
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="B156" authorId="0" shapeId="0">
+    <comment ref="B157" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G181" authorId="0" shapeId="0">
+    <comment ref="G182" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="167">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -1710,14 +1710,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1744,6 +1741,27 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1765,27 +1783,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1806,21 +1821,6 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2347,33 +2347,33 @@
       <sheetName val="PPMO_BOQ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="33">
           <cell r="B33" t="str">
             <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Manual Means ., Roadway Excavation in all types of soil as per drawing and technical specification, including removal of stumps and other deleterious matter, with all lifts and lead as per Drawing and instruction of the Engineer.</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2815,7 +2815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T211"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A104" sqref="A104:XFD104"/>
     </sheetView>
   </sheetViews>
@@ -2833,113 +2833,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="190"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="189"/>
+      <c r="K4" s="189"/>
     </row>
     <row r="5" spans="1:14" ht="18.75">
-      <c r="A5" s="191" t="s">
+      <c r="A5" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="191"/>
-      <c r="C5" s="191"/>
-      <c r="D5" s="191"/>
-      <c r="E5" s="191"/>
-      <c r="F5" s="191"/>
-      <c r="G5" s="191"/>
-      <c r="H5" s="191"/>
-      <c r="I5" s="191"/>
-      <c r="J5" s="191"/>
-      <c r="K5" s="191"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="190"/>
+      <c r="H5" s="190"/>
+      <c r="I5" s="190"/>
+      <c r="J5" s="190"/>
+      <c r="K5" s="190"/>
     </row>
     <row r="6" spans="1:14" ht="15.75">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="193" t="s">
+      <c r="H6" s="192" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="193"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="193"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="192"/>
     </row>
     <row r="7" spans="1:14" ht="15.75">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="195" t="s">
+      <c r="H7" s="194" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="195"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="194"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -4116,15 +4116,15 @@
       <c r="I60" s="38"/>
       <c r="J60" s="38"/>
       <c r="K60" s="60"/>
-      <c r="N60" s="196" t="s">
+      <c r="N60" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="O60" s="196"/>
-      <c r="P60" s="196"/>
-      <c r="Q60" s="196"/>
-      <c r="R60" s="196"/>
-      <c r="S60" s="196"/>
-      <c r="T60" s="196"/>
+      <c r="O60" s="195"/>
+      <c r="P60" s="195"/>
+      <c r="Q60" s="195"/>
+      <c r="R60" s="195"/>
+      <c r="S60" s="195"/>
+      <c r="T60" s="195"/>
     </row>
     <row r="61" spans="1:20" ht="15" customHeight="1">
       <c r="A61" s="18"/>
@@ -4421,15 +4421,15 @@
       <c r="I73" s="38"/>
       <c r="J73" s="38"/>
       <c r="K73" s="60"/>
-      <c r="N73" s="196" t="s">
+      <c r="N73" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="O73" s="196"/>
-      <c r="P73" s="196"/>
-      <c r="Q73" s="196"/>
-      <c r="R73" s="196"/>
-      <c r="S73" s="196"/>
-      <c r="T73" s="196"/>
+      <c r="O73" s="195"/>
+      <c r="P73" s="195"/>
+      <c r="Q73" s="195"/>
+      <c r="R73" s="195"/>
+      <c r="S73" s="195"/>
+      <c r="T73" s="195"/>
     </row>
     <row r="74" spans="1:20" ht="15" customHeight="1">
       <c r="A74" s="18"/>
@@ -4625,15 +4625,15 @@
       <c r="I81" s="38"/>
       <c r="J81" s="38"/>
       <c r="K81" s="60"/>
-      <c r="N81" s="196" t="s">
+      <c r="N81" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="O81" s="196"/>
-      <c r="P81" s="196"/>
-      <c r="Q81" s="196"/>
-      <c r="R81" s="196"/>
-      <c r="S81" s="196"/>
-      <c r="T81" s="196"/>
+      <c r="O81" s="195"/>
+      <c r="P81" s="195"/>
+      <c r="Q81" s="195"/>
+      <c r="R81" s="195"/>
+      <c r="S81" s="195"/>
+      <c r="T81" s="195"/>
     </row>
     <row r="82" spans="1:20" ht="15" customHeight="1">
       <c r="A82" s="18"/>
@@ -6181,11 +6181,11 @@
       <c r="B149" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C149" s="185">
+      <c r="C149" s="196">
         <f>J147</f>
         <v>564973.01951057301</v>
       </c>
-      <c r="D149" s="185"/>
+      <c r="D149" s="196"/>
       <c r="E149" s="37">
         <v>100</v>
       </c>
@@ -6201,10 +6201,10 @@
       <c r="B150" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C150" s="187">
+      <c r="C150" s="197">
         <v>500000</v>
       </c>
-      <c r="D150" s="187"/>
+      <c r="D150" s="197"/>
       <c r="E150" s="37"/>
       <c r="F150" s="44"/>
       <c r="G150" s="43"/>
@@ -6218,11 +6218,11 @@
       <c r="B151" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C151" s="187">
+      <c r="C151" s="197">
         <f>C150-C153-C154</f>
         <v>475000</v>
       </c>
-      <c r="D151" s="187"/>
+      <c r="D151" s="197"/>
       <c r="E151" s="37">
         <f>C151/C149*100</f>
         <v>84.074811291251535</v>
@@ -6239,11 +6239,11 @@
       <c r="B152" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C152" s="185">
+      <c r="C152" s="196">
         <f>C149-C151</f>
         <v>89973.019510573009</v>
       </c>
-      <c r="D152" s="185"/>
+      <c r="D152" s="196"/>
       <c r="E152" s="37">
         <f>100-E151</f>
         <v>15.925188708748465</v>
@@ -6260,11 +6260,11 @@
       <c r="B153" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C153" s="185">
+      <c r="C153" s="196">
         <f>C150*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D153" s="185"/>
+      <c r="D153" s="196"/>
       <c r="E153" s="37">
         <v>3</v>
       </c>
@@ -6280,11 +6280,11 @@
       <c r="B154" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C154" s="185">
+      <c r="C154" s="196">
         <f>C150*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D154" s="185"/>
+      <c r="D154" s="196"/>
       <c r="E154" s="37">
         <v>2</v>
       </c>
@@ -6366,6 +6366,13 @@
     <row r="211" s="33" customFormat="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="N134:T134"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
     <mergeCell ref="N133:T133"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -6379,13 +6386,6 @@
     <mergeCell ref="N60:T60"/>
     <mergeCell ref="N73:T73"/>
     <mergeCell ref="N81:T81"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="N134:T134"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B103" r:id="rId1"/>
@@ -6405,8 +6405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6425,90 +6425,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
     </row>
     <row r="2" spans="1:11" ht="25.5">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="190"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="189"/>
+      <c r="K4" s="189"/>
     </row>
     <row r="5" spans="1:11" ht="18.75">
-      <c r="A5" s="208" t="s">
+      <c r="A5" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="208"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="208"/>
-      <c r="J5" s="208"/>
-      <c r="K5" s="208"/>
+      <c r="B5" s="202"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="202"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="202"/>
+      <c r="K5" s="202"/>
     </row>
     <row r="6" spans="1:11" ht="18.75">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="204">
+      <c r="C6" s="198">
         <f>F71</f>
         <v>564973.01951057301</v>
       </c>
-      <c r="D6" s="205"/>
+      <c r="D6" s="199"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -6516,11 +6516,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="204">
+      <c r="J6" s="198">
         <f>I71</f>
-        <v>425480.08486204845</v>
-      </c>
-      <c r="K6" s="205"/>
+        <v>425635.19807122846</v>
+      </c>
+      <c r="K6" s="199"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="25" t="s">
@@ -6529,77 +6529,77 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="199"/>
-      <c r="I7" s="200" t="s">
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
+      <c r="I7" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="200"/>
-      <c r="K7" s="200"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="206"/>
     </row>
     <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="192" t="e">
+      <c r="A8" s="191" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="192"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="I8" s="201" t="s">
+      <c r="B8" s="191"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="I8" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="201"/>
-      <c r="K8" s="201"/>
+      <c r="J8" s="207"/>
+      <c r="K8" s="207"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="202" t="e">
+      <c r="A9" s="208" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="202"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
-      <c r="I9" s="201" t="s">
+      <c r="B9" s="208"/>
+      <c r="C9" s="208"/>
+      <c r="D9" s="208"/>
+      <c r="E9" s="208"/>
+      <c r="F9" s="208"/>
+      <c r="I9" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="207"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="203" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="197" t="s">
+      <c r="B11" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="197" t="s">
+      <c r="C11" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="203" t="s">
+      <c r="D11" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="203"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="203" t="s">
+      <c r="E11" s="209"/>
+      <c r="F11" s="209"/>
+      <c r="G11" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="203"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="197" t="s">
+      <c r="H11" s="209"/>
+      <c r="I11" s="209"/>
+      <c r="J11" s="203" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="198" t="s">
+      <c r="K11" s="204" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="197"/>
-      <c r="B12" s="197"/>
-      <c r="C12" s="197"/>
+      <c r="A12" s="203"/>
+      <c r="B12" s="203"/>
+      <c r="C12" s="203"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -6618,8 +6618,8 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="197"/>
-      <c r="K12" s="198"/>
+      <c r="J12" s="203"/>
+      <c r="K12" s="204"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="28.5">
       <c r="A13" s="26">
@@ -7487,20 +7487,20 @@
         <v>3351.928124006401</v>
       </c>
       <c r="G44" s="12">
-        <f>V!G109</f>
-        <v>3.616000000000001</v>
+        <f>V!G110</f>
+        <v>3.7960000000000012</v>
       </c>
       <c r="H44" s="12">
-        <f>V!I109</f>
+        <f>V!I110</f>
         <v>814.04270000000008</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" ref="I44" si="30">G44*H44</f>
-        <v>2943.578403200001</v>
+        <v>3090.1060892000014</v>
       </c>
       <c r="J44" s="27">
         <f t="shared" ref="J44:J45" si="31">I44-F44</f>
-        <v>-408.3497208064</v>
+        <v>-261.82203480639964</v>
       </c>
       <c r="K44" s="14"/>
     </row>
@@ -7520,12 +7520,12 @@
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12">
-        <f>V!J110</f>
-        <v>172.47362121600003</v>
+        <f>V!J111</f>
+        <v>181.05914439600005</v>
       </c>
       <c r="J45" s="27">
         <f t="shared" si="31"/>
-        <v>-23.926508970665651</v>
+        <v>-15.340985790665627</v>
       </c>
       <c r="K45" s="14"/>
     </row>
@@ -7568,11 +7568,11 @@
         <v>12933.23777064919</v>
       </c>
       <c r="G47" s="12">
-        <f>V!G118</f>
+        <f>V!G119</f>
         <v>0.93358000000000008</v>
       </c>
       <c r="H47" s="12">
-        <f>V!I118</f>
+        <f>V!I119</f>
         <v>13568.9</v>
       </c>
       <c r="I47" s="12">
@@ -7601,7 +7601,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12">
-        <f>V!J119</f>
+        <f>V!J120</f>
         <v>1155.9083426800003</v>
       </c>
       <c r="J48" s="27">
@@ -7649,11 +7649,11 @@
         <v>162138.9583661475</v>
       </c>
       <c r="G50" s="12">
-        <f>V!G137</f>
+        <f>V!G138</f>
         <v>345.12311167327033</v>
       </c>
       <c r="H50" s="12">
-        <f>V!I137</f>
+        <f>V!I138</f>
         <v>181.17</v>
       </c>
       <c r="I50" s="12">
@@ -7682,7 +7682,7 @@
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="12">
-        <f>V!J138</f>
+        <f>V!J139</f>
         <v>4433.1118360183154</v>
       </c>
       <c r="J51" s="27">
@@ -7730,11 +7730,11 @@
         <v>36302.759567031921</v>
       </c>
       <c r="G53" s="12">
-        <f>V!G170</f>
+        <f>V!G171</f>
         <v>128.22878564462053</v>
       </c>
       <c r="H53" s="12">
-        <f>V!I170</f>
+        <f>V!I171</f>
         <v>405.86</v>
       </c>
       <c r="I53" s="12">
@@ -7763,7 +7763,7 @@
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12">
-        <f>V!J171</f>
+        <f>V!J172</f>
         <v>1861.3767461444502</v>
       </c>
       <c r="J54" s="27">
@@ -7811,11 +7811,11 @@
         <v>22140.655708796941</v>
       </c>
       <c r="G56" s="12">
-        <f>V!G175</f>
+        <f>V!G176</f>
         <v>0</v>
       </c>
       <c r="H56" s="12">
-        <f>V!I175</f>
+        <f>V!I176</f>
         <v>251.77</v>
       </c>
       <c r="I56" s="12">
@@ -7844,7 +7844,7 @@
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12">
-        <f>V!J176</f>
+        <f>V!J177</f>
         <v>0</v>
       </c>
       <c r="J57" s="27">
@@ -7891,11 +7891,11 @@
         <v>89007.512395611091</v>
       </c>
       <c r="G59" s="12">
-        <f>V!G182</f>
+        <f>V!G183</f>
         <v>39.183602159767453</v>
       </c>
       <c r="H59" s="12">
-        <f>V!I182</f>
+        <f>V!I183</f>
         <v>2271.5500000000002</v>
       </c>
       <c r="I59" s="12">
@@ -7921,7 +7921,7 @@
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="12">
-        <f>V!J183</f>
+        <f>V!J184</f>
         <v>10298.782890060318</v>
       </c>
       <c r="J60" s="27">
@@ -7969,11 +7969,11 @@
         <v>23076.056085156444</v>
       </c>
       <c r="G62" s="12">
-        <f>V!G191</f>
+        <f>V!G192</f>
         <v>0</v>
       </c>
       <c r="H62" s="12">
-        <f>V!I191</f>
+        <f>V!I192</f>
         <v>376.73649999999998</v>
       </c>
       <c r="I62" s="12">
@@ -8002,7 +8002,7 @@
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12">
-        <f>V!J192</f>
+        <f>V!J193</f>
         <v>0</v>
       </c>
       <c r="J63" s="27">
@@ -8050,11 +8050,11 @@
         <v>581.46308837460481</v>
       </c>
       <c r="G65" s="12">
-        <f>V!G197</f>
+        <f>V!G198</f>
         <v>0</v>
       </c>
       <c r="H65" s="12">
-        <f>V!I197</f>
+        <f>V!I198</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="I65" s="12">
@@ -8106,11 +8106,11 @@
         <v>2000</v>
       </c>
       <c r="G67" s="12">
-        <f>V!G199</f>
+        <f>V!G200</f>
         <v>1</v>
       </c>
       <c r="H67" s="12">
-        <f>V!I199</f>
+        <f>V!I200</f>
         <v>2000</v>
       </c>
       <c r="I67" s="12">
@@ -8162,11 +8162,11 @@
         <v>500</v>
       </c>
       <c r="G69" s="12">
-        <f>V!G201</f>
+        <f>V!G202</f>
         <v>1</v>
       </c>
       <c r="H69" s="12">
-        <f>V!I201</f>
+        <f>V!I202</f>
         <v>500</v>
       </c>
       <c r="I69" s="12">
@@ -8208,23 +8208,16 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7">
         <f>SUM(I13:I69)</f>
-        <v>425480.08486204845</v>
+        <v>425635.19807122846</v>
       </c>
       <c r="J71" s="13">
         <f>I71-F71</f>
-        <v>-139492.93464852456</v>
+        <v>-139337.82143934455</v>
       </c>
       <c r="K71" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -8238,6 +8231,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8302,27 +8302,27 @@
       <c r="A3" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
     </row>
     <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="67"/>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="211" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
     </row>
     <row r="5" spans="1:10" ht="31.5">
       <c r="A5" s="67"/>
@@ -8350,7 +8350,7 @@
     </row>
     <row r="6" spans="1:10" ht="17.25">
       <c r="A6" s="67"/>
-      <c r="B6" s="220" t="s">
+      <c r="B6" s="212" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="68" t="s">
@@ -8373,7 +8373,7 @@
     </row>
     <row r="7" spans="1:10" ht="17.25">
       <c r="A7" s="67"/>
-      <c r="B7" s="221"/>
+      <c r="B7" s="213"/>
       <c r="C7" s="70" t="s">
         <v>62</v>
       </c>
@@ -8397,7 +8397,7 @@
     </row>
     <row r="8" spans="1:10" ht="45">
       <c r="A8" s="67"/>
-      <c r="B8" s="220" t="s">
+      <c r="B8" s="212" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="74" t="s">
@@ -8420,7 +8420,7 @@
     </row>
     <row r="9" spans="1:10" ht="17.25">
       <c r="A9" s="67"/>
-      <c r="B9" s="220"/>
+      <c r="B9" s="212"/>
       <c r="C9" s="70" t="s">
         <v>66</v>
       </c>
@@ -8441,7 +8441,7 @@
     </row>
     <row r="10" spans="1:10" ht="17.25">
       <c r="A10" s="67"/>
-      <c r="B10" s="220"/>
+      <c r="B10" s="212"/>
       <c r="C10" s="70" t="s">
         <v>68</v>
       </c>
@@ -8466,7 +8466,7 @@
     </row>
     <row r="11" spans="1:10" ht="17.25">
       <c r="A11" s="67"/>
-      <c r="B11" s="220"/>
+      <c r="B11" s="212"/>
       <c r="C11" s="70" t="s">
         <v>70</v>
       </c>
@@ -8488,7 +8488,7 @@
     </row>
     <row r="12" spans="1:10" ht="17.25">
       <c r="A12" s="67"/>
-      <c r="B12" s="220"/>
+      <c r="B12" s="212"/>
       <c r="C12" s="70" t="s">
         <v>71</v>
       </c>
@@ -8514,7 +8514,7 @@
     </row>
     <row r="13" spans="1:10" ht="17.25">
       <c r="A13" s="67"/>
-      <c r="B13" s="220"/>
+      <c r="B13" s="212"/>
       <c r="C13" s="70" t="s">
         <v>73</v>
       </c>
@@ -8635,38 +8635,38 @@
         <f>+A9+1</f>
         <v>1</v>
       </c>
-      <c r="B22" s="210"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="210"/>
-      <c r="E22" s="210"/>
-      <c r="F22" s="210"/>
-      <c r="G22" s="210"/>
-      <c r="H22" s="210"/>
+      <c r="B22" s="214"/>
+      <c r="C22" s="214"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="214"/>
     </row>
     <row r="23" spans="1:8" s="93" customFormat="1" ht="19.5">
       <c r="A23" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="210" t="s">
+      <c r="B23" s="214" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="210"/>
-      <c r="F23" s="210"/>
-      <c r="G23" s="210"/>
-      <c r="H23" s="210"/>
+      <c r="C23" s="214"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="214"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="214"/>
+      <c r="H23" s="214"/>
     </row>
     <row r="24" spans="1:8" s="93" customFormat="1" ht="15">
-      <c r="B24" s="211" t="s">
+      <c r="B24" s="216" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="211"/>
-      <c r="D24" s="211"/>
-      <c r="E24" s="211"/>
-      <c r="F24" s="211"/>
-      <c r="G24" s="211"/>
-      <c r="H24" s="211"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="216"/>
+      <c r="E24" s="216"/>
+      <c r="F24" s="216"/>
+      <c r="G24" s="216"/>
+      <c r="H24" s="216"/>
     </row>
     <row r="25" spans="1:8" s="93" customFormat="1" ht="30" customHeight="1">
       <c r="B25" s="95" t="s">
@@ -8692,7 +8692,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="93" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B26" s="212" t="s">
+      <c r="B26" s="217" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="96" t="s">
@@ -8714,7 +8714,7 @@
       <c r="H26" s="101"/>
     </row>
     <row r="27" spans="1:8" s="93" customFormat="1" ht="17.25">
-      <c r="B27" s="213"/>
+      <c r="B27" s="218"/>
       <c r="C27" s="102" t="s">
         <v>62</v>
       </c>
@@ -8737,7 +8737,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="93" customFormat="1" ht="17.25">
-      <c r="B28" s="214" t="s">
+      <c r="B28" s="219" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="98" t="s">
@@ -8759,7 +8759,7 @@
       <c r="H28" s="101"/>
     </row>
     <row r="29" spans="1:8" s="93" customFormat="1" ht="17.25">
-      <c r="B29" s="215"/>
+      <c r="B29" s="220"/>
       <c r="C29" s="102" t="s">
         <v>106</v>
       </c>
@@ -8780,7 +8780,7 @@
       <c r="H29" s="106"/>
     </row>
     <row r="30" spans="1:8" s="93" customFormat="1" ht="27.75">
-      <c r="B30" s="215"/>
+      <c r="B30" s="220"/>
       <c r="C30" s="109" t="s">
         <v>117</v>
       </c>
@@ -8801,7 +8801,7 @@
       <c r="H30" s="106"/>
     </row>
     <row r="31" spans="1:8" s="93" customFormat="1" ht="17.25">
-      <c r="B31" s="216"/>
+      <c r="B31" s="221"/>
       <c r="C31" s="104" t="s">
         <v>108</v>
       </c>
@@ -8878,16 +8878,16 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="93" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="217" t="s">
+      <c r="A36" s="222" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="217"/>
-      <c r="C36" s="217"/>
-      <c r="D36" s="217"/>
-      <c r="E36" s="217"/>
-      <c r="F36" s="217"/>
-      <c r="G36" s="217"/>
-      <c r="H36" s="217"/>
+      <c r="B36" s="222"/>
+      <c r="C36" s="222"/>
+      <c r="D36" s="222"/>
+      <c r="E36" s="222"/>
+      <c r="F36" s="222"/>
+      <c r="G36" s="222"/>
+      <c r="H36" s="222"/>
     </row>
     <row r="37" spans="1:8" s="93" customFormat="1" ht="12" customHeight="1">
       <c r="B37" s="118" t="s">
@@ -8895,16 +8895,16 @@
       </c>
     </row>
     <row r="38" spans="1:8" s="93" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="209" t="s">
+      <c r="A38" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="209"/>
-      <c r="C38" s="209"/>
-      <c r="D38" s="209"/>
-      <c r="E38" s="209"/>
-      <c r="F38" s="209"/>
-      <c r="G38" s="209"/>
-      <c r="H38" s="209"/>
+      <c r="B38" s="215"/>
+      <c r="C38" s="215"/>
+      <c r="D38" s="215"/>
+      <c r="E38" s="215"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="215"/>
+      <c r="H38" s="215"/>
     </row>
     <row r="39" spans="1:8" s="93" customFormat="1" ht="12" customHeight="1">
       <c r="B39" s="118" t="s">
@@ -8912,16 +8912,16 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="93" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="209" t="s">
+      <c r="A40" s="215" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="209"/>
-      <c r="C40" s="209"/>
-      <c r="D40" s="209"/>
-      <c r="E40" s="209"/>
-      <c r="F40" s="209"/>
-      <c r="G40" s="209"/>
-      <c r="H40" s="209"/>
+      <c r="B40" s="215"/>
+      <c r="C40" s="215"/>
+      <c r="D40" s="215"/>
+      <c r="E40" s="215"/>
+      <c r="F40" s="215"/>
+      <c r="G40" s="215"/>
+      <c r="H40" s="215"/>
     </row>
     <row r="41" spans="1:8" s="93" customFormat="1" ht="12" customHeight="1">
       <c r="B41" s="118" t="s">
@@ -8933,11 +8933,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B22:H22"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="B23:H23"/>
@@ -8945,6 +8940,11 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="A36:H36"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B22:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8953,10 +8953,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V267"/>
+  <dimension ref="A1:V268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F182" sqref="F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8973,113 +8973,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="190"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="189"/>
+      <c r="K4" s="189"/>
     </row>
     <row r="5" spans="1:14" ht="18.75">
-      <c r="A5" s="191" t="s">
+      <c r="A5" s="190" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="191"/>
-      <c r="C5" s="191"/>
-      <c r="D5" s="191"/>
-      <c r="E5" s="191"/>
-      <c r="F5" s="191"/>
-      <c r="G5" s="191"/>
-      <c r="H5" s="191"/>
-      <c r="I5" s="191"/>
-      <c r="J5" s="191"/>
-      <c r="K5" s="191"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="190"/>
+      <c r="H5" s="190"/>
+      <c r="I5" s="190"/>
+      <c r="J5" s="190"/>
+      <c r="K5" s="190"/>
     </row>
     <row r="6" spans="1:14" ht="15.75">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="193" t="s">
+      <c r="H6" s="192" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="193"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="193"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="192"/>
     </row>
     <row r="7" spans="1:14" ht="15.75">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="195" t="s">
+      <c r="H7" s="194" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="195"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="194"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -9160,7 +9160,7 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
-      <c r="K10" s="222"/>
+      <c r="K10" s="185"/>
       <c r="N10">
         <f>5.84+1.76</f>
         <v>7.6</v>
@@ -9191,7 +9191,7 @@
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
-      <c r="K11" s="222"/>
+      <c r="K11" s="185"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="18"/>
@@ -9218,7 +9218,7 @@
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
-      <c r="K12" s="222"/>
+      <c r="K12" s="185"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="18"/>
@@ -9245,7 +9245,7 @@
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
-      <c r="K13" s="222"/>
+      <c r="K13" s="185"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="18"/>
@@ -9272,7 +9272,7 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
-      <c r="K14" s="222"/>
+      <c r="K14" s="185"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="18"/>
@@ -9355,7 +9355,7 @@
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
-      <c r="K18" s="222"/>
+      <c r="K18" s="185"/>
       <c r="N18">
         <f>5.84+1.76</f>
         <v>7.6</v>
@@ -9385,7 +9385,7 @@
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="222"/>
+      <c r="K19" s="185"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="18"/>
@@ -9411,7 +9411,7 @@
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
-      <c r="K20" s="222"/>
+      <c r="K20" s="185"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="18"/>
@@ -9437,7 +9437,7 @@
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
-      <c r="K21" s="222"/>
+      <c r="K21" s="185"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1">
       <c r="A22" s="18"/>
@@ -9463,7 +9463,7 @@
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
-      <c r="K22" s="222"/>
+      <c r="K22" s="185"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="18"/>
@@ -9489,7 +9489,7 @@
       <c r="H23" s="38"/>
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
-      <c r="K23" s="222"/>
+      <c r="K23" s="185"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="18"/>
@@ -9515,7 +9515,7 @@
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
       <c r="J24" s="38"/>
-      <c r="K24" s="222"/>
+      <c r="K24" s="185"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="18"/>
@@ -9541,7 +9541,7 @@
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
       <c r="J25" s="38"/>
-      <c r="K25" s="222"/>
+      <c r="K25" s="185"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="18"/>
@@ -9567,7 +9567,7 @@
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
-      <c r="K26" s="222"/>
+      <c r="K26" s="185"/>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="18"/>
@@ -9593,7 +9593,7 @@
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
-      <c r="K27" s="222"/>
+      <c r="K27" s="185"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="18"/>
@@ -9619,7 +9619,7 @@
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
-      <c r="K28" s="222"/>
+      <c r="K28" s="185"/>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="18"/>
@@ -9645,7 +9645,7 @@
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
       <c r="J29" s="38"/>
-      <c r="K29" s="222"/>
+      <c r="K29" s="185"/>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="18"/>
@@ -9671,7 +9671,7 @@
       <c r="H30" s="38"/>
       <c r="I30" s="38"/>
       <c r="J30" s="38"/>
-      <c r="K30" s="222"/>
+      <c r="K30" s="185"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="18"/>
@@ -9697,7 +9697,7 @@
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
-      <c r="K31" s="222"/>
+      <c r="K31" s="185"/>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="18"/>
@@ -9725,7 +9725,7 @@
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
       <c r="J32" s="38"/>
-      <c r="K32" s="222"/>
+      <c r="K32" s="185"/>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="18"/>
@@ -9751,7 +9751,7 @@
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
-      <c r="K33" s="222"/>
+      <c r="K33" s="185"/>
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="18"/>
@@ -9777,7 +9777,7 @@
       <c r="H34" s="38"/>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
-      <c r="K34" s="222"/>
+      <c r="K34" s="185"/>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="18"/>
@@ -9803,7 +9803,7 @@
       <c r="H35" s="38"/>
       <c r="I35" s="38"/>
       <c r="J35" s="38"/>
-      <c r="K35" s="222"/>
+      <c r="K35" s="185"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="18"/>
@@ -9827,7 +9827,7 @@
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
-      <c r="K36" s="222"/>
+      <c r="K36" s="185"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1">
       <c r="A37" s="18"/>
@@ -9851,7 +9851,7 @@
       <c r="H37" s="38"/>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
-      <c r="K37" s="222"/>
+      <c r="K37" s="185"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1">
       <c r="A38" s="18"/>
@@ -9950,7 +9950,7 @@
       <c r="H42" s="38"/>
       <c r="I42" s="38"/>
       <c r="J42" s="38"/>
-      <c r="K42" s="222"/>
+      <c r="K42" s="185"/>
       <c r="N42">
         <f>5.84+1.76</f>
         <v>7.6</v>
@@ -9978,7 +9978,7 @@
       <c r="H43" s="38"/>
       <c r="I43" s="38"/>
       <c r="J43" s="38"/>
-      <c r="K43" s="222"/>
+      <c r="K43" s="185"/>
       <c r="N43">
         <f>3.87+1.86</f>
         <v>5.73</v>
@@ -10006,7 +10006,7 @@
       <c r="H44" s="38"/>
       <c r="I44" s="38"/>
       <c r="J44" s="38"/>
-      <c r="K44" s="222"/>
+      <c r="K44" s="185"/>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1">
       <c r="A45" s="18"/>
@@ -10105,7 +10105,7 @@
       <c r="H49" s="38"/>
       <c r="I49" s="38"/>
       <c r="J49" s="38"/>
-      <c r="K49" s="222"/>
+      <c r="K49" s="185"/>
       <c r="N49">
         <f>5.84+1.76</f>
         <v>7.6</v>
@@ -10205,7 +10205,7 @@
       <c r="H54" s="38"/>
       <c r="I54" s="38"/>
       <c r="J54" s="38"/>
-      <c r="K54" s="222"/>
+      <c r="K54" s="185"/>
       <c r="N54">
         <f>5.84+1.76</f>
         <v>7.6</v>
@@ -10309,7 +10309,7 @@
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
       <c r="J59" s="38"/>
-      <c r="K59" s="222"/>
+      <c r="K59" s="185"/>
       <c r="N59">
         <f>5.84+1.76</f>
         <v>7.6</v>
@@ -10533,11 +10533,11 @@
     <row r="70" spans="1:11" s="156" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="18"/>
       <c r="B70" s="152" t="str">
-        <f>B117</f>
+        <f>B118</f>
         <v>-at entrance</v>
       </c>
       <c r="C70" s="19">
-        <f>C117</f>
+        <f>C118</f>
         <v>1</v>
       </c>
       <c r="D70" s="153">
@@ -10852,16 +10852,16 @@
       <c r="H83" s="38"/>
       <c r="I83" s="38"/>
       <c r="J83" s="38"/>
-      <c r="K83" s="222"/>
-      <c r="N83" s="196" t="s">
+      <c r="K83" s="185"/>
+      <c r="N83" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="O83" s="196"/>
-      <c r="P83" s="196"/>
-      <c r="Q83" s="196"/>
-      <c r="R83" s="196"/>
-      <c r="S83" s="196"/>
-      <c r="T83" s="196"/>
+      <c r="O83" s="195"/>
+      <c r="P83" s="195"/>
+      <c r="Q83" s="195"/>
+      <c r="R83" s="195"/>
+      <c r="S83" s="195"/>
+      <c r="T83" s="195"/>
     </row>
     <row r="84" spans="1:20" ht="15" customHeight="1">
       <c r="A84" s="18"/>
@@ -10885,7 +10885,7 @@
       <c r="H84" s="38"/>
       <c r="I84" s="38"/>
       <c r="J84" s="38"/>
-      <c r="K84" s="222"/>
+      <c r="K84" s="185"/>
       <c r="N84" s="143"/>
       <c r="O84" s="143"/>
       <c r="P84" s="143"/>
@@ -11303,7 +11303,7 @@
       <c r="H101" s="163"/>
       <c r="I101" s="163"/>
       <c r="J101" s="163"/>
-      <c r="K101" s="222"/>
+      <c r="K101" s="185"/>
     </row>
     <row r="102" spans="1:22" ht="15" customHeight="1">
       <c r="A102" s="144"/>
@@ -11320,13 +11320,13 @@
         <v>0.1</v>
       </c>
       <c r="G102" s="150">
-        <f t="shared" ref="G102:G108" si="9">PRODUCT(C102:F102)</f>
+        <f t="shared" ref="G102:G109" si="9">PRODUCT(C102:F102)</f>
         <v>1.4720000000000002</v>
       </c>
       <c r="H102" s="163"/>
       <c r="I102" s="163"/>
       <c r="J102" s="163"/>
-      <c r="K102" s="222"/>
+      <c r="K102" s="185"/>
     </row>
     <row r="103" spans="1:22" ht="15" customHeight="1">
       <c r="A103" s="144"/>
@@ -11349,7 +11349,7 @@
       <c r="H103" s="163"/>
       <c r="I103" s="163"/>
       <c r="J103" s="163"/>
-      <c r="K103" s="222"/>
+      <c r="K103" s="185"/>
     </row>
     <row r="104" spans="1:22" ht="15" customHeight="1">
       <c r="A104" s="144"/>
@@ -11372,7 +11372,7 @@
       <c r="H104" s="163"/>
       <c r="I104" s="163"/>
       <c r="J104" s="163"/>
-      <c r="K104" s="222"/>
+      <c r="K104" s="185"/>
     </row>
     <row r="105" spans="1:22" ht="15" customHeight="1">
       <c r="A105" s="144"/>
@@ -11395,7 +11395,7 @@
       <c r="H105" s="163"/>
       <c r="I105" s="163"/>
       <c r="J105" s="163"/>
-      <c r="K105" s="222"/>
+      <c r="K105" s="185"/>
     </row>
     <row r="106" spans="1:22" ht="15" customHeight="1">
       <c r="A106" s="144"/>
@@ -11418,7 +11418,7 @@
       <c r="H106" s="163"/>
       <c r="I106" s="163"/>
       <c r="J106" s="163"/>
-      <c r="K106" s="222"/>
+      <c r="K106" s="185"/>
     </row>
     <row r="107" spans="1:22" ht="15" customHeight="1">
       <c r="A107" s="144"/>
@@ -11441,7 +11441,7 @@
       <c r="H107" s="163"/>
       <c r="I107" s="163"/>
       <c r="J107" s="163"/>
-      <c r="K107" s="222"/>
+      <c r="K107" s="185"/>
       <c r="M107" s="127"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
@@ -11474,7 +11474,7 @@
       <c r="H108" s="163"/>
       <c r="I108" s="163"/>
       <c r="J108" s="163"/>
-      <c r="K108" s="222"/>
+      <c r="K108" s="185"/>
       <c r="M108" s="127"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
@@ -11489,28 +11489,26 @@
     <row r="109" spans="1:22" ht="15" customHeight="1">
       <c r="A109" s="144"/>
       <c r="B109" s="146" t="s">
-        <v>41</v>
-      </c>
-      <c r="C109" s="161"/>
-      <c r="D109" s="162"/>
+        <v>156</v>
+      </c>
+      <c r="C109" s="161">
+        <v>2</v>
+      </c>
+      <c r="D109" s="162">
+        <v>0.9</v>
+      </c>
       <c r="E109" s="162"/>
-      <c r="F109" s="162"/>
-      <c r="G109" s="164">
-        <f>SUM(G101:G108)</f>
-        <v>3.616000000000001</v>
-      </c>
-      <c r="H109" s="163" t="s">
-        <v>43</v>
-      </c>
-      <c r="I109" s="158">
-        <f>81404.27/100</f>
-        <v>814.04270000000008</v>
-      </c>
-      <c r="J109" s="165">
-        <f>G109*I109</f>
-        <v>2943.578403200001</v>
-      </c>
-      <c r="K109" s="21"/>
+      <c r="F109" s="162">
+        <v>0.1</v>
+      </c>
+      <c r="G109" s="150">
+        <f t="shared" si="9"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="H109" s="163"/>
+      <c r="I109" s="163"/>
+      <c r="J109" s="163"/>
+      <c r="K109" s="185"/>
       <c r="M109" s="127"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
@@ -11525,18 +11523,26 @@
     <row r="110" spans="1:22" ht="15" customHeight="1">
       <c r="A110" s="144"/>
       <c r="B110" s="146" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C110" s="161"/>
       <c r="D110" s="162"/>
       <c r="E110" s="162"/>
       <c r="F110" s="162"/>
-      <c r="G110" s="150"/>
-      <c r="H110" s="163"/>
-      <c r="I110" s="163"/>
+      <c r="G110" s="164">
+        <f>SUM(G101:G109)</f>
+        <v>3.7960000000000012</v>
+      </c>
+      <c r="H110" s="163" t="s">
+        <v>43</v>
+      </c>
+      <c r="I110" s="158">
+        <f>81404.27/100</f>
+        <v>814.04270000000008</v>
+      </c>
       <c r="J110" s="165">
-        <f>0.13*G109*36690.27/100</f>
-        <v>172.47362121600003</v>
+        <f>G110*I110</f>
+        <v>3090.1060892000014</v>
       </c>
       <c r="K110" s="21"/>
       <c r="M110" s="127"/>
@@ -11551,16 +11557,21 @@
       <c r="V110" s="1"/>
     </row>
     <row r="111" spans="1:22" ht="15" customHeight="1">
-      <c r="A111" s="18"/>
-      <c r="B111" s="35"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="38"/>
-      <c r="J111" s="40"/>
+      <c r="A111" s="144"/>
+      <c r="B111" s="146" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="161"/>
+      <c r="D111" s="162"/>
+      <c r="E111" s="162"/>
+      <c r="F111" s="162"/>
+      <c r="G111" s="150"/>
+      <c r="H111" s="163"/>
+      <c r="I111" s="163"/>
+      <c r="J111" s="165">
+        <f>0.13*G110*36690.27/100</f>
+        <v>181.05914439600005</v>
+      </c>
       <c r="K111" s="21"/>
       <c r="M111" s="127"/>
       <c r="N111" s="1"/>
@@ -11573,13 +11584,9 @@
       <c r="U111" s="1"/>
       <c r="V111" s="1"/>
     </row>
-    <row r="112" spans="1:22" ht="30">
-      <c r="A112" s="18">
-        <v>13</v>
-      </c>
-      <c r="B112" s="88" t="s">
-        <v>119</v>
-      </c>
+    <row r="112" spans="1:22" ht="15" customHeight="1">
+      <c r="A112" s="18"/>
+      <c r="B112" s="35"/>
       <c r="C112" s="34"/>
       <c r="D112" s="36"/>
       <c r="E112" s="36"/>
@@ -11600,32 +11607,22 @@
       <c r="U112" s="1"/>
       <c r="V112" s="1"/>
     </row>
-    <row r="113" spans="1:22" ht="15" customHeight="1">
-      <c r="A113" s="18"/>
-      <c r="B113" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C113" s="34">
-        <v>8</v>
-      </c>
-      <c r="D113" s="36">
-        <f>D101</f>
-        <v>0.66</v>
-      </c>
-      <c r="E113" s="36">
-        <v>0.92</v>
-      </c>
-      <c r="F113" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G113" s="37">
-        <f>PRODUCT(C113:F113)</f>
-        <v>0.48576000000000008</v>
-      </c>
+    <row r="113" spans="1:22" ht="30">
+      <c r="A113" s="18">
+        <v>13</v>
+      </c>
+      <c r="B113" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" s="34"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="37"/>
       <c r="H113" s="38"/>
       <c r="I113" s="38"/>
-      <c r="J113" s="38"/>
-      <c r="K113" s="222"/>
+      <c r="J113" s="40"/>
+      <c r="K113" s="21"/>
       <c r="M113" s="127"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
@@ -11639,32 +11636,31 @@
     </row>
     <row r="114" spans="1:22" ht="15" customHeight="1">
       <c r="A114" s="18"/>
-      <c r="B114" s="35"/>
+      <c r="B114" s="35" t="s">
+        <v>120</v>
+      </c>
       <c r="C114" s="34">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D114" s="36">
-        <f t="shared" ref="D114" si="11">D103</f>
+        <f>D101</f>
         <v>0.66</v>
       </c>
       <c r="E114" s="36">
-        <v>0.56999999999999995</v>
+        <v>0.92</v>
       </c>
       <c r="F114" s="36">
         <v>0.1</v>
       </c>
       <c r="G114" s="37">
-        <f t="shared" ref="G114:G116" si="12">PRODUCT(C114:F114)</f>
-        <v>3.7620000000000001E-2</v>
+        <f>PRODUCT(C114:F114)</f>
+        <v>0.48576000000000008</v>
       </c>
       <c r="H114" s="38"/>
       <c r="I114" s="38"/>
       <c r="J114" s="38"/>
-      <c r="K114" s="222"/>
-      <c r="M114" s="127">
-        <f>E113*8+E114+D115+D116</f>
-        <v>10.5</v>
-      </c>
+      <c r="K114" s="185"/>
+      <c r="M114" s="127"/>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
@@ -11682,24 +11678,27 @@
         <v>1</v>
       </c>
       <c r="D115" s="36">
-        <f t="shared" ref="D115" si="13">D105</f>
-        <v>1.65</v>
+        <f t="shared" ref="D115" si="11">D103</f>
+        <v>0.66</v>
       </c>
       <c r="E115" s="36">
-        <v>0.84</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F115" s="36">
         <v>0.1</v>
       </c>
       <c r="G115" s="37">
-        <f t="shared" si="12"/>
-        <v>0.1386</v>
+        <f t="shared" ref="G115:G117" si="12">PRODUCT(C115:F115)</f>
+        <v>3.7620000000000001E-2</v>
       </c>
       <c r="H115" s="38"/>
       <c r="I115" s="38"/>
       <c r="J115" s="38"/>
-      <c r="K115" s="222"/>
-      <c r="M115" s="127"/>
+      <c r="K115" s="185"/>
+      <c r="M115" s="127">
+        <f>E114*8+E115+D116+D117</f>
+        <v>10.5</v>
+      </c>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
@@ -11717,23 +11716,23 @@
         <v>1</v>
       </c>
       <c r="D116" s="36">
-        <f t="shared" ref="D116" si="14">D107</f>
-        <v>0.92</v>
+        <f t="shared" ref="D116" si="13">D105</f>
+        <v>1.65</v>
       </c>
       <c r="E116" s="36">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="F116" s="36">
         <v>0.1</v>
       </c>
       <c r="G116" s="37">
         <f t="shared" si="12"/>
-        <v>7.3600000000000013E-2</v>
+        <v>0.1386</v>
       </c>
       <c r="H116" s="38"/>
       <c r="I116" s="38"/>
       <c r="J116" s="38"/>
-      <c r="K116" s="222"/>
+      <c r="K116" s="185"/>
       <c r="M116" s="127"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
@@ -11747,78 +11746,97 @@
     </row>
     <row r="117" spans="1:22" ht="15" customHeight="1">
       <c r="A117" s="18"/>
-      <c r="B117" s="35" t="s">
-        <v>156</v>
-      </c>
+      <c r="B117" s="35"/>
       <c r="C117" s="34">
         <v>1</v>
       </c>
       <c r="D117" s="36">
-        <f>D70</f>
-        <v>2.2000000000000002</v>
+        <f t="shared" ref="D117" si="14">D107</f>
+        <v>0.92</v>
       </c>
       <c r="E117" s="36">
-        <f>E70</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F117" s="36">
         <v>0.1</v>
       </c>
       <c r="G117" s="37">
-        <f t="shared" ref="G117" si="15">PRODUCT(C117:F117)</f>
-        <v>0.19800000000000004</v>
+        <f t="shared" si="12"/>
+        <v>7.3600000000000013E-2</v>
       </c>
       <c r="H117" s="38"/>
       <c r="I117" s="38"/>
       <c r="J117" s="38"/>
-      <c r="K117" s="222"/>
+      <c r="K117" s="185"/>
+      <c r="M117" s="127"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
     </row>
     <row r="118" spans="1:22" ht="15" customHeight="1">
       <c r="A118" s="18"/>
       <c r="B118" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C118" s="34"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="36"/>
-      <c r="G118" s="32">
-        <f>SUM(G113:G117)</f>
-        <v>0.93358000000000008</v>
-      </c>
-      <c r="H118" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="I118" s="23">
-        <v>13568.9</v>
-      </c>
-      <c r="J118" s="40">
-        <f>G118*I118</f>
-        <v>12667.653662000001</v>
-      </c>
-      <c r="K118" s="21"/>
+        <v>156</v>
+      </c>
+      <c r="C118" s="34">
+        <v>1</v>
+      </c>
+      <c r="D118" s="36">
+        <f>D70</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E118" s="36">
+        <f>E70</f>
+        <v>0.9</v>
+      </c>
+      <c r="F118" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G118" s="37">
+        <f t="shared" ref="G118" si="15">PRODUCT(C118:F118)</f>
+        <v>0.19800000000000004</v>
+      </c>
+      <c r="H118" s="38"/>
+      <c r="I118" s="38"/>
+      <c r="J118" s="38"/>
+      <c r="K118" s="185"/>
     </row>
     <row r="119" spans="1:22" ht="15" customHeight="1">
       <c r="A119" s="18"/>
       <c r="B119" s="35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C119" s="34"/>
       <c r="D119" s="36"/>
       <c r="E119" s="36"/>
       <c r="F119" s="36"/>
-      <c r="G119" s="37"/>
-      <c r="H119" s="38"/>
-      <c r="I119" s="38"/>
+      <c r="G119" s="32">
+        <f>SUM(G114:G118)</f>
+        <v>0.93358000000000008</v>
+      </c>
+      <c r="H119" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I119" s="23">
+        <v>13568.9</v>
+      </c>
       <c r="J119" s="40">
-        <f>0.13*G118*9524.2</f>
-        <v>1155.9083426800003</v>
+        <f>G119*I119</f>
+        <v>12667.653662000001</v>
       </c>
       <c r="K119" s="21"/>
     </row>
     <row r="120" spans="1:22" ht="15" customHeight="1">
       <c r="A120" s="18"/>
-      <c r="B120" s="35"/>
+      <c r="B120" s="35" t="s">
+        <v>40</v>
+      </c>
       <c r="C120" s="34"/>
       <c r="D120" s="36"/>
       <c r="E120" s="36"/>
@@ -11826,44 +11844,23 @@
       <c r="G120" s="37"/>
       <c r="H120" s="38"/>
       <c r="I120" s="38"/>
-      <c r="J120" s="40"/>
+      <c r="J120" s="40">
+        <f>0.13*G119*9524.2</f>
+        <v>1155.9083426800003</v>
+      </c>
       <c r="K120" s="21"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
-      <c r="R120" s="1"/>
-      <c r="S120" s="1"/>
-      <c r="T120" s="1"/>
-      <c r="U120" s="1"/>
-      <c r="V120" s="1"/>
-    </row>
-    <row r="121" spans="1:22" ht="30.75">
-      <c r="A121" s="18">
-        <v>14</v>
-      </c>
-      <c r="B121" s="119" t="s">
-        <v>121</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D121" s="89" t="s">
-        <v>94</v>
-      </c>
-      <c r="E121" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="F121" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="G121" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="H121" s="22"/>
-      <c r="I121" s="23"/>
-      <c r="J121" s="39"/>
+    </row>
+    <row r="121" spans="1:22" ht="15" customHeight="1">
+      <c r="A121" s="18"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="36"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="38"/>
+      <c r="I121" s="38"/>
+      <c r="J121" s="40"/>
       <c r="K121" s="21"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
@@ -11876,34 +11873,32 @@
       <c r="U121" s="1"/>
       <c r="V121" s="1"/>
     </row>
-    <row r="122" spans="1:22">
-      <c r="A122" s="120"/>
-      <c r="B122" s="124" t="s">
-        <v>123</v>
-      </c>
-      <c r="C122" s="122">
-        <f>0*6</f>
-        <v>0</v>
-      </c>
-      <c r="D122" s="12">
-        <f>(2.5+2+2.5)/12/3.281</f>
-        <v>0.17779132378339937</v>
-      </c>
-      <c r="E122" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="F122" s="21">
-        <f>PRODUCT(C122:E122)</f>
-        <v>0</v>
-      </c>
-      <c r="G122" s="91">
-        <f>F122</f>
-        <v>0</v>
-      </c>
-      <c r="H122" s="120"/>
-      <c r="I122" s="123"/>
-      <c r="J122" s="123"/>
-      <c r="K122" s="121"/>
+    <row r="122" spans="1:22" ht="30.75">
+      <c r="A122" s="18">
+        <v>14</v>
+      </c>
+      <c r="B122" s="119" t="s">
+        <v>121</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="E122" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="F122" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="G122" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="H122" s="22"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="39"/>
+      <c r="K122" s="21"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
@@ -11917,14 +11912,16 @@
     </row>
     <row r="123" spans="1:22">
       <c r="A123" s="120"/>
-      <c r="B123" s="124"/>
+      <c r="B123" s="124" t="s">
+        <v>123</v>
+      </c>
       <c r="C123" s="122">
-        <f>0*2</f>
+        <f>0*6</f>
         <v>0</v>
       </c>
       <c r="D123" s="12">
-        <f>1.6+5.6</f>
-        <v>7.1999999999999993</v>
+        <f>(2.5+2+2.5)/12/3.281</f>
+        <v>0.17779132378339937</v>
       </c>
       <c r="E123" s="12">
         <v>0.8</v>
@@ -11954,16 +11951,14 @@
     </row>
     <row r="124" spans="1:22">
       <c r="A124" s="120"/>
-      <c r="B124" s="124" t="s">
-        <v>134</v>
-      </c>
+      <c r="B124" s="124"/>
       <c r="C124" s="122">
-        <f>0*TRUNC(D135/0.1,0)</f>
+        <f>0*2</f>
         <v>0</v>
       </c>
       <c r="D124" s="12">
-        <f>0.15</f>
-        <v>0.15</v>
+        <f>1.6+5.6</f>
+        <v>7.1999999999999993</v>
       </c>
       <c r="E124" s="12">
         <v>0.8</v>
@@ -11991,52 +11986,66 @@
       <c r="U124" s="1"/>
       <c r="V124" s="1"/>
     </row>
-    <row r="125" spans="1:22" s="1" customFormat="1" ht="30">
+    <row r="125" spans="1:22">
       <c r="A125" s="120"/>
-      <c r="B125" s="125" t="s">
-        <v>125</v>
+      <c r="B125" s="124" t="s">
+        <v>134</v>
       </c>
       <c r="C125" s="122">
-        <v>4</v>
+        <f>0*TRUNC(D136/0.1,0)</f>
+        <v>0</v>
       </c>
       <c r="D125" s="12">
-        <v>2.64</v>
+        <f>0.15</f>
+        <v>0.15</v>
       </c>
       <c r="E125" s="12">
-        <v>2.72</v>
-      </c>
-      <c r="F125" s="12">
-        <f t="shared" ref="F125:F136" si="16">PRODUCT(C125:E125)</f>
-        <v>28.723200000000002</v>
-      </c>
-      <c r="G125" s="126">
-        <f t="shared" ref="G125:G136" si="17">F125</f>
-        <v>28.723200000000002</v>
-      </c>
-      <c r="H125" s="123"/>
+        <v>0.8</v>
+      </c>
+      <c r="F125" s="21">
+        <f>PRODUCT(C125:E125)</f>
+        <v>0</v>
+      </c>
+      <c r="G125" s="91">
+        <f>F125</f>
+        <v>0</v>
+      </c>
+      <c r="H125" s="120"/>
       <c r="I125" s="123"/>
       <c r="J125" s="123"/>
       <c r="K125" s="121"/>
-    </row>
-    <row r="126" spans="1:22" s="1" customFormat="1">
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+      <c r="U125" s="1"/>
+      <c r="V125" s="1"/>
+    </row>
+    <row r="126" spans="1:22" s="1" customFormat="1" ht="30">
       <c r="A126" s="120"/>
-      <c r="B126" s="125"/>
+      <c r="B126" s="125" t="s">
+        <v>125</v>
+      </c>
       <c r="C126" s="122">
         <v>4</v>
       </c>
       <c r="D126" s="12">
-        <v>0.45</v>
+        <v>2.64</v>
       </c>
       <c r="E126" s="12">
-        <v>3.72</v>
+        <v>2.72</v>
       </c>
       <c r="F126" s="12">
-        <f t="shared" ref="F126:F127" si="18">PRODUCT(C126:E126)</f>
-        <v>6.6960000000000006</v>
+        <f t="shared" ref="F126:F137" si="16">PRODUCT(C126:E126)</f>
+        <v>28.723200000000002</v>
       </c>
       <c r="G126" s="126">
-        <f t="shared" ref="G126:G127" si="19">F126</f>
-        <v>6.6960000000000006</v>
+        <f t="shared" ref="G126:G137" si="17">F126</f>
+        <v>28.723200000000002</v>
       </c>
       <c r="H126" s="123"/>
       <c r="I126" s="123"/>
@@ -12047,21 +12056,21 @@
       <c r="A127" s="120"/>
       <c r="B127" s="125"/>
       <c r="C127" s="122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D127" s="12">
-        <v>2.2999999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="E127" s="12">
-        <v>4.72</v>
+        <v>3.72</v>
       </c>
       <c r="F127" s="12">
-        <f t="shared" si="18"/>
-        <v>21.711999999999996</v>
+        <f t="shared" ref="F127:F128" si="18">PRODUCT(C127:E127)</f>
+        <v>6.6960000000000006</v>
       </c>
       <c r="G127" s="126">
-        <f t="shared" si="19"/>
-        <v>21.711999999999996</v>
+        <f t="shared" ref="G127:G128" si="19">F127</f>
+        <v>6.6960000000000006</v>
       </c>
       <c r="H127" s="123"/>
       <c r="I127" s="123"/>
@@ -12070,25 +12079,23 @@
     </row>
     <row r="128" spans="1:22" s="1" customFormat="1">
       <c r="A128" s="120"/>
-      <c r="B128" s="184" t="s">
-        <v>157</v>
-      </c>
+      <c r="B128" s="125"/>
       <c r="C128" s="122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D128" s="12">
-        <v>1.75</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E128" s="12">
-        <v>2.72</v>
+        <v>4.72</v>
       </c>
       <c r="F128" s="12">
-        <f t="shared" si="16"/>
-        <v>19.040000000000003</v>
+        <f t="shared" si="18"/>
+        <v>21.711999999999996</v>
       </c>
       <c r="G128" s="126">
-        <f t="shared" si="17"/>
-        <v>19.040000000000003</v>
+        <f t="shared" si="19"/>
+        <v>21.711999999999996</v>
       </c>
       <c r="H128" s="123"/>
       <c r="I128" s="123"/>
@@ -12097,77 +12104,78 @@
     </row>
     <row r="129" spans="1:22" s="1" customFormat="1">
       <c r="A129" s="120"/>
-      <c r="B129" s="183"/>
+      <c r="B129" s="184" t="s">
+        <v>157</v>
+      </c>
       <c r="C129" s="122">
         <v>4</v>
       </c>
       <c r="D129" s="12">
-        <v>1.39</v>
+        <v>1.75</v>
       </c>
       <c r="E129" s="12">
         <v>2.72</v>
       </c>
       <c r="F129" s="12">
-        <f t="shared" ref="F129" si="20">PRODUCT(C129:E129)</f>
-        <v>15.123200000000001</v>
+        <f t="shared" si="16"/>
+        <v>19.040000000000003</v>
       </c>
       <c r="G129" s="126">
-        <f t="shared" ref="G129" si="21">F129</f>
-        <v>15.123200000000001</v>
+        <f t="shared" si="17"/>
+        <v>19.040000000000003</v>
       </c>
       <c r="H129" s="123"/>
       <c r="I129" s="123"/>
       <c r="J129" s="123"/>
       <c r="K129" s="121"/>
     </row>
-    <row r="130" spans="1:22" s="1" customFormat="1" ht="45">
+    <row r="130" spans="1:22" s="1" customFormat="1">
       <c r="A130" s="120"/>
-      <c r="B130" s="125" t="s">
-        <v>126</v>
-      </c>
+      <c r="B130" s="183"/>
       <c r="C130" s="122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D130" s="12">
-        <f>43.75/3.281</f>
-        <v>13.334349283754952</v>
+        <v>1.39</v>
       </c>
       <c r="E130" s="12">
-        <v>3.87</v>
+        <v>2.72</v>
       </c>
       <c r="F130" s="12">
-        <f t="shared" si="16"/>
-        <v>51.603931728131663</v>
+        <f t="shared" ref="F130" si="20">PRODUCT(C130:E130)</f>
+        <v>15.123200000000001</v>
       </c>
       <c r="G130" s="126">
-        <f t="shared" si="17"/>
-        <v>51.603931728131663</v>
+        <f t="shared" ref="G130" si="21">F130</f>
+        <v>15.123200000000001</v>
       </c>
       <c r="H130" s="123"/>
       <c r="I130" s="123"/>
       <c r="J130" s="123"/>
       <c r="K130" s="121"/>
     </row>
-    <row r="131" spans="1:22" s="1" customFormat="1">
+    <row r="131" spans="1:22" s="1" customFormat="1" ht="45">
       <c r="A131" s="120"/>
-      <c r="B131" s="125"/>
+      <c r="B131" s="125" t="s">
+        <v>126</v>
+      </c>
       <c r="C131" s="122">
         <v>1</v>
       </c>
       <c r="D131" s="12">
-        <f>43.75/3.281-3.4</f>
-        <v>9.9343492837549512</v>
+        <f>43.75/3.281</f>
+        <v>13.334349283754952</v>
       </c>
       <c r="E131" s="12">
         <v>3.87</v>
       </c>
       <c r="F131" s="12">
-        <f t="shared" ref="F131:F132" si="22">PRODUCT(C131:E131)</f>
-        <v>38.445931728131661</v>
+        <f t="shared" si="16"/>
+        <v>51.603931728131663</v>
       </c>
       <c r="G131" s="126">
-        <f t="shared" ref="G131:G132" si="23">F131</f>
-        <v>38.445931728131661</v>
+        <f t="shared" si="17"/>
+        <v>51.603931728131663</v>
       </c>
       <c r="H131" s="123"/>
       <c r="I131" s="123"/>
@@ -12181,19 +12189,19 @@
         <v>1</v>
       </c>
       <c r="D132" s="12">
-        <f>(D130+D131)/2</f>
-        <v>11.63434928375495</v>
+        <f>43.75/3.281-3.4</f>
+        <v>9.9343492837549512</v>
       </c>
       <c r="E132" s="12">
         <v>3.87</v>
       </c>
       <c r="F132" s="12">
-        <f t="shared" si="22"/>
-        <v>45.024931728131662</v>
+        <f t="shared" ref="F132:F133" si="22">PRODUCT(C132:E132)</f>
+        <v>38.445931728131661</v>
       </c>
       <c r="G132" s="126">
-        <f t="shared" si="23"/>
-        <v>45.024931728131662</v>
+        <f t="shared" ref="G132:G133" si="23">F132</f>
+        <v>38.445931728131661</v>
       </c>
       <c r="H132" s="123"/>
       <c r="I132" s="123"/>
@@ -12204,69 +12212,66 @@
       <c r="A133" s="120"/>
       <c r="B133" s="125"/>
       <c r="C133" s="122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D133" s="12">
-        <f>25.17/3.281</f>
-        <v>7.6714416336482785</v>
+        <f>(D131+D132)/2</f>
+        <v>11.63434928375495</v>
       </c>
       <c r="E133" s="12">
         <v>3.87</v>
       </c>
       <c r="F133" s="12">
-        <f t="shared" ref="F133" si="24">PRODUCT(C133:E133)</f>
-        <v>118.75391648887535</v>
+        <f t="shared" si="22"/>
+        <v>45.024931728131662</v>
       </c>
       <c r="G133" s="126">
-        <f t="shared" ref="G133" si="25">F133</f>
-        <v>118.75391648887535</v>
+        <f t="shared" si="23"/>
+        <v>45.024931728131662</v>
       </c>
       <c r="H133" s="123"/>
       <c r="I133" s="123"/>
       <c r="J133" s="123"/>
       <c r="K133" s="121"/>
     </row>
-    <row r="134" spans="1:22" s="1" customFormat="1" ht="30">
+    <row r="134" spans="1:22" s="1" customFormat="1">
       <c r="A134" s="120"/>
-      <c r="B134" s="125" t="s">
-        <v>132</v>
-      </c>
+      <c r="B134" s="125"/>
       <c r="C134" s="122">
-        <f>0*1</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D134" s="12">
-        <f>1.6+5.6</f>
-        <v>7.1999999999999993</v>
+        <f>25.17/3.281</f>
+        <v>7.6714416336482785</v>
       </c>
       <c r="E134" s="12">
-        <v>1.52</v>
+        <v>3.87</v>
       </c>
       <c r="F134" s="12">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" ref="F134" si="24">PRODUCT(C134:E134)</f>
+        <v>118.75391648887535</v>
       </c>
       <c r="G134" s="126">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" ref="G134" si="25">F134</f>
+        <v>118.75391648887535</v>
       </c>
       <c r="H134" s="123"/>
       <c r="I134" s="123"/>
       <c r="J134" s="123"/>
       <c r="K134" s="121"/>
     </row>
-    <row r="135" spans="1:22" s="1" customFormat="1">
+    <row r="135" spans="1:22" s="1" customFormat="1" ht="30">
       <c r="A135" s="120"/>
       <c r="B135" s="125" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C135" s="122">
-        <f>0*2</f>
+        <f>0*1</f>
         <v>0</v>
       </c>
       <c r="D135" s="12">
-        <f>5.6+5.92+2.83+1.2+0.85+5.2+6.9+5.8+4.3+6.3+1.5+1.8</f>
-        <v>48.199999999999989</v>
+        <f>1.6+5.6</f>
+        <v>7.1999999999999993</v>
       </c>
       <c r="E135" s="12">
         <v>1.52</v>
@@ -12287,18 +12292,18 @@
     <row r="136" spans="1:22" s="1" customFormat="1">
       <c r="A136" s="120"/>
       <c r="B136" s="125" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C136" s="122">
-        <f>C124</f>
+        <f>0*2</f>
         <v>0</v>
       </c>
       <c r="D136" s="12">
-        <f>2.5/3.281</f>
-        <v>0.76196281621456874</v>
+        <f>5.6+5.92+2.83+1.2+0.85+5.2+6.9+5.8+4.3+6.3+1.5+1.8</f>
+        <v>48.199999999999989</v>
       </c>
       <c r="E136" s="12">
-        <v>1.1299999999999999</v>
+        <v>1.52</v>
       </c>
       <c r="F136" s="12">
         <f t="shared" si="16"/>
@@ -12313,62 +12318,75 @@
       <c r="J136" s="123"/>
       <c r="K136" s="121"/>
     </row>
-    <row r="137" spans="1:22" ht="15" customHeight="1">
-      <c r="A137" s="18"/>
-      <c r="B137" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C137" s="19"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="21"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="23">
-        <f>SUM(G122:G136)</f>
-        <v>345.12311167327033</v>
-      </c>
-      <c r="H137" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="I137" s="23">
-        <v>181.17</v>
-      </c>
-      <c r="J137" s="39">
-        <f>G137*I137</f>
-        <v>62525.954141846378</v>
-      </c>
-      <c r="K137" s="21"/>
-      <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
-      <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
-      <c r="R137" s="1"/>
-      <c r="S137" s="1"/>
-      <c r="T137" s="1"/>
-      <c r="U137" s="1"/>
-      <c r="V137" s="1"/>
+    <row r="137" spans="1:22" s="1" customFormat="1">
+      <c r="A137" s="120"/>
+      <c r="B137" s="125" t="s">
+        <v>135</v>
+      </c>
+      <c r="C137" s="122">
+        <f>C125</f>
+        <v>0</v>
+      </c>
+      <c r="D137" s="12">
+        <f>2.5/3.281</f>
+        <v>0.76196281621456874</v>
+      </c>
+      <c r="E137" s="12">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F137" s="12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G137" s="126">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H137" s="123"/>
+      <c r="I137" s="123"/>
+      <c r="J137" s="123"/>
+      <c r="K137" s="121"/>
     </row>
     <row r="138" spans="1:22" ht="15" customHeight="1">
       <c r="A138" s="18"/>
       <c r="B138" s="35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C138" s="19"/>
       <c r="D138" s="20"/>
       <c r="E138" s="21"/>
       <c r="F138" s="21"/>
-      <c r="G138" s="23"/>
-      <c r="H138" s="22"/>
-      <c r="I138" s="23"/>
+      <c r="G138" s="23">
+        <f>SUM(G123:G137)</f>
+        <v>345.12311167327033</v>
+      </c>
+      <c r="H138" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I138" s="23">
+        <v>181.17</v>
+      </c>
       <c r="J138" s="39">
-        <f>0.13*G137*1871.42/18.94</f>
-        <v>4433.1118360183154</v>
+        <f>G138*I138</f>
+        <v>62525.954141846378</v>
       </c>
       <c r="K138" s="21"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="1"/>
+      <c r="U138" s="1"/>
+      <c r="V138" s="1"/>
     </row>
     <row r="139" spans="1:22" ht="15" customHeight="1">
       <c r="A139" s="18"/>
-      <c r="B139" s="35"/>
+      <c r="B139" s="35" t="s">
+        <v>40</v>
+      </c>
       <c r="C139" s="19"/>
       <c r="D139" s="20"/>
       <c r="E139" s="21"/>
@@ -12376,89 +12394,81 @@
       <c r="G139" s="23"/>
       <c r="H139" s="22"/>
       <c r="I139" s="23"/>
-      <c r="J139" s="39"/>
+      <c r="J139" s="39">
+        <f>0.13*G138*1871.42/18.94</f>
+        <v>4433.1118360183154</v>
+      </c>
       <c r="K139" s="21"/>
     </row>
-    <row r="140" spans="1:22" s="1" customFormat="1" ht="30">
-      <c r="A140" s="18">
-        <v>15</v>
-      </c>
-      <c r="B140" s="128" t="s">
-        <v>127</v>
-      </c>
+    <row r="140" spans="1:22" ht="15" customHeight="1">
+      <c r="A140" s="18"/>
+      <c r="B140" s="35"/>
       <c r="C140" s="19"/>
       <c r="D140" s="20"/>
       <c r="E140" s="21"/>
       <c r="F140" s="21"/>
-      <c r="G140" s="123"/>
+      <c r="G140" s="23"/>
       <c r="H140" s="22"/>
       <c r="I140" s="23"/>
-      <c r="J140" s="123"/>
+      <c r="J140" s="39"/>
       <c r="K140" s="21"/>
-      <c r="M140"/>
-      <c r="N140"/>
-      <c r="O140"/>
-      <c r="P140"/>
-      <c r="Q140"/>
-      <c r="R140"/>
-      <c r="S140"/>
-      <c r="T140"/>
-      <c r="U140"/>
-      <c r="V140"/>
-    </row>
-    <row r="141" spans="1:22" ht="15" customHeight="1">
-      <c r="A141" s="18"/>
-      <c r="B141" s="35" t="s">
+    </row>
+    <row r="141" spans="1:22" s="1" customFormat="1" ht="30">
+      <c r="A141" s="18">
+        <v>15</v>
+      </c>
+      <c r="B141" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="C141" s="19"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="123"/>
+      <c r="H141" s="22"/>
+      <c r="I141" s="23"/>
+      <c r="J141" s="123"/>
+      <c r="K141" s="21"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+      <c r="Q141"/>
+      <c r="R141"/>
+      <c r="S141"/>
+      <c r="T141"/>
+      <c r="U141"/>
+      <c r="V141"/>
+    </row>
+    <row r="142" spans="1:22" ht="15" customHeight="1">
+      <c r="A142" s="18"/>
+      <c r="B142" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C141" s="34">
+      <c r="C142" s="34">
         <v>2</v>
       </c>
-      <c r="D141" s="36">
+      <c r="D142" s="36">
         <f>7.667/3.281</f>
         <v>2.3367875647668392</v>
       </c>
-      <c r="E141" s="36"/>
-      <c r="F141" s="36">
+      <c r="E142" s="36"/>
+      <c r="F142" s="36">
         <f>1.04</f>
         <v>1.04</v>
       </c>
-      <c r="G141" s="37">
-        <f>PRODUCT(C141:F141)</f>
+      <c r="G142" s="37">
+        <f>PRODUCT(C142:F142)</f>
         <v>4.8605181347150257</v>
-      </c>
-      <c r="H141" s="38"/>
-      <c r="I141" s="38"/>
-      <c r="J141" s="38"/>
-      <c r="K141" s="222"/>
-      <c r="N141">
-        <f>5.84+1.76</f>
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:22" ht="15" customHeight="1">
-      <c r="A142" s="18"/>
-      <c r="B142" s="35"/>
-      <c r="C142" s="34">
-        <v>2</v>
-      </c>
-      <c r="D142" s="36">
-        <f>(10.5-0.75)/3.281</f>
-        <v>2.9716549832368178</v>
-      </c>
-      <c r="E142" s="36"/>
-      <c r="F142" s="36">
-        <f>((0.85+0.59)/2)</f>
-        <v>0.72</v>
-      </c>
-      <c r="G142" s="37">
-        <f t="shared" ref="G142:G153" si="26">PRODUCT(C142:F142)</f>
-        <v>4.279183175861017</v>
       </c>
       <c r="H142" s="38"/>
       <c r="I142" s="38"/>
       <c r="J142" s="38"/>
-      <c r="K142" s="222"/>
+      <c r="K142" s="185"/>
+      <c r="N142">
+        <f>5.84+1.76</f>
+        <v>7.6</v>
+      </c>
     </row>
     <row r="143" spans="1:22" ht="15" customHeight="1">
       <c r="A143" s="18"/>
@@ -12467,22 +12477,22 @@
         <v>2</v>
       </c>
       <c r="D143" s="36">
-        <f>1.4-0.3-0.23</f>
-        <v>0.86999999999999988</v>
+        <f>(10.5-0.75)/3.281</f>
+        <v>2.9716549832368178</v>
       </c>
       <c r="E143" s="36"/>
       <c r="F143" s="36">
-        <f>0.18</f>
-        <v>0.18</v>
+        <f>((0.85+0.59)/2)</f>
+        <v>0.72</v>
       </c>
       <c r="G143" s="37">
-        <f t="shared" si="26"/>
-        <v>0.31319999999999992</v>
+        <f t="shared" ref="G143:G154" si="26">PRODUCT(C143:F143)</f>
+        <v>4.279183175861017</v>
       </c>
       <c r="H143" s="38"/>
       <c r="I143" s="38"/>
       <c r="J143" s="38"/>
-      <c r="K143" s="222"/>
+      <c r="K143" s="185"/>
     </row>
     <row r="144" spans="1:22" ht="15" customHeight="1">
       <c r="A144" s="18"/>
@@ -12491,22 +12501,22 @@
         <v>2</v>
       </c>
       <c r="D144" s="36">
-        <f>13.833/3.281</f>
-        <v>4.2160926546784516</v>
+        <f>1.4-0.3-0.23</f>
+        <v>0.86999999999999988</v>
       </c>
       <c r="E144" s="36"/>
       <c r="F144" s="36">
-        <f>(0.5+0.85)/2</f>
-        <v>0.67500000000000004</v>
+        <f>0.18</f>
+        <v>0.18</v>
       </c>
       <c r="G144" s="37">
         <f t="shared" si="26"/>
-        <v>5.6917250838159097</v>
+        <v>0.31319999999999992</v>
       </c>
       <c r="H144" s="38"/>
       <c r="I144" s="38"/>
       <c r="J144" s="38"/>
-      <c r="K144" s="222"/>
+      <c r="K144" s="185"/>
     </row>
     <row r="145" spans="1:11" ht="15" customHeight="1">
       <c r="A145" s="18"/>
@@ -12515,22 +12525,22 @@
         <v>2</v>
       </c>
       <c r="D145" s="36">
-        <f>9.42/3.281</f>
-        <v>2.8710758914964947</v>
+        <f>13.833/3.281</f>
+        <v>4.2160926546784516</v>
       </c>
       <c r="E145" s="36"/>
       <c r="F145" s="36">
-        <f>(((0.5-0.08)+0.39)/2)</f>
-        <v>0.40500000000000003</v>
+        <f>(0.5+0.85)/2</f>
+        <v>0.67500000000000004</v>
       </c>
       <c r="G145" s="37">
         <f t="shared" si="26"/>
-        <v>2.325571472112161</v>
+        <v>5.6917250838159097</v>
       </c>
       <c r="H145" s="38"/>
       <c r="I145" s="38"/>
       <c r="J145" s="38"/>
-      <c r="K145" s="222"/>
+      <c r="K145" s="185"/>
     </row>
     <row r="146" spans="1:11" ht="15" customHeight="1">
       <c r="A146" s="18"/>
@@ -12539,22 +12549,22 @@
         <v>2</v>
       </c>
       <c r="D146" s="36">
-        <f>1.35-0.31</f>
-        <v>1.04</v>
+        <f>9.42/3.281</f>
+        <v>2.8710758914964947</v>
       </c>
       <c r="E146" s="36"/>
       <c r="F146" s="36">
-        <f>((0.08+0.1)/2)</f>
-        <v>0.09</v>
+        <f>(((0.5-0.08)+0.39)/2)</f>
+        <v>0.40500000000000003</v>
       </c>
       <c r="G146" s="37">
         <f t="shared" si="26"/>
-        <v>0.18720000000000001</v>
+        <v>2.325571472112161</v>
       </c>
       <c r="H146" s="38"/>
       <c r="I146" s="38"/>
       <c r="J146" s="38"/>
-      <c r="K146" s="222"/>
+      <c r="K146" s="185"/>
     </row>
     <row r="147" spans="1:11" ht="15" customHeight="1">
       <c r="A147" s="18"/>
@@ -12563,22 +12573,22 @@
         <v>2</v>
       </c>
       <c r="D147" s="36">
-        <f>9.42/3.281</f>
-        <v>2.8710758914964947</v>
+        <f>1.35-0.31</f>
+        <v>1.04</v>
       </c>
       <c r="E147" s="36"/>
       <c r="F147" s="36">
-        <f>((0.4+0.39)/2)</f>
-        <v>0.39500000000000002</v>
+        <f>((0.08+0.1)/2)</f>
+        <v>0.09</v>
       </c>
       <c r="G147" s="37">
         <f t="shared" si="26"/>
-        <v>2.2681499542822308</v>
+        <v>0.18720000000000001</v>
       </c>
       <c r="H147" s="38"/>
       <c r="I147" s="38"/>
       <c r="J147" s="38"/>
-      <c r="K147" s="222"/>
+      <c r="K147" s="185"/>
     </row>
     <row r="148" spans="1:11" ht="15" customHeight="1">
       <c r="A148" s="18"/>
@@ -12587,22 +12597,22 @@
         <v>2</v>
       </c>
       <c r="D148" s="36">
-        <f>1.39-0.3</f>
-        <v>1.0899999999999999</v>
+        <f>9.42/3.281</f>
+        <v>2.8710758914964947</v>
       </c>
       <c r="E148" s="36"/>
       <c r="F148" s="36">
-        <f>((0.12+0.1)/2)</f>
-        <v>0.11</v>
+        <f>((0.4+0.39)/2)</f>
+        <v>0.39500000000000002</v>
       </c>
       <c r="G148" s="37">
         <f t="shared" si="26"/>
-        <v>0.23979999999999996</v>
+        <v>2.2681499542822308</v>
       </c>
       <c r="H148" s="38"/>
       <c r="I148" s="38"/>
       <c r="J148" s="38"/>
-      <c r="K148" s="222"/>
+      <c r="K148" s="185"/>
     </row>
     <row r="149" spans="1:11" ht="15" customHeight="1">
       <c r="A149" s="18"/>
@@ -12611,22 +12621,22 @@
         <v>2</v>
       </c>
       <c r="D149" s="36">
-        <f>7.333/3.281</f>
-        <v>2.234989332520573</v>
+        <f>1.39-0.3</f>
+        <v>1.0899999999999999</v>
       </c>
       <c r="E149" s="36"/>
       <c r="F149" s="36">
-        <f>((1.02+1.08)/2)</f>
-        <v>1.05</v>
+        <f>((0.12+0.1)/2)</f>
+        <v>0.11</v>
       </c>
       <c r="G149" s="37">
         <f t="shared" si="26"/>
-        <v>4.6934775982932031</v>
+        <v>0.23979999999999996</v>
       </c>
       <c r="H149" s="38"/>
       <c r="I149" s="38"/>
       <c r="J149" s="38"/>
-      <c r="K149" s="222"/>
+      <c r="K149" s="185"/>
     </row>
     <row r="150" spans="1:11" ht="15" customHeight="1">
       <c r="A150" s="18"/>
@@ -12635,22 +12645,22 @@
         <v>2</v>
       </c>
       <c r="D150" s="36">
-        <f>4.27-0.3</f>
-        <v>3.9699999999999998</v>
+        <f>7.333/3.281</f>
+        <v>2.234989332520573</v>
       </c>
       <c r="E150" s="36"/>
       <c r="F150" s="36">
-        <f>((0.5+0.85)/2)</f>
-        <v>0.67500000000000004</v>
+        <f>((1.02+1.08)/2)</f>
+        <v>1.05</v>
       </c>
       <c r="G150" s="37">
         <f t="shared" si="26"/>
-        <v>5.3594999999999997</v>
+        <v>4.6934775982932031</v>
       </c>
       <c r="H150" s="38"/>
       <c r="I150" s="38"/>
       <c r="J150" s="38"/>
-      <c r="K150" s="222"/>
+      <c r="K150" s="185"/>
     </row>
     <row r="151" spans="1:11" ht="15" customHeight="1">
       <c r="A151" s="18"/>
@@ -12659,22 +12669,22 @@
         <v>2</v>
       </c>
       <c r="D151" s="36">
-        <f>9.5/3.281</f>
-        <v>2.895458701615361</v>
+        <f>4.27-0.3</f>
+        <v>3.9699999999999998</v>
       </c>
       <c r="E151" s="36"/>
       <c r="F151" s="36">
-        <f>((0.32+0.38)/2)</f>
-        <v>0.35</v>
+        <f>((0.5+0.85)/2)</f>
+        <v>0.67500000000000004</v>
       </c>
       <c r="G151" s="37">
         <f t="shared" si="26"/>
-        <v>2.0268210911307527</v>
+        <v>5.3594999999999997</v>
       </c>
       <c r="H151" s="38"/>
       <c r="I151" s="38"/>
       <c r="J151" s="38"/>
-      <c r="K151" s="222"/>
+      <c r="K151" s="185"/>
     </row>
     <row r="152" spans="1:11" ht="15" customHeight="1">
       <c r="A152" s="18"/>
@@ -12683,22 +12693,22 @@
         <v>2</v>
       </c>
       <c r="D152" s="36">
-        <f>5.333/3.281</f>
-        <v>1.6254190795489181</v>
+        <f>9.5/3.281</f>
+        <v>2.895458701615361</v>
       </c>
       <c r="E152" s="36"/>
       <c r="F152" s="36">
-        <f>((0.12+0.1)/2)</f>
-        <v>0.11</v>
+        <f>((0.32+0.38)/2)</f>
+        <v>0.35</v>
       </c>
       <c r="G152" s="37">
         <f t="shared" si="26"/>
-        <v>0.35759219750076199</v>
+        <v>2.0268210911307527</v>
       </c>
       <c r="H152" s="38"/>
       <c r="I152" s="38"/>
       <c r="J152" s="38"/>
-      <c r="K152" s="222"/>
+      <c r="K152" s="185"/>
     </row>
     <row r="153" spans="1:11" ht="15" customHeight="1">
       <c r="A153" s="18"/>
@@ -12707,96 +12717,96 @@
         <v>2</v>
       </c>
       <c r="D153" s="36">
-        <f>25.17/3.281</f>
-        <v>7.6714416336482785</v>
+        <f>5.333/3.281</f>
+        <v>1.6254190795489181</v>
       </c>
       <c r="E153" s="36"/>
       <c r="F153" s="36">
-        <v>0.5</v>
+        <f>((0.12+0.1)/2)</f>
+        <v>0.11</v>
       </c>
       <c r="G153" s="37">
         <f t="shared" si="26"/>
-        <v>7.6714416336482785</v>
+        <v>0.35759219750076199</v>
       </c>
       <c r="H153" s="38"/>
       <c r="I153" s="38"/>
       <c r="J153" s="38"/>
-      <c r="K153" s="222"/>
+      <c r="K153" s="185"/>
     </row>
     <row r="154" spans="1:11" ht="15" customHeight="1">
       <c r="A154" s="18"/>
-      <c r="B154" s="125" t="s">
-        <v>152</v>
-      </c>
+      <c r="B154" s="35"/>
       <c r="C154" s="34">
         <v>2</v>
       </c>
       <c r="D154" s="36">
-        <f>23.333/3.281</f>
-        <v>7.1115513562938117</v>
+        <f>25.17/3.281</f>
+        <v>7.6714416336482785</v>
       </c>
       <c r="E154" s="36"/>
       <c r="F154" s="36">
-        <f>0.2</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G154" s="37">
-        <f>PRODUCT(C154:F154)</f>
-        <v>2.8446205425175251</v>
+        <f t="shared" si="26"/>
+        <v>7.6714416336482785</v>
       </c>
       <c r="H154" s="38"/>
       <c r="I154" s="38"/>
       <c r="J154" s="38"/>
-      <c r="K154" s="222"/>
+      <c r="K154" s="185"/>
     </row>
     <row r="155" spans="1:11" ht="15" customHeight="1">
       <c r="A155" s="18"/>
-      <c r="B155" s="35" t="s">
-        <v>164</v>
+      <c r="B155" s="125" t="s">
+        <v>152</v>
       </c>
       <c r="C155" s="34">
         <v>2</v>
       </c>
       <c r="D155" s="36">
-        <f>2.1</f>
-        <v>2.1</v>
+        <f>23.333/3.281</f>
+        <v>7.1115513562938117</v>
       </c>
       <c r="E155" s="36"/>
       <c r="F155" s="36">
-        <v>1.1000000000000001</v>
+        <f>0.2</f>
+        <v>0.2</v>
       </c>
       <c r="G155" s="37">
-        <f t="shared" ref="G155:G169" si="27">PRODUCT(C155:F155)</f>
-        <v>4.620000000000001</v>
+        <f>PRODUCT(C155:F155)</f>
+        <v>2.8446205425175251</v>
       </c>
       <c r="H155" s="38"/>
       <c r="I155" s="38"/>
       <c r="J155" s="38"/>
-      <c r="K155" s="222"/>
+      <c r="K155" s="185"/>
     </row>
     <row r="156" spans="1:11" ht="15" customHeight="1">
       <c r="A156" s="18"/>
-      <c r="B156" s="35"/>
+      <c r="B156" s="35" t="s">
+        <v>164</v>
+      </c>
       <c r="C156" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156" s="36">
-        <f>14/3.281</f>
-        <v>4.2669917708015843</v>
+        <f>2.1</f>
+        <v>2.1</v>
       </c>
       <c r="E156" s="36"/>
       <c r="F156" s="36">
-        <f>(1.85+1.55)/2</f>
-        <v>1.7000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G156" s="37">
-        <f t="shared" si="27"/>
-        <v>7.2538860103626943</v>
+        <f t="shared" ref="G156:G170" si="27">PRODUCT(C156:F156)</f>
+        <v>4.620000000000001</v>
       </c>
       <c r="H156" s="38"/>
       <c r="I156" s="38"/>
       <c r="J156" s="38"/>
-      <c r="K156" s="222"/>
+      <c r="K156" s="185"/>
     </row>
     <row r="157" spans="1:11" ht="15" customHeight="1">
       <c r="A157" s="18"/>
@@ -12805,22 +12815,22 @@
         <v>1</v>
       </c>
       <c r="D157" s="36">
-        <f>(22.5/3.281)</f>
-        <v>6.8576653459311183</v>
+        <f>14/3.281</f>
+        <v>4.2669917708015843</v>
       </c>
       <c r="E157" s="36"/>
       <c r="F157" s="36">
-        <f>(1.55+1.05)/2</f>
-        <v>1.3</v>
+        <f>(1.85+1.55)/2</f>
+        <v>1.7000000000000002</v>
       </c>
       <c r="G157" s="37">
         <f t="shared" si="27"/>
-        <v>8.9149649497104537</v>
+        <v>7.2538860103626943</v>
       </c>
       <c r="H157" s="38"/>
       <c r="I157" s="38"/>
       <c r="J157" s="38"/>
-      <c r="K157" s="222"/>
+      <c r="K157" s="185"/>
     </row>
     <row r="158" spans="1:11" ht="15" customHeight="1">
       <c r="A158" s="18"/>
@@ -12829,22 +12839,22 @@
         <v>1</v>
       </c>
       <c r="D158" s="36">
-        <f>(19/3.281)</f>
-        <v>5.790917403230722</v>
+        <f>(22.5/3.281)</f>
+        <v>6.8576653459311183</v>
       </c>
       <c r="E158" s="36"/>
       <c r="F158" s="36">
-        <f>(1.36+0.95)/2</f>
-        <v>1.155</v>
+        <f>(1.55+1.05)/2</f>
+        <v>1.3</v>
       </c>
       <c r="G158" s="37">
         <f t="shared" si="27"/>
-        <v>6.6885096007314839</v>
+        <v>8.9149649497104537</v>
       </c>
       <c r="H158" s="38"/>
       <c r="I158" s="38"/>
       <c r="J158" s="38"/>
-      <c r="K158" s="222"/>
+      <c r="K158" s="185"/>
     </row>
     <row r="159" spans="1:11" ht="15" customHeight="1">
       <c r="A159" s="18"/>
@@ -12853,22 +12863,22 @@
         <v>1</v>
       </c>
       <c r="D159" s="36">
-        <f>34.5/3.281</f>
-        <v>10.515086863761049</v>
+        <f>(19/3.281)</f>
+        <v>5.790917403230722</v>
       </c>
       <c r="E159" s="36"/>
       <c r="F159" s="36">
-        <f>(0.5+0.95)/2</f>
-        <v>0.72499999999999998</v>
+        <f>(1.36+0.95)/2</f>
+        <v>1.155</v>
       </c>
       <c r="G159" s="37">
         <f t="shared" si="27"/>
-        <v>7.6234379762267599</v>
+        <v>6.6885096007314839</v>
       </c>
       <c r="H159" s="38"/>
       <c r="I159" s="38"/>
       <c r="J159" s="38"/>
-      <c r="K159" s="222"/>
+      <c r="K159" s="185"/>
     </row>
     <row r="160" spans="1:11" ht="15" customHeight="1">
       <c r="A160" s="18"/>
@@ -12877,21 +12887,22 @@
         <v>1</v>
       </c>
       <c r="D160" s="36">
-        <f>34.75/3.281</f>
-        <v>10.591283145382505</v>
+        <f>34.5/3.281</f>
+        <v>10.515086863761049</v>
       </c>
       <c r="E160" s="36"/>
       <c r="F160" s="36">
-        <v>1.3</v>
+        <f>(0.5+0.95)/2</f>
+        <v>0.72499999999999998</v>
       </c>
       <c r="G160" s="37">
         <f t="shared" si="27"/>
-        <v>13.768668088997257</v>
+        <v>7.6234379762267599</v>
       </c>
       <c r="H160" s="38"/>
       <c r="I160" s="38"/>
       <c r="J160" s="38"/>
-      <c r="K160" s="222"/>
+      <c r="K160" s="185"/>
     </row>
     <row r="161" spans="1:22" ht="15" customHeight="1">
       <c r="A161" s="18"/>
@@ -12900,21 +12911,21 @@
         <v>1</v>
       </c>
       <c r="D161" s="36">
-        <f>3.12-0.3</f>
-        <v>2.8200000000000003</v>
+        <f>34.75/3.281</f>
+        <v>10.591283145382505</v>
       </c>
       <c r="E161" s="36"/>
       <c r="F161" s="36">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="G161" s="37">
         <f t="shared" si="27"/>
-        <v>5.3580000000000005</v>
+        <v>13.768668088997257</v>
       </c>
       <c r="H161" s="38"/>
       <c r="I161" s="38"/>
       <c r="J161" s="38"/>
-      <c r="K161" s="222"/>
+      <c r="K161" s="185"/>
     </row>
     <row r="162" spans="1:22" ht="15" customHeight="1">
       <c r="A162" s="18"/>
@@ -12923,22 +12934,21 @@
         <v>1</v>
       </c>
       <c r="D162" s="36">
-        <f>22.583/3.281</f>
-        <v>6.882962511429441</v>
+        <f>3.12-0.3</f>
+        <v>2.8200000000000003</v>
       </c>
       <c r="E162" s="36"/>
       <c r="F162" s="36">
-        <f>0.23+0.34</f>
-        <v>0.57000000000000006</v>
+        <v>1.9</v>
       </c>
       <c r="G162" s="37">
         <f t="shared" si="27"/>
-        <v>3.9232886315147817</v>
+        <v>5.3580000000000005</v>
       </c>
       <c r="H162" s="38"/>
       <c r="I162" s="38"/>
       <c r="J162" s="38"/>
-      <c r="K162" s="222"/>
+      <c r="K162" s="185"/>
     </row>
     <row r="163" spans="1:22" ht="15" customHeight="1">
       <c r="A163" s="18"/>
@@ -12947,8 +12957,8 @@
         <v>1</v>
       </c>
       <c r="D163" s="36">
-        <f>13/3.281</f>
-        <v>3.9622066443157573</v>
+        <f>22.583/3.281</f>
+        <v>6.882962511429441</v>
       </c>
       <c r="E163" s="36"/>
       <c r="F163" s="36">
@@ -12957,12 +12967,12 @@
       </c>
       <c r="G163" s="37">
         <f t="shared" si="27"/>
-        <v>2.258457787259982</v>
+        <v>3.9232886315147817</v>
       </c>
       <c r="H163" s="38"/>
       <c r="I163" s="38"/>
       <c r="J163" s="38"/>
-      <c r="K163" s="222"/>
+      <c r="K163" s="185"/>
     </row>
     <row r="164" spans="1:22" ht="15" customHeight="1">
       <c r="A164" s="18"/>
@@ -12971,21 +12981,22 @@
         <v>1</v>
       </c>
       <c r="D164" s="36">
-        <f>22.583/3.281</f>
-        <v>6.882962511429441</v>
+        <f>13/3.281</f>
+        <v>3.9622066443157573</v>
       </c>
       <c r="E164" s="36"/>
       <c r="F164" s="36">
-        <v>0.3</v>
+        <f>0.23+0.34</f>
+        <v>0.57000000000000006</v>
       </c>
       <c r="G164" s="37">
         <f t="shared" si="27"/>
-        <v>2.064888753428832</v>
+        <v>2.258457787259982</v>
       </c>
       <c r="H164" s="38"/>
       <c r="I164" s="38"/>
       <c r="J164" s="38"/>
-      <c r="K164" s="222"/>
+      <c r="K164" s="185"/>
     </row>
     <row r="165" spans="1:22" ht="15" customHeight="1">
       <c r="A165" s="18"/>
@@ -12994,20 +13005,21 @@
         <v>1</v>
       </c>
       <c r="D165" s="36">
-        <v>2.1</v>
+        <f>22.583/3.281</f>
+        <v>6.882962511429441</v>
       </c>
       <c r="E165" s="36"/>
       <c r="F165" s="36">
-        <v>0.57999999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="G165" s="37">
         <f t="shared" si="27"/>
-        <v>1.218</v>
+        <v>2.064888753428832</v>
       </c>
       <c r="H165" s="38"/>
       <c r="I165" s="38"/>
       <c r="J165" s="38"/>
-      <c r="K165" s="222"/>
+      <c r="K165" s="185"/>
     </row>
     <row r="166" spans="1:22" ht="15" customHeight="1">
       <c r="A166" s="18"/>
@@ -13016,148 +13028,143 @@
         <v>1</v>
       </c>
       <c r="D166" s="36">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="E166" s="36"/>
       <c r="F166" s="36">
-        <v>0.39</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G166" s="37">
         <f t="shared" si="27"/>
-        <v>0.58499999999999996</v>
+        <v>1.218</v>
       </c>
       <c r="H166" s="38"/>
       <c r="I166" s="38"/>
       <c r="J166" s="38"/>
-      <c r="K166" s="222"/>
+      <c r="K166" s="185"/>
     </row>
     <row r="167" spans="1:22" ht="15" customHeight="1">
       <c r="A167" s="18"/>
       <c r="B167" s="35"/>
       <c r="C167" s="34">
-        <f>9*2</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D167" s="36">
-        <v>0.125</v>
+        <v>1.5</v>
       </c>
       <c r="E167" s="36"/>
       <c r="F167" s="36">
-        <v>0.94</v>
+        <v>0.39</v>
       </c>
       <c r="G167" s="37">
         <f t="shared" si="27"/>
-        <v>2.1149999999999998</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="H167" s="38"/>
       <c r="I167" s="38"/>
       <c r="J167" s="38"/>
-      <c r="K167" s="222"/>
+      <c r="K167" s="185"/>
     </row>
     <row r="168" spans="1:22" ht="15" customHeight="1">
       <c r="A168" s="18"/>
       <c r="B168" s="35"/>
       <c r="C168" s="34">
-        <v>2</v>
+        <f>9*2</f>
+        <v>18</v>
       </c>
       <c r="D168" s="36">
-        <f>18.25/3.281</f>
-        <v>5.5623285583663513</v>
+        <v>0.125</v>
       </c>
       <c r="E168" s="36"/>
       <c r="F168" s="36">
-        <f>(1.35+1.52)/2</f>
-        <v>1.4350000000000001</v>
+        <v>0.94</v>
       </c>
       <c r="G168" s="37">
         <f t="shared" si="27"/>
-        <v>15.963882962511429</v>
+        <v>2.1149999999999998</v>
       </c>
       <c r="H168" s="38"/>
       <c r="I168" s="38"/>
       <c r="J168" s="38"/>
-      <c r="K168" s="222"/>
+      <c r="K168" s="185"/>
     </row>
     <row r="169" spans="1:22" ht="15" customHeight="1">
       <c r="A169" s="18"/>
       <c r="B169" s="35"/>
       <c r="C169" s="34">
-        <f>17*2</f>
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D169" s="36">
-        <v>0.1</v>
+        <f>18.25/3.281</f>
+        <v>5.5623285583663513</v>
       </c>
       <c r="E169" s="36"/>
       <c r="F169" s="36">
-        <v>0.81</v>
+        <f>(1.35+1.52)/2</f>
+        <v>1.4350000000000001</v>
       </c>
       <c r="G169" s="37">
         <f t="shared" si="27"/>
-        <v>2.7540000000000004</v>
+        <v>15.963882962511429</v>
       </c>
       <c r="H169" s="38"/>
       <c r="I169" s="38"/>
       <c r="J169" s="38"/>
-      <c r="K169" s="222"/>
+      <c r="K169" s="185"/>
     </row>
     <row r="170" spans="1:22" ht="15" customHeight="1">
       <c r="A170" s="18"/>
-      <c r="B170" s="35" t="s">
+      <c r="B170" s="35"/>
+      <c r="C170" s="34">
+        <f>17*2</f>
+        <v>34</v>
+      </c>
+      <c r="D170" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="E170" s="36"/>
+      <c r="F170" s="36">
+        <v>0.81</v>
+      </c>
+      <c r="G170" s="37">
+        <f t="shared" si="27"/>
+        <v>2.7540000000000004</v>
+      </c>
+      <c r="H170" s="38"/>
+      <c r="I170" s="38"/>
+      <c r="J170" s="38"/>
+      <c r="K170" s="185"/>
+    </row>
+    <row r="171" spans="1:22" ht="15" customHeight="1">
+      <c r="A171" s="18"/>
+      <c r="B171" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="C170" s="34"/>
-      <c r="D170" s="36"/>
-      <c r="E170" s="36"/>
-      <c r="F170" s="36"/>
-      <c r="G170" s="37">
-        <f>SUM(G141:G169)</f>
+      <c r="C171" s="34"/>
+      <c r="D171" s="36"/>
+      <c r="E171" s="36"/>
+      <c r="F171" s="36"/>
+      <c r="G171" s="37">
+        <f>SUM(G142:G170)</f>
         <v>128.22878564462053</v>
       </c>
-      <c r="H170" s="38" t="s">
+      <c r="H171" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="I170" s="38">
+      <c r="I171" s="38">
         <v>405.86</v>
       </c>
-      <c r="J170" s="38">
-        <f>G170*I170</f>
+      <c r="J171" s="38">
+        <f>G171*I171</f>
         <v>52042.934941725689</v>
       </c>
-      <c r="K170" s="222"/>
-    </row>
-    <row r="171" spans="1:22" s="1" customFormat="1" ht="18">
-      <c r="A171" s="18"/>
-      <c r="B171" s="125" t="s">
-        <v>130</v>
-      </c>
-      <c r="C171" s="19"/>
-      <c r="D171" s="20"/>
-      <c r="E171" s="21"/>
-      <c r="F171" s="21"/>
-      <c r="G171" s="123"/>
-      <c r="H171" s="22"/>
-      <c r="I171" s="23"/>
-      <c r="J171" s="123">
-        <f>0.13*G170*11166.2/100</f>
-        <v>1861.3767461444502</v>
-      </c>
-      <c r="K171" s="21"/>
-      <c r="N171" s="186" t="s">
-        <v>143</v>
-      </c>
-      <c r="O171" s="186"/>
-      <c r="P171" s="186"/>
-      <c r="Q171" s="186"/>
-      <c r="R171" s="186"/>
-      <c r="S171" s="186"/>
-      <c r="T171" s="186"/>
-      <c r="U171"/>
-      <c r="V171"/>
+      <c r="K171" s="185"/>
     </row>
     <row r="172" spans="1:22" s="1" customFormat="1" ht="18">
       <c r="A172" s="18"/>
-      <c r="B172" s="125"/>
+      <c r="B172" s="125" t="s">
+        <v>130</v>
+      </c>
       <c r="C172" s="19"/>
       <c r="D172" s="20"/>
       <c r="E172" s="21"/>
@@ -13165,10 +13172,13 @@
       <c r="G172" s="123"/>
       <c r="H172" s="22"/>
       <c r="I172" s="23"/>
-      <c r="J172" s="123"/>
+      <c r="J172" s="123">
+        <f>0.13*G171*11166.2/100</f>
+        <v>1861.3767461444502</v>
+      </c>
       <c r="K172" s="21"/>
       <c r="N172" s="186" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O172" s="186"/>
       <c r="P172" s="186"/>
@@ -13179,38 +13189,42 @@
       <c r="U172"/>
       <c r="V172"/>
     </row>
-    <row r="173" spans="1:22" ht="30.75">
-      <c r="A173" s="18">
-        <v>16</v>
-      </c>
-      <c r="B173" s="119" t="s">
-        <v>131</v>
-      </c>
+    <row r="173" spans="1:22" s="1" customFormat="1" ht="18">
+      <c r="A173" s="18"/>
+      <c r="B173" s="125"/>
       <c r="C173" s="19"/>
       <c r="D173" s="20"/>
       <c r="E173" s="21"/>
       <c r="F173" s="21"/>
-      <c r="G173" s="23"/>
+      <c r="G173" s="123"/>
       <c r="H173" s="22"/>
       <c r="I173" s="23"/>
-      <c r="J173" s="39"/>
+      <c r="J173" s="123"/>
       <c r="K173" s="21"/>
-    </row>
-    <row r="174" spans="1:22" ht="15" customHeight="1">
-      <c r="A174" s="18"/>
-      <c r="B174" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="C174" s="19">
-        <v>1</v>
-      </c>
+      <c r="N173" s="186" t="s">
+        <v>144</v>
+      </c>
+      <c r="O173" s="186"/>
+      <c r="P173" s="186"/>
+      <c r="Q173" s="186"/>
+      <c r="R173" s="186"/>
+      <c r="S173" s="186"/>
+      <c r="T173" s="186"/>
+      <c r="U173"/>
+      <c r="V173"/>
+    </row>
+    <row r="174" spans="1:22" ht="30.75">
+      <c r="A174" s="18">
+        <v>16</v>
+      </c>
+      <c r="B174" s="119" t="s">
+        <v>131</v>
+      </c>
+      <c r="C174" s="19"/>
       <c r="D174" s="20"/>
       <c r="E174" s="21"/>
       <c r="F174" s="21"/>
-      <c r="G174" s="37">
-        <f>G170-G155</f>
-        <v>123.60878564462053</v>
-      </c>
+      <c r="G174" s="23"/>
       <c r="H174" s="22"/>
       <c r="I174" s="23"/>
       <c r="J174" s="39"/>
@@ -13219,49 +13233,53 @@
     <row r="175" spans="1:22" ht="15" customHeight="1">
       <c r="A175" s="18"/>
       <c r="B175" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C175" s="19"/>
+        <v>153</v>
+      </c>
+      <c r="C175" s="19">
+        <v>1</v>
+      </c>
       <c r="D175" s="20"/>
       <c r="E175" s="21"/>
       <c r="F175" s="21"/>
-      <c r="G175" s="23">
-        <f>0*SUM(G174:G174)</f>
-        <v>0</v>
-      </c>
-      <c r="H175" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I175" s="23">
-        <v>251.77</v>
-      </c>
-      <c r="J175" s="39">
-        <f>G175*I175</f>
-        <v>0</v>
-      </c>
+      <c r="G175" s="37">
+        <f>G171-G156</f>
+        <v>123.60878564462053</v>
+      </c>
+      <c r="H175" s="22"/>
+      <c r="I175" s="23"/>
+      <c r="J175" s="39"/>
       <c r="K175" s="21"/>
     </row>
     <row r="176" spans="1:22" ht="15" customHeight="1">
       <c r="A176" s="18"/>
       <c r="B176" s="35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C176" s="19"/>
       <c r="D176" s="20"/>
       <c r="E176" s="21"/>
       <c r="F176" s="21"/>
-      <c r="G176" s="23"/>
-      <c r="H176" s="22"/>
-      <c r="I176" s="23"/>
+      <c r="G176" s="23">
+        <f>0*SUM(G175:G175)</f>
+        <v>0</v>
+      </c>
+      <c r="H176" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I176" s="23">
+        <v>251.77</v>
+      </c>
       <c r="J176" s="39">
-        <f>0.13*G175*12736/100</f>
+        <f>G176*I176</f>
         <v>0</v>
       </c>
       <c r="K176" s="21"/>
     </row>
     <row r="177" spans="1:22" ht="15" customHeight="1">
       <c r="A177" s="18"/>
-      <c r="B177" s="35"/>
+      <c r="B177" s="35" t="s">
+        <v>40</v>
+      </c>
       <c r="C177" s="19"/>
       <c r="D177" s="20"/>
       <c r="E177" s="21"/>
@@ -13269,81 +13287,71 @@
       <c r="G177" s="23"/>
       <c r="H177" s="22"/>
       <c r="I177" s="23"/>
-      <c r="J177" s="39"/>
+      <c r="J177" s="39">
+        <f>0.13*G176*12736/100</f>
+        <v>0</v>
+      </c>
       <c r="K177" s="21"/>
     </row>
-    <row r="178" spans="1:22" s="1" customFormat="1" ht="48">
-      <c r="A178" s="18">
-        <v>17</v>
-      </c>
-      <c r="B178" s="140" t="s">
-        <v>150</v>
-      </c>
-      <c r="C178" s="140"/>
+    <row r="178" spans="1:22" ht="15" customHeight="1">
+      <c r="A178" s="18"/>
+      <c r="B178" s="35"/>
+      <c r="C178" s="19"/>
       <c r="D178" s="20"/>
-      <c r="E178" s="121"/>
-      <c r="F178" s="121"/>
-      <c r="G178" s="123"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="23"/>
       <c r="H178" s="22"/>
       <c r="I178" s="23"/>
-      <c r="J178" s="123"/>
+      <c r="J178" s="39"/>
       <c r="K178" s="21"/>
-      <c r="M178"/>
-      <c r="N178"/>
-      <c r="O178"/>
-      <c r="P178"/>
-      <c r="Q178"/>
-      <c r="R178"/>
-      <c r="S178"/>
-      <c r="T178"/>
-      <c r="U178"/>
-      <c r="V178"/>
-    </row>
-    <row r="179" spans="1:22" ht="15" customHeight="1">
-      <c r="A179" s="18"/>
-      <c r="B179" s="35" t="s">
+    </row>
+    <row r="179" spans="1:22" s="1" customFormat="1" ht="48">
+      <c r="A179" s="18">
+        <v>17</v>
+      </c>
+      <c r="B179" s="140" t="s">
+        <v>150</v>
+      </c>
+      <c r="C179" s="140"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="121"/>
+      <c r="F179" s="121"/>
+      <c r="G179" s="123"/>
+      <c r="H179" s="22"/>
+      <c r="I179" s="23"/>
+      <c r="J179" s="123"/>
+      <c r="K179" s="21"/>
+      <c r="M179"/>
+      <c r="N179"/>
+      <c r="O179"/>
+      <c r="P179"/>
+      <c r="Q179"/>
+      <c r="R179"/>
+      <c r="S179"/>
+      <c r="T179"/>
+      <c r="U179"/>
+      <c r="V179"/>
+    </row>
+    <row r="180" spans="1:22" ht="15" customHeight="1">
+      <c r="A180" s="18"/>
+      <c r="B180" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C179" s="19">
+      <c r="C180" s="19">
         <v>1</v>
       </c>
-      <c r="D179" s="20">
+      <c r="D180" s="20">
         <f>25.17/3.281</f>
         <v>7.6714416336482785</v>
       </c>
-      <c r="E179" s="21">
+      <c r="E180" s="21">
         <v>2.8</v>
-      </c>
-      <c r="F179" s="21"/>
-      <c r="G179" s="126">
-        <f t="shared" ref="G179:G180" si="28">PRODUCT(C179:F179)</f>
-        <v>21.480036574215177</v>
-      </c>
-      <c r="H179" s="22"/>
-      <c r="I179" s="23"/>
-      <c r="J179" s="39"/>
-      <c r="K179" s="21"/>
-    </row>
-    <row r="180" spans="1:22" ht="15" customHeight="1">
-      <c r="A180" s="18"/>
-      <c r="B180" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C180" s="19">
-        <v>1</v>
-      </c>
-      <c r="D180" s="20">
-        <f>32.42/3.281</f>
-        <v>9.8811338006705274</v>
-      </c>
-      <c r="E180" s="21">
-        <v>1.53</v>
       </c>
       <c r="F180" s="21"/>
       <c r="G180" s="126">
-        <f t="shared" si="28"/>
-        <v>15.118134715025906</v>
+        <f t="shared" ref="G180:G181" si="28">PRODUCT(C180:F180)</f>
+        <v>21.480036574215177</v>
       </c>
       <c r="H180" s="22"/>
       <c r="I180" s="23"/>
@@ -13352,78 +13360,88 @@
     </row>
     <row r="181" spans="1:22" ht="15" customHeight="1">
       <c r="A181" s="18"/>
-      <c r="B181" s="35"/>
+      <c r="B181" s="35" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="C181" s="19">
         <v>1</v>
       </c>
       <c r="D181" s="20">
-        <v>3.4</v>
+        <f>32.42/3.281</f>
+        <v>9.8811338006705274</v>
       </c>
       <c r="E181" s="21">
-        <v>3.9</v>
-      </c>
-      <c r="F181" s="21">
-        <v>1.5328189999999999</v>
-      </c>
-      <c r="G181" s="37">
-        <f>C181*SQRT(M181*(M181-D181)*(M181-E181)*(M181-F181))</f>
-        <v>2.5854308705263742</v>
+        <v>1.53</v>
+      </c>
+      <c r="F181" s="21"/>
+      <c r="G181" s="126">
+        <f t="shared" si="28"/>
+        <v>15.118134715025906</v>
       </c>
       <c r="H181" s="22"/>
       <c r="I181" s="23"/>
       <c r="J181" s="39"/>
       <c r="K181" s="21"/>
-      <c r="M181">
-        <f>(D181+E181+F181)/2</f>
-        <v>4.4164095000000003</v>
-      </c>
     </row>
     <row r="182" spans="1:22" ht="15" customHeight="1">
       <c r="A182" s="18"/>
-      <c r="B182" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C182" s="19"/>
-      <c r="D182" s="20"/>
-      <c r="E182" s="21"/>
-      <c r="F182" s="21"/>
-      <c r="G182" s="23">
-        <f>SUM(G179:G181)</f>
-        <v>39.183602159767453</v>
-      </c>
-      <c r="H182" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I182" s="23">
-        <v>2271.5500000000002</v>
-      </c>
-      <c r="J182" s="39">
-        <f>G182*I182</f>
-        <v>89007.511486019765</v>
-      </c>
+      <c r="B182" s="35"/>
+      <c r="C182" s="19">
+        <v>1</v>
+      </c>
+      <c r="D182" s="20">
+        <v>3.4</v>
+      </c>
+      <c r="E182" s="21">
+        <v>3.9</v>
+      </c>
+      <c r="F182" s="21">
+        <v>1.5328189999999999</v>
+      </c>
+      <c r="G182" s="37">
+        <f>C182*SQRT(M182*(M182-D182)*(M182-E182)*(M182-F182))</f>
+        <v>2.5854308705263742</v>
+      </c>
+      <c r="H182" s="22"/>
+      <c r="I182" s="23"/>
+      <c r="J182" s="39"/>
       <c r="K182" s="21"/>
+      <c r="M182">
+        <f>(D182+E182+F182)/2</f>
+        <v>4.4164095000000003</v>
+      </c>
     </row>
     <row r="183" spans="1:22" ht="15" customHeight="1">
       <c r="A183" s="18"/>
       <c r="B183" s="35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C183" s="19"/>
       <c r="D183" s="20"/>
       <c r="E183" s="21"/>
       <c r="F183" s="21"/>
-      <c r="G183" s="23"/>
-      <c r="H183" s="22"/>
-      <c r="I183" s="23"/>
+      <c r="G183" s="23">
+        <f>SUM(G180:G182)</f>
+        <v>39.183602159767453</v>
+      </c>
+      <c r="H183" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I183" s="23">
+        <v>2271.5500000000002</v>
+      </c>
       <c r="J183" s="39">
-        <f>0.13*G182*(20218/10)</f>
-        <v>10298.782890060318</v>
+        <f>G183*I183</f>
+        <v>89007.511486019765</v>
       </c>
       <c r="K183" s="21"/>
     </row>
     <row r="184" spans="1:22" ht="15" customHeight="1">
       <c r="A184" s="18"/>
-      <c r="B184" s="35"/>
+      <c r="B184" s="35" t="s">
+        <v>40</v>
+      </c>
       <c r="C184" s="19"/>
       <c r="D184" s="20"/>
       <c r="E184" s="21"/>
@@ -13431,76 +13449,71 @@
       <c r="G184" s="23"/>
       <c r="H184" s="22"/>
       <c r="I184" s="23"/>
-      <c r="J184" s="39"/>
+      <c r="J184" s="39">
+        <f>0.13*G183*(20218/10)</f>
+        <v>10298.782890060318</v>
+      </c>
       <c r="K184" s="21"/>
     </row>
-    <row r="185" spans="1:22" s="173" customFormat="1" ht="18">
-      <c r="A185" s="166">
+    <row r="185" spans="1:22" ht="15" customHeight="1">
+      <c r="A185" s="18"/>
+      <c r="B185" s="35"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="21"/>
+      <c r="F185" s="21"/>
+      <c r="G185" s="23"/>
+      <c r="H185" s="22"/>
+      <c r="I185" s="23"/>
+      <c r="J185" s="39"/>
+      <c r="K185" s="21"/>
+    </row>
+    <row r="186" spans="1:22" s="173" customFormat="1" ht="18">
+      <c r="A186" s="166">
         <v>18</v>
       </c>
-      <c r="B185" s="167" t="s">
+      <c r="B186" s="167" t="s">
         <v>139</v>
       </c>
-      <c r="C185" s="168"/>
-      <c r="D185" s="169"/>
-      <c r="E185" s="170"/>
-      <c r="F185" s="169" t="s">
+      <c r="C186" s="168"/>
+      <c r="D186" s="169"/>
+      <c r="E186" s="170"/>
+      <c r="F186" s="169" t="s">
         <v>163</v>
       </c>
-      <c r="G185" s="169"/>
-      <c r="H185" s="169"/>
-      <c r="I185" s="169"/>
-      <c r="J185" s="171"/>
-      <c r="K185" s="172"/>
-      <c r="M185" s="174"/>
-      <c r="N185" s="174"/>
-      <c r="O185" s="174"/>
-      <c r="P185" s="174"/>
-      <c r="Q185" s="174"/>
-      <c r="R185" s="174"/>
-      <c r="S185" s="174"/>
-      <c r="T185" s="174"/>
-      <c r="U185" s="174"/>
-      <c r="V185" s="174"/>
-    </row>
-    <row r="186" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
-      <c r="A186" s="144"/>
-      <c r="B186" s="146" t="s">
-        <v>140</v>
-      </c>
-      <c r="C186" s="161">
-        <v>1</v>
-      </c>
-      <c r="D186" s="162"/>
-      <c r="E186" s="175"/>
-      <c r="F186" s="176">
-        <f>CONVERT(48.3735,"ft2","m2")</f>
-        <v>4.49404520544</v>
-      </c>
-      <c r="G186" s="177">
-        <f>PRODUCT(C186:F186)</f>
-        <v>4.49404520544</v>
-      </c>
-      <c r="H186" s="163"/>
-      <c r="I186" s="163"/>
-      <c r="J186" s="163"/>
-      <c r="K186" s="149"/>
+      <c r="G186" s="169"/>
+      <c r="H186" s="169"/>
+      <c r="I186" s="169"/>
+      <c r="J186" s="171"/>
+      <c r="K186" s="172"/>
+      <c r="M186" s="174"/>
+      <c r="N186" s="174"/>
+      <c r="O186" s="174"/>
+      <c r="P186" s="174"/>
+      <c r="Q186" s="174"/>
+      <c r="R186" s="174"/>
+      <c r="S186" s="174"/>
+      <c r="T186" s="174"/>
+      <c r="U186" s="174"/>
+      <c r="V186" s="174"/>
     </row>
     <row r="187" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
       <c r="A187" s="144"/>
-      <c r="B187" s="146"/>
+      <c r="B187" s="146" t="s">
+        <v>140</v>
+      </c>
       <c r="C187" s="161">
         <v>1</v>
       </c>
       <c r="D187" s="162"/>
       <c r="E187" s="175"/>
       <c r="F187" s="176">
-        <f>CONVERT(224.2762,"ft2","m2")</f>
-        <v>20.835940779647999</v>
+        <f>CONVERT(48.3735,"ft2","m2")</f>
+        <v>4.49404520544</v>
       </c>
       <c r="G187" s="177">
         <f>PRODUCT(C187:F187)</f>
-        <v>20.835940779647999</v>
+        <v>4.49404520544</v>
       </c>
       <c r="H187" s="163"/>
       <c r="I187" s="163"/>
@@ -13513,33 +13526,20 @@
       <c r="C188" s="161">
         <v>1</v>
       </c>
-      <c r="D188" s="162">
-        <f>(4.1+4.4)/2</f>
-        <v>4.25</v>
-      </c>
-      <c r="E188" s="162">
-        <f>2.6</f>
-        <v>2.6</v>
-      </c>
-      <c r="F188" s="162"/>
+      <c r="D188" s="162"/>
+      <c r="E188" s="175"/>
+      <c r="F188" s="176">
+        <f>CONVERT(224.2762,"ft2","m2")</f>
+        <v>20.835940779647999</v>
+      </c>
       <c r="G188" s="177">
-        <f t="shared" ref="G188:G190" si="29">PRODUCT(C188:F188)</f>
-        <v>11.05</v>
+        <f>PRODUCT(C188:F188)</f>
+        <v>20.835940779647999</v>
       </c>
       <c r="H188" s="163"/>
       <c r="I188" s="163"/>
       <c r="J188" s="163"/>
       <c r="K188" s="149"/>
-      <c r="M188" s="178"/>
-      <c r="N188" s="178"/>
-      <c r="O188" s="178"/>
-      <c r="P188" s="178"/>
-      <c r="Q188" s="178"/>
-      <c r="R188" s="178"/>
-      <c r="S188" s="178"/>
-      <c r="T188" s="178"/>
-      <c r="U188" s="178"/>
-      <c r="V188" s="178"/>
     </row>
     <row r="189" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
       <c r="A189" s="144"/>
@@ -13548,21 +13548,32 @@
         <v>1</v>
       </c>
       <c r="D189" s="162">
-        <v>7</v>
+        <f>(4.1+4.4)/2</f>
+        <v>4.25</v>
       </c>
       <c r="E189" s="162">
-        <f>((2.5+4.75)/2)/3.281</f>
-        <v>1.1048460835111247</v>
+        <f>2.6</f>
+        <v>2.6</v>
       </c>
       <c r="F189" s="162"/>
       <c r="G189" s="177">
-        <f t="shared" si="29"/>
-        <v>7.733922584577873</v>
+        <f t="shared" ref="G189:G191" si="29">PRODUCT(C189:F189)</f>
+        <v>11.05</v>
       </c>
       <c r="H189" s="163"/>
       <c r="I189" s="163"/>
       <c r="J189" s="163"/>
       <c r="K189" s="149"/>
+      <c r="M189" s="178"/>
+      <c r="N189" s="178"/>
+      <c r="O189" s="178"/>
+      <c r="P189" s="178"/>
+      <c r="Q189" s="178"/>
+      <c r="R189" s="178"/>
+      <c r="S189" s="178"/>
+      <c r="T189" s="178"/>
+      <c r="U189" s="178"/>
+      <c r="V189" s="178"/>
     </row>
     <row r="190" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
       <c r="A190" s="144"/>
@@ -13571,16 +13582,16 @@
         <v>1</v>
       </c>
       <c r="D190" s="162">
-        <v>6.55</v>
+        <v>7</v>
       </c>
       <c r="E190" s="162">
-        <f>((16.17+1)/2)/3.281</f>
-        <v>2.616580310880829</v>
+        <f>((2.5+4.75)/2)/3.281</f>
+        <v>1.1048460835111247</v>
       </c>
       <c r="F190" s="162"/>
       <c r="G190" s="177">
         <f t="shared" si="29"/>
-        <v>17.138601036269428</v>
+        <v>7.733922584577873</v>
       </c>
       <c r="H190" s="163"/>
       <c r="I190" s="163"/>
@@ -13588,52 +13599,59 @@
       <c r="K190" s="149"/>
     </row>
     <row r="191" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
-      <c r="A191" s="163"/>
-      <c r="B191" s="146" t="s">
-        <v>41</v>
-      </c>
-      <c r="C191" s="168"/>
-      <c r="D191" s="169"/>
-      <c r="E191" s="169"/>
-      <c r="F191" s="169"/>
-      <c r="G191" s="179">
-        <f>0*SUM(G186:G190)</f>
-        <v>0</v>
-      </c>
-      <c r="H191" s="179" t="s">
-        <v>141</v>
-      </c>
-      <c r="I191" s="179">
-        <f>35*10.7639</f>
-        <v>376.73649999999998</v>
-      </c>
-      <c r="J191" s="171">
-        <f>G191*I191</f>
-        <v>0</v>
-      </c>
-      <c r="K191" s="161"/>
+      <c r="A191" s="144"/>
+      <c r="B191" s="146"/>
+      <c r="C191" s="161">
+        <v>1</v>
+      </c>
+      <c r="D191" s="162">
+        <v>6.55</v>
+      </c>
+      <c r="E191" s="162">
+        <f>((16.17+1)/2)/3.281</f>
+        <v>2.616580310880829</v>
+      </c>
+      <c r="F191" s="162"/>
+      <c r="G191" s="177">
+        <f t="shared" si="29"/>
+        <v>17.138601036269428</v>
+      </c>
+      <c r="H191" s="163"/>
+      <c r="I191" s="163"/>
+      <c r="J191" s="163"/>
+      <c r="K191" s="149"/>
     </row>
     <row r="192" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
       <c r="A192" s="163"/>
       <c r="B192" s="146" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C192" s="168"/>
       <c r="D192" s="169"/>
       <c r="E192" s="169"/>
       <c r="F192" s="169"/>
-      <c r="G192" s="169"/>
-      <c r="H192" s="169"/>
-      <c r="I192" s="169"/>
-      <c r="J192" s="165">
-        <f>0.13*J191</f>
+      <c r="G192" s="179">
+        <f>0*SUM(G187:G191)</f>
+        <v>0</v>
+      </c>
+      <c r="H192" s="179" t="s">
+        <v>141</v>
+      </c>
+      <c r="I192" s="179">
+        <f>35*10.7639</f>
+        <v>376.73649999999998</v>
+      </c>
+      <c r="J192" s="171">
+        <f>G192*I192</f>
         <v>0</v>
       </c>
       <c r="K192" s="161"/>
     </row>
     <row r="193" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
       <c r="A193" s="163"/>
-      <c r="B193" s="146"/>
+      <c r="B193" s="146" t="s">
+        <v>40</v>
+      </c>
       <c r="C193" s="168"/>
       <c r="D193" s="169"/>
       <c r="E193" s="169"/>
@@ -13641,53 +13659,41 @@
       <c r="G193" s="169"/>
       <c r="H193" s="169"/>
       <c r="I193" s="169"/>
-      <c r="J193" s="165"/>
+      <c r="J193" s="165">
+        <f>0.13*J192</f>
+        <v>0</v>
+      </c>
       <c r="K193" s="161"/>
     </row>
-    <row r="194" spans="1:22" s="174" customFormat="1" ht="42.75">
-      <c r="A194" s="144">
+    <row r="194" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A194" s="163"/>
+      <c r="B194" s="146"/>
+      <c r="C194" s="168"/>
+      <c r="D194" s="169"/>
+      <c r="E194" s="169"/>
+      <c r="F194" s="169"/>
+      <c r="G194" s="169"/>
+      <c r="H194" s="169"/>
+      <c r="I194" s="169"/>
+      <c r="J194" s="165"/>
+      <c r="K194" s="161"/>
+    </row>
+    <row r="195" spans="1:22" s="174" customFormat="1" ht="42.75">
+      <c r="A195" s="144">
         <v>19</v>
       </c>
-      <c r="B194" s="180" t="s">
+      <c r="B195" s="180" t="s">
         <v>145</v>
       </c>
-      <c r="C194" s="161"/>
-      <c r="D194" s="162"/>
-      <c r="E194" s="162"/>
-      <c r="F194" s="162"/>
-      <c r="G194" s="150"/>
-      <c r="H194" s="163"/>
-      <c r="I194" s="163"/>
-      <c r="J194" s="165"/>
-      <c r="K194" s="149"/>
-      <c r="M194" s="181"/>
-      <c r="N194" s="181"/>
-      <c r="O194" s="181"/>
-      <c r="P194" s="181"/>
-      <c r="Q194" s="181"/>
-      <c r="R194" s="181"/>
-      <c r="S194" s="181"/>
-      <c r="T194" s="181"/>
-      <c r="U194" s="181"/>
-      <c r="V194" s="181"/>
-    </row>
-    <row r="195" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
-      <c r="A195" s="163"/>
-      <c r="B195" s="146" t="s">
-        <v>146</v>
-      </c>
-      <c r="C195" s="147"/>
-      <c r="D195" s="169"/>
-      <c r="E195" s="169"/>
-      <c r="F195" s="169"/>
-      <c r="G195" s="169">
-        <f>G191</f>
-        <v>0</v>
-      </c>
-      <c r="H195" s="169"/>
-      <c r="I195" s="169"/>
+      <c r="C195" s="161"/>
+      <c r="D195" s="162"/>
+      <c r="E195" s="162"/>
+      <c r="F195" s="162"/>
+      <c r="G195" s="150"/>
+      <c r="H195" s="163"/>
+      <c r="I195" s="163"/>
       <c r="J195" s="165"/>
-      <c r="K195" s="161"/>
+      <c r="K195" s="149"/>
       <c r="M195" s="181"/>
       <c r="N195" s="181"/>
       <c r="O195" s="181"/>
@@ -13701,25 +13707,16 @@
     </row>
     <row r="196" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
       <c r="A196" s="163"/>
-      <c r="B196" s="146" t="str">
-        <f>B117</f>
-        <v>-at entrance</v>
-      </c>
-      <c r="C196" s="147">
-        <v>1</v>
-      </c>
-      <c r="D196" s="151">
-        <f>D117</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E196" s="151">
-        <f>E117</f>
-        <v>0.9</v>
-      </c>
-      <c r="F196" s="151"/>
-      <c r="G196" s="177">
-        <f t="shared" ref="G196" si="30">PRODUCT(C196:F196)</f>
-        <v>1.9800000000000002</v>
+      <c r="B196" s="146" t="s">
+        <v>146</v>
+      </c>
+      <c r="C196" s="147"/>
+      <c r="D196" s="169"/>
+      <c r="E196" s="169"/>
+      <c r="F196" s="169"/>
+      <c r="G196" s="169">
+        <f>G192</f>
+        <v>0</v>
       </c>
       <c r="H196" s="169"/>
       <c r="I196" s="169"/>
@@ -13738,27 +13735,29 @@
     </row>
     <row r="197" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
       <c r="A197" s="163"/>
-      <c r="B197" s="146" t="s">
-        <v>41</v>
-      </c>
-      <c r="C197" s="168"/>
-      <c r="D197" s="169"/>
-      <c r="E197" s="169"/>
-      <c r="F197" s="169"/>
-      <c r="G197" s="179">
-        <f>0*SUM(G195:G196)</f>
-        <v>0</v>
-      </c>
-      <c r="H197" s="179" t="s">
-        <v>141</v>
-      </c>
-      <c r="I197" s="179">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J197" s="171">
-        <f>G197*I197</f>
-        <v>0</v>
-      </c>
+      <c r="B197" s="146" t="str">
+        <f>B118</f>
+        <v>-at entrance</v>
+      </c>
+      <c r="C197" s="147">
+        <v>1</v>
+      </c>
+      <c r="D197" s="151">
+        <f>D118</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E197" s="151">
+        <f>E118</f>
+        <v>0.9</v>
+      </c>
+      <c r="F197" s="151"/>
+      <c r="G197" s="177">
+        <f t="shared" ref="G197" si="30">PRODUCT(C197:F197)</f>
+        <v>1.9800000000000002</v>
+      </c>
+      <c r="H197" s="169"/>
+      <c r="I197" s="169"/>
+      <c r="J197" s="165"/>
       <c r="K197" s="161"/>
       <c r="M197" s="181"/>
       <c r="N197" s="181"/>
@@ -13772,17 +13771,29 @@
       <c r="V197" s="181"/>
     </row>
     <row r="198" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
-      <c r="A198" s="144"/>
-      <c r="B198" s="146"/>
-      <c r="C198" s="147"/>
-      <c r="D198" s="148"/>
-      <c r="E198" s="149"/>
-      <c r="F198" s="149"/>
-      <c r="G198" s="158"/>
-      <c r="H198" s="159"/>
-      <c r="I198" s="158"/>
-      <c r="J198" s="160"/>
-      <c r="K198" s="149"/>
+      <c r="A198" s="163"/>
+      <c r="B198" s="146" t="s">
+        <v>41</v>
+      </c>
+      <c r="C198" s="168"/>
+      <c r="D198" s="169"/>
+      <c r="E198" s="169"/>
+      <c r="F198" s="169"/>
+      <c r="G198" s="179">
+        <f>0*SUM(G196:G197)</f>
+        <v>0</v>
+      </c>
+      <c r="H198" s="179" t="s">
+        <v>141</v>
+      </c>
+      <c r="I198" s="179">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J198" s="171">
+        <f>G198*I198</f>
+        <v>0</v>
+      </c>
+      <c r="K198" s="161"/>
       <c r="M198" s="181"/>
       <c r="N198" s="181"/>
       <c r="O198" s="181"/>
@@ -13794,56 +13805,56 @@
       <c r="U198" s="181"/>
       <c r="V198" s="181"/>
     </row>
-    <row r="199" spans="1:22" ht="15" customHeight="1">
-      <c r="A199" s="18">
+    <row r="199" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A199" s="144"/>
+      <c r="B199" s="146"/>
+      <c r="C199" s="147"/>
+      <c r="D199" s="148"/>
+      <c r="E199" s="149"/>
+      <c r="F199" s="149"/>
+      <c r="G199" s="158"/>
+      <c r="H199" s="159"/>
+      <c r="I199" s="158"/>
+      <c r="J199" s="160"/>
+      <c r="K199" s="149"/>
+      <c r="M199" s="181"/>
+      <c r="N199" s="181"/>
+      <c r="O199" s="181"/>
+      <c r="P199" s="181"/>
+      <c r="Q199" s="181"/>
+      <c r="R199" s="181"/>
+      <c r="S199" s="181"/>
+      <c r="T199" s="181"/>
+      <c r="U199" s="181"/>
+      <c r="V199" s="181"/>
+    </row>
+    <row r="200" spans="1:22" ht="15" customHeight="1">
+      <c r="A200" s="18">
         <v>20</v>
       </c>
-      <c r="B199" s="142" t="s">
+      <c r="B200" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="C199" s="19">
+      <c r="C200" s="19">
         <v>1</v>
       </c>
-      <c r="D199" s="20"/>
-      <c r="E199" s="21"/>
-      <c r="F199" s="21"/>
-      <c r="G199" s="126">
-        <f t="shared" ref="G199" si="31">PRODUCT(C199:F199)</f>
-        <v>1</v>
-      </c>
-      <c r="H199" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="I199" s="23">
-        <v>2000</v>
-      </c>
-      <c r="J199" s="32">
-        <f>G199*I199</f>
-        <v>2000</v>
-      </c>
-      <c r="K199" s="21"/>
-      <c r="M199" s="33"/>
-      <c r="N199" s="33"/>
-      <c r="O199" s="33"/>
-      <c r="P199" s="33"/>
-      <c r="Q199" s="33"/>
-      <c r="R199" s="33"/>
-      <c r="S199" s="33"/>
-      <c r="T199" s="33"/>
-      <c r="U199" s="33"/>
-      <c r="V199" s="33"/>
-    </row>
-    <row r="200" spans="1:22" ht="15" customHeight="1">
-      <c r="A200" s="18"/>
-      <c r="B200" s="35"/>
-      <c r="C200" s="19"/>
       <c r="D200" s="20"/>
       <c r="E200" s="21"/>
       <c r="F200" s="21"/>
-      <c r="G200" s="23"/>
-      <c r="H200" s="22"/>
-      <c r="I200" s="23"/>
-      <c r="J200" s="39"/>
+      <c r="G200" s="126">
+        <f t="shared" ref="G200" si="31">PRODUCT(C200:F200)</f>
+        <v>1</v>
+      </c>
+      <c r="H200" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I200" s="23">
+        <v>2000</v>
+      </c>
+      <c r="J200" s="32">
+        <f>G200*I200</f>
+        <v>2000</v>
+      </c>
       <c r="K200" s="21"/>
       <c r="M200" s="33"/>
       <c r="N200" s="33"/>
@@ -13857,32 +13868,16 @@
       <c r="V200" s="33"/>
     </row>
     <row r="201" spans="1:22" ht="15" customHeight="1">
-      <c r="A201" s="18">
-        <v>21</v>
-      </c>
-      <c r="B201" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C201" s="19">
-        <v>1</v>
-      </c>
+      <c r="A201" s="18"/>
+      <c r="B201" s="35"/>
+      <c r="C201" s="19"/>
       <c r="D201" s="20"/>
       <c r="E201" s="21"/>
       <c r="F201" s="21"/>
-      <c r="G201" s="32">
-        <f t="shared" ref="G201" si="32">PRODUCT(C201:F201)</f>
-        <v>1</v>
-      </c>
-      <c r="H201" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I201" s="23">
-        <v>500</v>
-      </c>
-      <c r="J201" s="32">
-        <f>G201*I201</f>
-        <v>500</v>
-      </c>
+      <c r="G201" s="23"/>
+      <c r="H201" s="22"/>
+      <c r="I201" s="23"/>
+      <c r="J201" s="39"/>
       <c r="K201" s="21"/>
       <c r="M201" s="33"/>
       <c r="N201" s="33"/>
@@ -13896,16 +13891,32 @@
       <c r="V201" s="33"/>
     </row>
     <row r="202" spans="1:22" ht="15" customHeight="1">
-      <c r="A202" s="18"/>
-      <c r="B202" s="24"/>
-      <c r="C202" s="19"/>
+      <c r="A202" s="18">
+        <v>21</v>
+      </c>
+      <c r="B202" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C202" s="19">
+        <v>1</v>
+      </c>
       <c r="D202" s="20"/>
       <c r="E202" s="21"/>
       <c r="F202" s="21"/>
-      <c r="G202" s="23"/>
-      <c r="H202" s="22"/>
-      <c r="I202" s="23"/>
-      <c r="J202" s="39"/>
+      <c r="G202" s="32">
+        <f t="shared" ref="G202" si="32">PRODUCT(C202:F202)</f>
+        <v>1</v>
+      </c>
+      <c r="H202" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I202" s="23">
+        <v>500</v>
+      </c>
+      <c r="J202" s="32">
+        <f>G202*I202</f>
+        <v>500</v>
+      </c>
       <c r="K202" s="21"/>
       <c r="M202" s="33"/>
       <c r="N202" s="33"/>
@@ -13918,23 +13929,18 @@
       <c r="U202" s="33"/>
       <c r="V202" s="33"/>
     </row>
-    <row r="203" spans="1:22">
-      <c r="A203" s="38"/>
-      <c r="B203" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C203" s="42"/>
-      <c r="D203" s="36"/>
-      <c r="E203" s="36"/>
-      <c r="F203" s="36"/>
-      <c r="G203" s="39"/>
-      <c r="H203" s="39"/>
-      <c r="I203" s="39"/>
-      <c r="J203" s="39">
-        <f>SUM(J10:J201)</f>
-        <v>425480.08486204845</v>
-      </c>
-      <c r="K203" s="34"/>
+    <row r="203" spans="1:22" ht="15" customHeight="1">
+      <c r="A203" s="18"/>
+      <c r="B203" s="24"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="21"/>
+      <c r="F203" s="21"/>
+      <c r="G203" s="23"/>
+      <c r="H203" s="22"/>
+      <c r="I203" s="23"/>
+      <c r="J203" s="39"/>
+      <c r="K203" s="21"/>
       <c r="M203" s="33"/>
       <c r="N203" s="33"/>
       <c r="O203" s="33"/>
@@ -13947,17 +13953,22 @@
       <c r="V203" s="33"/>
     </row>
     <row r="204" spans="1:22">
-      <c r="A204" s="53"/>
-      <c r="B204" s="56"/>
-      <c r="C204" s="57"/>
-      <c r="D204" s="54"/>
-      <c r="E204" s="54"/>
-      <c r="F204" s="54"/>
-      <c r="G204" s="55"/>
-      <c r="H204" s="55"/>
-      <c r="I204" s="55"/>
-      <c r="J204" s="55"/>
-      <c r="K204" s="52"/>
+      <c r="A204" s="38"/>
+      <c r="B204" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C204" s="42"/>
+      <c r="D204" s="36"/>
+      <c r="E204" s="36"/>
+      <c r="F204" s="36"/>
+      <c r="G204" s="39"/>
+      <c r="H204" s="39"/>
+      <c r="I204" s="39"/>
+      <c r="J204" s="39">
+        <f>SUM(J10:J202)</f>
+        <v>425635.19807122846</v>
+      </c>
+      <c r="K204" s="34"/>
       <c r="M204" s="33"/>
       <c r="N204" s="33"/>
       <c r="O204" s="33"/>
@@ -13969,25 +13980,18 @@
       <c r="U204" s="33"/>
       <c r="V204" s="33"/>
     </row>
-    <row r="205" spans="1:22" s="1" customFormat="1">
-      <c r="A205" s="45"/>
-      <c r="B205" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C205" s="185">
-        <f>J203</f>
-        <v>425480.08486204845</v>
-      </c>
-      <c r="D205" s="185"/>
-      <c r="E205" s="37">
-        <v>100</v>
-      </c>
-      <c r="F205" s="46"/>
-      <c r="G205" s="47"/>
-      <c r="H205" s="46"/>
-      <c r="I205" s="48"/>
-      <c r="J205" s="49"/>
-      <c r="K205" s="50"/>
+    <row r="205" spans="1:22">
+      <c r="A205" s="53"/>
+      <c r="B205" s="56"/>
+      <c r="C205" s="57"/>
+      <c r="D205" s="54"/>
+      <c r="E205" s="54"/>
+      <c r="F205" s="54"/>
+      <c r="G205" s="55"/>
+      <c r="H205" s="55"/>
+      <c r="I205" s="55"/>
+      <c r="J205" s="55"/>
+      <c r="K205" s="52"/>
       <c r="M205" s="33"/>
       <c r="N205" s="33"/>
       <c r="O205" s="33"/>
@@ -13999,22 +14003,25 @@
       <c r="U205" s="33"/>
       <c r="V205" s="33"/>
     </row>
-    <row r="206" spans="1:22">
-      <c r="A206" s="51"/>
+    <row r="206" spans="1:22" s="1" customFormat="1">
+      <c r="A206" s="45"/>
       <c r="B206" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C206" s="187">
-        <v>500000</v>
-      </c>
-      <c r="D206" s="187"/>
-      <c r="E206" s="37"/>
-      <c r="F206" s="44"/>
-      <c r="G206" s="43"/>
-      <c r="H206" s="43"/>
-      <c r="I206" s="43"/>
-      <c r="J206" s="43"/>
-      <c r="K206" s="44"/>
+        <v>166</v>
+      </c>
+      <c r="C206" s="196">
+        <f>J204</f>
+        <v>425635.19807122846</v>
+      </c>
+      <c r="D206" s="196"/>
+      <c r="E206" s="37">
+        <v>100</v>
+      </c>
+      <c r="F206" s="46"/>
+      <c r="G206" s="47"/>
+      <c r="H206" s="46"/>
+      <c r="I206" s="48"/>
+      <c r="J206" s="49"/>
+      <c r="K206" s="50"/>
       <c r="M206" s="33"/>
       <c r="N206" s="33"/>
       <c r="O206" s="33"/>
@@ -14029,17 +14036,13 @@
     <row r="207" spans="1:22">
       <c r="A207" s="51"/>
       <c r="B207" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C207" s="187">
-        <f>C206-C209-C210</f>
-        <v>475000</v>
-      </c>
-      <c r="D207" s="187"/>
-      <c r="E207" s="37">
-        <f>C207/C205*100</f>
-        <v>111.63859764529454</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C207" s="197">
+        <v>500000</v>
+      </c>
+      <c r="D207" s="197"/>
+      <c r="E207" s="37"/>
       <c r="F207" s="44"/>
       <c r="G207" s="43"/>
       <c r="H207" s="43"/>
@@ -14060,16 +14063,16 @@
     <row r="208" spans="1:22">
       <c r="A208" s="51"/>
       <c r="B208" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C208" s="185">
-        <f>C205-C207</f>
-        <v>-49519.915137951553</v>
-      </c>
-      <c r="D208" s="185"/>
+        <v>33</v>
+      </c>
+      <c r="C208" s="197">
+        <f>C207-C210-C211</f>
+        <v>475000</v>
+      </c>
+      <c r="D208" s="197"/>
       <c r="E208" s="37">
-        <f>100-E207</f>
-        <v>-11.638597645294539</v>
+        <f>C208/C206*100</f>
+        <v>111.59791346027509</v>
       </c>
       <c r="F208" s="44"/>
       <c r="G208" s="43"/>
@@ -14091,15 +14094,16 @@
     <row r="209" spans="1:22">
       <c r="A209" s="51"/>
       <c r="B209" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C209" s="185">
-        <f>C206*0.03</f>
-        <v>15000</v>
-      </c>
-      <c r="D209" s="185"/>
+        <v>34</v>
+      </c>
+      <c r="C209" s="196">
+        <f>C206-C208</f>
+        <v>-49364.801928771543</v>
+      </c>
+      <c r="D209" s="196"/>
       <c r="E209" s="37">
-        <v>3</v>
+        <f>100-E208</f>
+        <v>-11.597913460275095</v>
       </c>
       <c r="F209" s="44"/>
       <c r="G209" s="43"/>
@@ -14121,15 +14125,15 @@
     <row r="210" spans="1:22">
       <c r="A210" s="51"/>
       <c r="B210" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C210" s="185">
-        <f>C206*0.02</f>
-        <v>10000</v>
-      </c>
-      <c r="D210" s="185"/>
+        <v>35</v>
+      </c>
+      <c r="C210" s="196">
+        <f>C207*0.03</f>
+        <v>15000</v>
+      </c>
+      <c r="D210" s="196"/>
       <c r="E210" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F210" s="44"/>
       <c r="G210" s="43"/>
@@ -14148,20 +14152,49 @@
       <c r="U210" s="33"/>
       <c r="V210" s="33"/>
     </row>
-    <row r="211" spans="1:22" s="33" customFormat="1">
-      <c r="A211" s="52"/>
-      <c r="B211" s="52"/>
-      <c r="C211" s="52"/>
-      <c r="D211" s="52"/>
-      <c r="E211" s="52"/>
-      <c r="F211" s="52"/>
-      <c r="G211" s="52"/>
-      <c r="H211" s="52"/>
-      <c r="I211" s="52"/>
-      <c r="J211" s="52"/>
-      <c r="K211" s="52"/>
-    </row>
-    <row r="212" spans="1:22" s="33" customFormat="1"/>
+    <row r="211" spans="1:22">
+      <c r="A211" s="51"/>
+      <c r="B211" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C211" s="196">
+        <f>C207*0.02</f>
+        <v>10000</v>
+      </c>
+      <c r="D211" s="196"/>
+      <c r="E211" s="37">
+        <v>2</v>
+      </c>
+      <c r="F211" s="44"/>
+      <c r="G211" s="43"/>
+      <c r="H211" s="43"/>
+      <c r="I211" s="43"/>
+      <c r="J211" s="43"/>
+      <c r="K211" s="44"/>
+      <c r="M211" s="33"/>
+      <c r="N211" s="33"/>
+      <c r="O211" s="33"/>
+      <c r="P211" s="33"/>
+      <c r="Q211" s="33"/>
+      <c r="R211" s="33"/>
+      <c r="S211" s="33"/>
+      <c r="T211" s="33"/>
+      <c r="U211" s="33"/>
+      <c r="V211" s="33"/>
+    </row>
+    <row r="212" spans="1:22" s="33" customFormat="1">
+      <c r="A212" s="52"/>
+      <c r="B212" s="52"/>
+      <c r="C212" s="52"/>
+      <c r="D212" s="52"/>
+      <c r="E212" s="52"/>
+      <c r="F212" s="52"/>
+      <c r="G212" s="52"/>
+      <c r="H212" s="52"/>
+      <c r="I212" s="52"/>
+      <c r="J212" s="52"/>
+      <c r="K212" s="52"/>
+    </row>
     <row r="213" spans="1:22" s="33" customFormat="1"/>
     <row r="214" spans="1:22" s="33" customFormat="1"/>
     <row r="215" spans="1:22" s="33" customFormat="1"/>
@@ -14200,18 +14233,7 @@
     <row r="248" spans="13:22" s="33" customFormat="1"/>
     <row r="249" spans="13:22" s="33" customFormat="1"/>
     <row r="250" spans="13:22" s="33" customFormat="1"/>
-    <row r="251" spans="13:22" s="33" customFormat="1">
-      <c r="M251"/>
-      <c r="N251"/>
-      <c r="O251"/>
-      <c r="P251"/>
-      <c r="Q251"/>
-      <c r="R251"/>
-      <c r="S251"/>
-      <c r="T251"/>
-      <c r="U251"/>
-      <c r="V251"/>
-    </row>
+    <row r="251" spans="13:22" s="33" customFormat="1"/>
     <row r="252" spans="13:22" s="33" customFormat="1">
       <c r="M252"/>
       <c r="N252"/>
@@ -14404,12 +14426,31 @@
       <c r="U267"/>
       <c r="V267"/>
     </row>
+    <row r="268" spans="13:22" s="33" customFormat="1">
+      <c r="M268"/>
+      <c r="N268"/>
+      <c r="O268"/>
+      <c r="P268"/>
+      <c r="Q268"/>
+      <c r="R268"/>
+      <c r="S268"/>
+      <c r="T268"/>
+      <c r="U268"/>
+      <c r="V268"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="N173:T173"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="C210:D210"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="N83:T83"/>
-    <mergeCell ref="N171:T171"/>
+    <mergeCell ref="N172:T172"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -14417,16 +14458,9 @@
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="N172:T172"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="C209:D209"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B140" r:id="rId1"/>
+    <hyperlink ref="B141" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId2"/>

--- a/ofc/estimates/परोपकार भवन मर्मत/V-परोपकार भवन मर्मत.xlsx
+++ b/ofc/estimates/परोपकार भवन मर्मत/V-परोपकार भवन मर्मत.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="backyard" sheetId="22" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <definedName name="plywood4">'[1]update Rate'!$N$69</definedName>
     <definedName name="plywood6">'[1]update Rate'!$N$71</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">backyard!$A$1:$K$154</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">V!$A$1:$K$211</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">V!$A$1:$K$210</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">backyard!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">V!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
@@ -139,7 +139,7 @@
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="B157" authorId="0" shapeId="0">
+    <comment ref="B156" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G182" authorId="0" shapeId="0">
+    <comment ref="G181" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="171">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -869,6 +869,18 @@
   </si>
   <si>
     <t>Total Valuated</t>
+  </si>
+  <si>
+    <t>-MS square rod10mm *10mm size</t>
+  </si>
+  <si>
+    <t>MS black pipe of 2" *2" of 1.6mm thickness for vertical post</t>
+  </si>
+  <si>
+    <t>-compound</t>
+  </si>
+  <si>
+    <t>-25*25*2mm Equal angles at windows</t>
   </si>
 </sst>
 </file>
@@ -2253,8 +2265,8 @@
       <sheetName val="PPMO_BOQ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="16">
           <cell r="B16" t="str">
             <v>Clearing and Grubbing Road Land ., Clearing and grubbing road land including uprooting rank vegetation, grass, bushes, shrubs, saplings and trees girth up to 300 mm, removal of stumps of trees cut earlier and disposal of unserviceable materials and stacking of serviceable Material to be used or auctioned, up to a lead of 30 meters including removal and disposal of top organic soil not exceeding 150 mm in thickness., By Mechanical Means, In area of light jungle (less than 15 number per 100 sqm )</v>
@@ -2296,25 +2308,25 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2815,8 +2827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T211"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:XFD104"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6405,7 +6417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
@@ -6518,7 +6530,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="198">
         <f>I71</f>
-        <v>425635.19807122846</v>
+        <v>507244.98805140913</v>
       </c>
       <c r="K6" s="199"/>
     </row>
@@ -6947,7 +6959,7 @@
       </c>
       <c r="G24" s="12">
         <f>V!G55</f>
-        <v>0</v>
+        <v>21.18</v>
       </c>
       <c r="H24" s="12">
         <f>V!I55</f>
@@ -6955,11 +6967,11 @@
       </c>
       <c r="I24" s="12">
         <f t="shared" ref="I24" si="9">G24*H24</f>
-        <v>0</v>
+        <v>23467.6518</v>
       </c>
       <c r="J24" s="27">
         <f t="shared" ref="J24:J25" si="10">I24-F24</f>
-        <v>-14847.334000000001</v>
+        <v>8620.3177999999989</v>
       </c>
       <c r="K24" s="14"/>
     </row>
@@ -6980,11 +6992,11 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12">
         <f>V!J56</f>
-        <v>0</v>
+        <v>1948.4187293999998</v>
       </c>
       <c r="J25" s="27">
         <f t="shared" si="10"/>
-        <v>-1232.7106220000001</v>
+        <v>715.70810739999979</v>
       </c>
       <c r="K25" s="14"/>
     </row>
@@ -7649,20 +7661,20 @@
         <v>162138.9583661475</v>
       </c>
       <c r="G50" s="12">
-        <f>V!G138</f>
-        <v>345.12311167327033</v>
+        <f>V!G137</f>
+        <v>634.66515153916498</v>
       </c>
       <c r="H50" s="12">
-        <f>V!I138</f>
+        <f>V!I137</f>
         <v>181.17</v>
       </c>
       <c r="I50" s="12">
         <f t="shared" ref="I50" si="36">G50*H50</f>
-        <v>62525.954141846378</v>
+        <v>114982.28550435051</v>
       </c>
       <c r="J50" s="27">
         <f t="shared" si="34"/>
-        <v>-99613.004224301127</v>
+        <v>-47156.672861796993</v>
       </c>
       <c r="K50" s="14"/>
     </row>
@@ -7682,12 +7694,12 @@
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="12">
-        <f>V!J139</f>
-        <v>4433.1118360183154</v>
+        <f>V!J138</f>
+        <v>8152.2839242948858</v>
       </c>
       <c r="J51" s="27">
         <f t="shared" si="34"/>
-        <v>-7062.5965506466018</v>
+        <v>-3343.4244623700315</v>
       </c>
       <c r="K51" s="14"/>
     </row>
@@ -7730,11 +7742,11 @@
         <v>36302.759567031921</v>
       </c>
       <c r="G53" s="12">
-        <f>V!G171</f>
+        <f>V!G170</f>
         <v>128.22878564462053</v>
       </c>
       <c r="H53" s="12">
-        <f>V!I171</f>
+        <f>V!I170</f>
         <v>405.86</v>
       </c>
       <c r="I53" s="12">
@@ -7763,7 +7775,7 @@
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12">
-        <f>V!J172</f>
+        <f>V!J171</f>
         <v>1861.3767461444502</v>
       </c>
       <c r="J54" s="27">
@@ -7811,11 +7823,11 @@
         <v>22140.655708796941</v>
       </c>
       <c r="G56" s="12">
-        <f>V!G176</f>
+        <f>V!G175</f>
         <v>0</v>
       </c>
       <c r="H56" s="12">
-        <f>V!I176</f>
+        <f>V!I175</f>
         <v>251.77</v>
       </c>
       <c r="I56" s="12">
@@ -7844,7 +7856,7 @@
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12">
-        <f>V!J177</f>
+        <f>V!J176</f>
         <v>0</v>
       </c>
       <c r="J57" s="27">
@@ -7891,11 +7903,11 @@
         <v>89007.512395611091</v>
       </c>
       <c r="G59" s="12">
-        <f>V!G183</f>
+        <f>V!G182</f>
         <v>39.183602159767453</v>
       </c>
       <c r="H59" s="12">
-        <f>V!I183</f>
+        <f>V!I182</f>
         <v>2271.5500000000002</v>
       </c>
       <c r="I59" s="12">
@@ -7921,7 +7933,7 @@
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="12">
-        <f>V!J184</f>
+        <f>V!J183</f>
         <v>10298.782890060318</v>
       </c>
       <c r="J60" s="27">
@@ -7969,11 +7981,11 @@
         <v>23076.056085156444</v>
       </c>
       <c r="G62" s="12">
-        <f>V!G192</f>
+        <f>V!G191</f>
         <v>0</v>
       </c>
       <c r="H62" s="12">
-        <f>V!I192</f>
+        <f>V!I191</f>
         <v>376.73649999999998</v>
       </c>
       <c r="I62" s="12">
@@ -8002,7 +8014,7 @@
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12">
-        <f>V!J193</f>
+        <f>V!J192</f>
         <v>0</v>
       </c>
       <c r="J63" s="27">
@@ -8050,20 +8062,20 @@
         <v>581.46308837460481</v>
       </c>
       <c r="G65" s="12">
-        <f>V!G198</f>
-        <v>0</v>
+        <f>V!G197</f>
+        <v>1.9800000000000002</v>
       </c>
       <c r="H65" s="12">
-        <f>V!I198</f>
+        <f>V!I197</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="I65" s="12">
         <f t="shared" ref="I65" si="48">G65*H65</f>
-        <v>0</v>
+        <v>18.216000000000001</v>
       </c>
       <c r="J65" s="27">
         <f t="shared" si="42"/>
-        <v>-581.46308837460481</v>
+        <v>-563.2470883746048</v>
       </c>
       <c r="K65" s="14"/>
     </row>
@@ -8106,11 +8118,11 @@
         <v>2000</v>
       </c>
       <c r="G67" s="12">
-        <f>V!G200</f>
+        <f>V!G199</f>
         <v>1</v>
       </c>
       <c r="H67" s="12">
-        <f>V!I200</f>
+        <f>V!I199</f>
         <v>2000</v>
       </c>
       <c r="I67" s="12">
@@ -8162,11 +8174,11 @@
         <v>500</v>
       </c>
       <c r="G69" s="12">
-        <f>V!G202</f>
+        <f>V!G201</f>
         <v>1</v>
       </c>
       <c r="H69" s="12">
-        <f>V!I202</f>
+        <f>V!I201</f>
         <v>500</v>
       </c>
       <c r="I69" s="12">
@@ -8208,11 +8220,11 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7">
         <f>SUM(I13:I69)</f>
-        <v>425635.19807122846</v>
+        <v>507244.98805140913</v>
       </c>
       <c r="J71" s="13">
         <f>I71-F71</f>
-        <v>-139337.82143934455</v>
+        <v>-57728.031459163874</v>
       </c>
       <c r="K71" s="5"/>
     </row>
@@ -8953,10 +8965,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V268"/>
+  <dimension ref="A1:V267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F182" sqref="F182"/>
+    <sheetView topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8965,11 +8977,12 @@
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
@@ -10193,14 +10206,14 @@
         <v>1</v>
       </c>
       <c r="D54" s="36">
-        <f>3.1+3.1+5.6+1.6</f>
-        <v>13.4</v>
+        <f>2.67+2.68+2.3+3.35+2.8+3.05+2.5+1.83</f>
+        <v>21.18</v>
       </c>
       <c r="E54" s="36"/>
       <c r="F54" s="36"/>
       <c r="G54" s="37">
         <f>PRODUCT(C54:F54)</f>
-        <v>13.4</v>
+        <v>21.18</v>
       </c>
       <c r="H54" s="38"/>
       <c r="I54" s="38"/>
@@ -10221,8 +10234,8 @@
       <c r="E55" s="36"/>
       <c r="F55" s="36"/>
       <c r="G55" s="32">
-        <f>0*SUM(G54:G54)</f>
-        <v>0</v>
+        <f>SUM(G54:G54)</f>
+        <v>21.18</v>
       </c>
       <c r="H55" s="38" t="s">
         <v>155</v>
@@ -10232,7 +10245,7 @@
       </c>
       <c r="J55" s="40">
         <f>G55*I55</f>
-        <v>0</v>
+        <v>23467.6518</v>
       </c>
       <c r="K55" s="21"/>
     </row>
@@ -10250,7 +10263,7 @@
       <c r="I56" s="38"/>
       <c r="J56" s="40">
         <f>0.13*G55*7076.41/10</f>
-        <v>0</v>
+        <v>1948.4187293999998</v>
       </c>
       <c r="K56" s="21"/>
     </row>
@@ -11913,26 +11926,26 @@
     <row r="123" spans="1:22">
       <c r="A123" s="120"/>
       <c r="B123" s="124" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C123" s="122">
-        <f>0*6</f>
-        <v>0</v>
+        <f>2*C135</f>
+        <v>550</v>
       </c>
       <c r="D123" s="12">
-        <f>(2.5+2+2.5)/12/3.281</f>
-        <v>0.17779132378339937</v>
+        <f>0.125</f>
+        <v>0.125</v>
       </c>
       <c r="E123" s="12">
         <v>0.8</v>
       </c>
       <c r="F123" s="21">
         <f>PRODUCT(C123:E123)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G123" s="91">
         <f>F123</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H123" s="120"/>
       <c r="I123" s="123"/>
@@ -11949,103 +11962,77 @@
       <c r="U123" s="1"/>
       <c r="V123" s="1"/>
     </row>
-    <row r="124" spans="1:22">
+    <row r="124" spans="1:22" s="1" customFormat="1" ht="30">
       <c r="A124" s="120"/>
-      <c r="B124" s="124"/>
+      <c r="B124" s="125" t="s">
+        <v>125</v>
+      </c>
       <c r="C124" s="122">
-        <f>0*2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D124" s="12">
-        <f>1.6+5.6</f>
-        <v>7.1999999999999993</v>
+        <v>2.64</v>
       </c>
       <c r="E124" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="F124" s="21">
-        <f>PRODUCT(C124:E124)</f>
-        <v>0</v>
-      </c>
-      <c r="G124" s="91">
-        <f>F124</f>
-        <v>0</v>
-      </c>
-      <c r="H124" s="120"/>
+        <v>2.72</v>
+      </c>
+      <c r="F124" s="12">
+        <f t="shared" ref="F124:F135" si="16">PRODUCT(C124:E124)</f>
+        <v>28.723200000000002</v>
+      </c>
+      <c r="G124" s="126">
+        <f t="shared" ref="G124:G135" si="17">F124</f>
+        <v>28.723200000000002</v>
+      </c>
+      <c r="H124" s="123"/>
       <c r="I124" s="123"/>
       <c r="J124" s="123"/>
       <c r="K124" s="121"/>
-      <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
-      <c r="Q124" s="1"/>
-      <c r="R124" s="1"/>
-      <c r="S124" s="1"/>
-      <c r="T124" s="1"/>
-      <c r="U124" s="1"/>
-      <c r="V124" s="1"/>
-    </row>
-    <row r="125" spans="1:22">
+    </row>
+    <row r="125" spans="1:22" s="1" customFormat="1">
       <c r="A125" s="120"/>
-      <c r="B125" s="124" t="s">
-        <v>134</v>
-      </c>
+      <c r="B125" s="125"/>
       <c r="C125" s="122">
-        <f>0*TRUNC(D136/0.1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D125" s="12">
-        <f>0.15</f>
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="E125" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="F125" s="21">
-        <f>PRODUCT(C125:E125)</f>
-        <v>0</v>
-      </c>
-      <c r="G125" s="91">
-        <f>F125</f>
-        <v>0</v>
-      </c>
-      <c r="H125" s="120"/>
+        <v>2.72</v>
+      </c>
+      <c r="F125" s="12">
+        <f t="shared" ref="F125:F126" si="18">PRODUCT(C125:E125)</f>
+        <v>4.8960000000000008</v>
+      </c>
+      <c r="G125" s="126">
+        <f t="shared" ref="G125:G126" si="19">F125</f>
+        <v>4.8960000000000008</v>
+      </c>
+      <c r="H125" s="123"/>
       <c r="I125" s="123"/>
       <c r="J125" s="123"/>
       <c r="K125" s="121"/>
-      <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
-      <c r="R125" s="1"/>
-      <c r="S125" s="1"/>
-      <c r="T125" s="1"/>
-      <c r="U125" s="1"/>
-      <c r="V125" s="1"/>
-    </row>
-    <row r="126" spans="1:22" s="1" customFormat="1" ht="30">
+    </row>
+    <row r="126" spans="1:22" s="1" customFormat="1">
       <c r="A126" s="120"/>
-      <c r="B126" s="125" t="s">
-        <v>125</v>
-      </c>
+      <c r="B126" s="125"/>
       <c r="C126" s="122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D126" s="12">
-        <v>2.64</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E126" s="12">
         <v>2.72</v>
       </c>
       <c r="F126" s="12">
-        <f t="shared" ref="F126:F137" si="16">PRODUCT(C126:E126)</f>
-        <v>28.723200000000002</v>
+        <f t="shared" si="18"/>
+        <v>12.512</v>
       </c>
       <c r="G126" s="126">
-        <f t="shared" ref="G126:G137" si="17">F126</f>
-        <v>28.723200000000002</v>
+        <f t="shared" si="19"/>
+        <v>12.512</v>
       </c>
       <c r="H126" s="123"/>
       <c r="I126" s="123"/>
@@ -12054,23 +12041,25 @@
     </row>
     <row r="127" spans="1:22" s="1" customFormat="1">
       <c r="A127" s="120"/>
-      <c r="B127" s="125"/>
+      <c r="B127" s="184" t="s">
+        <v>157</v>
+      </c>
       <c r="C127" s="122">
         <v>4</v>
       </c>
       <c r="D127" s="12">
-        <v>0.45</v>
+        <v>1.75</v>
       </c>
       <c r="E127" s="12">
-        <v>3.72</v>
+        <v>2.72</v>
       </c>
       <c r="F127" s="12">
-        <f t="shared" ref="F127:F128" si="18">PRODUCT(C127:E127)</f>
-        <v>6.6960000000000006</v>
+        <f t="shared" si="16"/>
+        <v>19.040000000000003</v>
       </c>
       <c r="G127" s="126">
-        <f t="shared" ref="G127:G128" si="19">F127</f>
-        <v>6.6960000000000006</v>
+        <f t="shared" si="17"/>
+        <v>19.040000000000003</v>
       </c>
       <c r="H127" s="123"/>
       <c r="I127" s="123"/>
@@ -12079,50 +12068,51 @@
     </row>
     <row r="128" spans="1:22" s="1" customFormat="1">
       <c r="A128" s="120"/>
-      <c r="B128" s="125"/>
+      <c r="B128" s="183"/>
       <c r="C128" s="122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D128" s="12">
-        <v>2.2999999999999998</v>
+        <v>1.39</v>
       </c>
       <c r="E128" s="12">
-        <v>4.72</v>
+        <v>2.72</v>
       </c>
       <c r="F128" s="12">
-        <f t="shared" si="18"/>
-        <v>21.711999999999996</v>
+        <f t="shared" ref="F128" si="20">PRODUCT(C128:E128)</f>
+        <v>15.123200000000001</v>
       </c>
       <c r="G128" s="126">
-        <f t="shared" si="19"/>
-        <v>21.711999999999996</v>
+        <f t="shared" ref="G128" si="21">F128</f>
+        <v>15.123200000000001</v>
       </c>
       <c r="H128" s="123"/>
       <c r="I128" s="123"/>
       <c r="J128" s="123"/>
       <c r="K128" s="121"/>
     </row>
-    <row r="129" spans="1:22" s="1" customFormat="1">
+    <row r="129" spans="1:22" s="1" customFormat="1" ht="45">
       <c r="A129" s="120"/>
-      <c r="B129" s="184" t="s">
-        <v>157</v>
+      <c r="B129" s="125" t="s">
+        <v>126</v>
       </c>
       <c r="C129" s="122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D129" s="12">
-        <v>1.75</v>
+        <f>43.75/3.281</f>
+        <v>13.334349283754952</v>
       </c>
       <c r="E129" s="12">
-        <v>2.72</v>
+        <v>3.87</v>
       </c>
       <c r="F129" s="12">
         <f t="shared" si="16"/>
-        <v>19.040000000000003</v>
+        <v>51.603931728131663</v>
       </c>
       <c r="G129" s="126">
         <f t="shared" si="17"/>
-        <v>19.040000000000003</v>
+        <v>51.603931728131663</v>
       </c>
       <c r="H129" s="123"/>
       <c r="I129" s="123"/>
@@ -12131,51 +12121,50 @@
     </row>
     <row r="130" spans="1:22" s="1" customFormat="1">
       <c r="A130" s="120"/>
-      <c r="B130" s="183"/>
+      <c r="B130" s="125"/>
       <c r="C130" s="122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D130" s="12">
-        <v>1.39</v>
+        <f>43.75/3.281-3.4</f>
+        <v>9.9343492837549512</v>
       </c>
       <c r="E130" s="12">
-        <v>2.72</v>
+        <v>3.87</v>
       </c>
       <c r="F130" s="12">
-        <f t="shared" ref="F130" si="20">PRODUCT(C130:E130)</f>
-        <v>15.123200000000001</v>
+        <f t="shared" ref="F130:F131" si="22">PRODUCT(C130:E130)</f>
+        <v>38.445931728131661</v>
       </c>
       <c r="G130" s="126">
-        <f t="shared" ref="G130" si="21">F130</f>
-        <v>15.123200000000001</v>
+        <f t="shared" ref="G130:G131" si="23">F130</f>
+        <v>38.445931728131661</v>
       </c>
       <c r="H130" s="123"/>
       <c r="I130" s="123"/>
       <c r="J130" s="123"/>
       <c r="K130" s="121"/>
     </row>
-    <row r="131" spans="1:22" s="1" customFormat="1" ht="45">
+    <row r="131" spans="1:22" s="1" customFormat="1">
       <c r="A131" s="120"/>
-      <c r="B131" s="125" t="s">
-        <v>126</v>
-      </c>
+      <c r="B131" s="125"/>
       <c r="C131" s="122">
         <v>1</v>
       </c>
       <c r="D131" s="12">
-        <f>43.75/3.281</f>
-        <v>13.334349283754952</v>
+        <f>(D129+D130)/2</f>
+        <v>11.63434928375495</v>
       </c>
       <c r="E131" s="12">
         <v>3.87</v>
       </c>
       <c r="F131" s="12">
-        <f t="shared" si="16"/>
-        <v>51.603931728131663</v>
+        <f t="shared" si="22"/>
+        <v>45.024931728131662</v>
       </c>
       <c r="G131" s="126">
-        <f t="shared" si="17"/>
-        <v>51.603931728131663</v>
+        <f t="shared" si="23"/>
+        <v>45.024931728131662</v>
       </c>
       <c r="H131" s="123"/>
       <c r="I131" s="123"/>
@@ -12186,48 +12175,49 @@
       <c r="A132" s="120"/>
       <c r="B132" s="125"/>
       <c r="C132" s="122">
-        <v>1</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="D132" s="12">
-        <f>43.75/3.281-3.4</f>
-        <v>9.9343492837549512</v>
+        <f>25.17/3.281</f>
+        <v>7.6714416336482785</v>
       </c>
       <c r="E132" s="12">
         <v>3.87</v>
       </c>
       <c r="F132" s="12">
-        <f t="shared" ref="F132:F133" si="22">PRODUCT(C132:E132)</f>
-        <v>38.445931728131661</v>
+        <f t="shared" ref="F132" si="24">PRODUCT(C132:E132)</f>
+        <v>118.75391648887535</v>
       </c>
       <c r="G132" s="126">
-        <f t="shared" ref="G132:G133" si="23">F132</f>
-        <v>38.445931728131661</v>
+        <f t="shared" ref="G132" si="25">F132</f>
+        <v>118.75391648887535</v>
       </c>
       <c r="H132" s="123"/>
       <c r="I132" s="123"/>
       <c r="J132" s="123"/>
       <c r="K132" s="121"/>
     </row>
-    <row r="133" spans="1:22" s="1" customFormat="1">
+    <row r="133" spans="1:22" s="1" customFormat="1" ht="30">
       <c r="A133" s="120"/>
-      <c r="B133" s="125"/>
-      <c r="C133" s="122">
-        <v>1</v>
-      </c>
+      <c r="B133" s="125" t="s">
+        <v>170</v>
+      </c>
+      <c r="C133" s="122"/>
       <c r="D133" s="12">
-        <f>(D131+D132)/2</f>
-        <v>11.63434928375495</v>
+        <f>3.3+0.65+4.5+4.5+1.45+4.5+1.07+4.5+2.2+4.07+0.64+1.32</f>
+        <v>32.699999999999996</v>
       </c>
       <c r="E133" s="12">
-        <v>3.87</v>
+        <v>1.2</v>
       </c>
       <c r="F133" s="12">
-        <f t="shared" si="22"/>
-        <v>45.024931728131662</v>
+        <f t="shared" si="16"/>
+        <v>39.239999999999995</v>
       </c>
       <c r="G133" s="126">
-        <f t="shared" si="23"/>
-        <v>45.024931728131662</v>
+        <f t="shared" si="17"/>
+        <v>39.239999999999995</v>
       </c>
       <c r="H133" s="123"/>
       <c r="I133" s="123"/>
@@ -12236,157 +12226,149 @@
     </row>
     <row r="134" spans="1:22" s="1" customFormat="1">
       <c r="A134" s="120"/>
-      <c r="B134" s="125"/>
+      <c r="B134" s="125" t="s">
+        <v>133</v>
+      </c>
       <c r="C134" s="122">
-        <v>4</v>
+        <f>34</f>
+        <v>34</v>
       </c>
       <c r="D134" s="12">
-        <f>25.17/3.281</f>
-        <v>7.6714416336482785</v>
+        <v>0.75</v>
       </c>
       <c r="E134" s="12">
-        <v>3.87</v>
+        <v>1.52</v>
       </c>
       <c r="F134" s="12">
-        <f t="shared" ref="F134" si="24">PRODUCT(C134:E134)</f>
-        <v>118.75391648887535</v>
+        <f t="shared" si="16"/>
+        <v>38.76</v>
       </c>
       <c r="G134" s="126">
-        <f t="shared" ref="G134" si="25">F134</f>
-        <v>118.75391648887535</v>
+        <f t="shared" si="17"/>
+        <v>38.76</v>
       </c>
       <c r="H134" s="123"/>
       <c r="I134" s="123"/>
       <c r="J134" s="123"/>
       <c r="K134" s="121"/>
     </row>
-    <row r="135" spans="1:22" s="1" customFormat="1" ht="30">
+    <row r="135" spans="1:22" s="1" customFormat="1">
       <c r="A135" s="120"/>
       <c r="B135" s="125" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="C135" s="122">
-        <f>0*1</f>
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="D135" s="12">
-        <f>1.6+5.6</f>
-        <v>7.1999999999999993</v>
+        <f>2.5/3.281</f>
+        <v>0.76196281621456874</v>
       </c>
       <c r="E135" s="12">
-        <v>1.52</v>
+        <v>0.71</v>
       </c>
       <c r="F135" s="12">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>148.77323986589454</v>
       </c>
       <c r="G135" s="126">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>148.77323986589454</v>
       </c>
       <c r="H135" s="123"/>
       <c r="I135" s="123"/>
       <c r="J135" s="123"/>
       <c r="K135" s="121"/>
-    </row>
-    <row r="136" spans="1:22" s="1" customFormat="1">
+      <c r="M135" s="1">
+        <f>backyard!G99*backyard!I100-V!G135*V!I137</f>
+        <v>48234.234760743668</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" s="1" customFormat="1" ht="30">
       <c r="A136" s="120"/>
       <c r="B136" s="125" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="C136" s="122">
-        <f>0*2</f>
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="D136" s="12">
-        <f>5.6+5.92+2.83+1.2+0.85+5.2+6.9+5.8+4.3+6.3+1.5+1.8</f>
-        <v>48.199999999999989</v>
+        <f>0.4+0.48+0.95+0.95+0.35+0.43+0.45+0.43+0.43+0.45+0.45+0.4+0.36+0.38+0.38+0.4+0.4</f>
+        <v>8.0900000000000016</v>
       </c>
       <c r="E136" s="12">
-        <v>1.52</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="F136" s="12">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>PRODUCT(C136:E136)</f>
+        <v>18.768800000000002</v>
       </c>
       <c r="G136" s="126">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f>F136</f>
+        <v>18.768800000000002</v>
       </c>
       <c r="H136" s="123"/>
       <c r="I136" s="123"/>
       <c r="J136" s="123"/>
       <c r="K136" s="121"/>
     </row>
-    <row r="137" spans="1:22" s="1" customFormat="1">
-      <c r="A137" s="120"/>
-      <c r="B137" s="125" t="s">
-        <v>135</v>
-      </c>
-      <c r="C137" s="122">
-        <f>C125</f>
-        <v>0</v>
-      </c>
-      <c r="D137" s="12">
-        <f>2.5/3.281</f>
-        <v>0.76196281621456874</v>
-      </c>
-      <c r="E137" s="12">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="F137" s="12">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G137" s="126">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H137" s="123"/>
-      <c r="I137" s="123"/>
-      <c r="J137" s="123"/>
-      <c r="K137" s="121"/>
+    <row r="137" spans="1:22" ht="15" customHeight="1">
+      <c r="A137" s="18"/>
+      <c r="B137" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C137" s="19"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="23">
+        <f>SUM(G123:G136)</f>
+        <v>634.66515153916498</v>
+      </c>
+      <c r="H137" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I137" s="23">
+        <v>181.17</v>
+      </c>
+      <c r="J137" s="39">
+        <f>G137*I137</f>
+        <v>114982.28550435051</v>
+      </c>
+      <c r="K137" s="21"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="1"/>
+      <c r="U137" s="1"/>
+      <c r="V137" s="1"/>
     </row>
     <row r="138" spans="1:22" ht="15" customHeight="1">
       <c r="A138" s="18"/>
       <c r="B138" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C138" s="19"/>
       <c r="D138" s="20"/>
       <c r="E138" s="21"/>
       <c r="F138" s="21"/>
-      <c r="G138" s="23">
-        <f>SUM(G123:G137)</f>
-        <v>345.12311167327033</v>
-      </c>
-      <c r="H138" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="I138" s="23">
-        <v>181.17</v>
-      </c>
+      <c r="G138" s="23"/>
+      <c r="H138" s="22"/>
+      <c r="I138" s="23"/>
       <c r="J138" s="39">
-        <f>G138*I138</f>
-        <v>62525.954141846378</v>
+        <f>0.13*G137*1871.42/18.94</f>
+        <v>8152.2839242948858</v>
       </c>
       <c r="K138" s="21"/>
-      <c r="M138" s="1"/>
-      <c r="N138" s="1"/>
-      <c r="O138" s="1"/>
-      <c r="P138" s="1"/>
-      <c r="Q138" s="1"/>
-      <c r="R138" s="1"/>
-      <c r="S138" s="1"/>
-      <c r="T138" s="1"/>
-      <c r="U138" s="1"/>
-      <c r="V138" s="1"/>
     </row>
     <row r="139" spans="1:22" ht="15" customHeight="1">
       <c r="A139" s="18"/>
-      <c r="B139" s="35" t="s">
-        <v>40</v>
-      </c>
+      <c r="B139" s="35"/>
       <c r="C139" s="19"/>
       <c r="D139" s="20"/>
       <c r="E139" s="21"/>
@@ -12394,81 +12376,89 @@
       <c r="G139" s="23"/>
       <c r="H139" s="22"/>
       <c r="I139" s="23"/>
-      <c r="J139" s="39">
-        <f>0.13*G138*1871.42/18.94</f>
-        <v>4433.1118360183154</v>
-      </c>
+      <c r="J139" s="39"/>
       <c r="K139" s="21"/>
     </row>
-    <row r="140" spans="1:22" ht="15" customHeight="1">
-      <c r="A140" s="18"/>
-      <c r="B140" s="35"/>
+    <row r="140" spans="1:22" s="1" customFormat="1" ht="30">
+      <c r="A140" s="18">
+        <v>15</v>
+      </c>
+      <c r="B140" s="128" t="s">
+        <v>127</v>
+      </c>
       <c r="C140" s="19"/>
       <c r="D140" s="20"/>
       <c r="E140" s="21"/>
       <c r="F140" s="21"/>
-      <c r="G140" s="23"/>
+      <c r="G140" s="123"/>
       <c r="H140" s="22"/>
       <c r="I140" s="23"/>
-      <c r="J140" s="39"/>
+      <c r="J140" s="123"/>
       <c r="K140" s="21"/>
-    </row>
-    <row r="141" spans="1:22" s="1" customFormat="1" ht="30">
-      <c r="A141" s="18">
-        <v>15</v>
-      </c>
-      <c r="B141" s="128" t="s">
-        <v>127</v>
-      </c>
-      <c r="C141" s="19"/>
-      <c r="D141" s="20"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="123"/>
-      <c r="H141" s="22"/>
-      <c r="I141" s="23"/>
-      <c r="J141" s="123"/>
-      <c r="K141" s="21"/>
-      <c r="M141"/>
-      <c r="N141"/>
-      <c r="O141"/>
-      <c r="P141"/>
-      <c r="Q141"/>
-      <c r="R141"/>
-      <c r="S141"/>
-      <c r="T141"/>
-      <c r="U141"/>
-      <c r="V141"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+      <c r="Q140"/>
+      <c r="R140"/>
+      <c r="S140"/>
+      <c r="T140"/>
+      <c r="U140"/>
+      <c r="V140"/>
+    </row>
+    <row r="141" spans="1:22" ht="15" customHeight="1">
+      <c r="A141" s="18"/>
+      <c r="B141" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C141" s="34">
+        <v>2</v>
+      </c>
+      <c r="D141" s="36">
+        <f>7.667/3.281</f>
+        <v>2.3367875647668392</v>
+      </c>
+      <c r="E141" s="36"/>
+      <c r="F141" s="36">
+        <f>1.04</f>
+        <v>1.04</v>
+      </c>
+      <c r="G141" s="37">
+        <f>PRODUCT(C141:F141)</f>
+        <v>4.8605181347150257</v>
+      </c>
+      <c r="H141" s="38"/>
+      <c r="I141" s="38"/>
+      <c r="J141" s="38"/>
+      <c r="K141" s="185"/>
+      <c r="N141">
+        <f>5.84+1.76</f>
+        <v>7.6</v>
+      </c>
     </row>
     <row r="142" spans="1:22" ht="15" customHeight="1">
       <c r="A142" s="18"/>
-      <c r="B142" s="35" t="s">
-        <v>48</v>
-      </c>
+      <c r="B142" s="35"/>
       <c r="C142" s="34">
         <v>2</v>
       </c>
       <c r="D142" s="36">
-        <f>7.667/3.281</f>
-        <v>2.3367875647668392</v>
+        <f>(10.5-0.75)/3.281</f>
+        <v>2.9716549832368178</v>
       </c>
       <c r="E142" s="36"/>
       <c r="F142" s="36">
-        <f>1.04</f>
-        <v>1.04</v>
+        <f>((0.85+0.59)/2)</f>
+        <v>0.72</v>
       </c>
       <c r="G142" s="37">
-        <f>PRODUCT(C142:F142)</f>
-        <v>4.8605181347150257</v>
+        <f t="shared" ref="G142:G153" si="26">PRODUCT(C142:F142)</f>
+        <v>4.279183175861017</v>
       </c>
       <c r="H142" s="38"/>
       <c r="I142" s="38"/>
       <c r="J142" s="38"/>
       <c r="K142" s="185"/>
-      <c r="N142">
-        <f>5.84+1.76</f>
-        <v>7.6</v>
-      </c>
     </row>
     <row r="143" spans="1:22" ht="15" customHeight="1">
       <c r="A143" s="18"/>
@@ -12477,17 +12467,17 @@
         <v>2</v>
       </c>
       <c r="D143" s="36">
-        <f>(10.5-0.75)/3.281</f>
-        <v>2.9716549832368178</v>
+        <f>1.4-0.3-0.23</f>
+        <v>0.86999999999999988</v>
       </c>
       <c r="E143" s="36"/>
       <c r="F143" s="36">
-        <f>((0.85+0.59)/2)</f>
-        <v>0.72</v>
+        <f>0.18</f>
+        <v>0.18</v>
       </c>
       <c r="G143" s="37">
-        <f t="shared" ref="G143:G154" si="26">PRODUCT(C143:F143)</f>
-        <v>4.279183175861017</v>
+        <f t="shared" si="26"/>
+        <v>0.31319999999999992</v>
       </c>
       <c r="H143" s="38"/>
       <c r="I143" s="38"/>
@@ -12501,17 +12491,17 @@
         <v>2</v>
       </c>
       <c r="D144" s="36">
-        <f>1.4-0.3-0.23</f>
-        <v>0.86999999999999988</v>
+        <f>13.833/3.281</f>
+        <v>4.2160926546784516</v>
       </c>
       <c r="E144" s="36"/>
       <c r="F144" s="36">
-        <f>0.18</f>
-        <v>0.18</v>
+        <f>(0.5+0.85)/2</f>
+        <v>0.67500000000000004</v>
       </c>
       <c r="G144" s="37">
         <f t="shared" si="26"/>
-        <v>0.31319999999999992</v>
+        <v>5.6917250838159097</v>
       </c>
       <c r="H144" s="38"/>
       <c r="I144" s="38"/>
@@ -12525,17 +12515,17 @@
         <v>2</v>
       </c>
       <c r="D145" s="36">
-        <f>13.833/3.281</f>
-        <v>4.2160926546784516</v>
+        <f>9.42/3.281</f>
+        <v>2.8710758914964947</v>
       </c>
       <c r="E145" s="36"/>
       <c r="F145" s="36">
-        <f>(0.5+0.85)/2</f>
-        <v>0.67500000000000004</v>
+        <f>(((0.5-0.08)+0.39)/2)</f>
+        <v>0.40500000000000003</v>
       </c>
       <c r="G145" s="37">
         <f t="shared" si="26"/>
-        <v>5.6917250838159097</v>
+        <v>2.325571472112161</v>
       </c>
       <c r="H145" s="38"/>
       <c r="I145" s="38"/>
@@ -12549,17 +12539,17 @@
         <v>2</v>
       </c>
       <c r="D146" s="36">
-        <f>9.42/3.281</f>
-        <v>2.8710758914964947</v>
+        <f>1.35-0.31</f>
+        <v>1.04</v>
       </c>
       <c r="E146" s="36"/>
       <c r="F146" s="36">
-        <f>(((0.5-0.08)+0.39)/2)</f>
-        <v>0.40500000000000003</v>
+        <f>((0.08+0.1)/2)</f>
+        <v>0.09</v>
       </c>
       <c r="G146" s="37">
         <f t="shared" si="26"/>
-        <v>2.325571472112161</v>
+        <v>0.18720000000000001</v>
       </c>
       <c r="H146" s="38"/>
       <c r="I146" s="38"/>
@@ -12573,17 +12563,17 @@
         <v>2</v>
       </c>
       <c r="D147" s="36">
-        <f>1.35-0.31</f>
-        <v>1.04</v>
+        <f>9.42/3.281</f>
+        <v>2.8710758914964947</v>
       </c>
       <c r="E147" s="36"/>
       <c r="F147" s="36">
-        <f>((0.08+0.1)/2)</f>
-        <v>0.09</v>
+        <f>((0.4+0.39)/2)</f>
+        <v>0.39500000000000002</v>
       </c>
       <c r="G147" s="37">
         <f t="shared" si="26"/>
-        <v>0.18720000000000001</v>
+        <v>2.2681499542822308</v>
       </c>
       <c r="H147" s="38"/>
       <c r="I147" s="38"/>
@@ -12597,17 +12587,17 @@
         <v>2</v>
       </c>
       <c r="D148" s="36">
-        <f>9.42/3.281</f>
-        <v>2.8710758914964947</v>
+        <f>1.39-0.3</f>
+        <v>1.0899999999999999</v>
       </c>
       <c r="E148" s="36"/>
       <c r="F148" s="36">
-        <f>((0.4+0.39)/2)</f>
-        <v>0.39500000000000002</v>
+        <f>((0.12+0.1)/2)</f>
+        <v>0.11</v>
       </c>
       <c r="G148" s="37">
         <f t="shared" si="26"/>
-        <v>2.2681499542822308</v>
+        <v>0.23979999999999996</v>
       </c>
       <c r="H148" s="38"/>
       <c r="I148" s="38"/>
@@ -12621,17 +12611,17 @@
         <v>2</v>
       </c>
       <c r="D149" s="36">
-        <f>1.39-0.3</f>
-        <v>1.0899999999999999</v>
+        <f>7.333/3.281</f>
+        <v>2.234989332520573</v>
       </c>
       <c r="E149" s="36"/>
       <c r="F149" s="36">
-        <f>((0.12+0.1)/2)</f>
-        <v>0.11</v>
+        <f>((1.02+1.08)/2)</f>
+        <v>1.05</v>
       </c>
       <c r="G149" s="37">
         <f t="shared" si="26"/>
-        <v>0.23979999999999996</v>
+        <v>4.6934775982932031</v>
       </c>
       <c r="H149" s="38"/>
       <c r="I149" s="38"/>
@@ -12645,17 +12635,17 @@
         <v>2</v>
       </c>
       <c r="D150" s="36">
-        <f>7.333/3.281</f>
-        <v>2.234989332520573</v>
+        <f>4.27-0.3</f>
+        <v>3.9699999999999998</v>
       </c>
       <c r="E150" s="36"/>
       <c r="F150" s="36">
-        <f>((1.02+1.08)/2)</f>
-        <v>1.05</v>
+        <f>((0.5+0.85)/2)</f>
+        <v>0.67500000000000004</v>
       </c>
       <c r="G150" s="37">
         <f t="shared" si="26"/>
-        <v>4.6934775982932031</v>
+        <v>5.3594999999999997</v>
       </c>
       <c r="H150" s="38"/>
       <c r="I150" s="38"/>
@@ -12669,17 +12659,17 @@
         <v>2</v>
       </c>
       <c r="D151" s="36">
-        <f>4.27-0.3</f>
-        <v>3.9699999999999998</v>
+        <f>9.5/3.281</f>
+        <v>2.895458701615361</v>
       </c>
       <c r="E151" s="36"/>
       <c r="F151" s="36">
-        <f>((0.5+0.85)/2)</f>
-        <v>0.67500000000000004</v>
+        <f>((0.32+0.38)/2)</f>
+        <v>0.35</v>
       </c>
       <c r="G151" s="37">
         <f t="shared" si="26"/>
-        <v>5.3594999999999997</v>
+        <v>2.0268210911307527</v>
       </c>
       <c r="H151" s="38"/>
       <c r="I151" s="38"/>
@@ -12693,17 +12683,17 @@
         <v>2</v>
       </c>
       <c r="D152" s="36">
-        <f>9.5/3.281</f>
-        <v>2.895458701615361</v>
+        <f>5.333/3.281</f>
+        <v>1.6254190795489181</v>
       </c>
       <c r="E152" s="36"/>
       <c r="F152" s="36">
-        <f>((0.32+0.38)/2)</f>
-        <v>0.35</v>
+        <f>((0.12+0.1)/2)</f>
+        <v>0.11</v>
       </c>
       <c r="G152" s="37">
         <f t="shared" si="26"/>
-        <v>2.0268210911307527</v>
+        <v>0.35759219750076199</v>
       </c>
       <c r="H152" s="38"/>
       <c r="I152" s="38"/>
@@ -12717,17 +12707,16 @@
         <v>2</v>
       </c>
       <c r="D153" s="36">
-        <f>5.333/3.281</f>
-        <v>1.6254190795489181</v>
+        <f>25.17/3.281</f>
+        <v>7.6714416336482785</v>
       </c>
       <c r="E153" s="36"/>
       <c r="F153" s="36">
-        <f>((0.12+0.1)/2)</f>
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G153" s="37">
         <f t="shared" si="26"/>
-        <v>0.35759219750076199</v>
+        <v>7.6714416336482785</v>
       </c>
       <c r="H153" s="38"/>
       <c r="I153" s="38"/>
@@ -12736,21 +12725,24 @@
     </row>
     <row r="154" spans="1:11" ht="15" customHeight="1">
       <c r="A154" s="18"/>
-      <c r="B154" s="35"/>
+      <c r="B154" s="125" t="s">
+        <v>152</v>
+      </c>
       <c r="C154" s="34">
         <v>2</v>
       </c>
       <c r="D154" s="36">
-        <f>25.17/3.281</f>
-        <v>7.6714416336482785</v>
+        <f>23.333/3.281</f>
+        <v>7.1115513562938117</v>
       </c>
       <c r="E154" s="36"/>
       <c r="F154" s="36">
-        <v>0.5</v>
+        <f>0.2</f>
+        <v>0.2</v>
       </c>
       <c r="G154" s="37">
-        <f t="shared" si="26"/>
-        <v>7.6714416336482785</v>
+        <f>PRODUCT(C154:F154)</f>
+        <v>2.8446205425175251</v>
       </c>
       <c r="H154" s="38"/>
       <c r="I154" s="38"/>
@@ -12759,24 +12751,23 @@
     </row>
     <row r="155" spans="1:11" ht="15" customHeight="1">
       <c r="A155" s="18"/>
-      <c r="B155" s="125" t="s">
-        <v>152</v>
+      <c r="B155" s="35" t="s">
+        <v>164</v>
       </c>
       <c r="C155" s="34">
         <v>2</v>
       </c>
       <c r="D155" s="36">
-        <f>23.333/3.281</f>
-        <v>7.1115513562938117</v>
+        <f>2.1</f>
+        <v>2.1</v>
       </c>
       <c r="E155" s="36"/>
       <c r="F155" s="36">
-        <f>0.2</f>
-        <v>0.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G155" s="37">
-        <f>PRODUCT(C155:F155)</f>
-        <v>2.8446205425175251</v>
+        <f t="shared" ref="G155:G169" si="27">PRODUCT(C155:F155)</f>
+        <v>4.620000000000001</v>
       </c>
       <c r="H155" s="38"/>
       <c r="I155" s="38"/>
@@ -12785,23 +12776,22 @@
     </row>
     <row r="156" spans="1:11" ht="15" customHeight="1">
       <c r="A156" s="18"/>
-      <c r="B156" s="35" t="s">
-        <v>164</v>
-      </c>
+      <c r="B156" s="35"/>
       <c r="C156" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156" s="36">
-        <f>2.1</f>
-        <v>2.1</v>
+        <f>14/3.281</f>
+        <v>4.2669917708015843</v>
       </c>
       <c r="E156" s="36"/>
       <c r="F156" s="36">
-        <v>1.1000000000000001</v>
+        <f>(1.85+1.55)/2</f>
+        <v>1.7000000000000002</v>
       </c>
       <c r="G156" s="37">
-        <f t="shared" ref="G156:G170" si="27">PRODUCT(C156:F156)</f>
-        <v>4.620000000000001</v>
+        <f t="shared" si="27"/>
+        <v>7.2538860103626943</v>
       </c>
       <c r="H156" s="38"/>
       <c r="I156" s="38"/>
@@ -12815,17 +12805,17 @@
         <v>1</v>
       </c>
       <c r="D157" s="36">
-        <f>14/3.281</f>
-        <v>4.2669917708015843</v>
+        <f>(22.5/3.281)</f>
+        <v>6.8576653459311183</v>
       </c>
       <c r="E157" s="36"/>
       <c r="F157" s="36">
-        <f>(1.85+1.55)/2</f>
-        <v>1.7000000000000002</v>
+        <f>(1.55+1.05)/2</f>
+        <v>1.3</v>
       </c>
       <c r="G157" s="37">
         <f t="shared" si="27"/>
-        <v>7.2538860103626943</v>
+        <v>8.9149649497104537</v>
       </c>
       <c r="H157" s="38"/>
       <c r="I157" s="38"/>
@@ -12839,17 +12829,17 @@
         <v>1</v>
       </c>
       <c r="D158" s="36">
-        <f>(22.5/3.281)</f>
-        <v>6.8576653459311183</v>
+        <f>(19/3.281)</f>
+        <v>5.790917403230722</v>
       </c>
       <c r="E158" s="36"/>
       <c r="F158" s="36">
-        <f>(1.55+1.05)/2</f>
-        <v>1.3</v>
+        <f>(1.36+0.95)/2</f>
+        <v>1.155</v>
       </c>
       <c r="G158" s="37">
         <f t="shared" si="27"/>
-        <v>8.9149649497104537</v>
+        <v>6.6885096007314839</v>
       </c>
       <c r="H158" s="38"/>
       <c r="I158" s="38"/>
@@ -12863,17 +12853,17 @@
         <v>1</v>
       </c>
       <c r="D159" s="36">
-        <f>(19/3.281)</f>
-        <v>5.790917403230722</v>
+        <f>34.5/3.281</f>
+        <v>10.515086863761049</v>
       </c>
       <c r="E159" s="36"/>
       <c r="F159" s="36">
-        <f>(1.36+0.95)/2</f>
-        <v>1.155</v>
+        <f>(0.5+0.95)/2</f>
+        <v>0.72499999999999998</v>
       </c>
       <c r="G159" s="37">
         <f t="shared" si="27"/>
-        <v>6.6885096007314839</v>
+        <v>7.6234379762267599</v>
       </c>
       <c r="H159" s="38"/>
       <c r="I159" s="38"/>
@@ -12887,17 +12877,16 @@
         <v>1</v>
       </c>
       <c r="D160" s="36">
-        <f>34.5/3.281</f>
-        <v>10.515086863761049</v>
+        <f>34.75/3.281</f>
+        <v>10.591283145382505</v>
       </c>
       <c r="E160" s="36"/>
       <c r="F160" s="36">
-        <f>(0.5+0.95)/2</f>
-        <v>0.72499999999999998</v>
+        <v>1.3</v>
       </c>
       <c r="G160" s="37">
         <f t="shared" si="27"/>
-        <v>7.6234379762267599</v>
+        <v>13.768668088997257</v>
       </c>
       <c r="H160" s="38"/>
       <c r="I160" s="38"/>
@@ -12911,16 +12900,16 @@
         <v>1</v>
       </c>
       <c r="D161" s="36">
-        <f>34.75/3.281</f>
-        <v>10.591283145382505</v>
+        <f>3.12-0.3</f>
+        <v>2.8200000000000003</v>
       </c>
       <c r="E161" s="36"/>
       <c r="F161" s="36">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="G161" s="37">
         <f t="shared" si="27"/>
-        <v>13.768668088997257</v>
+        <v>5.3580000000000005</v>
       </c>
       <c r="H161" s="38"/>
       <c r="I161" s="38"/>
@@ -12934,16 +12923,17 @@
         <v>1</v>
       </c>
       <c r="D162" s="36">
-        <f>3.12-0.3</f>
-        <v>2.8200000000000003</v>
+        <f>22.583/3.281</f>
+        <v>6.882962511429441</v>
       </c>
       <c r="E162" s="36"/>
       <c r="F162" s="36">
-        <v>1.9</v>
+        <f>0.23+0.34</f>
+        <v>0.57000000000000006</v>
       </c>
       <c r="G162" s="37">
         <f t="shared" si="27"/>
-        <v>5.3580000000000005</v>
+        <v>3.9232886315147817</v>
       </c>
       <c r="H162" s="38"/>
       <c r="I162" s="38"/>
@@ -12957,8 +12947,8 @@
         <v>1</v>
       </c>
       <c r="D163" s="36">
-        <f>22.583/3.281</f>
-        <v>6.882962511429441</v>
+        <f>13/3.281</f>
+        <v>3.9622066443157573</v>
       </c>
       <c r="E163" s="36"/>
       <c r="F163" s="36">
@@ -12967,7 +12957,7 @@
       </c>
       <c r="G163" s="37">
         <f t="shared" si="27"/>
-        <v>3.9232886315147817</v>
+        <v>2.258457787259982</v>
       </c>
       <c r="H163" s="38"/>
       <c r="I163" s="38"/>
@@ -12981,17 +12971,16 @@
         <v>1</v>
       </c>
       <c r="D164" s="36">
-        <f>13/3.281</f>
-        <v>3.9622066443157573</v>
+        <f>22.583/3.281</f>
+        <v>6.882962511429441</v>
       </c>
       <c r="E164" s="36"/>
       <c r="F164" s="36">
-        <f>0.23+0.34</f>
-        <v>0.57000000000000006</v>
+        <v>0.3</v>
       </c>
       <c r="G164" s="37">
         <f t="shared" si="27"/>
-        <v>2.258457787259982</v>
+        <v>2.064888753428832</v>
       </c>
       <c r="H164" s="38"/>
       <c r="I164" s="38"/>
@@ -13005,16 +12994,15 @@
         <v>1</v>
       </c>
       <c r="D165" s="36">
-        <f>22.583/3.281</f>
-        <v>6.882962511429441</v>
+        <v>2.1</v>
       </c>
       <c r="E165" s="36"/>
       <c r="F165" s="36">
-        <v>0.3</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G165" s="37">
         <f t="shared" si="27"/>
-        <v>2.064888753428832</v>
+        <v>1.218</v>
       </c>
       <c r="H165" s="38"/>
       <c r="I165" s="38"/>
@@ -13028,15 +13016,15 @@
         <v>1</v>
       </c>
       <c r="D166" s="36">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="E166" s="36"/>
       <c r="F166" s="36">
-        <v>0.57999999999999996</v>
+        <v>0.39</v>
       </c>
       <c r="G166" s="37">
         <f t="shared" si="27"/>
-        <v>1.218</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="H166" s="38"/>
       <c r="I166" s="38"/>
@@ -13047,18 +13035,19 @@
       <c r="A167" s="18"/>
       <c r="B167" s="35"/>
       <c r="C167" s="34">
-        <v>1</v>
+        <f>9*2</f>
+        <v>18</v>
       </c>
       <c r="D167" s="36">
-        <v>1.5</v>
+        <v>0.125</v>
       </c>
       <c r="E167" s="36"/>
       <c r="F167" s="36">
-        <v>0.39</v>
+        <v>0.94</v>
       </c>
       <c r="G167" s="37">
         <f t="shared" si="27"/>
-        <v>0.58499999999999996</v>
+        <v>2.1149999999999998</v>
       </c>
       <c r="H167" s="38"/>
       <c r="I167" s="38"/>
@@ -13069,19 +13058,20 @@
       <c r="A168" s="18"/>
       <c r="B168" s="35"/>
       <c r="C168" s="34">
-        <f>9*2</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D168" s="36">
-        <v>0.125</v>
+        <f>18.25/3.281</f>
+        <v>5.5623285583663513</v>
       </c>
       <c r="E168" s="36"/>
       <c r="F168" s="36">
-        <v>0.94</v>
+        <f>(1.35+1.52)/2</f>
+        <v>1.4350000000000001</v>
       </c>
       <c r="G168" s="37">
         <f t="shared" si="27"/>
-        <v>2.1149999999999998</v>
+        <v>15.963882962511429</v>
       </c>
       <c r="H168" s="38"/>
       <c r="I168" s="38"/>
@@ -13092,20 +13082,19 @@
       <c r="A169" s="18"/>
       <c r="B169" s="35"/>
       <c r="C169" s="34">
-        <v>2</v>
+        <f>17*2</f>
+        <v>34</v>
       </c>
       <c r="D169" s="36">
-        <f>18.25/3.281</f>
-        <v>5.5623285583663513</v>
+        <v>0.1</v>
       </c>
       <c r="E169" s="36"/>
       <c r="F169" s="36">
-        <f>(1.35+1.52)/2</f>
-        <v>1.4350000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="G169" s="37">
         <f t="shared" si="27"/>
-        <v>15.963882962511429</v>
+        <v>2.7540000000000004</v>
       </c>
       <c r="H169" s="38"/>
       <c r="I169" s="38"/>
@@ -13114,57 +13103,61 @@
     </row>
     <row r="170" spans="1:22" ht="15" customHeight="1">
       <c r="A170" s="18"/>
-      <c r="B170" s="35"/>
-      <c r="C170" s="34">
-        <f>17*2</f>
-        <v>34</v>
-      </c>
-      <c r="D170" s="36">
-        <v>0.1</v>
-      </c>
+      <c r="B170" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C170" s="34"/>
+      <c r="D170" s="36"/>
       <c r="E170" s="36"/>
-      <c r="F170" s="36">
-        <v>0.81</v>
-      </c>
+      <c r="F170" s="36"/>
       <c r="G170" s="37">
-        <f t="shared" si="27"/>
-        <v>2.7540000000000004</v>
-      </c>
-      <c r="H170" s="38"/>
-      <c r="I170" s="38"/>
-      <c r="J170" s="38"/>
+        <f>SUM(G141:G169)</f>
+        <v>128.22878564462053</v>
+      </c>
+      <c r="H170" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I170" s="38">
+        <v>405.86</v>
+      </c>
+      <c r="J170" s="38">
+        <f>G170*I170</f>
+        <v>52042.934941725689</v>
+      </c>
       <c r="K170" s="185"/>
     </row>
-    <row r="171" spans="1:22" ht="15" customHeight="1">
+    <row r="171" spans="1:22" s="1" customFormat="1" ht="18">
       <c r="A171" s="18"/>
-      <c r="B171" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C171" s="34"/>
-      <c r="D171" s="36"/>
-      <c r="E171" s="36"/>
-      <c r="F171" s="36"/>
-      <c r="G171" s="37">
-        <f>SUM(G142:G170)</f>
-        <v>128.22878564462053</v>
-      </c>
-      <c r="H171" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="I171" s="38">
-        <v>405.86</v>
-      </c>
-      <c r="J171" s="38">
-        <f>G171*I171</f>
-        <v>52042.934941725689</v>
-      </c>
-      <c r="K171" s="185"/>
+      <c r="B171" s="125" t="s">
+        <v>130</v>
+      </c>
+      <c r="C171" s="19"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="123"/>
+      <c r="H171" s="22"/>
+      <c r="I171" s="23"/>
+      <c r="J171" s="123">
+        <f>0.13*G170*11166.2/100</f>
+        <v>1861.3767461444502</v>
+      </c>
+      <c r="K171" s="21"/>
+      <c r="N171" s="186" t="s">
+        <v>143</v>
+      </c>
+      <c r="O171" s="186"/>
+      <c r="P171" s="186"/>
+      <c r="Q171" s="186"/>
+      <c r="R171" s="186"/>
+      <c r="S171" s="186"/>
+      <c r="T171" s="186"/>
+      <c r="U171"/>
+      <c r="V171"/>
     </row>
     <row r="172" spans="1:22" s="1" customFormat="1" ht="18">
       <c r="A172" s="18"/>
-      <c r="B172" s="125" t="s">
-        <v>130</v>
-      </c>
+      <c r="B172" s="125"/>
       <c r="C172" s="19"/>
       <c r="D172" s="20"/>
       <c r="E172" s="21"/>
@@ -13172,13 +13165,10 @@
       <c r="G172" s="123"/>
       <c r="H172" s="22"/>
       <c r="I172" s="23"/>
-      <c r="J172" s="123">
-        <f>0.13*G171*11166.2/100</f>
-        <v>1861.3767461444502</v>
-      </c>
+      <c r="J172" s="123"/>
       <c r="K172" s="21"/>
       <c r="N172" s="186" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O172" s="186"/>
       <c r="P172" s="186"/>
@@ -13189,42 +13179,38 @@
       <c r="U172"/>
       <c r="V172"/>
     </row>
-    <row r="173" spans="1:22" s="1" customFormat="1" ht="18">
-      <c r="A173" s="18"/>
-      <c r="B173" s="125"/>
+    <row r="173" spans="1:22" ht="30.75">
+      <c r="A173" s="18">
+        <v>16</v>
+      </c>
+      <c r="B173" s="119" t="s">
+        <v>131</v>
+      </c>
       <c r="C173" s="19"/>
       <c r="D173" s="20"/>
       <c r="E173" s="21"/>
       <c r="F173" s="21"/>
-      <c r="G173" s="123"/>
+      <c r="G173" s="23"/>
       <c r="H173" s="22"/>
       <c r="I173" s="23"/>
-      <c r="J173" s="123"/>
+      <c r="J173" s="39"/>
       <c r="K173" s="21"/>
-      <c r="N173" s="186" t="s">
-        <v>144</v>
-      </c>
-      <c r="O173" s="186"/>
-      <c r="P173" s="186"/>
-      <c r="Q173" s="186"/>
-      <c r="R173" s="186"/>
-      <c r="S173" s="186"/>
-      <c r="T173" s="186"/>
-      <c r="U173"/>
-      <c r="V173"/>
-    </row>
-    <row r="174" spans="1:22" ht="30.75">
-      <c r="A174" s="18">
-        <v>16</v>
-      </c>
-      <c r="B174" s="119" t="s">
-        <v>131</v>
-      </c>
-      <c r="C174" s="19"/>
+    </row>
+    <row r="174" spans="1:22" ht="15" customHeight="1">
+      <c r="A174" s="18"/>
+      <c r="B174" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C174" s="19">
+        <v>1</v>
+      </c>
       <c r="D174" s="20"/>
       <c r="E174" s="21"/>
       <c r="F174" s="21"/>
-      <c r="G174" s="23"/>
+      <c r="G174" s="37">
+        <f>G170-G155</f>
+        <v>123.60878564462053</v>
+      </c>
       <c r="H174" s="22"/>
       <c r="I174" s="23"/>
       <c r="J174" s="39"/>
@@ -13233,53 +13219,49 @@
     <row r="175" spans="1:22" ht="15" customHeight="1">
       <c r="A175" s="18"/>
       <c r="B175" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="C175" s="19">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C175" s="19"/>
       <c r="D175" s="20"/>
       <c r="E175" s="21"/>
       <c r="F175" s="21"/>
-      <c r="G175" s="37">
-        <f>G171-G156</f>
-        <v>123.60878564462053</v>
-      </c>
-      <c r="H175" s="22"/>
-      <c r="I175" s="23"/>
-      <c r="J175" s="39"/>
+      <c r="G175" s="23">
+        <f>0*SUM(G174:G174)</f>
+        <v>0</v>
+      </c>
+      <c r="H175" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I175" s="23">
+        <v>251.77</v>
+      </c>
+      <c r="J175" s="39">
+        <f>G175*I175</f>
+        <v>0</v>
+      </c>
       <c r="K175" s="21"/>
     </row>
     <row r="176" spans="1:22" ht="15" customHeight="1">
       <c r="A176" s="18"/>
       <c r="B176" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C176" s="19"/>
       <c r="D176" s="20"/>
       <c r="E176" s="21"/>
       <c r="F176" s="21"/>
-      <c r="G176" s="23">
-        <f>0*SUM(G175:G175)</f>
-        <v>0</v>
-      </c>
-      <c r="H176" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I176" s="23">
-        <v>251.77</v>
-      </c>
+      <c r="G176" s="23"/>
+      <c r="H176" s="22"/>
+      <c r="I176" s="23"/>
       <c r="J176" s="39">
-        <f>G176*I176</f>
+        <f>0.13*G175*12736/100</f>
         <v>0</v>
       </c>
       <c r="K176" s="21"/>
     </row>
     <row r="177" spans="1:22" ht="15" customHeight="1">
       <c r="A177" s="18"/>
-      <c r="B177" s="35" t="s">
-        <v>40</v>
-      </c>
+      <c r="B177" s="35"/>
       <c r="C177" s="19"/>
       <c r="D177" s="20"/>
       <c r="E177" s="21"/>
@@ -13287,71 +13269,80 @@
       <c r="G177" s="23"/>
       <c r="H177" s="22"/>
       <c r="I177" s="23"/>
-      <c r="J177" s="39">
-        <f>0.13*G176*12736/100</f>
-        <v>0</v>
-      </c>
+      <c r="J177" s="39"/>
       <c r="K177" s="21"/>
     </row>
-    <row r="178" spans="1:22" ht="15" customHeight="1">
-      <c r="A178" s="18"/>
-      <c r="B178" s="35"/>
-      <c r="C178" s="19"/>
+    <row r="178" spans="1:22" s="1" customFormat="1" ht="48">
+      <c r="A178" s="18">
+        <v>17</v>
+      </c>
+      <c r="B178" s="140" t="s">
+        <v>150</v>
+      </c>
+      <c r="C178" s="140"/>
       <c r="D178" s="20"/>
-      <c r="E178" s="21"/>
-      <c r="F178" s="21"/>
-      <c r="G178" s="23"/>
+      <c r="E178" s="121"/>
+      <c r="F178" s="121"/>
+      <c r="G178" s="123"/>
       <c r="H178" s="22"/>
       <c r="I178" s="23"/>
-      <c r="J178" s="39"/>
+      <c r="J178" s="123"/>
       <c r="K178" s="21"/>
-    </row>
-    <row r="179" spans="1:22" s="1" customFormat="1" ht="48">
-      <c r="A179" s="18">
-        <v>17</v>
-      </c>
-      <c r="B179" s="140" t="s">
-        <v>150</v>
-      </c>
-      <c r="C179" s="140"/>
-      <c r="D179" s="20"/>
-      <c r="E179" s="121"/>
-      <c r="F179" s="121"/>
-      <c r="G179" s="123"/>
+      <c r="M178"/>
+      <c r="N178"/>
+      <c r="O178"/>
+      <c r="P178"/>
+      <c r="Q178"/>
+      <c r="R178"/>
+      <c r="S178"/>
+      <c r="T178"/>
+      <c r="U178"/>
+      <c r="V178"/>
+    </row>
+    <row r="179" spans="1:22" ht="15" customHeight="1">
+      <c r="A179" s="18"/>
+      <c r="B179" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C179" s="19">
+        <v>1</v>
+      </c>
+      <c r="D179" s="20">
+        <f>25.17/3.281</f>
+        <v>7.6714416336482785</v>
+      </c>
+      <c r="E179" s="21">
+        <v>2.8</v>
+      </c>
+      <c r="F179" s="21"/>
+      <c r="G179" s="126">
+        <f t="shared" ref="G179:G180" si="28">PRODUCT(C179:F179)</f>
+        <v>21.480036574215177</v>
+      </c>
       <c r="H179" s="22"/>
       <c r="I179" s="23"/>
-      <c r="J179" s="123"/>
+      <c r="J179" s="39"/>
       <c r="K179" s="21"/>
-      <c r="M179"/>
-      <c r="N179"/>
-      <c r="O179"/>
-      <c r="P179"/>
-      <c r="Q179"/>
-      <c r="R179"/>
-      <c r="S179"/>
-      <c r="T179"/>
-      <c r="U179"/>
-      <c r="V179"/>
     </row>
     <row r="180" spans="1:22" ht="15" customHeight="1">
       <c r="A180" s="18"/>
       <c r="B180" s="35" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="C180" s="19">
         <v>1</v>
       </c>
       <c r="D180" s="20">
-        <f>25.17/3.281</f>
-        <v>7.6714416336482785</v>
+        <f>32.42/3.281</f>
+        <v>9.8811338006705274</v>
       </c>
       <c r="E180" s="21">
-        <v>2.8</v>
+        <v>1.53</v>
       </c>
       <c r="F180" s="21"/>
       <c r="G180" s="126">
-        <f t="shared" ref="G180:G181" si="28">PRODUCT(C180:F180)</f>
-        <v>21.480036574215177</v>
+        <f t="shared" si="28"/>
+        <v>15.118134715025906</v>
       </c>
       <c r="H180" s="22"/>
       <c r="I180" s="23"/>
@@ -13360,88 +13351,78 @@
     </row>
     <row r="181" spans="1:22" ht="15" customHeight="1">
       <c r="A181" s="18"/>
-      <c r="B181" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B181" s="35"/>
       <c r="C181" s="19">
         <v>1</v>
       </c>
       <c r="D181" s="20">
-        <f>32.42/3.281</f>
-        <v>9.8811338006705274</v>
+        <v>3.4</v>
       </c>
       <c r="E181" s="21">
-        <v>1.53</v>
-      </c>
-      <c r="F181" s="21"/>
-      <c r="G181" s="126">
-        <f t="shared" si="28"/>
-        <v>15.118134715025906</v>
+        <v>3.9</v>
+      </c>
+      <c r="F181" s="21">
+        <v>1.5328189999999999</v>
+      </c>
+      <c r="G181" s="37">
+        <f>C181*SQRT(M181*(M181-D181)*(M181-E181)*(M181-F181))</f>
+        <v>2.5854308705263742</v>
       </c>
       <c r="H181" s="22"/>
       <c r="I181" s="23"/>
       <c r="J181" s="39"/>
       <c r="K181" s="21"/>
+      <c r="M181">
+        <f>(D181+E181+F181)/2</f>
+        <v>4.4164095000000003</v>
+      </c>
     </row>
     <row r="182" spans="1:22" ht="15" customHeight="1">
       <c r="A182" s="18"/>
-      <c r="B182" s="35"/>
-      <c r="C182" s="19">
-        <v>1</v>
-      </c>
-      <c r="D182" s="20">
-        <v>3.4</v>
-      </c>
-      <c r="E182" s="21">
-        <v>3.9</v>
-      </c>
-      <c r="F182" s="21">
-        <v>1.5328189999999999</v>
-      </c>
-      <c r="G182" s="37">
-        <f>C182*SQRT(M182*(M182-D182)*(M182-E182)*(M182-F182))</f>
-        <v>2.5854308705263742</v>
-      </c>
-      <c r="H182" s="22"/>
-      <c r="I182" s="23"/>
-      <c r="J182" s="39"/>
+      <c r="B182" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C182" s="19"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="23">
+        <f>SUM(G179:G181)</f>
+        <v>39.183602159767453</v>
+      </c>
+      <c r="H182" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I182" s="23">
+        <v>2271.5500000000002</v>
+      </c>
+      <c r="J182" s="39">
+        <f>G182*I182</f>
+        <v>89007.511486019765</v>
+      </c>
       <c r="K182" s="21"/>
-      <c r="M182">
-        <f>(D182+E182+F182)/2</f>
-        <v>4.4164095000000003</v>
-      </c>
     </row>
     <row r="183" spans="1:22" ht="15" customHeight="1">
       <c r="A183" s="18"/>
       <c r="B183" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C183" s="19"/>
       <c r="D183" s="20"/>
       <c r="E183" s="21"/>
       <c r="F183" s="21"/>
-      <c r="G183" s="23">
-        <f>SUM(G180:G182)</f>
-        <v>39.183602159767453</v>
-      </c>
-      <c r="H183" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I183" s="23">
-        <v>2271.5500000000002</v>
-      </c>
+      <c r="G183" s="23"/>
+      <c r="H183" s="22"/>
+      <c r="I183" s="23"/>
       <c r="J183" s="39">
-        <f>G183*I183</f>
-        <v>89007.511486019765</v>
+        <f>0.13*G182*(20218/10)</f>
+        <v>10298.782890060318</v>
       </c>
       <c r="K183" s="21"/>
     </row>
     <row r="184" spans="1:22" ht="15" customHeight="1">
       <c r="A184" s="18"/>
-      <c r="B184" s="35" t="s">
-        <v>40</v>
-      </c>
+      <c r="B184" s="35"/>
       <c r="C184" s="19"/>
       <c r="D184" s="20"/>
       <c r="E184" s="21"/>
@@ -13449,71 +13430,76 @@
       <c r="G184" s="23"/>
       <c r="H184" s="22"/>
       <c r="I184" s="23"/>
-      <c r="J184" s="39">
-        <f>0.13*G183*(20218/10)</f>
-        <v>10298.782890060318</v>
-      </c>
+      <c r="J184" s="39"/>
       <c r="K184" s="21"/>
     </row>
-    <row r="185" spans="1:22" ht="15" customHeight="1">
-      <c r="A185" s="18"/>
-      <c r="B185" s="35"/>
-      <c r="C185" s="19"/>
-      <c r="D185" s="20"/>
-      <c r="E185" s="21"/>
-      <c r="F185" s="21"/>
-      <c r="G185" s="23"/>
-      <c r="H185" s="22"/>
-      <c r="I185" s="23"/>
-      <c r="J185" s="39"/>
-      <c r="K185" s="21"/>
-    </row>
-    <row r="186" spans="1:22" s="173" customFormat="1" ht="18">
-      <c r="A186" s="166">
+    <row r="185" spans="1:22" s="173" customFormat="1" ht="18">
+      <c r="A185" s="166">
         <v>18</v>
       </c>
-      <c r="B186" s="167" t="s">
+      <c r="B185" s="167" t="s">
         <v>139</v>
       </c>
-      <c r="C186" s="168"/>
-      <c r="D186" s="169"/>
-      <c r="E186" s="170"/>
-      <c r="F186" s="169" t="s">
+      <c r="C185" s="168"/>
+      <c r="D185" s="169"/>
+      <c r="E185" s="170"/>
+      <c r="F185" s="169" t="s">
         <v>163</v>
       </c>
-      <c r="G186" s="169"/>
-      <c r="H186" s="169"/>
-      <c r="I186" s="169"/>
-      <c r="J186" s="171"/>
-      <c r="K186" s="172"/>
-      <c r="M186" s="174"/>
-      <c r="N186" s="174"/>
-      <c r="O186" s="174"/>
-      <c r="P186" s="174"/>
-      <c r="Q186" s="174"/>
-      <c r="R186" s="174"/>
-      <c r="S186" s="174"/>
-      <c r="T186" s="174"/>
-      <c r="U186" s="174"/>
-      <c r="V186" s="174"/>
+      <c r="G185" s="169"/>
+      <c r="H185" s="169"/>
+      <c r="I185" s="169"/>
+      <c r="J185" s="171"/>
+      <c r="K185" s="172"/>
+      <c r="M185" s="174"/>
+      <c r="N185" s="174"/>
+      <c r="O185" s="174"/>
+      <c r="P185" s="174"/>
+      <c r="Q185" s="174"/>
+      <c r="R185" s="174"/>
+      <c r="S185" s="174"/>
+      <c r="T185" s="174"/>
+      <c r="U185" s="174"/>
+      <c r="V185" s="174"/>
+    </row>
+    <row r="186" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A186" s="144"/>
+      <c r="B186" s="146" t="s">
+        <v>140</v>
+      </c>
+      <c r="C186" s="161">
+        <v>1</v>
+      </c>
+      <c r="D186" s="162"/>
+      <c r="E186" s="175"/>
+      <c r="F186" s="176">
+        <f>CONVERT(48.3735,"ft2","m2")</f>
+        <v>4.49404520544</v>
+      </c>
+      <c r="G186" s="177">
+        <f>PRODUCT(C186:F186)</f>
+        <v>4.49404520544</v>
+      </c>
+      <c r="H186" s="163"/>
+      <c r="I186" s="163"/>
+      <c r="J186" s="163"/>
+      <c r="K186" s="149"/>
     </row>
     <row r="187" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
       <c r="A187" s="144"/>
-      <c r="B187" s="146" t="s">
-        <v>140</v>
-      </c>
+      <c r="B187" s="146"/>
       <c r="C187" s="161">
         <v>1</v>
       </c>
       <c r="D187" s="162"/>
       <c r="E187" s="175"/>
       <c r="F187" s="176">
-        <f>CONVERT(48.3735,"ft2","m2")</f>
-        <v>4.49404520544</v>
+        <f>CONVERT(224.2762,"ft2","m2")</f>
+        <v>20.835940779647999</v>
       </c>
       <c r="G187" s="177">
         <f>PRODUCT(C187:F187)</f>
-        <v>4.49404520544</v>
+        <v>20.835940779647999</v>
       </c>
       <c r="H187" s="163"/>
       <c r="I187" s="163"/>
@@ -13526,20 +13512,33 @@
       <c r="C188" s="161">
         <v>1</v>
       </c>
-      <c r="D188" s="162"/>
-      <c r="E188" s="175"/>
-      <c r="F188" s="176">
-        <f>CONVERT(224.2762,"ft2","m2")</f>
-        <v>20.835940779647999</v>
-      </c>
+      <c r="D188" s="162">
+        <f>(4.1+4.4)/2</f>
+        <v>4.25</v>
+      </c>
+      <c r="E188" s="162">
+        <f>2.6</f>
+        <v>2.6</v>
+      </c>
+      <c r="F188" s="162"/>
       <c r="G188" s="177">
-        <f>PRODUCT(C188:F188)</f>
-        <v>20.835940779647999</v>
+        <f t="shared" ref="G188:G190" si="29">PRODUCT(C188:F188)</f>
+        <v>11.05</v>
       </c>
       <c r="H188" s="163"/>
       <c r="I188" s="163"/>
       <c r="J188" s="163"/>
       <c r="K188" s="149"/>
+      <c r="M188" s="178"/>
+      <c r="N188" s="178"/>
+      <c r="O188" s="178"/>
+      <c r="P188" s="178"/>
+      <c r="Q188" s="178"/>
+      <c r="R188" s="178"/>
+      <c r="S188" s="178"/>
+      <c r="T188" s="178"/>
+      <c r="U188" s="178"/>
+      <c r="V188" s="178"/>
     </row>
     <row r="189" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
       <c r="A189" s="144"/>
@@ -13548,32 +13547,21 @@
         <v>1</v>
       </c>
       <c r="D189" s="162">
-        <f>(4.1+4.4)/2</f>
-        <v>4.25</v>
+        <v>7</v>
       </c>
       <c r="E189" s="162">
-        <f>2.6</f>
-        <v>2.6</v>
+        <f>((2.5+4.75)/2)/3.281</f>
+        <v>1.1048460835111247</v>
       </c>
       <c r="F189" s="162"/>
       <c r="G189" s="177">
-        <f t="shared" ref="G189:G191" si="29">PRODUCT(C189:F189)</f>
-        <v>11.05</v>
+        <f t="shared" si="29"/>
+        <v>7.733922584577873</v>
       </c>
       <c r="H189" s="163"/>
       <c r="I189" s="163"/>
       <c r="J189" s="163"/>
       <c r="K189" s="149"/>
-      <c r="M189" s="178"/>
-      <c r="N189" s="178"/>
-      <c r="O189" s="178"/>
-      <c r="P189" s="178"/>
-      <c r="Q189" s="178"/>
-      <c r="R189" s="178"/>
-      <c r="S189" s="178"/>
-      <c r="T189" s="178"/>
-      <c r="U189" s="178"/>
-      <c r="V189" s="178"/>
     </row>
     <row r="190" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
       <c r="A190" s="144"/>
@@ -13582,16 +13570,16 @@
         <v>1</v>
       </c>
       <c r="D190" s="162">
-        <v>7</v>
+        <v>6.55</v>
       </c>
       <c r="E190" s="162">
-        <f>((2.5+4.75)/2)/3.281</f>
-        <v>1.1048460835111247</v>
+        <f>((16.17+1)/2)/3.281</f>
+        <v>2.616580310880829</v>
       </c>
       <c r="F190" s="162"/>
       <c r="G190" s="177">
         <f t="shared" si="29"/>
-        <v>7.733922584577873</v>
+        <v>17.138601036269428</v>
       </c>
       <c r="H190" s="163"/>
       <c r="I190" s="163"/>
@@ -13599,59 +13587,52 @@
       <c r="K190" s="149"/>
     </row>
     <row r="191" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
-      <c r="A191" s="144"/>
-      <c r="B191" s="146"/>
-      <c r="C191" s="161">
-        <v>1</v>
-      </c>
-      <c r="D191" s="162">
-        <v>6.55</v>
-      </c>
-      <c r="E191" s="162">
-        <f>((16.17+1)/2)/3.281</f>
-        <v>2.616580310880829</v>
-      </c>
-      <c r="F191" s="162"/>
-      <c r="G191" s="177">
-        <f t="shared" si="29"/>
-        <v>17.138601036269428</v>
-      </c>
-      <c r="H191" s="163"/>
-      <c r="I191" s="163"/>
-      <c r="J191" s="163"/>
-      <c r="K191" s="149"/>
+      <c r="A191" s="163"/>
+      <c r="B191" s="146" t="s">
+        <v>41</v>
+      </c>
+      <c r="C191" s="168"/>
+      <c r="D191" s="169"/>
+      <c r="E191" s="169"/>
+      <c r="F191" s="169"/>
+      <c r="G191" s="179">
+        <f>0*SUM(G186:G190)</f>
+        <v>0</v>
+      </c>
+      <c r="H191" s="179" t="s">
+        <v>141</v>
+      </c>
+      <c r="I191" s="179">
+        <f>35*10.7639</f>
+        <v>376.73649999999998</v>
+      </c>
+      <c r="J191" s="171">
+        <f>G191*I191</f>
+        <v>0</v>
+      </c>
+      <c r="K191" s="161"/>
     </row>
     <row r="192" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
       <c r="A192" s="163"/>
       <c r="B192" s="146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C192" s="168"/>
       <c r="D192" s="169"/>
       <c r="E192" s="169"/>
       <c r="F192" s="169"/>
-      <c r="G192" s="179">
-        <f>0*SUM(G187:G191)</f>
-        <v>0</v>
-      </c>
-      <c r="H192" s="179" t="s">
-        <v>141</v>
-      </c>
-      <c r="I192" s="179">
-        <f>35*10.7639</f>
-        <v>376.73649999999998</v>
-      </c>
-      <c r="J192" s="171">
-        <f>G192*I192</f>
+      <c r="G192" s="169"/>
+      <c r="H192" s="169"/>
+      <c r="I192" s="169"/>
+      <c r="J192" s="165">
+        <f>0.13*J191</f>
         <v>0</v>
       </c>
       <c r="K192" s="161"/>
     </row>
     <row r="193" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
       <c r="A193" s="163"/>
-      <c r="B193" s="146" t="s">
-        <v>40</v>
-      </c>
+      <c r="B193" s="146"/>
       <c r="C193" s="168"/>
       <c r="D193" s="169"/>
       <c r="E193" s="169"/>
@@ -13659,41 +13640,53 @@
       <c r="G193" s="169"/>
       <c r="H193" s="169"/>
       <c r="I193" s="169"/>
-      <c r="J193" s="165">
-        <f>0.13*J192</f>
+      <c r="J193" s="165"/>
+      <c r="K193" s="161"/>
+    </row>
+    <row r="194" spans="1:22" s="174" customFormat="1" ht="42.75">
+      <c r="A194" s="144">
+        <v>19</v>
+      </c>
+      <c r="B194" s="180" t="s">
+        <v>145</v>
+      </c>
+      <c r="C194" s="161"/>
+      <c r="D194" s="162"/>
+      <c r="E194" s="162"/>
+      <c r="F194" s="162"/>
+      <c r="G194" s="150"/>
+      <c r="H194" s="163"/>
+      <c r="I194" s="163"/>
+      <c r="J194" s="165"/>
+      <c r="K194" s="149"/>
+      <c r="M194" s="181"/>
+      <c r="N194" s="181"/>
+      <c r="O194" s="181"/>
+      <c r="P194" s="181"/>
+      <c r="Q194" s="181"/>
+      <c r="R194" s="181"/>
+      <c r="S194" s="181"/>
+      <c r="T194" s="181"/>
+      <c r="U194" s="181"/>
+      <c r="V194" s="181"/>
+    </row>
+    <row r="195" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A195" s="163"/>
+      <c r="B195" s="146" t="s">
+        <v>146</v>
+      </c>
+      <c r="C195" s="147"/>
+      <c r="D195" s="169"/>
+      <c r="E195" s="169"/>
+      <c r="F195" s="169"/>
+      <c r="G195" s="169">
+        <f>G191</f>
         <v>0</v>
       </c>
-      <c r="K193" s="161"/>
-    </row>
-    <row r="194" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
-      <c r="A194" s="163"/>
-      <c r="B194" s="146"/>
-      <c r="C194" s="168"/>
-      <c r="D194" s="169"/>
-      <c r="E194" s="169"/>
-      <c r="F194" s="169"/>
-      <c r="G194" s="169"/>
-      <c r="H194" s="169"/>
-      <c r="I194" s="169"/>
-      <c r="J194" s="165"/>
-      <c r="K194" s="161"/>
-    </row>
-    <row r="195" spans="1:22" s="174" customFormat="1" ht="42.75">
-      <c r="A195" s="144">
-        <v>19</v>
-      </c>
-      <c r="B195" s="180" t="s">
-        <v>145</v>
-      </c>
-      <c r="C195" s="161"/>
-      <c r="D195" s="162"/>
-      <c r="E195" s="162"/>
-      <c r="F195" s="162"/>
-      <c r="G195" s="150"/>
-      <c r="H195" s="163"/>
-      <c r="I195" s="163"/>
+      <c r="H195" s="169"/>
+      <c r="I195" s="169"/>
       <c r="J195" s="165"/>
-      <c r="K195" s="149"/>
+      <c r="K195" s="161"/>
       <c r="M195" s="181"/>
       <c r="N195" s="181"/>
       <c r="O195" s="181"/>
@@ -13707,16 +13700,25 @@
     </row>
     <row r="196" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
       <c r="A196" s="163"/>
-      <c r="B196" s="146" t="s">
-        <v>146</v>
-      </c>
-      <c r="C196" s="147"/>
-      <c r="D196" s="169"/>
-      <c r="E196" s="169"/>
-      <c r="F196" s="169"/>
-      <c r="G196" s="169">
-        <f>G192</f>
-        <v>0</v>
+      <c r="B196" s="146" t="str">
+        <f>B118</f>
+        <v>-at entrance</v>
+      </c>
+      <c r="C196" s="147">
+        <v>1</v>
+      </c>
+      <c r="D196" s="151">
+        <f>D118</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E196" s="151">
+        <f>E118</f>
+        <v>0.9</v>
+      </c>
+      <c r="F196" s="151"/>
+      <c r="G196" s="177">
+        <f t="shared" ref="G196" si="30">PRODUCT(C196:F196)</f>
+        <v>1.9800000000000002</v>
       </c>
       <c r="H196" s="169"/>
       <c r="I196" s="169"/>
@@ -13735,29 +13737,27 @@
     </row>
     <row r="197" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
       <c r="A197" s="163"/>
-      <c r="B197" s="146" t="str">
-        <f>B118</f>
-        <v>-at entrance</v>
-      </c>
-      <c r="C197" s="147">
-        <v>1</v>
-      </c>
-      <c r="D197" s="151">
-        <f>D118</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E197" s="151">
-        <f>E118</f>
-        <v>0.9</v>
-      </c>
-      <c r="F197" s="151"/>
-      <c r="G197" s="177">
-        <f t="shared" ref="G197" si="30">PRODUCT(C197:F197)</f>
+      <c r="B197" s="146" t="s">
+        <v>41</v>
+      </c>
+      <c r="C197" s="168"/>
+      <c r="D197" s="169"/>
+      <c r="E197" s="169"/>
+      <c r="F197" s="169"/>
+      <c r="G197" s="179">
+        <f>SUM(G195:G196)</f>
         <v>1.9800000000000002</v>
       </c>
-      <c r="H197" s="169"/>
-      <c r="I197" s="169"/>
-      <c r="J197" s="165"/>
+      <c r="H197" s="179" t="s">
+        <v>141</v>
+      </c>
+      <c r="I197" s="179">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J197" s="171">
+        <f>G197*I197</f>
+        <v>18.216000000000001</v>
+      </c>
       <c r="K197" s="161"/>
       <c r="M197" s="181"/>
       <c r="N197" s="181"/>
@@ -13771,29 +13771,17 @@
       <c r="V197" s="181"/>
     </row>
     <row r="198" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
-      <c r="A198" s="163"/>
-      <c r="B198" s="146" t="s">
-        <v>41</v>
-      </c>
-      <c r="C198" s="168"/>
-      <c r="D198" s="169"/>
-      <c r="E198" s="169"/>
-      <c r="F198" s="169"/>
-      <c r="G198" s="179">
-        <f>0*SUM(G196:G197)</f>
-        <v>0</v>
-      </c>
-      <c r="H198" s="179" t="s">
-        <v>141</v>
-      </c>
-      <c r="I198" s="179">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J198" s="171">
-        <f>G198*I198</f>
-        <v>0</v>
-      </c>
-      <c r="K198" s="161"/>
+      <c r="A198" s="144"/>
+      <c r="B198" s="146"/>
+      <c r="C198" s="147"/>
+      <c r="D198" s="148"/>
+      <c r="E198" s="149"/>
+      <c r="F198" s="149"/>
+      <c r="G198" s="158"/>
+      <c r="H198" s="159"/>
+      <c r="I198" s="158"/>
+      <c r="J198" s="160"/>
+      <c r="K198" s="149"/>
       <c r="M198" s="181"/>
       <c r="N198" s="181"/>
       <c r="O198" s="181"/>
@@ -13805,56 +13793,56 @@
       <c r="U198" s="181"/>
       <c r="V198" s="181"/>
     </row>
-    <row r="199" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
-      <c r="A199" s="144"/>
-      <c r="B199" s="146"/>
-      <c r="C199" s="147"/>
-      <c r="D199" s="148"/>
-      <c r="E199" s="149"/>
-      <c r="F199" s="149"/>
-      <c r="G199" s="158"/>
-      <c r="H199" s="159"/>
-      <c r="I199" s="158"/>
-      <c r="J199" s="160"/>
-      <c r="K199" s="149"/>
-      <c r="M199" s="181"/>
-      <c r="N199" s="181"/>
-      <c r="O199" s="181"/>
-      <c r="P199" s="181"/>
-      <c r="Q199" s="181"/>
-      <c r="R199" s="181"/>
-      <c r="S199" s="181"/>
-      <c r="T199" s="181"/>
-      <c r="U199" s="181"/>
-      <c r="V199" s="181"/>
+    <row r="199" spans="1:22" ht="15" customHeight="1">
+      <c r="A199" s="18">
+        <v>20</v>
+      </c>
+      <c r="B199" s="142" t="s">
+        <v>137</v>
+      </c>
+      <c r="C199" s="19">
+        <v>1</v>
+      </c>
+      <c r="D199" s="20"/>
+      <c r="E199" s="21"/>
+      <c r="F199" s="21"/>
+      <c r="G199" s="126">
+        <f t="shared" ref="G199" si="31">PRODUCT(C199:F199)</f>
+        <v>1</v>
+      </c>
+      <c r="H199" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I199" s="23">
+        <v>2000</v>
+      </c>
+      <c r="J199" s="32">
+        <f>G199*I199</f>
+        <v>2000</v>
+      </c>
+      <c r="K199" s="21"/>
+      <c r="M199" s="33"/>
+      <c r="N199" s="33"/>
+      <c r="O199" s="33"/>
+      <c r="P199" s="33"/>
+      <c r="Q199" s="33"/>
+      <c r="R199" s="33"/>
+      <c r="S199" s="33"/>
+      <c r="T199" s="33"/>
+      <c r="U199" s="33"/>
+      <c r="V199" s="33"/>
     </row>
     <row r="200" spans="1:22" ht="15" customHeight="1">
-      <c r="A200" s="18">
-        <v>20</v>
-      </c>
-      <c r="B200" s="142" t="s">
-        <v>137</v>
-      </c>
-      <c r="C200" s="19">
-        <v>1</v>
-      </c>
+      <c r="A200" s="18"/>
+      <c r="B200" s="35"/>
+      <c r="C200" s="19"/>
       <c r="D200" s="20"/>
       <c r="E200" s="21"/>
       <c r="F200" s="21"/>
-      <c r="G200" s="126">
-        <f t="shared" ref="G200" si="31">PRODUCT(C200:F200)</f>
-        <v>1</v>
-      </c>
-      <c r="H200" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="I200" s="23">
-        <v>2000</v>
-      </c>
-      <c r="J200" s="32">
-        <f>G200*I200</f>
-        <v>2000</v>
-      </c>
+      <c r="G200" s="23"/>
+      <c r="H200" s="22"/>
+      <c r="I200" s="23"/>
+      <c r="J200" s="39"/>
       <c r="K200" s="21"/>
       <c r="M200" s="33"/>
       <c r="N200" s="33"/>
@@ -13868,16 +13856,32 @@
       <c r="V200" s="33"/>
     </row>
     <row r="201" spans="1:22" ht="15" customHeight="1">
-      <c r="A201" s="18"/>
-      <c r="B201" s="35"/>
-      <c r="C201" s="19"/>
+      <c r="A201" s="18">
+        <v>21</v>
+      </c>
+      <c r="B201" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C201" s="19">
+        <v>1</v>
+      </c>
       <c r="D201" s="20"/>
       <c r="E201" s="21"/>
       <c r="F201" s="21"/>
-      <c r="G201" s="23"/>
-      <c r="H201" s="22"/>
-      <c r="I201" s="23"/>
-      <c r="J201" s="39"/>
+      <c r="G201" s="32">
+        <f t="shared" ref="G201" si="32">PRODUCT(C201:F201)</f>
+        <v>1</v>
+      </c>
+      <c r="H201" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I201" s="23">
+        <v>500</v>
+      </c>
+      <c r="J201" s="32">
+        <f>G201*I201</f>
+        <v>500</v>
+      </c>
       <c r="K201" s="21"/>
       <c r="M201" s="33"/>
       <c r="N201" s="33"/>
@@ -13891,32 +13895,16 @@
       <c r="V201" s="33"/>
     </row>
     <row r="202" spans="1:22" ht="15" customHeight="1">
-      <c r="A202" s="18">
-        <v>21</v>
-      </c>
-      <c r="B202" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C202" s="19">
-        <v>1</v>
-      </c>
+      <c r="A202" s="18"/>
+      <c r="B202" s="24"/>
+      <c r="C202" s="19"/>
       <c r="D202" s="20"/>
       <c r="E202" s="21"/>
       <c r="F202" s="21"/>
-      <c r="G202" s="32">
-        <f t="shared" ref="G202" si="32">PRODUCT(C202:F202)</f>
-        <v>1</v>
-      </c>
-      <c r="H202" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I202" s="23">
-        <v>500</v>
-      </c>
-      <c r="J202" s="32">
-        <f>G202*I202</f>
-        <v>500</v>
-      </c>
+      <c r="G202" s="23"/>
+      <c r="H202" s="22"/>
+      <c r="I202" s="23"/>
+      <c r="J202" s="39"/>
       <c r="K202" s="21"/>
       <c r="M202" s="33"/>
       <c r="N202" s="33"/>
@@ -13929,18 +13917,23 @@
       <c r="U202" s="33"/>
       <c r="V202" s="33"/>
     </row>
-    <row r="203" spans="1:22" ht="15" customHeight="1">
-      <c r="A203" s="18"/>
-      <c r="B203" s="24"/>
-      <c r="C203" s="19"/>
-      <c r="D203" s="20"/>
-      <c r="E203" s="21"/>
-      <c r="F203" s="21"/>
-      <c r="G203" s="23"/>
-      <c r="H203" s="22"/>
-      <c r="I203" s="23"/>
-      <c r="J203" s="39"/>
-      <c r="K203" s="21"/>
+    <row r="203" spans="1:22">
+      <c r="A203" s="38"/>
+      <c r="B203" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C203" s="42"/>
+      <c r="D203" s="36"/>
+      <c r="E203" s="36"/>
+      <c r="F203" s="36"/>
+      <c r="G203" s="39"/>
+      <c r="H203" s="39"/>
+      <c r="I203" s="39"/>
+      <c r="J203" s="39">
+        <f>SUM(J10:J201)</f>
+        <v>507244.98805140913</v>
+      </c>
+      <c r="K203" s="34"/>
       <c r="M203" s="33"/>
       <c r="N203" s="33"/>
       <c r="O203" s="33"/>
@@ -13953,22 +13946,17 @@
       <c r="V203" s="33"/>
     </row>
     <row r="204" spans="1:22">
-      <c r="A204" s="38"/>
-      <c r="B204" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C204" s="42"/>
-      <c r="D204" s="36"/>
-      <c r="E204" s="36"/>
-      <c r="F204" s="36"/>
-      <c r="G204" s="39"/>
-      <c r="H204" s="39"/>
-      <c r="I204" s="39"/>
-      <c r="J204" s="39">
-        <f>SUM(J10:J202)</f>
-        <v>425635.19807122846</v>
-      </c>
-      <c r="K204" s="34"/>
+      <c r="A204" s="53"/>
+      <c r="B204" s="56"/>
+      <c r="C204" s="57"/>
+      <c r="D204" s="54"/>
+      <c r="E204" s="54"/>
+      <c r="F204" s="54"/>
+      <c r="G204" s="55"/>
+      <c r="H204" s="55"/>
+      <c r="I204" s="55"/>
+      <c r="J204" s="55"/>
+      <c r="K204" s="52"/>
       <c r="M204" s="33"/>
       <c r="N204" s="33"/>
       <c r="O204" s="33"/>
@@ -13980,18 +13968,25 @@
       <c r="U204" s="33"/>
       <c r="V204" s="33"/>
     </row>
-    <row r="205" spans="1:22">
-      <c r="A205" s="53"/>
-      <c r="B205" s="56"/>
-      <c r="C205" s="57"/>
-      <c r="D205" s="54"/>
-      <c r="E205" s="54"/>
-      <c r="F205" s="54"/>
-      <c r="G205" s="55"/>
-      <c r="H205" s="55"/>
-      <c r="I205" s="55"/>
-      <c r="J205" s="55"/>
-      <c r="K205" s="52"/>
+    <row r="205" spans="1:22" s="1" customFormat="1">
+      <c r="A205" s="45"/>
+      <c r="B205" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C205" s="196">
+        <f>J203</f>
+        <v>507244.98805140913</v>
+      </c>
+      <c r="D205" s="196"/>
+      <c r="E205" s="37">
+        <v>100</v>
+      </c>
+      <c r="F205" s="46"/>
+      <c r="G205" s="47"/>
+      <c r="H205" s="46"/>
+      <c r="I205" s="48"/>
+      <c r="J205" s="49"/>
+      <c r="K205" s="50"/>
       <c r="M205" s="33"/>
       <c r="N205" s="33"/>
       <c r="O205" s="33"/>
@@ -14003,25 +13998,22 @@
       <c r="U205" s="33"/>
       <c r="V205" s="33"/>
     </row>
-    <row r="206" spans="1:22" s="1" customFormat="1">
-      <c r="A206" s="45"/>
+    <row r="206" spans="1:22">
+      <c r="A206" s="51"/>
       <c r="B206" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C206" s="196">
-        <f>J204</f>
-        <v>425635.19807122846</v>
-      </c>
-      <c r="D206" s="196"/>
-      <c r="E206" s="37">
-        <v>100</v>
-      </c>
-      <c r="F206" s="46"/>
-      <c r="G206" s="47"/>
-      <c r="H206" s="46"/>
-      <c r="I206" s="48"/>
-      <c r="J206" s="49"/>
-      <c r="K206" s="50"/>
+        <v>32</v>
+      </c>
+      <c r="C206" s="197">
+        <v>500000</v>
+      </c>
+      <c r="D206" s="197"/>
+      <c r="E206" s="37"/>
+      <c r="F206" s="44"/>
+      <c r="G206" s="43"/>
+      <c r="H206" s="43"/>
+      <c r="I206" s="43"/>
+      <c r="J206" s="43"/>
+      <c r="K206" s="44"/>
       <c r="M206" s="33"/>
       <c r="N206" s="33"/>
       <c r="O206" s="33"/>
@@ -14036,13 +14028,17 @@
     <row r="207" spans="1:22">
       <c r="A207" s="51"/>
       <c r="B207" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C207" s="197">
-        <v>500000</v>
+        <f>C206-C209-C210</f>
+        <v>475000</v>
       </c>
       <c r="D207" s="197"/>
-      <c r="E207" s="37"/>
+      <c r="E207" s="37">
+        <f>C207/C205*100</f>
+        <v>93.643113522860261</v>
+      </c>
       <c r="F207" s="44"/>
       <c r="G207" s="43"/>
       <c r="H207" s="43"/>
@@ -14063,16 +14059,16 @@
     <row r="208" spans="1:22">
       <c r="A208" s="51"/>
       <c r="B208" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C208" s="197">
-        <f>C207-C210-C211</f>
-        <v>475000</v>
-      </c>
-      <c r="D208" s="197"/>
+        <v>34</v>
+      </c>
+      <c r="C208" s="196">
+        <f>C205-C207</f>
+        <v>32244.988051409135</v>
+      </c>
+      <c r="D208" s="196"/>
       <c r="E208" s="37">
-        <f>C208/C206*100</f>
-        <v>111.59791346027509</v>
+        <f>100-E207</f>
+        <v>6.3568864771397386</v>
       </c>
       <c r="F208" s="44"/>
       <c r="G208" s="43"/>
@@ -14094,16 +14090,15 @@
     <row r="209" spans="1:22">
       <c r="A209" s="51"/>
       <c r="B209" s="28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C209" s="196">
-        <f>C206-C208</f>
-        <v>-49364.801928771543</v>
+        <f>C206*0.03</f>
+        <v>15000</v>
       </c>
       <c r="D209" s="196"/>
       <c r="E209" s="37">
-        <f>100-E208</f>
-        <v>-11.597913460275095</v>
+        <v>3</v>
       </c>
       <c r="F209" s="44"/>
       <c r="G209" s="43"/>
@@ -14125,15 +14120,15 @@
     <row r="210" spans="1:22">
       <c r="A210" s="51"/>
       <c r="B210" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C210" s="196">
-        <f>C207*0.03</f>
-        <v>15000</v>
+        <f>C206*0.02</f>
+        <v>10000</v>
       </c>
       <c r="D210" s="196"/>
       <c r="E210" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F210" s="44"/>
       <c r="G210" s="43"/>
@@ -14152,49 +14147,20 @@
       <c r="U210" s="33"/>
       <c r="V210" s="33"/>
     </row>
-    <row r="211" spans="1:22">
-      <c r="A211" s="51"/>
-      <c r="B211" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C211" s="196">
-        <f>C207*0.02</f>
-        <v>10000</v>
-      </c>
-      <c r="D211" s="196"/>
-      <c r="E211" s="37">
-        <v>2</v>
-      </c>
-      <c r="F211" s="44"/>
-      <c r="G211" s="43"/>
-      <c r="H211" s="43"/>
-      <c r="I211" s="43"/>
-      <c r="J211" s="43"/>
-      <c r="K211" s="44"/>
-      <c r="M211" s="33"/>
-      <c r="N211" s="33"/>
-      <c r="O211" s="33"/>
-      <c r="P211" s="33"/>
-      <c r="Q211" s="33"/>
-      <c r="R211" s="33"/>
-      <c r="S211" s="33"/>
-      <c r="T211" s="33"/>
-      <c r="U211" s="33"/>
-      <c r="V211" s="33"/>
-    </row>
-    <row r="212" spans="1:22" s="33" customFormat="1">
-      <c r="A212" s="52"/>
-      <c r="B212" s="52"/>
-      <c r="C212" s="52"/>
-      <c r="D212" s="52"/>
-      <c r="E212" s="52"/>
-      <c r="F212" s="52"/>
-      <c r="G212" s="52"/>
-      <c r="H212" s="52"/>
-      <c r="I212" s="52"/>
-      <c r="J212" s="52"/>
-      <c r="K212" s="52"/>
-    </row>
+    <row r="211" spans="1:22" s="33" customFormat="1">
+      <c r="A211" s="52"/>
+      <c r="B211" s="52"/>
+      <c r="C211" s="52"/>
+      <c r="D211" s="52"/>
+      <c r="E211" s="52"/>
+      <c r="F211" s="52"/>
+      <c r="G211" s="52"/>
+      <c r="H211" s="52"/>
+      <c r="I211" s="52"/>
+      <c r="J211" s="52"/>
+      <c r="K211" s="52"/>
+    </row>
+    <row r="212" spans="1:22" s="33" customFormat="1"/>
     <row r="213" spans="1:22" s="33" customFormat="1"/>
     <row r="214" spans="1:22" s="33" customFormat="1"/>
     <row r="215" spans="1:22" s="33" customFormat="1"/>
@@ -14233,7 +14199,18 @@
     <row r="248" spans="13:22" s="33" customFormat="1"/>
     <row r="249" spans="13:22" s="33" customFormat="1"/>
     <row r="250" spans="13:22" s="33" customFormat="1"/>
-    <row r="251" spans="13:22" s="33" customFormat="1"/>
+    <row r="251" spans="13:22" s="33" customFormat="1">
+      <c r="M251"/>
+      <c r="N251"/>
+      <c r="O251"/>
+      <c r="P251"/>
+      <c r="Q251"/>
+      <c r="R251"/>
+      <c r="S251"/>
+      <c r="T251"/>
+      <c r="U251"/>
+      <c r="V251"/>
+    </row>
     <row r="252" spans="13:22" s="33" customFormat="1">
       <c r="M252"/>
       <c r="N252"/>
@@ -14426,31 +14403,19 @@
       <c r="U267"/>
       <c r="V267"/>
     </row>
-    <row r="268" spans="13:22" s="33" customFormat="1">
-      <c r="M268"/>
-      <c r="N268"/>
-      <c r="O268"/>
-      <c r="P268"/>
-      <c r="Q268"/>
-      <c r="R268"/>
-      <c r="S268"/>
-      <c r="T268"/>
-      <c r="U268"/>
-      <c r="V268"/>
-    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="N173:T173"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="N172:T172"/>
+    <mergeCell ref="C205:D205"/>
     <mergeCell ref="C206:D206"/>
     <mergeCell ref="C207:D207"/>
     <mergeCell ref="C208:D208"/>
     <mergeCell ref="C209:D209"/>
-    <mergeCell ref="C210:D210"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="N83:T83"/>
-    <mergeCell ref="N172:T172"/>
+    <mergeCell ref="N171:T171"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -14460,16 +14425,13 @@
     <mergeCell ref="H6:K6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B141" r:id="rId1"/>
+    <hyperlink ref="B140" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="76" max="10" man="1"/>
-  </rowBreaks>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/ofc/estimates/परोपकार भवन मर्मत/V-परोपकार भवन मर्मत.xlsx
+++ b/ofc/estimates/परोपकार भवन मर्मत/V-परोपकार भवन मर्मत.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="backyard" sheetId="22" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <definedName name="plywood4">'[1]update Rate'!$N$69</definedName>
     <definedName name="plywood6">'[1]update Rate'!$N$71</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">backyard!$A$1:$K$154</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">V!$A$1:$K$210</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">V!$A$1:$K$217</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">backyard!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">V!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
@@ -136,10 +136,55 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Windows User</author>
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="B156" authorId="0" shapeId="0">
+    <comment ref="B138" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+by measurement in field by weight balance</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E140" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+weight by measurement in field</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B161" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G181" authorId="0" shapeId="0">
+    <comment ref="G188" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="175">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -880,7 +925,19 @@
     <t>-compound</t>
   </si>
   <si>
-    <t>-25*25*2mm Equal angles at windows</t>
+    <t>-1"*1"*2mm Equal angles at windows</t>
+  </si>
+  <si>
+    <t>-at room</t>
+  </si>
+  <si>
+    <t>-at backyard</t>
+  </si>
+  <si>
+    <t>-near compound wall</t>
+  </si>
+  <si>
+    <t>-deduction for plaster near gate</t>
   </si>
 </sst>
 </file>
@@ -892,7 +949,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="52">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1180,6 +1237,17 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2827,8 +2895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6417,8 +6485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6530,7 +6598,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="198">
         <f>I71</f>
-        <v>507244.98805140913</v>
+        <v>560942.36792190874</v>
       </c>
       <c r="K6" s="199"/>
     </row>
@@ -6660,7 +6728,7 @@
       </c>
       <c r="G13" s="12">
         <f>V!G15</f>
-        <v>2.9002301127704961</v>
+        <v>4.5641191709844557</v>
       </c>
       <c r="H13" s="12">
         <f>V!I15</f>
@@ -6668,11 +6736,11 @@
       </c>
       <c r="I13" s="12">
         <f>G13*H13</f>
-        <v>2828.3044059737881</v>
+        <v>4450.9290155440412</v>
       </c>
       <c r="J13" s="27">
         <f>I13-F13</f>
-        <v>1580.1316293812856</v>
+        <v>3202.7562389515388</v>
       </c>
       <c r="K13" s="14"/>
     </row>
@@ -7039,20 +7107,20 @@
         <v>3424.0487656202372</v>
       </c>
       <c r="G27" s="12">
-        <f>V!G60</f>
-        <v>1.8927156354769885</v>
+        <f>V!G62</f>
+        <v>4.1007156354769885</v>
       </c>
       <c r="H27" s="12">
-        <f>V!I60</f>
+        <f>V!I62</f>
         <v>1950.4</v>
       </c>
       <c r="I27" s="12">
         <f t="shared" ref="I27" si="12">G27*H27</f>
-        <v>3691.5525754343184</v>
+        <v>7998.0357754343186</v>
       </c>
       <c r="J27" s="27">
         <f t="shared" ref="J27:J28" si="13">I27-F27</f>
-        <v>267.50380981408125</v>
+        <v>4573.9870098140818</v>
       </c>
       <c r="K27" s="14"/>
     </row>
@@ -7072,12 +7140,12 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12">
-        <f>V!J61</f>
-        <v>479.90183480646141</v>
+        <f>V!J63</f>
+        <v>1039.7446508064616</v>
       </c>
       <c r="J28" s="27">
         <f t="shared" si="13"/>
-        <v>34.775495275830565</v>
+        <v>594.61831127583071</v>
       </c>
       <c r="K28" s="14"/>
     </row>
@@ -7120,11 +7188,11 @@
         <v>323.46723559890273</v>
       </c>
       <c r="G30" s="12">
-        <f>V!G65</f>
+        <f>V!G67</f>
         <v>0.7886315147820786</v>
       </c>
       <c r="H30" s="12">
-        <f>V!I65</f>
+        <f>V!I67</f>
         <v>663.31</v>
       </c>
       <c r="I30" s="12">
@@ -7176,20 +7244,20 @@
         <v>10437.633625176773</v>
       </c>
       <c r="G32" s="12">
-        <f>V!G71</f>
-        <v>12.740438890582141</v>
+        <f>V!G74</f>
+        <v>17.255438890582141</v>
       </c>
       <c r="H32" s="12">
-        <f>V!I71</f>
+        <f>V!I74</f>
         <v>1014.97</v>
       </c>
       <c r="I32" s="12">
         <f t="shared" ref="I32" si="18">G32*H32</f>
-        <v>12931.163260774156</v>
+        <v>17513.752810774156</v>
       </c>
       <c r="J32" s="27">
         <f t="shared" ref="J32:J33" si="19">I32-F32</f>
-        <v>2493.5296355973824</v>
+        <v>7076.119185597383</v>
       </c>
       <c r="K32" s="14"/>
     </row>
@@ -7209,12 +7277,12 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12">
-        <f>V!J72</f>
-        <v>1427.2298301030178</v>
+        <f>V!J75</f>
+        <v>1933.0163841030176</v>
       </c>
       <c r="J33" s="27">
         <f t="shared" si="19"/>
-        <v>275.2142097661083</v>
+        <v>781.00076376610809</v>
       </c>
       <c r="K33" s="14"/>
     </row>
@@ -7257,20 +7325,20 @@
         <v>14931.619011269049</v>
       </c>
       <c r="G35" s="12">
-        <f>V!G79</f>
-        <v>1.2830440582139593</v>
+        <f>V!G84</f>
+        <v>1.5357940582139591</v>
       </c>
       <c r="H35" s="12">
-        <f>V!I79</f>
+        <f>V!I84</f>
         <v>12983.1</v>
       </c>
       <c r="I35" s="12">
         <f t="shared" ref="I35" si="21">G35*H35</f>
-        <v>16657.889312197654</v>
+        <v>19939.367837197653</v>
       </c>
       <c r="J35" s="27">
         <f t="shared" ref="J35:J36" si="22">I35-F35</f>
-        <v>1726.2703009286051</v>
+        <v>5007.7488259286038</v>
       </c>
       <c r="K35" s="14"/>
     </row>
@@ -7290,12 +7358,12 @@
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12">
-        <f>V!J80</f>
-        <v>1347.3942348228397</v>
+        <f>V!J85</f>
+        <v>1612.8207341478396</v>
       </c>
       <c r="J36" s="27">
         <f t="shared" si="22"/>
-        <v>139.63153480158599</v>
+        <v>405.05803412658588</v>
       </c>
       <c r="K36" s="14"/>
     </row>
@@ -7337,11 +7405,11 @@
         <v>15043.940262115204</v>
       </c>
       <c r="G38" s="12">
-        <f>V!G85</f>
+        <f>V!G90</f>
         <v>1.6807630295641571</v>
       </c>
       <c r="H38" s="12">
-        <f>V!I85</f>
+        <f>V!I90</f>
         <v>8569.2999999999993</v>
       </c>
       <c r="I38" s="12">
@@ -7370,7 +7438,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12">
-        <f>V!J86</f>
+        <f>V!J91</f>
         <v>133.63167918576653</v>
       </c>
       <c r="J39" s="27">
@@ -7418,11 +7486,11 @@
         <v>3063.8203528734462</v>
       </c>
       <c r="G41" s="12">
-        <f>V!G97</f>
+        <f>V!G102</f>
         <v>2.9609876543209884E-2</v>
       </c>
       <c r="H41" s="12">
-        <f>V!I97</f>
+        <f>V!I102</f>
         <v>131940</v>
       </c>
       <c r="I41" s="12">
@@ -7451,7 +7519,7 @@
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12">
-        <f>V!J98</f>
+        <f>V!J103</f>
         <v>408.79395555555567</v>
       </c>
       <c r="J42" s="27">
@@ -7499,11 +7567,11 @@
         <v>3351.928124006401</v>
       </c>
       <c r="G44" s="12">
-        <f>V!G110</f>
+        <f>V!G115</f>
         <v>3.7960000000000012</v>
       </c>
       <c r="H44" s="12">
-        <f>V!I110</f>
+        <f>V!I115</f>
         <v>814.04270000000008</v>
       </c>
       <c r="I44" s="12">
@@ -7532,7 +7600,7 @@
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12">
-        <f>V!J111</f>
+        <f>V!J116</f>
         <v>181.05914439600005</v>
       </c>
       <c r="J45" s="27">
@@ -7580,11 +7648,11 @@
         <v>12933.23777064919</v>
       </c>
       <c r="G47" s="12">
-        <f>V!G119</f>
+        <f>V!G124</f>
         <v>0.93358000000000008</v>
       </c>
       <c r="H47" s="12">
-        <f>V!I119</f>
+        <f>V!I124</f>
         <v>13568.9</v>
       </c>
       <c r="I47" s="12">
@@ -7613,7 +7681,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12">
-        <f>V!J120</f>
+        <f>V!J125</f>
         <v>1155.9083426800003</v>
       </c>
       <c r="J48" s="27">
@@ -7661,20 +7729,20 @@
         <v>162138.9583661475</v>
       </c>
       <c r="G50" s="12">
-        <f>V!G137</f>
-        <v>634.66515153916498</v>
+        <f>V!G142</f>
+        <v>669.14704669308139</v>
       </c>
       <c r="H50" s="12">
-        <f>V!I137</f>
+        <f>V!I142</f>
         <v>181.17</v>
       </c>
       <c r="I50" s="12">
         <f t="shared" ref="I50" si="36">G50*H50</f>
-        <v>114982.28550435051</v>
+        <v>121229.37044938555</v>
       </c>
       <c r="J50" s="27">
         <f t="shared" si="34"/>
-        <v>-47156.672861796993</v>
+        <v>-40909.587916761957</v>
       </c>
       <c r="K50" s="14"/>
     </row>
@@ -7694,12 +7762,12 @@
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="12">
-        <f>V!J138</f>
-        <v>8152.2839242948858</v>
+        <f>V!J143</f>
+        <v>8595.2044137226821</v>
       </c>
       <c r="J51" s="27">
         <f t="shared" si="34"/>
-        <v>-3343.4244623700315</v>
+        <v>-2900.5039729422351</v>
       </c>
       <c r="K51" s="14"/>
     </row>
@@ -7742,20 +7810,20 @@
         <v>36302.759567031921</v>
       </c>
       <c r="G53" s="12">
-        <f>V!G170</f>
-        <v>128.22878564462053</v>
+        <f>V!G176</f>
+        <v>131.86478564462053</v>
       </c>
       <c r="H53" s="12">
-        <f>V!I170</f>
+        <f>V!I176</f>
         <v>405.86</v>
       </c>
       <c r="I53" s="12">
         <f t="shared" ref="I53" si="38">G53*H53</f>
-        <v>52042.934941725689</v>
+        <v>53518.641901725685</v>
       </c>
       <c r="J53" s="27">
         <f t="shared" ref="J53:J54" si="39">I53-F53</f>
-        <v>15740.175374693768</v>
+        <v>17215.882334693764</v>
       </c>
       <c r="K53" s="14"/>
     </row>
@@ -7775,12 +7843,12 @@
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12">
-        <f>V!J171</f>
-        <v>1861.3767461444502</v>
+        <f>V!J177</f>
+        <v>1914.1571403044502</v>
       </c>
       <c r="J54" s="27">
         <f t="shared" si="39"/>
-        <v>562.96587530078614</v>
+        <v>615.74626946078615</v>
       </c>
       <c r="K54" s="14"/>
     </row>
@@ -7823,20 +7891,20 @@
         <v>22140.655708796941</v>
       </c>
       <c r="G56" s="12">
-        <f>V!G175</f>
-        <v>0</v>
+        <f>V!G182</f>
+        <v>119.99089963425783</v>
       </c>
       <c r="H56" s="12">
-        <f>V!I175</f>
+        <f>V!I182</f>
         <v>251.77</v>
       </c>
       <c r="I56" s="12">
         <f t="shared" ref="I56" si="41">G56*H56</f>
-        <v>0</v>
+        <v>30210.108800917096</v>
       </c>
       <c r="J56" s="27">
         <f t="shared" ref="J56:J67" si="42">I56-F56</f>
-        <v>-22140.655708796941</v>
+        <v>8069.4530921201549</v>
       </c>
       <c r="K56" s="14"/>
     </row>
@@ -7856,12 +7924,12 @@
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12">
-        <f>V!J176</f>
-        <v>0</v>
+        <f>V!J183</f>
+        <v>1986.6653270644799</v>
       </c>
       <c r="J57" s="27">
         <f t="shared" si="42"/>
-        <v>-1456.0051175255562</v>
+        <v>530.66020953892371</v>
       </c>
       <c r="K57" s="14"/>
     </row>
@@ -7903,11 +7971,11 @@
         <v>89007.512395611091</v>
       </c>
       <c r="G59" s="12">
-        <f>V!G182</f>
+        <f>V!G189</f>
         <v>39.183602159767453</v>
       </c>
       <c r="H59" s="12">
-        <f>V!I182</f>
+        <f>V!I189</f>
         <v>2271.5500000000002</v>
       </c>
       <c r="I59" s="12">
@@ -7933,7 +8001,7 @@
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="12">
-        <f>V!J183</f>
+        <f>V!J190</f>
         <v>10298.782890060318</v>
       </c>
       <c r="J60" s="27">
@@ -7981,11 +8049,11 @@
         <v>23076.056085156444</v>
       </c>
       <c r="G62" s="12">
-        <f>V!G191</f>
+        <f>V!G198</f>
         <v>0</v>
       </c>
       <c r="H62" s="12">
-        <f>V!I191</f>
+        <f>V!I198</f>
         <v>376.73649999999998</v>
       </c>
       <c r="I62" s="12">
@@ -8014,7 +8082,7 @@
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12">
-        <f>V!J192</f>
+        <f>V!J199</f>
         <v>0</v>
       </c>
       <c r="J63" s="27">
@@ -8062,20 +8130,20 @@
         <v>581.46308837460481</v>
       </c>
       <c r="G65" s="12">
-        <f>V!G197</f>
-        <v>1.9800000000000002</v>
+        <f>V!G204</f>
+        <v>19.141000000000002</v>
       </c>
       <c r="H65" s="12">
-        <f>V!I197</f>
+        <f>V!I204</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="I65" s="12">
         <f t="shared" ref="I65" si="48">G65*H65</f>
-        <v>18.216000000000001</v>
+        <v>176.09720000000002</v>
       </c>
       <c r="J65" s="27">
         <f t="shared" si="42"/>
-        <v>-563.2470883746048</v>
+        <v>-405.36588837460476</v>
       </c>
       <c r="K65" s="14"/>
     </row>
@@ -8118,20 +8186,20 @@
         <v>2000</v>
       </c>
       <c r="G67" s="12">
-        <f>V!G199</f>
-        <v>1</v>
+        <f>V!G206</f>
+        <v>0</v>
       </c>
       <c r="H67" s="12">
-        <f>V!I199</f>
+        <f>V!I206</f>
         <v>2000</v>
       </c>
       <c r="I67" s="12">
         <f t="shared" ref="I67" si="50">G67*H67</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J67" s="27">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="K67" s="14"/>
     </row>
@@ -8174,11 +8242,11 @@
         <v>500</v>
       </c>
       <c r="G69" s="12">
-        <f>V!G201</f>
+        <f>V!G208</f>
         <v>1</v>
       </c>
       <c r="H69" s="12">
-        <f>V!I201</f>
+        <f>V!I208</f>
         <v>500</v>
       </c>
       <c r="I69" s="12">
@@ -8220,11 +8288,11 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7">
         <f>SUM(I13:I69)</f>
-        <v>507244.98805140913</v>
+        <v>560942.36792190874</v>
       </c>
       <c r="J71" s="13">
         <f>I71-F71</f>
-        <v>-57728.031459163874</v>
+        <v>-4030.6515886642737</v>
       </c>
       <c r="K71" s="5"/>
     </row>
@@ -8965,10 +9033,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V267"/>
+  <dimension ref="A1:V274"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P200" sqref="P200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9159,8 +9227,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="36">
-        <f>0.1</f>
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="F10" s="36">
         <f>2.333/3.281</f>
@@ -9168,7 +9235,7 @@
       </c>
       <c r="G10" s="37">
         <f t="shared" ref="G10:G14" si="0">PRODUCT(C10:F10)</f>
-        <v>1.2799146601645841</v>
+        <v>2.9438037183785437</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
@@ -9298,7 +9365,7 @@
       <c r="F15" s="36"/>
       <c r="G15" s="32">
         <f>SUM(G10:G14)</f>
-        <v>2.9002301127704961</v>
+        <v>4.5641191709844557</v>
       </c>
       <c r="H15" s="38" t="s">
         <v>85</v>
@@ -9308,7 +9375,7 @@
       </c>
       <c r="J15" s="40">
         <f>G15*I15</f>
-        <v>2828.3044059737881</v>
+        <v>4450.9290155440412</v>
       </c>
       <c r="K15" s="21"/>
     </row>
@@ -10094,7 +10161,7 @@
       <c r="J48" s="40"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1">
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="18"/>
       <c r="B49" s="35" t="s">
         <v>48</v>
@@ -10124,7 +10191,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1">
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="18"/>
       <c r="B50" s="35" t="s">
         <v>41</v>
@@ -10149,7 +10216,7 @@
       </c>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1">
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="18"/>
       <c r="B51" s="35" t="s">
         <v>40</v>
@@ -10167,7 +10234,7 @@
       </c>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1">
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="18"/>
       <c r="B52" s="35"/>
       <c r="C52" s="34"/>
@@ -10180,7 +10247,7 @@
       <c r="J52" s="40"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:19" ht="28.5">
+    <row r="53" spans="1:14" ht="28.5">
       <c r="A53" s="144">
         <v>5</v>
       </c>
@@ -10197,7 +10264,7 @@
       <c r="J53" s="40"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1">
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="18"/>
       <c r="B54" s="35" t="s">
         <v>48</v>
@@ -10224,7 +10291,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="15" customHeight="1">
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="18"/>
       <c r="B55" s="35" t="s">
         <v>41</v>
@@ -10249,7 +10316,7 @@
       </c>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1">
+    <row r="56" spans="1:14" ht="15" customHeight="1">
       <c r="A56" s="18"/>
       <c r="B56" s="35" t="s">
         <v>40</v>
@@ -10267,7 +10334,7 @@
       </c>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1">
+    <row r="57" spans="1:14" ht="15" customHeight="1">
       <c r="A57" s="18"/>
       <c r="B57" s="35"/>
       <c r="C57" s="34"/>
@@ -10280,7 +10347,7 @@
       <c r="J57" s="40"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:19" ht="42.75">
+    <row r="58" spans="1:14" ht="42.75">
       <c r="A58" s="18">
         <v>6</v>
       </c>
@@ -10297,7 +10364,7 @@
       <c r="J58" s="40"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1">
+    <row r="59" spans="1:14" ht="15" customHeight="1">
       <c r="A59" s="18"/>
       <c r="B59" s="35" t="s">
         <v>84</v>
@@ -10306,7 +10373,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="36">
-        <f>D64</f>
+        <f>D66</f>
         <v>10.515086863761049</v>
       </c>
       <c r="E59" s="36">
@@ -10328,631 +10395,632 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1">
+    <row r="60" spans="1:14" ht="15" customHeight="1">
       <c r="A60" s="18"/>
-      <c r="B60" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="32">
-        <f>SUM(G59:G59)</f>
-        <v>1.8927156354769885</v>
-      </c>
-      <c r="H60" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="I60" s="38">
-        <v>1950.4</v>
-      </c>
-      <c r="J60" s="40">
-        <f>G60*I60</f>
-        <v>3691.5525754343184</v>
-      </c>
-      <c r="K60" s="21"/>
-    </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1">
+      <c r="B60" s="35" t="str">
+        <f>B73</f>
+        <v>-at backyard</v>
+      </c>
+      <c r="C60" s="42">
+        <v>1</v>
+      </c>
+      <c r="D60" s="36">
+        <f>12</f>
+        <v>12</v>
+      </c>
+      <c r="E60" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F60" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="G60" s="37">
+        <f>PRODUCT(C60:F60)</f>
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="185"/>
+    </row>
+    <row r="61" spans="1:14" ht="15" customHeight="1">
       <c r="A61" s="18"/>
-      <c r="B61" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="37"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="42">
+        <v>1</v>
+      </c>
+      <c r="D61" s="36">
+        <f>D60</f>
+        <v>12</v>
+      </c>
+      <c r="E61" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F61" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="G61" s="37">
+        <f>PRODUCT(C61:F61)</f>
+        <v>1.3800000000000001</v>
+      </c>
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
-      <c r="J61" s="40">
-        <f>0.13*J60</f>
-        <v>479.90183480646141</v>
-      </c>
-      <c r="K61" s="21"/>
-    </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1">
+      <c r="J61" s="38"/>
+      <c r="K61" s="185"/>
+    </row>
+    <row r="62" spans="1:14" ht="15" customHeight="1">
       <c r="A62" s="18"/>
-      <c r="B62" s="35"/>
+      <c r="B62" s="35" t="s">
+        <v>41</v>
+      </c>
       <c r="C62" s="34"/>
       <c r="D62" s="36"/>
       <c r="E62" s="36"/>
       <c r="F62" s="36"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="40"/>
+      <c r="G62" s="32">
+        <f>SUM(G59:G61)</f>
+        <v>4.1007156354769885</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62" s="38">
+        <v>1950.4</v>
+      </c>
+      <c r="J62" s="40">
+        <f>G62*I62</f>
+        <v>7998.0357754343186</v>
+      </c>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:19" ht="30.75">
-      <c r="A63" s="144">
+    <row r="63" spans="1:14" ht="15" customHeight="1">
+      <c r="A63" s="18"/>
+      <c r="B63" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="34"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="40">
+        <f>0.13*J62</f>
+        <v>1039.7446508064616</v>
+      </c>
+      <c r="K63" s="21"/>
+    </row>
+    <row r="64" spans="1:14" ht="15" customHeight="1">
+      <c r="A64" s="18"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="21"/>
+    </row>
+    <row r="65" spans="1:19" ht="30.75">
+      <c r="A65" s="144">
         <v>7</v>
       </c>
-      <c r="B63" s="86" t="s">
+      <c r="B65" s="86" t="s">
         <v>89</v>
-      </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="21"/>
-      <c r="M63" s="87"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="87"/>
-      <c r="S63" s="87"/>
-    </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1">
-      <c r="A64" s="18"/>
-      <c r="B64" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="19">
-        <v>1</v>
-      </c>
-      <c r="D64" s="20">
-        <f>((21+15.5)-2)/3.281</f>
-        <v>10.515086863761049</v>
-      </c>
-      <c r="E64" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="F64" s="21">
-        <v>0.125</v>
-      </c>
-      <c r="G64" s="37">
-        <f>PRODUCT(C64:F64)</f>
-        <v>0.7886315147820786</v>
-      </c>
-      <c r="H64" s="22"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="21"/>
-    </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1">
-      <c r="A65" s="18"/>
-      <c r="B65" s="35" t="s">
-        <v>41</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="20"/>
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
-      <c r="G65" s="23">
-        <f>SUM(G64:G64)</f>
+      <c r="G65" s="23"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="21"/>
+      <c r="M65" s="87"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="87"/>
+      <c r="S65" s="87"/>
+    </row>
+    <row r="66" spans="1:19" ht="15" customHeight="1">
+      <c r="A66" s="18"/>
+      <c r="B66" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="19">
+        <v>1</v>
+      </c>
+      <c r="D66" s="20">
+        <f>((21+15.5)-2)/3.281</f>
+        <v>10.515086863761049</v>
+      </c>
+      <c r="E66" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="F66" s="21">
+        <v>0.125</v>
+      </c>
+      <c r="G66" s="37">
+        <f>PRODUCT(C66:F66)</f>
         <v>0.7886315147820786</v>
       </c>
-      <c r="H65" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="I65" s="23">
-        <v>663.31</v>
-      </c>
-      <c r="J65" s="39">
-        <f>G65*I65</f>
-        <v>523.10717007010055</v>
-      </c>
-      <c r="K65" s="21"/>
-    </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1">
-      <c r="A66" s="18"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="23"/>
       <c r="H66" s="22"/>
       <c r="I66" s="23"/>
       <c r="J66" s="39"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="18">
-        <v>8</v>
-      </c>
-      <c r="B67" s="88" t="s">
-        <v>91</v>
+    <row r="67" spans="1:19" ht="15" customHeight="1">
+      <c r="A67" s="18"/>
+      <c r="B67" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="20"/>
       <c r="E67" s="21"/>
       <c r="F67" s="21"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="39"/>
+      <c r="G67" s="23">
+        <f>SUM(G66:G66)</f>
+        <v>0.7886315147820786</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I67" s="23">
+        <v>663.31</v>
+      </c>
+      <c r="J67" s="39">
+        <f>G67*I67</f>
+        <v>523.10717007010055</v>
+      </c>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" ht="15" customHeight="1">
+    <row r="68" spans="1:19" ht="15" customHeight="1">
       <c r="A68" s="18"/>
-      <c r="B68" s="35" t="str">
-        <f>B64</f>
-        <v>-at drain wall base</v>
-      </c>
-      <c r="C68" s="19">
-        <f>C64</f>
-        <v>1</v>
-      </c>
-      <c r="D68" s="20">
-        <f>D64</f>
-        <v>10.515086863761049</v>
-      </c>
-      <c r="E68" s="21">
-        <v>0.67</v>
-      </c>
+      <c r="B68" s="35"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="21"/>
       <c r="F68" s="21"/>
-      <c r="G68" s="37">
-        <f>PRODUCT(C68:F68)</f>
-        <v>7.0451081987199027</v>
-      </c>
+      <c r="G68" s="23"/>
       <c r="H68" s="22"/>
       <c r="I68" s="23"/>
       <c r="J68" s="39"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" s="156" customFormat="1" ht="15" customHeight="1">
-      <c r="A69" s="18"/>
-      <c r="B69" s="152" t="s">
+    <row r="69" spans="1:19">
+      <c r="A69" s="18">
+        <v>8</v>
+      </c>
+      <c r="B69" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="21"/>
+    </row>
+    <row r="70" spans="1:19" ht="15" customHeight="1">
+      <c r="A70" s="18"/>
+      <c r="B70" s="35" t="str">
+        <f>B66</f>
+        <v>-at drain wall base</v>
+      </c>
+      <c r="C70" s="19">
+        <f>C66</f>
+        <v>1</v>
+      </c>
+      <c r="D70" s="20">
+        <f>D66</f>
+        <v>10.515086863761049</v>
+      </c>
+      <c r="E70" s="21">
+        <v>0.67</v>
+      </c>
+      <c r="F70" s="21"/>
+      <c r="G70" s="37">
+        <f>PRODUCT(C70:F70)</f>
+        <v>7.0451081987199027</v>
+      </c>
+      <c r="H70" s="22"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="21"/>
+    </row>
+    <row r="71" spans="1:19" s="156" customFormat="1" ht="15" customHeight="1">
+      <c r="A71" s="18"/>
+      <c r="B71" s="152" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C71" s="19">
         <v>1</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D71" s="20">
         <f>23/3.281</f>
         <v>7.0100579091740318</v>
       </c>
-      <c r="E69" s="21">
+      <c r="E71" s="21">
         <f>0.3+0.23</f>
         <v>0.53</v>
       </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="154">
-        <f>PRODUCT(C69:F69)</f>
+      <c r="F71" s="21"/>
+      <c r="G71" s="154">
+        <f>PRODUCT(C71:F71)</f>
         <v>3.7153306918622371</v>
       </c>
-      <c r="H69" s="22"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="155"/>
-      <c r="K69" s="21"/>
-    </row>
-    <row r="70" spans="1:11" s="156" customFormat="1" ht="15" customHeight="1">
-      <c r="A70" s="18"/>
-      <c r="B70" s="152" t="str">
-        <f>B118</f>
+      <c r="H71" s="22"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="155"/>
+      <c r="K71" s="21"/>
+    </row>
+    <row r="72" spans="1:19" s="156" customFormat="1" ht="15" customHeight="1">
+      <c r="A72" s="18"/>
+      <c r="B72" s="152" t="str">
+        <f>B123</f>
         <v>-at entrance</v>
       </c>
-      <c r="C70" s="19">
-        <f>C118</f>
+      <c r="C72" s="19">
+        <f>C123</f>
         <v>1</v>
       </c>
-      <c r="D70" s="153">
+      <c r="D72" s="153">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E70" s="153">
+      <c r="E72" s="153">
         <v>0.9</v>
       </c>
-      <c r="F70" s="152"/>
-      <c r="G70" s="154">
-        <f>PRODUCT(C70:F70)</f>
+      <c r="F72" s="152"/>
+      <c r="G72" s="154">
+        <f>PRODUCT(C72:F72)</f>
         <v>1.9800000000000002</v>
       </c>
-      <c r="H70" s="22"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="155"/>
-      <c r="K70" s="21"/>
-    </row>
-    <row r="71" spans="1:11" ht="15" customHeight="1">
-      <c r="A71" s="18"/>
-      <c r="B71" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C71" s="19"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="23">
-        <f>SUM(G68:G70)</f>
-        <v>12.740438890582141</v>
-      </c>
-      <c r="H71" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I71" s="23">
-        <v>1014.97</v>
-      </c>
-      <c r="J71" s="39">
-        <f>G71*I71</f>
-        <v>12931.163260774156</v>
-      </c>
-      <c r="K71" s="21"/>
-    </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1">
-      <c r="A72" s="18"/>
-      <c r="B72" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="23"/>
       <c r="H72" s="22"/>
       <c r="I72" s="23"/>
-      <c r="J72" s="39">
-        <f>0.13*G71*8617.2/10</f>
-        <v>1427.2298301030178</v>
-      </c>
+      <c r="J72" s="155"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1">
+    <row r="73" spans="1:19" s="156" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="18"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="23"/>
+      <c r="B73" s="152" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="19">
+        <v>1</v>
+      </c>
+      <c r="D73" s="153">
+        <v>12.9</v>
+      </c>
+      <c r="E73" s="153">
+        <v>0.35</v>
+      </c>
+      <c r="F73" s="152"/>
+      <c r="G73" s="154">
+        <f>PRODUCT(C73:F73)</f>
+        <v>4.5149999999999997</v>
+      </c>
       <c r="H73" s="22"/>
       <c r="I73" s="23"/>
-      <c r="J73" s="39"/>
+      <c r="J73" s="155"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" ht="30">
-      <c r="A74" s="18">
-        <v>9</v>
-      </c>
-      <c r="B74" s="88" t="s">
-        <v>92</v>
+    <row r="74" spans="1:19" ht="15" customHeight="1">
+      <c r="A74" s="18"/>
+      <c r="B74" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="C74" s="19"/>
       <c r="D74" s="20"/>
       <c r="E74" s="21"/>
       <c r="F74" s="21"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="39"/>
+      <c r="G74" s="23">
+        <f>SUM(G70:G73)</f>
+        <v>17.255438890582141</v>
+      </c>
+      <c r="H74" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I74" s="23">
+        <v>1014.97</v>
+      </c>
+      <c r="J74" s="39">
+        <f>G74*I74</f>
+        <v>17513.752810774156</v>
+      </c>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1">
+    <row r="75" spans="1:19" ht="15" customHeight="1">
       <c r="A75" s="18"/>
-      <c r="B75" s="35" t="str">
-        <f>B68</f>
-        <v>-at drain wall base</v>
-      </c>
-      <c r="C75" s="19">
-        <f>C68</f>
-        <v>1</v>
-      </c>
-      <c r="D75" s="20">
-        <f>D64</f>
-        <v>10.515086863761049</v>
-      </c>
-      <c r="E75" s="21">
-        <f>E68</f>
-        <v>0.67</v>
-      </c>
-      <c r="F75" s="21">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G75" s="37">
-        <f>PRODUCT(C75:F75)</f>
-        <v>0.5283831149039927</v>
-      </c>
+      <c r="B75" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="23"/>
       <c r="H75" s="22"/>
       <c r="I75" s="23"/>
-      <c r="J75" s="39"/>
+      <c r="J75" s="39">
+        <f>0.13*G74*8617.2/10</f>
+        <v>1933.0163841030176</v>
+      </c>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1">
+    <row r="76" spans="1:19" ht="15" customHeight="1">
       <c r="A76" s="18"/>
-      <c r="B76" s="35" t="str">
-        <f>B69</f>
-        <v>-at one side drain</v>
-      </c>
-      <c r="C76" s="19">
-        <f>C69</f>
-        <v>1</v>
-      </c>
-      <c r="D76" s="20">
-        <f>D69</f>
-        <v>7.0100579091740318</v>
-      </c>
-      <c r="E76" s="21">
-        <f>E69+0.3</f>
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="F76" s="21">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G76" s="37">
-        <f>PRODUCT(C76:F76)</f>
-        <v>0.43637610484608347</v>
-      </c>
+      <c r="B76" s="35"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="23"/>
       <c r="H76" s="22"/>
       <c r="I76" s="23"/>
       <c r="J76" s="39"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1">
-      <c r="A77" s="18"/>
-      <c r="B77" s="35" t="str">
-        <f>B18</f>
-        <v>-at roof</v>
-      </c>
-      <c r="C77" s="19">
-        <f>C18</f>
-        <v>1</v>
-      </c>
-      <c r="D77" s="20">
-        <f>(4.27-0.3)+(9.5+7.333+9.42+9.42+13.833+(10.5-0.75)+7.583)/3.281</f>
-        <v>24.341533069186223</v>
-      </c>
-      <c r="E77" s="21">
-        <f>E18</f>
-        <v>0.23</v>
-      </c>
-      <c r="F77" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="G77" s="37">
-        <f>PRODUCT(C77:F77)</f>
-        <v>0.27992763029564161</v>
-      </c>
+    <row r="77" spans="1:19" ht="30">
+      <c r="A77" s="18">
+        <v>9</v>
+      </c>
+      <c r="B77" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="19"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="23"/>
       <c r="H77" s="22"/>
       <c r="I77" s="23"/>
       <c r="J77" s="39"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1">
+    <row r="78" spans="1:19" ht="15" customHeight="1">
       <c r="A78" s="18"/>
-      <c r="B78" s="35"/>
+      <c r="B78" s="35" t="str">
+        <f>B70</f>
+        <v>-at drain wall base</v>
+      </c>
       <c r="C78" s="19">
-        <f>C19</f>
+        <f>C70</f>
         <v>1</v>
       </c>
       <c r="D78" s="20">
-        <f>25.17/3.281</f>
-        <v>7.6714416336482785</v>
+        <f>D66</f>
+        <v>10.515086863761049</v>
       </c>
       <c r="E78" s="21">
-        <v>0.1</v>
+        <f>E70</f>
+        <v>0.67</v>
       </c>
       <c r="F78" s="21">
-        <v>0.05</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G78" s="37">
         <f>PRODUCT(C78:F78)</f>
-        <v>3.8357208168241397E-2</v>
+        <v>0.5283831149039927</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="23"/>
       <c r="J78" s="39"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1">
+    <row r="79" spans="1:19" ht="15" customHeight="1">
       <c r="A79" s="18"/>
-      <c r="B79" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C79" s="19"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="23">
-        <f>SUM(G75:G78)</f>
-        <v>1.2830440582139593</v>
-      </c>
-      <c r="H79" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="I79" s="23">
-        <v>12983.1</v>
-      </c>
-      <c r="J79" s="39">
-        <f>G79*I79</f>
-        <v>16657.889312197654</v>
-      </c>
+      <c r="B79" s="35" t="str">
+        <f>B71</f>
+        <v>-at one side drain</v>
+      </c>
+      <c r="C79" s="19">
+        <f>C71</f>
+        <v>1</v>
+      </c>
+      <c r="D79" s="20">
+        <f>D71</f>
+        <v>7.0100579091740318</v>
+      </c>
+      <c r="E79" s="21">
+        <f>E71+0.3</f>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="F79" s="21">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G79" s="37">
+        <f>PRODUCT(C79:F79)</f>
+        <v>0.43637610484608347</v>
+      </c>
+      <c r="H79" s="22"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="39"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1">
+    <row r="80" spans="1:19" ht="15" customHeight="1">
       <c r="A80" s="18"/>
-      <c r="B80" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C80" s="19"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="23"/>
+      <c r="B80" s="35" t="str">
+        <f>B18</f>
+        <v>-at roof</v>
+      </c>
+      <c r="C80" s="19">
+        <f>C18</f>
+        <v>1</v>
+      </c>
+      <c r="D80" s="20">
+        <f>(4.27-0.3)+(9.5+7.333+9.42+9.42+13.833+(10.5-0.75)+7.583)/3.281</f>
+        <v>24.341533069186223</v>
+      </c>
+      <c r="E80" s="21">
+        <f>E18</f>
+        <v>0.23</v>
+      </c>
+      <c r="F80" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G80" s="37">
+        <f>PRODUCT(C80:F80)</f>
+        <v>0.27992763029564161</v>
+      </c>
       <c r="H80" s="22"/>
       <c r="I80" s="23"/>
-      <c r="J80" s="39">
-        <f>0.13*G79*8078.11</f>
-        <v>1347.3942348228397</v>
-      </c>
+      <c r="J80" s="39"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" ht="15" customHeight="1">
       <c r="A81" s="18"/>
-      <c r="B81" s="88"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="23"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="19">
+        <f>C19</f>
+        <v>1</v>
+      </c>
+      <c r="D81" s="20">
+        <f>25.17/3.281</f>
+        <v>7.6714416336482785</v>
+      </c>
+      <c r="E81" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F81" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G81" s="37">
+        <f>PRODUCT(C81:F81)</f>
+        <v>3.8357208168241397E-2</v>
+      </c>
       <c r="H81" s="22"/>
       <c r="I81" s="23"/>
       <c r="J81" s="39"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:20" ht="39.75">
-      <c r="A82" s="18">
-        <v>10</v>
-      </c>
-      <c r="B82" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="C82" s="34"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="40"/>
+    <row r="82" spans="1:20" ht="15" customHeight="1">
+      <c r="A82" s="18"/>
+      <c r="B82" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" s="19">
+        <v>4</v>
+      </c>
+      <c r="D82" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="E82" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="F82" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G82" s="37">
+        <f>PRODUCT(C82:F82)</f>
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="H82" s="22"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="39"/>
       <c r="K82" s="21"/>
-      <c r="N82" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="O82" s="65"/>
-      <c r="P82" s="65"/>
-      <c r="Q82" s="65"/>
-      <c r="R82" s="65"/>
-      <c r="S82" s="65"/>
-      <c r="T82" s="65"/>
     </row>
     <row r="83" spans="1:20" ht="15" customHeight="1">
       <c r="A83" s="18"/>
-      <c r="B83" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="34">
-        <v>2</v>
-      </c>
-      <c r="D83" s="36">
-        <f>((21+15.5)-2)/3.281</f>
-        <v>10.515086863761049</v>
-      </c>
-      <c r="E83" s="36">
-        <v>0.15</v>
-      </c>
-      <c r="F83" s="36">
-        <v>0.5</v>
+      <c r="B83" s="35" t="str">
+        <f>B73</f>
+        <v>-at backyard</v>
+      </c>
+      <c r="C83" s="19">
+        <f>C73</f>
+        <v>1</v>
+      </c>
+      <c r="D83" s="20">
+        <f>D73</f>
+        <v>12.9</v>
+      </c>
+      <c r="E83" s="21">
+        <f>E73</f>
+        <v>0.35</v>
+      </c>
+      <c r="F83" s="21">
+        <v>0.05</v>
       </c>
       <c r="G83" s="37">
         <f>PRODUCT(C83:F83)</f>
-        <v>1.5772630295641572</v>
-      </c>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="185"/>
-      <c r="N83" s="195" t="s">
-        <v>87</v>
-      </c>
-      <c r="O83" s="195"/>
-      <c r="P83" s="195"/>
-      <c r="Q83" s="195"/>
-      <c r="R83" s="195"/>
-      <c r="S83" s="195"/>
-      <c r="T83" s="195"/>
+        <v>0.22575000000000001</v>
+      </c>
+      <c r="H83" s="22"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="21"/>
     </row>
     <row r="84" spans="1:20" ht="15" customHeight="1">
       <c r="A84" s="18"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="34">
-        <v>2</v>
-      </c>
-      <c r="D84" s="36">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E84" s="36">
-        <v>0.15</v>
-      </c>
-      <c r="F84" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="G84" s="37">
-        <f>PRODUCT(C84:F84)</f>
-        <v>0.10349999999999999</v>
-      </c>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="185"/>
-      <c r="N84" s="143"/>
-      <c r="O84" s="143"/>
-      <c r="P84" s="143"/>
-      <c r="Q84" s="143"/>
-      <c r="R84" s="143"/>
-      <c r="S84" s="143"/>
-      <c r="T84" s="143"/>
+      <c r="B84" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="23">
+        <f>SUM(G78:G83)</f>
+        <v>1.5357940582139591</v>
+      </c>
+      <c r="H84" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I84" s="23">
+        <v>12983.1</v>
+      </c>
+      <c r="J84" s="39">
+        <f>G84*I84</f>
+        <v>19939.367837197653</v>
+      </c>
+      <c r="K84" s="21"/>
     </row>
     <row r="85" spans="1:20" ht="15" customHeight="1">
       <c r="A85" s="18"/>
       <c r="B85" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C85" s="34"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="32">
-        <f>SUM(G83:G84)</f>
-        <v>1.6807630295641571</v>
-      </c>
-      <c r="H85" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="I85" s="38">
-        <v>8569.2999999999993</v>
-      </c>
-      <c r="J85" s="40">
-        <f>G85*I85</f>
-        <v>14402.96262924413</v>
+        <v>40</v>
+      </c>
+      <c r="C85" s="19"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="39">
+        <f>0.13*G84*8078.11</f>
+        <v>1612.8207341478396</v>
       </c>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:20" ht="15" customHeight="1">
+    <row r="86" spans="1:20">
       <c r="A86" s="18"/>
-      <c r="B86" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C86" s="34"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="40">
-        <f>0.13*G85*5504.3/9</f>
-        <v>133.63167918576653</v>
-      </c>
+      <c r="B86" s="88"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="39"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:20" ht="15" customHeight="1">
-      <c r="A87" s="18"/>
-      <c r="B87" s="35"/>
+    <row r="87" spans="1:20" ht="39.75">
+      <c r="A87" s="18">
+        <v>10</v>
+      </c>
+      <c r="B87" s="59" t="s">
+        <v>88</v>
+      </c>
       <c r="C87" s="34"/>
       <c r="D87" s="36"/>
       <c r="E87" s="36"/>
@@ -10962,174 +11030,164 @@
       <c r="I87" s="38"/>
       <c r="J87" s="40"/>
       <c r="K87" s="21"/>
-      <c r="N87">
-        <f>9.75/0.75</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" ht="30">
-      <c r="A88" s="18">
-        <v>11</v>
-      </c>
-      <c r="B88" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="89" t="s">
-        <v>94</v>
-      </c>
-      <c r="E88" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="F88" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="G88" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="H88" s="22"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="21"/>
+      <c r="N87" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="O87" s="65"/>
+      <c r="P87" s="65"/>
+      <c r="Q87" s="65"/>
+      <c r="R87" s="65"/>
+      <c r="S87" s="65"/>
+      <c r="T87" s="65"/>
+    </row>
+    <row r="88" spans="1:20" ht="15" customHeight="1">
+      <c r="A88" s="18"/>
+      <c r="B88" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="34">
+        <v>2</v>
+      </c>
+      <c r="D88" s="36">
+        <f>((21+15.5)-2)/3.281</f>
+        <v>10.515086863761049</v>
+      </c>
+      <c r="E88" s="36">
+        <v>0.15</v>
+      </c>
+      <c r="F88" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="G88" s="37">
+        <f>PRODUCT(C88:F88)</f>
+        <v>1.5772630295641572</v>
+      </c>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="185"/>
+      <c r="N88" s="195" t="s">
+        <v>87</v>
+      </c>
+      <c r="O88" s="195"/>
+      <c r="P88" s="195"/>
+      <c r="Q88" s="195"/>
+      <c r="R88" s="195"/>
+      <c r="S88" s="195"/>
+      <c r="T88" s="195"/>
     </row>
     <row r="89" spans="1:20" ht="15" customHeight="1">
       <c r="A89" s="18"/>
-      <c r="B89" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C89" s="19">
-        <f>8*(TRUNC((D90-0.1)/0.15,0)+1)</f>
-        <v>40</v>
-      </c>
-      <c r="D89" s="20">
-        <f>0.66-0.1</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E89" s="21">
-        <f>8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F89" s="21">
-        <f>PRODUCT(C89:E89)</f>
-        <v>8.8493827160493836</v>
-      </c>
-      <c r="G89" s="91">
-        <f>F89/1000</f>
-        <v>8.8493827160493841E-3</v>
-      </c>
-      <c r="H89" s="22"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="39"/>
-      <c r="K89" s="21"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="34">
+        <v>2</v>
+      </c>
+      <c r="D89" s="36">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E89" s="36">
+        <v>0.15</v>
+      </c>
+      <c r="F89" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="G89" s="37">
+        <f>PRODUCT(C89:F89)</f>
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="H89" s="38"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="185"/>
+      <c r="N89" s="143"/>
+      <c r="O89" s="143"/>
+      <c r="P89" s="143"/>
+      <c r="Q89" s="143"/>
+      <c r="R89" s="143"/>
+      <c r="S89" s="143"/>
+      <c r="T89" s="143"/>
     </row>
     <row r="90" spans="1:20" ht="15" customHeight="1">
       <c r="A90" s="18"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="19">
-        <f>8*(TRUNC((D89-0.1)/0.15,0)+1)</f>
-        <v>32</v>
-      </c>
-      <c r="D90" s="20">
-        <f>0.92-0.1</f>
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="E90" s="21">
-        <f>8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F90" s="21">
-        <f>PRODUCT(C90:E90)</f>
-        <v>10.36641975308642</v>
-      </c>
-      <c r="G90" s="91">
-        <f>F90/1000</f>
-        <v>1.036641975308642E-2</v>
-      </c>
-      <c r="H90" s="22"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="39"/>
+      <c r="B90" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="34"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="32">
+        <f>SUM(G88:G89)</f>
+        <v>1.6807630295641571</v>
+      </c>
+      <c r="H90" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I90" s="38">
+        <v>8569.2999999999993</v>
+      </c>
+      <c r="J90" s="40">
+        <f>G90*I90</f>
+        <v>14402.96262924413</v>
+      </c>
       <c r="K90" s="21"/>
     </row>
     <row r="91" spans="1:20" ht="15" customHeight="1">
       <c r="A91" s="18"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="19">
-        <f>(TRUNC((D92-0.1)/0.15,0)+1)</f>
-        <v>3</v>
-      </c>
-      <c r="D91" s="20">
-        <f t="shared" ref="D91" si="5">0.66-0.1</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E91" s="21">
-        <f t="shared" ref="E91:E94" si="6">8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F91" s="21">
-        <f t="shared" ref="F91:F94" si="7">PRODUCT(C91:E91)</f>
-        <v>0.66370370370370368</v>
-      </c>
-      <c r="G91" s="91">
-        <f t="shared" ref="G91:G94" si="8">F91/1000</f>
-        <v>6.6370370370370368E-4</v>
-      </c>
-      <c r="H91" s="22"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="39"/>
+      <c r="B91" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" s="34"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="40">
+        <f>0.13*G90*5504.3/9</f>
+        <v>133.63167918576653</v>
+      </c>
       <c r="K91" s="21"/>
     </row>
     <row r="92" spans="1:20" ht="15" customHeight="1">
       <c r="A92" s="18"/>
       <c r="B92" s="35"/>
-      <c r="C92" s="19">
-        <f>(TRUNC((D91-0.1)/0.15,0)+1)</f>
-        <v>4</v>
-      </c>
-      <c r="D92" s="20">
-        <f>0.57-0.1</f>
-        <v>0.47</v>
-      </c>
-      <c r="E92" s="21">
-        <f t="shared" si="6"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F92" s="21">
-        <f t="shared" si="7"/>
-        <v>0.74271604938271596</v>
-      </c>
-      <c r="G92" s="91">
-        <f t="shared" si="8"/>
-        <v>7.4271604938271594E-4</v>
-      </c>
-      <c r="H92" s="22"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="39"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="40"/>
       <c r="K92" s="21"/>
-    </row>
-    <row r="93" spans="1:20" ht="15" customHeight="1">
-      <c r="A93" s="18"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="19">
-        <f>(TRUNC((D94-0.1)/0.15,0)+1)</f>
-        <v>5</v>
-      </c>
-      <c r="D93" s="20">
-        <f>1.65-0.1</f>
-        <v>1.5499999999999998</v>
-      </c>
-      <c r="E93" s="21">
-        <f t="shared" si="6"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F93" s="21">
-        <f t="shared" si="7"/>
-        <v>3.0617283950617278</v>
-      </c>
-      <c r="G93" s="91">
-        <f t="shared" si="8"/>
-        <v>3.0617283950617278E-3</v>
+      <c r="N92">
+        <f>9.75/0.75</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="30">
+      <c r="A93" s="18">
+        <v>11</v>
+      </c>
+      <c r="B93" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="E93" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="F93" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="G93" s="90" t="s">
+        <v>97</v>
       </c>
       <c r="H93" s="22"/>
       <c r="I93" s="23"/>
@@ -11138,26 +11196,28 @@
     </row>
     <row r="94" spans="1:20" ht="15" customHeight="1">
       <c r="A94" s="18"/>
-      <c r="B94" s="35"/>
+      <c r="B94" s="35" t="s">
+        <v>99</v>
+      </c>
       <c r="C94" s="19">
-        <f>(TRUNC((D93-0.1)/0.15,0)+1)</f>
-        <v>10</v>
+        <f>8*(TRUNC((D95-0.1)/0.15,0)+1)</f>
+        <v>40</v>
       </c>
       <c r="D94" s="20">
-        <f>0.84-0.1</f>
-        <v>0.74</v>
+        <f>0.66-0.1</f>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E94" s="21">
-        <f t="shared" si="6"/>
+        <f>8*8/162</f>
         <v>0.39506172839506171</v>
       </c>
       <c r="F94" s="21">
-        <f t="shared" si="7"/>
-        <v>2.9234567901234567</v>
+        <f>PRODUCT(C94:E94)</f>
+        <v>8.8493827160493836</v>
       </c>
       <c r="G94" s="91">
-        <f t="shared" si="8"/>
-        <v>2.9234567901234567E-3</v>
+        <f>F94/1000</f>
+        <v>8.8493827160493841E-3</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="23"/>
@@ -11168,8 +11228,8 @@
       <c r="A95" s="18"/>
       <c r="B95" s="35"/>
       <c r="C95" s="19">
-        <f>TRUNC((D96-0.1)/0.15,0)+1</f>
-        <v>5</v>
+        <f>8*(TRUNC((D94-0.1)/0.15,0)+1)</f>
+        <v>32</v>
       </c>
       <c r="D95" s="20">
         <f>0.92-0.1</f>
@@ -11181,11 +11241,11 @@
       </c>
       <c r="F95" s="21">
         <f>PRODUCT(C95:E95)</f>
-        <v>1.6197530864197531</v>
+        <v>10.36641975308642</v>
       </c>
       <c r="G95" s="91">
         <f>F95/1000</f>
-        <v>1.6197530864197531E-3</v>
+        <v>1.036641975308642E-2</v>
       </c>
       <c r="H95" s="22"/>
       <c r="I95" s="23"/>
@@ -11196,24 +11256,24 @@
       <c r="A96" s="18"/>
       <c r="B96" s="35"/>
       <c r="C96" s="19">
-        <f>(TRUNC((D95-0.1)/0.15,0)+1)</f>
-        <v>5</v>
+        <f>(TRUNC((D97-0.1)/0.15,0)+1)</f>
+        <v>3</v>
       </c>
       <c r="D96" s="20">
-        <f>0.8-0.1</f>
-        <v>0.70000000000000007</v>
+        <f t="shared" ref="D96" si="5">0.66-0.1</f>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E96" s="21">
-        <f>8*8/162</f>
+        <f t="shared" ref="E96:E99" si="6">8*8/162</f>
         <v>0.39506172839506171</v>
       </c>
       <c r="F96" s="21">
-        <f>PRODUCT(C96:E96)</f>
-        <v>1.3827160493827162</v>
+        <f t="shared" ref="F96:F99" si="7">PRODUCT(C96:E96)</f>
+        <v>0.66370370370370368</v>
       </c>
       <c r="G96" s="91">
-        <f>F96/1000</f>
-        <v>1.3827160493827162E-3</v>
+        <f t="shared" ref="G96:G99" si="8">F96/1000</f>
+        <v>6.6370370370370368E-4</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="23"/>
@@ -11222,211 +11282,236 @@
     </row>
     <row r="97" spans="1:22" ht="15" customHeight="1">
       <c r="A97" s="18"/>
-      <c r="B97" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="23">
-        <f>SUM(G89:G96)</f>
-        <v>2.9609876543209884E-2</v>
-      </c>
-      <c r="H97" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I97" s="23">
-        <v>131940</v>
-      </c>
-      <c r="J97" s="39">
-        <f>G97*I97</f>
-        <v>3906.7271111111122</v>
-      </c>
+      <c r="B97" s="35"/>
+      <c r="C97" s="19">
+        <f>(TRUNC((D96-0.1)/0.15,0)+1)</f>
+        <v>4</v>
+      </c>
+      <c r="D97" s="20">
+        <f>0.57-0.1</f>
+        <v>0.47</v>
+      </c>
+      <c r="E97" s="21">
+        <f t="shared" si="6"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F97" s="21">
+        <f t="shared" si="7"/>
+        <v>0.74271604938271596</v>
+      </c>
+      <c r="G97" s="91">
+        <f t="shared" si="8"/>
+        <v>7.4271604938271594E-4</v>
+      </c>
+      <c r="H97" s="22"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="39"/>
       <c r="K97" s="21"/>
     </row>
     <row r="98" spans="1:22" ht="15" customHeight="1">
       <c r="A98" s="18"/>
-      <c r="B98" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C98" s="19"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="23"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="19">
+        <f>(TRUNC((D99-0.1)/0.15,0)+1)</f>
+        <v>5</v>
+      </c>
+      <c r="D98" s="20">
+        <f>1.65-0.1</f>
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="E98" s="21">
+        <f t="shared" si="6"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F98" s="21">
+        <f t="shared" si="7"/>
+        <v>3.0617283950617278</v>
+      </c>
+      <c r="G98" s="91">
+        <f t="shared" si="8"/>
+        <v>3.0617283950617278E-3</v>
+      </c>
       <c r="H98" s="22"/>
       <c r="I98" s="23"/>
-      <c r="J98" s="39">
-        <f>0.13*G97*106200</f>
-        <v>408.79395555555567</v>
-      </c>
+      <c r="J98" s="39"/>
       <c r="K98" s="21"/>
     </row>
     <row r="99" spans="1:22" ht="15" customHeight="1">
       <c r="A99" s="18"/>
       <c r="B99" s="35"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="23"/>
+      <c r="C99" s="19">
+        <f>(TRUNC((D98-0.1)/0.15,0)+1)</f>
+        <v>10</v>
+      </c>
+      <c r="D99" s="20">
+        <f>0.84-0.1</f>
+        <v>0.74</v>
+      </c>
+      <c r="E99" s="21">
+        <f t="shared" si="6"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F99" s="21">
+        <f t="shared" si="7"/>
+        <v>2.9234567901234567</v>
+      </c>
+      <c r="G99" s="91">
+        <f t="shared" si="8"/>
+        <v>2.9234567901234567E-3</v>
+      </c>
       <c r="H99" s="22"/>
       <c r="I99" s="23"/>
       <c r="J99" s="39"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:22" ht="30">
-      <c r="A100" s="144">
+    <row r="100" spans="1:22" ht="15" customHeight="1">
+      <c r="A100" s="18"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="19">
+        <f>TRUNC((D101-0.1)/0.15,0)+1</f>
+        <v>5</v>
+      </c>
+      <c r="D100" s="20">
+        <f>0.92-0.1</f>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="E100" s="21">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F100" s="21">
+        <f>PRODUCT(C100:E100)</f>
+        <v>1.6197530864197531</v>
+      </c>
+      <c r="G100" s="91">
+        <f>F100/1000</f>
+        <v>1.6197530864197531E-3</v>
+      </c>
+      <c r="H100" s="22"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="39"/>
+      <c r="K100" s="21"/>
+    </row>
+    <row r="101" spans="1:22" ht="15" customHeight="1">
+      <c r="A101" s="18"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="19">
+        <f>(TRUNC((D100-0.1)/0.15,0)+1)</f>
+        <v>5</v>
+      </c>
+      <c r="D101" s="20">
+        <f>0.8-0.1</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="E101" s="21">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F101" s="21">
+        <f>PRODUCT(C101:E101)</f>
+        <v>1.3827160493827162</v>
+      </c>
+      <c r="G101" s="91">
+        <f>F101/1000</f>
+        <v>1.3827160493827162E-3</v>
+      </c>
+      <c r="H101" s="22"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="39"/>
+      <c r="K101" s="21"/>
+    </row>
+    <row r="102" spans="1:22" ht="15" customHeight="1">
+      <c r="A102" s="18"/>
+      <c r="B102" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" s="19"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="23">
+        <f>SUM(G94:G101)</f>
+        <v>2.9609876543209884E-2</v>
+      </c>
+      <c r="H102" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I102" s="23">
+        <v>131940</v>
+      </c>
+      <c r="J102" s="39">
+        <f>G102*I102</f>
+        <v>3906.7271111111122</v>
+      </c>
+      <c r="K102" s="21"/>
+    </row>
+    <row r="103" spans="1:22" ht="15" customHeight="1">
+      <c r="A103" s="18"/>
+      <c r="B103" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" s="19"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="39">
+        <f>0.13*G102*106200</f>
+        <v>408.79395555555567</v>
+      </c>
+      <c r="K103" s="21"/>
+    </row>
+    <row r="104" spans="1:22" ht="15" customHeight="1">
+      <c r="A104" s="18"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="39"/>
+      <c r="K104" s="21"/>
+    </row>
+    <row r="105" spans="1:22" ht="30">
+      <c r="A105" s="144">
         <v>12</v>
       </c>
-      <c r="B100" s="157" t="s">
+      <c r="B105" s="157" t="s">
         <v>100</v>
       </c>
-      <c r="C100" s="147"/>
-      <c r="D100" s="148"/>
-      <c r="E100" s="149"/>
-      <c r="F100" s="149"/>
-      <c r="G100" s="158"/>
-      <c r="H100" s="159"/>
-      <c r="I100" s="158"/>
-      <c r="J100" s="160"/>
-      <c r="K100" s="21"/>
-    </row>
-    <row r="101" spans="1:22" ht="15" customHeight="1">
-      <c r="A101" s="144"/>
-      <c r="B101" s="146" t="s">
+      <c r="C105" s="147"/>
+      <c r="D105" s="148"/>
+      <c r="E105" s="149"/>
+      <c r="F105" s="149"/>
+      <c r="G105" s="158"/>
+      <c r="H105" s="159"/>
+      <c r="I105" s="158"/>
+      <c r="J105" s="160"/>
+      <c r="K105" s="21"/>
+    </row>
+    <row r="106" spans="1:22" ht="15" customHeight="1">
+      <c r="A106" s="144"/>
+      <c r="B106" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="161">
+      <c r="C106" s="161">
         <f>2*8</f>
         <v>16</v>
       </c>
-      <c r="D101" s="162">
+      <c r="D106" s="162">
         <v>0.66</v>
-      </c>
-      <c r="E101" s="162"/>
-      <c r="F101" s="162">
-        <v>0.1</v>
-      </c>
-      <c r="G101" s="150">
-        <f>PRODUCT(C101:F101)</f>
-        <v>1.056</v>
-      </c>
-      <c r="H101" s="163"/>
-      <c r="I101" s="163"/>
-      <c r="J101" s="163"/>
-      <c r="K101" s="185"/>
-    </row>
-    <row r="102" spans="1:22" ht="15" customHeight="1">
-      <c r="A102" s="144"/>
-      <c r="B102" s="146"/>
-      <c r="C102" s="161">
-        <f>2*8</f>
-        <v>16</v>
-      </c>
-      <c r="D102" s="162">
-        <v>0.92</v>
-      </c>
-      <c r="E102" s="162"/>
-      <c r="F102" s="162">
-        <v>0.1</v>
-      </c>
-      <c r="G102" s="150">
-        <f t="shared" ref="G102:G109" si="9">PRODUCT(C102:F102)</f>
-        <v>1.4720000000000002</v>
-      </c>
-      <c r="H102" s="163"/>
-      <c r="I102" s="163"/>
-      <c r="J102" s="163"/>
-      <c r="K102" s="185"/>
-    </row>
-    <row r="103" spans="1:22" ht="15" customHeight="1">
-      <c r="A103" s="144"/>
-      <c r="B103" s="146"/>
-      <c r="C103" s="161">
-        <f>2*1</f>
-        <v>2</v>
-      </c>
-      <c r="D103" s="162">
-        <v>0.66</v>
-      </c>
-      <c r="E103" s="162"/>
-      <c r="F103" s="162">
-        <v>0.1</v>
-      </c>
-      <c r="G103" s="150">
-        <f t="shared" si="9"/>
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="H103" s="163"/>
-      <c r="I103" s="163"/>
-      <c r="J103" s="163"/>
-      <c r="K103" s="185"/>
-    </row>
-    <row r="104" spans="1:22" ht="15" customHeight="1">
-      <c r="A104" s="144"/>
-      <c r="B104" s="146"/>
-      <c r="C104" s="161">
-        <f>2*1</f>
-        <v>2</v>
-      </c>
-      <c r="D104" s="162">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E104" s="162"/>
-      <c r="F104" s="162">
-        <v>0.1</v>
-      </c>
-      <c r="G104" s="150">
-        <f t="shared" si="9"/>
-        <v>0.11399999999999999</v>
-      </c>
-      <c r="H104" s="163"/>
-      <c r="I104" s="163"/>
-      <c r="J104" s="163"/>
-      <c r="K104" s="185"/>
-    </row>
-    <row r="105" spans="1:22" ht="15" customHeight="1">
-      <c r="A105" s="144"/>
-      <c r="B105" s="146"/>
-      <c r="C105" s="161">
-        <f t="shared" ref="C105:C108" si="10">2*1</f>
-        <v>2</v>
-      </c>
-      <c r="D105" s="162">
-        <v>1.65</v>
-      </c>
-      <c r="E105" s="162"/>
-      <c r="F105" s="162">
-        <v>0.1</v>
-      </c>
-      <c r="G105" s="150">
-        <f t="shared" si="9"/>
-        <v>0.33</v>
-      </c>
-      <c r="H105" s="163"/>
-      <c r="I105" s="163"/>
-      <c r="J105" s="163"/>
-      <c r="K105" s="185"/>
-    </row>
-    <row r="106" spans="1:22" ht="15" customHeight="1">
-      <c r="A106" s="144"/>
-      <c r="B106" s="146"/>
-      <c r="C106" s="161">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="D106" s="162">
-        <v>0.84</v>
       </c>
       <c r="E106" s="162"/>
       <c r="F106" s="162">
         <v>0.1</v>
       </c>
       <c r="G106" s="150">
-        <f t="shared" si="9"/>
-        <v>0.16800000000000001</v>
+        <f>PRODUCT(C106:F106)</f>
+        <v>1.056</v>
       </c>
       <c r="H106" s="163"/>
       <c r="I106" s="163"/>
@@ -11437,8 +11522,8 @@
       <c r="A107" s="144"/>
       <c r="B107" s="146"/>
       <c r="C107" s="161">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f>2*8</f>
+        <v>16</v>
       </c>
       <c r="D107" s="162">
         <v>0.92</v>
@@ -11448,33 +11533,23 @@
         <v>0.1</v>
       </c>
       <c r="G107" s="150">
-        <f t="shared" si="9"/>
-        <v>0.18400000000000002</v>
+        <f t="shared" ref="G107:G114" si="9">PRODUCT(C107:F107)</f>
+        <v>1.4720000000000002</v>
       </c>
       <c r="H107" s="163"/>
       <c r="I107" s="163"/>
       <c r="J107" s="163"/>
       <c r="K107" s="185"/>
-      <c r="M107" s="127"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
-      <c r="R107" s="1"/>
-      <c r="S107" s="1"/>
-      <c r="T107" s="1"/>
-      <c r="U107" s="1"/>
-      <c r="V107" s="1"/>
     </row>
     <row r="108" spans="1:22" ht="15" customHeight="1">
       <c r="A108" s="144"/>
       <c r="B108" s="146"/>
       <c r="C108" s="161">
-        <f t="shared" si="10"/>
+        <f>2*1</f>
         <v>2</v>
       </c>
       <c r="D108" s="162">
-        <v>0.8</v>
+        <v>0.66</v>
       </c>
       <c r="E108" s="162"/>
       <c r="F108" s="162">
@@ -11482,33 +11557,22 @@
       </c>
       <c r="G108" s="150">
         <f t="shared" si="9"/>
-        <v>0.16000000000000003</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="H108" s="163"/>
       <c r="I108" s="163"/>
       <c r="J108" s="163"/>
       <c r="K108" s="185"/>
-      <c r="M108" s="127"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
-      <c r="R108" s="1"/>
-      <c r="S108" s="1"/>
-      <c r="T108" s="1"/>
-      <c r="U108" s="1"/>
-      <c r="V108" s="1"/>
     </row>
     <row r="109" spans="1:22" ht="15" customHeight="1">
       <c r="A109" s="144"/>
-      <c r="B109" s="146" t="s">
-        <v>156</v>
-      </c>
+      <c r="B109" s="146"/>
       <c r="C109" s="161">
+        <f>2*1</f>
         <v>2</v>
       </c>
       <c r="D109" s="162">
-        <v>0.9</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E109" s="162"/>
       <c r="F109" s="162">
@@ -11516,99 +11580,81 @@
       </c>
       <c r="G109" s="150">
         <f t="shared" si="9"/>
-        <v>0.18000000000000002</v>
+        <v>0.11399999999999999</v>
       </c>
       <c r="H109" s="163"/>
       <c r="I109" s="163"/>
       <c r="J109" s="163"/>
       <c r="K109" s="185"/>
-      <c r="M109" s="127"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
-      <c r="S109" s="1"/>
-      <c r="T109" s="1"/>
-      <c r="U109" s="1"/>
-      <c r="V109" s="1"/>
     </row>
     <row r="110" spans="1:22" ht="15" customHeight="1">
       <c r="A110" s="144"/>
-      <c r="B110" s="146" t="s">
-        <v>41</v>
-      </c>
-      <c r="C110" s="161"/>
-      <c r="D110" s="162"/>
+      <c r="B110" s="146"/>
+      <c r="C110" s="161">
+        <f t="shared" ref="C110:C113" si="10">2*1</f>
+        <v>2</v>
+      </c>
+      <c r="D110" s="162">
+        <v>1.65</v>
+      </c>
       <c r="E110" s="162"/>
-      <c r="F110" s="162"/>
-      <c r="G110" s="164">
-        <f>SUM(G101:G109)</f>
-        <v>3.7960000000000012</v>
-      </c>
-      <c r="H110" s="163" t="s">
-        <v>43</v>
-      </c>
-      <c r="I110" s="158">
-        <f>81404.27/100</f>
-        <v>814.04270000000008</v>
-      </c>
-      <c r="J110" s="165">
-        <f>G110*I110</f>
-        <v>3090.1060892000014</v>
-      </c>
-      <c r="K110" s="21"/>
-      <c r="M110" s="127"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
-      <c r="R110" s="1"/>
-      <c r="S110" s="1"/>
-      <c r="T110" s="1"/>
-      <c r="U110" s="1"/>
-      <c r="V110" s="1"/>
+      <c r="F110" s="162">
+        <v>0.1</v>
+      </c>
+      <c r="G110" s="150">
+        <f t="shared" si="9"/>
+        <v>0.33</v>
+      </c>
+      <c r="H110" s="163"/>
+      <c r="I110" s="163"/>
+      <c r="J110" s="163"/>
+      <c r="K110" s="185"/>
     </row>
     <row r="111" spans="1:22" ht="15" customHeight="1">
       <c r="A111" s="144"/>
-      <c r="B111" s="146" t="s">
-        <v>40</v>
-      </c>
-      <c r="C111" s="161"/>
-      <c r="D111" s="162"/>
+      <c r="B111" s="146"/>
+      <c r="C111" s="161">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="D111" s="162">
+        <v>0.84</v>
+      </c>
       <c r="E111" s="162"/>
-      <c r="F111" s="162"/>
-      <c r="G111" s="150"/>
+      <c r="F111" s="162">
+        <v>0.1</v>
+      </c>
+      <c r="G111" s="150">
+        <f t="shared" si="9"/>
+        <v>0.16800000000000001</v>
+      </c>
       <c r="H111" s="163"/>
       <c r="I111" s="163"/>
-      <c r="J111" s="165">
-        <f>0.13*G110*36690.27/100</f>
-        <v>181.05914439600005</v>
-      </c>
-      <c r="K111" s="21"/>
-      <c r="M111" s="127"/>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
-      <c r="R111" s="1"/>
-      <c r="S111" s="1"/>
-      <c r="T111" s="1"/>
-      <c r="U111" s="1"/>
-      <c r="V111" s="1"/>
+      <c r="J111" s="163"/>
+      <c r="K111" s="185"/>
     </row>
     <row r="112" spans="1:22" ht="15" customHeight="1">
-      <c r="A112" s="18"/>
-      <c r="B112" s="35"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="38"/>
-      <c r="I112" s="38"/>
-      <c r="J112" s="40"/>
-      <c r="K112" s="21"/>
+      <c r="A112" s="144"/>
+      <c r="B112" s="146"/>
+      <c r="C112" s="161">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="D112" s="162">
+        <v>0.92</v>
+      </c>
+      <c r="E112" s="162"/>
+      <c r="F112" s="162">
+        <v>0.1</v>
+      </c>
+      <c r="G112" s="150">
+        <f t="shared" si="9"/>
+        <v>0.18400000000000002</v>
+      </c>
+      <c r="H112" s="163"/>
+      <c r="I112" s="163"/>
+      <c r="J112" s="163"/>
+      <c r="K112" s="185"/>
       <c r="M112" s="127"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
@@ -11620,22 +11666,28 @@
       <c r="U112" s="1"/>
       <c r="V112" s="1"/>
     </row>
-    <row r="113" spans="1:22" ht="30">
-      <c r="A113" s="18">
-        <v>13</v>
-      </c>
-      <c r="B113" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="C113" s="34"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="37"/>
-      <c r="H113" s="38"/>
-      <c r="I113" s="38"/>
-      <c r="J113" s="40"/>
-      <c r="K113" s="21"/>
+    <row r="113" spans="1:22" ht="15" customHeight="1">
+      <c r="A113" s="144"/>
+      <c r="B113" s="146"/>
+      <c r="C113" s="161">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="D113" s="162">
+        <v>0.8</v>
+      </c>
+      <c r="E113" s="162"/>
+      <c r="F113" s="162">
+        <v>0.1</v>
+      </c>
+      <c r="G113" s="150">
+        <f t="shared" si="9"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="H113" s="163"/>
+      <c r="I113" s="163"/>
+      <c r="J113" s="163"/>
+      <c r="K113" s="185"/>
       <c r="M113" s="127"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
@@ -11648,30 +11700,27 @@
       <c r="V113" s="1"/>
     </row>
     <row r="114" spans="1:22" ht="15" customHeight="1">
-      <c r="A114" s="18"/>
-      <c r="B114" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C114" s="34">
-        <v>8</v>
-      </c>
-      <c r="D114" s="36">
-        <f>D101</f>
-        <v>0.66</v>
-      </c>
-      <c r="E114" s="36">
-        <v>0.92</v>
-      </c>
-      <c r="F114" s="36">
+      <c r="A114" s="144"/>
+      <c r="B114" s="146" t="s">
+        <v>156</v>
+      </c>
+      <c r="C114" s="161">
+        <v>2</v>
+      </c>
+      <c r="D114" s="162">
+        <v>0.9</v>
+      </c>
+      <c r="E114" s="162"/>
+      <c r="F114" s="162">
         <v>0.1</v>
       </c>
-      <c r="G114" s="37">
-        <f>PRODUCT(C114:F114)</f>
-        <v>0.48576000000000008</v>
-      </c>
-      <c r="H114" s="38"/>
-      <c r="I114" s="38"/>
-      <c r="J114" s="38"/>
+      <c r="G114" s="150">
+        <f t="shared" si="9"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="H114" s="163"/>
+      <c r="I114" s="163"/>
+      <c r="J114" s="163"/>
       <c r="K114" s="185"/>
       <c r="M114" s="127"/>
       <c r="N114" s="1"/>
@@ -11685,33 +11734,31 @@
       <c r="V114" s="1"/>
     </row>
     <row r="115" spans="1:22" ht="15" customHeight="1">
-      <c r="A115" s="18"/>
-      <c r="B115" s="35"/>
-      <c r="C115" s="34">
-        <v>1</v>
-      </c>
-      <c r="D115" s="36">
-        <f t="shared" ref="D115" si="11">D103</f>
-        <v>0.66</v>
-      </c>
-      <c r="E115" s="36">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F115" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G115" s="37">
-        <f t="shared" ref="G115:G117" si="12">PRODUCT(C115:F115)</f>
-        <v>3.7620000000000001E-2</v>
-      </c>
-      <c r="H115" s="38"/>
-      <c r="I115" s="38"/>
-      <c r="J115" s="38"/>
-      <c r="K115" s="185"/>
-      <c r="M115" s="127">
-        <f>E114*8+E115+D116+D117</f>
-        <v>10.5</v>
-      </c>
+      <c r="A115" s="144"/>
+      <c r="B115" s="146" t="s">
+        <v>41</v>
+      </c>
+      <c r="C115" s="161"/>
+      <c r="D115" s="162"/>
+      <c r="E115" s="162"/>
+      <c r="F115" s="162"/>
+      <c r="G115" s="164">
+        <f>SUM(G106:G114)</f>
+        <v>3.7960000000000012</v>
+      </c>
+      <c r="H115" s="163" t="s">
+        <v>43</v>
+      </c>
+      <c r="I115" s="158">
+        <f>81404.27/100</f>
+        <v>814.04270000000008</v>
+      </c>
+      <c r="J115" s="165">
+        <f>G115*I115</f>
+        <v>3090.1060892000014</v>
+      </c>
+      <c r="K115" s="21"/>
+      <c r="M115" s="127"/>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
@@ -11723,29 +11770,22 @@
       <c r="V115" s="1"/>
     </row>
     <row r="116" spans="1:22" ht="15" customHeight="1">
-      <c r="A116" s="18"/>
-      <c r="B116" s="35"/>
-      <c r="C116" s="34">
-        <v>1</v>
-      </c>
-      <c r="D116" s="36">
-        <f t="shared" ref="D116" si="13">D105</f>
-        <v>1.65</v>
-      </c>
-      <c r="E116" s="36">
-        <v>0.84</v>
-      </c>
-      <c r="F116" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G116" s="37">
-        <f t="shared" si="12"/>
-        <v>0.1386</v>
-      </c>
-      <c r="H116" s="38"/>
-      <c r="I116" s="38"/>
-      <c r="J116" s="38"/>
-      <c r="K116" s="185"/>
+      <c r="A116" s="144"/>
+      <c r="B116" s="146" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" s="161"/>
+      <c r="D116" s="162"/>
+      <c r="E116" s="162"/>
+      <c r="F116" s="162"/>
+      <c r="G116" s="150"/>
+      <c r="H116" s="163"/>
+      <c r="I116" s="163"/>
+      <c r="J116" s="165">
+        <f>0.13*G115*36690.27/100</f>
+        <v>181.05914439600005</v>
+      </c>
+      <c r="K116" s="21"/>
       <c r="M116" s="127"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
@@ -11760,27 +11800,15 @@
     <row r="117" spans="1:22" ht="15" customHeight="1">
       <c r="A117" s="18"/>
       <c r="B117" s="35"/>
-      <c r="C117" s="34">
-        <v>1</v>
-      </c>
-      <c r="D117" s="36">
-        <f t="shared" ref="D117" si="14">D107</f>
-        <v>0.92</v>
-      </c>
-      <c r="E117" s="36">
-        <v>0.8</v>
-      </c>
-      <c r="F117" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G117" s="37">
-        <f t="shared" si="12"/>
-        <v>7.3600000000000013E-2</v>
-      </c>
+      <c r="C117" s="34"/>
+      <c r="D117" s="36"/>
+      <c r="E117" s="36"/>
+      <c r="F117" s="36"/>
+      <c r="G117" s="37"/>
       <c r="H117" s="38"/>
       <c r="I117" s="38"/>
-      <c r="J117" s="38"/>
-      <c r="K117" s="185"/>
+      <c r="J117" s="40"/>
+      <c r="K117" s="21"/>
       <c r="M117" s="127"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
@@ -11792,90 +11820,133 @@
       <c r="U117" s="1"/>
       <c r="V117" s="1"/>
     </row>
-    <row r="118" spans="1:22" ht="15" customHeight="1">
-      <c r="A118" s="18"/>
-      <c r="B118" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C118" s="34">
-        <v>1</v>
-      </c>
-      <c r="D118" s="36">
-        <f>D70</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E118" s="36">
-        <f>E70</f>
-        <v>0.9</v>
-      </c>
-      <c r="F118" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G118" s="37">
-        <f t="shared" ref="G118" si="15">PRODUCT(C118:F118)</f>
-        <v>0.19800000000000004</v>
-      </c>
+    <row r="118" spans="1:22" ht="30">
+      <c r="A118" s="18">
+        <v>13</v>
+      </c>
+      <c r="B118" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" s="34"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="37"/>
       <c r="H118" s="38"/>
       <c r="I118" s="38"/>
-      <c r="J118" s="38"/>
-      <c r="K118" s="185"/>
+      <c r="J118" s="40"/>
+      <c r="K118" s="21"/>
+      <c r="M118" s="127"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
     </row>
     <row r="119" spans="1:22" ht="15" customHeight="1">
       <c r="A119" s="18"/>
       <c r="B119" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C119" s="34"/>
-      <c r="D119" s="36"/>
-      <c r="E119" s="36"/>
-      <c r="F119" s="36"/>
-      <c r="G119" s="32">
-        <f>SUM(G114:G118)</f>
-        <v>0.93358000000000008</v>
-      </c>
-      <c r="H119" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="I119" s="23">
-        <v>13568.9</v>
-      </c>
-      <c r="J119" s="40">
-        <f>G119*I119</f>
-        <v>12667.653662000001</v>
-      </c>
-      <c r="K119" s="21"/>
+        <v>120</v>
+      </c>
+      <c r="C119" s="34">
+        <v>8</v>
+      </c>
+      <c r="D119" s="36">
+        <f>D106</f>
+        <v>0.66</v>
+      </c>
+      <c r="E119" s="36">
+        <v>0.92</v>
+      </c>
+      <c r="F119" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G119" s="37">
+        <f>PRODUCT(C119:F119)</f>
+        <v>0.48576000000000008</v>
+      </c>
+      <c r="H119" s="38"/>
+      <c r="I119" s="38"/>
+      <c r="J119" s="38"/>
+      <c r="K119" s="185"/>
+      <c r="M119" s="127"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
     </row>
     <row r="120" spans="1:22" ht="15" customHeight="1">
       <c r="A120" s="18"/>
-      <c r="B120" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C120" s="34"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="36"/>
-      <c r="F120" s="36"/>
-      <c r="G120" s="37"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="34">
+        <v>1</v>
+      </c>
+      <c r="D120" s="36">
+        <f t="shared" ref="D120" si="11">D108</f>
+        <v>0.66</v>
+      </c>
+      <c r="E120" s="36">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F120" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G120" s="37">
+        <f t="shared" ref="G120:G122" si="12">PRODUCT(C120:F120)</f>
+        <v>3.7620000000000001E-2</v>
+      </c>
       <c r="H120" s="38"/>
       <c r="I120" s="38"/>
-      <c r="J120" s="40">
-        <f>0.13*G119*9524.2</f>
-        <v>1155.9083426800003</v>
-      </c>
-      <c r="K120" s="21"/>
+      <c r="J120" s="38"/>
+      <c r="K120" s="185"/>
+      <c r="M120" s="127">
+        <f>E119*8+E120+D121+D122</f>
+        <v>10.5</v>
+      </c>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
     </row>
     <row r="121" spans="1:22" ht="15" customHeight="1">
       <c r="A121" s="18"/>
       <c r="B121" s="35"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="36"/>
-      <c r="G121" s="37"/>
+      <c r="C121" s="34">
+        <v>1</v>
+      </c>
+      <c r="D121" s="36">
+        <f t="shared" ref="D121" si="13">D110</f>
+        <v>1.65</v>
+      </c>
+      <c r="E121" s="36">
+        <v>0.84</v>
+      </c>
+      <c r="F121" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G121" s="37">
+        <f t="shared" si="12"/>
+        <v>0.1386</v>
+      </c>
       <c r="H121" s="38"/>
       <c r="I121" s="38"/>
-      <c r="J121" s="40"/>
-      <c r="K121" s="21"/>
-      <c r="M121" s="1"/>
+      <c r="J121" s="38"/>
+      <c r="K121" s="185"/>
+      <c r="M121" s="127"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
@@ -11886,33 +11957,31 @@
       <c r="U121" s="1"/>
       <c r="V121" s="1"/>
     </row>
-    <row r="122" spans="1:22" ht="30.75">
-      <c r="A122" s="18">
-        <v>14</v>
-      </c>
-      <c r="B122" s="119" t="s">
-        <v>121</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D122" s="89" t="s">
-        <v>94</v>
-      </c>
-      <c r="E122" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="F122" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="G122" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="H122" s="22"/>
-      <c r="I122" s="23"/>
-      <c r="J122" s="39"/>
-      <c r="K122" s="21"/>
-      <c r="M122" s="1"/>
+    <row r="122" spans="1:22" ht="15" customHeight="1">
+      <c r="A122" s="18"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="34">
+        <v>1</v>
+      </c>
+      <c r="D122" s="36">
+        <f t="shared" ref="D122" si="14">D112</f>
+        <v>0.92</v>
+      </c>
+      <c r="E122" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="F122" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G122" s="37">
+        <f t="shared" si="12"/>
+        <v>7.3600000000000013E-2</v>
+      </c>
+      <c r="H122" s="38"/>
+      <c r="I122" s="38"/>
+      <c r="J122" s="38"/>
+      <c r="K122" s="185"/>
+      <c r="M122" s="127"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
@@ -11923,196 +11992,200 @@
       <c r="U122" s="1"/>
       <c r="V122" s="1"/>
     </row>
-    <row r="123" spans="1:22">
-      <c r="A123" s="120"/>
-      <c r="B123" s="124" t="s">
+    <row r="123" spans="1:22" ht="15" customHeight="1">
+      <c r="A123" s="18"/>
+      <c r="B123" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C123" s="34">
+        <v>1</v>
+      </c>
+      <c r="D123" s="36">
+        <f>D72</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E123" s="36">
+        <f>E72</f>
+        <v>0.9</v>
+      </c>
+      <c r="F123" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G123" s="37">
+        <f t="shared" ref="G123" si="15">PRODUCT(C123:F123)</f>
+        <v>0.19800000000000004</v>
+      </c>
+      <c r="H123" s="38"/>
+      <c r="I123" s="38"/>
+      <c r="J123" s="38"/>
+      <c r="K123" s="185"/>
+    </row>
+    <row r="124" spans="1:22" ht="15" customHeight="1">
+      <c r="A124" s="18"/>
+      <c r="B124" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C124" s="34"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="32">
+        <f>SUM(G119:G123)</f>
+        <v>0.93358000000000008</v>
+      </c>
+      <c r="H124" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I124" s="23">
+        <v>13568.9</v>
+      </c>
+      <c r="J124" s="40">
+        <f>G124*I124</f>
+        <v>12667.653662000001</v>
+      </c>
+      <c r="K124" s="21"/>
+    </row>
+    <row r="125" spans="1:22" ht="15" customHeight="1">
+      <c r="A125" s="18"/>
+      <c r="B125" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C125" s="34"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="38"/>
+      <c r="I125" s="38"/>
+      <c r="J125" s="40">
+        <f>0.13*G124*9524.2</f>
+        <v>1155.9083426800003</v>
+      </c>
+      <c r="K125" s="21"/>
+    </row>
+    <row r="126" spans="1:22" ht="15" customHeight="1">
+      <c r="A126" s="18"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="38"/>
+      <c r="I126" s="38"/>
+      <c r="J126" s="40"/>
+      <c r="K126" s="21"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+    </row>
+    <row r="127" spans="1:22" ht="30.75">
+      <c r="A127" s="18">
+        <v>14</v>
+      </c>
+      <c r="B127" s="119" t="s">
+        <v>121</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="E127" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="F127" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="G127" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="H127" s="22"/>
+      <c r="I127" s="23"/>
+      <c r="J127" s="39"/>
+      <c r="K127" s="21"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
+    </row>
+    <row r="128" spans="1:22">
+      <c r="A128" s="120"/>
+      <c r="B128" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="C123" s="122">
-        <f>2*C135</f>
-        <v>550</v>
-      </c>
-      <c r="D123" s="12">
-        <f>0.125</f>
-        <v>0.125</v>
-      </c>
-      <c r="E123" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="F123" s="21">
-        <f>PRODUCT(C123:E123)</f>
-        <v>55</v>
-      </c>
-      <c r="G123" s="91">
-        <f>F123</f>
-        <v>55</v>
-      </c>
-      <c r="H123" s="120"/>
-      <c r="I123" s="123"/>
-      <c r="J123" s="123"/>
-      <c r="K123" s="121"/>
-      <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
-      <c r="O123" s="1"/>
-      <c r="P123" s="1"/>
-      <c r="Q123" s="1"/>
-      <c r="R123" s="1"/>
-      <c r="S123" s="1"/>
-      <c r="T123" s="1"/>
-      <c r="U123" s="1"/>
-      <c r="V123" s="1"/>
-    </row>
-    <row r="124" spans="1:22" s="1" customFormat="1" ht="30">
-      <c r="A124" s="120"/>
-      <c r="B124" s="125" t="s">
-        <v>125</v>
-      </c>
-      <c r="C124" s="122">
-        <v>4</v>
-      </c>
-      <c r="D124" s="12">
-        <v>2.64</v>
-      </c>
-      <c r="E124" s="12">
-        <v>2.72</v>
-      </c>
-      <c r="F124" s="12">
-        <f t="shared" ref="F124:F135" si="16">PRODUCT(C124:E124)</f>
-        <v>28.723200000000002</v>
-      </c>
-      <c r="G124" s="126">
-        <f t="shared" ref="G124:G135" si="17">F124</f>
-        <v>28.723200000000002</v>
-      </c>
-      <c r="H124" s="123"/>
-      <c r="I124" s="123"/>
-      <c r="J124" s="123"/>
-      <c r="K124" s="121"/>
-    </row>
-    <row r="125" spans="1:22" s="1" customFormat="1">
-      <c r="A125" s="120"/>
-      <c r="B125" s="125"/>
-      <c r="C125" s="122">
-        <v>4</v>
-      </c>
-      <c r="D125" s="12">
-        <v>0.45</v>
-      </c>
-      <c r="E125" s="12">
-        <v>2.72</v>
-      </c>
-      <c r="F125" s="12">
-        <f t="shared" ref="F125:F126" si="18">PRODUCT(C125:E125)</f>
-        <v>4.8960000000000008</v>
-      </c>
-      <c r="G125" s="126">
-        <f t="shared" ref="G125:G126" si="19">F125</f>
-        <v>4.8960000000000008</v>
-      </c>
-      <c r="H125" s="123"/>
-      <c r="I125" s="123"/>
-      <c r="J125" s="123"/>
-      <c r="K125" s="121"/>
-    </row>
-    <row r="126" spans="1:22" s="1" customFormat="1">
-      <c r="A126" s="120"/>
-      <c r="B126" s="125"/>
-      <c r="C126" s="122">
-        <v>2</v>
-      </c>
-      <c r="D126" s="12">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E126" s="12">
-        <v>2.72</v>
-      </c>
-      <c r="F126" s="12">
-        <f t="shared" si="18"/>
-        <v>12.512</v>
-      </c>
-      <c r="G126" s="126">
-        <f t="shared" si="19"/>
-        <v>12.512</v>
-      </c>
-      <c r="H126" s="123"/>
-      <c r="I126" s="123"/>
-      <c r="J126" s="123"/>
-      <c r="K126" s="121"/>
-    </row>
-    <row r="127" spans="1:22" s="1" customFormat="1">
-      <c r="A127" s="120"/>
-      <c r="B127" s="184" t="s">
-        <v>157</v>
-      </c>
-      <c r="C127" s="122">
-        <v>4</v>
-      </c>
-      <c r="D127" s="12">
-        <v>1.75</v>
-      </c>
-      <c r="E127" s="12">
-        <v>2.72</v>
-      </c>
-      <c r="F127" s="12">
-        <f t="shared" si="16"/>
-        <v>19.040000000000003</v>
-      </c>
-      <c r="G127" s="126">
-        <f t="shared" si="17"/>
-        <v>19.040000000000003</v>
-      </c>
-      <c r="H127" s="123"/>
-      <c r="I127" s="123"/>
-      <c r="J127" s="123"/>
-      <c r="K127" s="121"/>
-    </row>
-    <row r="128" spans="1:22" s="1" customFormat="1">
-      <c r="A128" s="120"/>
-      <c r="B128" s="183"/>
       <c r="C128" s="122">
-        <v>4</v>
+        <f>2*300</f>
+        <v>600</v>
       </c>
       <c r="D128" s="12">
-        <v>1.39</v>
+        <f>0.135</f>
+        <v>0.13500000000000001</v>
       </c>
       <c r="E128" s="12">
-        <v>2.72</v>
-      </c>
-      <c r="F128" s="12">
-        <f t="shared" ref="F128" si="20">PRODUCT(C128:E128)</f>
-        <v>15.123200000000001</v>
-      </c>
-      <c r="G128" s="126">
-        <f t="shared" ref="G128" si="21">F128</f>
-        <v>15.123200000000001</v>
-      </c>
-      <c r="H128" s="123"/>
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F128" s="21">
+        <f>PRODUCT(C128:E128)</f>
+        <v>59.777999999999999</v>
+      </c>
+      <c r="G128" s="91">
+        <f>F128</f>
+        <v>59.777999999999999</v>
+      </c>
+      <c r="H128" s="120"/>
       <c r="I128" s="123"/>
       <c r="J128" s="123"/>
       <c r="K128" s="121"/>
-    </row>
-    <row r="129" spans="1:22" s="1" customFormat="1" ht="45">
+      <c r="M128" s="1">
+        <f>308*2</f>
+        <v>616</v>
+      </c>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
+      <c r="U128" s="1"/>
+      <c r="V128" s="1"/>
+    </row>
+    <row r="129" spans="1:22" s="1" customFormat="1" ht="30">
       <c r="A129" s="120"/>
       <c r="B129" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C129" s="122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D129" s="12">
-        <f>43.75/3.281</f>
-        <v>13.334349283754952</v>
+        <v>2.64</v>
       </c>
       <c r="E129" s="12">
-        <v>3.87</v>
+        <v>2.72</v>
       </c>
       <c r="F129" s="12">
-        <f t="shared" si="16"/>
-        <v>51.603931728131663</v>
+        <f t="shared" ref="F129:F140" si="16">PRODUCT(C129:E129)</f>
+        <v>28.723200000000002</v>
       </c>
       <c r="G129" s="126">
-        <f t="shared" si="17"/>
-        <v>51.603931728131663</v>
+        <f t="shared" ref="G129:G140" si="17">F129</f>
+        <v>28.723200000000002</v>
       </c>
       <c r="H129" s="123"/>
       <c r="I129" s="123"/>
@@ -12123,22 +12196,21 @@
       <c r="A130" s="120"/>
       <c r="B130" s="125"/>
       <c r="C130" s="122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D130" s="12">
-        <f>43.75/3.281-3.4</f>
-        <v>9.9343492837549512</v>
+        <v>0.45</v>
       </c>
       <c r="E130" s="12">
-        <v>3.87</v>
+        <v>2.72</v>
       </c>
       <c r="F130" s="12">
-        <f t="shared" ref="F130:F131" si="22">PRODUCT(C130:E130)</f>
-        <v>38.445931728131661</v>
+        <f t="shared" ref="F130:F131" si="18">PRODUCT(C130:E130)</f>
+        <v>4.8960000000000008</v>
       </c>
       <c r="G130" s="126">
-        <f t="shared" ref="G130:G131" si="23">F130</f>
-        <v>38.445931728131661</v>
+        <f t="shared" ref="G130:G131" si="19">F130</f>
+        <v>4.8960000000000008</v>
       </c>
       <c r="H130" s="123"/>
       <c r="I130" s="123"/>
@@ -12149,22 +12221,21 @@
       <c r="A131" s="120"/>
       <c r="B131" s="125"/>
       <c r="C131" s="122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131" s="12">
-        <f>(D129+D130)/2</f>
-        <v>11.63434928375495</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E131" s="12">
-        <v>3.87</v>
+        <v>2.72</v>
       </c>
       <c r="F131" s="12">
-        <f t="shared" si="22"/>
-        <v>45.024931728131662</v>
+        <f t="shared" si="18"/>
+        <v>12.512</v>
       </c>
       <c r="G131" s="126">
-        <f t="shared" si="23"/>
-        <v>45.024931728131662</v>
+        <f t="shared" si="19"/>
+        <v>12.512</v>
       </c>
       <c r="H131" s="123"/>
       <c r="I131" s="123"/>
@@ -12173,79 +12244,78 @@
     </row>
     <row r="132" spans="1:22" s="1" customFormat="1">
       <c r="A132" s="120"/>
-      <c r="B132" s="125"/>
+      <c r="B132" s="184" t="s">
+        <v>157</v>
+      </c>
       <c r="C132" s="122">
-        <f>4</f>
         <v>4</v>
       </c>
       <c r="D132" s="12">
-        <f>25.17/3.281</f>
-        <v>7.6714416336482785</v>
+        <v>1.75</v>
       </c>
       <c r="E132" s="12">
-        <v>3.87</v>
+        <v>2.72</v>
       </c>
       <c r="F132" s="12">
-        <f t="shared" ref="F132" si="24">PRODUCT(C132:E132)</f>
-        <v>118.75391648887535</v>
+        <f t="shared" si="16"/>
+        <v>19.040000000000003</v>
       </c>
       <c r="G132" s="126">
-        <f t="shared" ref="G132" si="25">F132</f>
-        <v>118.75391648887535</v>
+        <f t="shared" si="17"/>
+        <v>19.040000000000003</v>
       </c>
       <c r="H132" s="123"/>
       <c r="I132" s="123"/>
       <c r="J132" s="123"/>
       <c r="K132" s="121"/>
     </row>
-    <row r="133" spans="1:22" s="1" customFormat="1" ht="30">
+    <row r="133" spans="1:22" s="1" customFormat="1">
       <c r="A133" s="120"/>
-      <c r="B133" s="125" t="s">
-        <v>170</v>
-      </c>
-      <c r="C133" s="122"/>
+      <c r="B133" s="183"/>
+      <c r="C133" s="122">
+        <v>4</v>
+      </c>
       <c r="D133" s="12">
-        <f>3.3+0.65+4.5+4.5+1.45+4.5+1.07+4.5+2.2+4.07+0.64+1.32</f>
-        <v>32.699999999999996</v>
+        <v>1.39</v>
       </c>
       <c r="E133" s="12">
-        <v>1.2</v>
+        <v>2.72</v>
       </c>
       <c r="F133" s="12">
-        <f t="shared" si="16"/>
-        <v>39.239999999999995</v>
+        <f t="shared" ref="F133" si="20">PRODUCT(C133:E133)</f>
+        <v>15.123200000000001</v>
       </c>
       <c r="G133" s="126">
-        <f t="shared" si="17"/>
-        <v>39.239999999999995</v>
+        <f t="shared" ref="G133" si="21">F133</f>
+        <v>15.123200000000001</v>
       </c>
       <c r="H133" s="123"/>
       <c r="I133" s="123"/>
       <c r="J133" s="123"/>
       <c r="K133" s="121"/>
     </row>
-    <row r="134" spans="1:22" s="1" customFormat="1">
+    <row r="134" spans="1:22" s="1" customFormat="1" ht="45">
       <c r="A134" s="120"/>
       <c r="B134" s="125" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C134" s="122">
-        <f>34</f>
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D134" s="12">
-        <v>0.75</v>
+        <f>43.75/3.281</f>
+        <v>13.334349283754952</v>
       </c>
       <c r="E134" s="12">
-        <v>1.52</v>
+        <v>3.87</v>
       </c>
       <c r="F134" s="12">
         <f t="shared" si="16"/>
-        <v>38.76</v>
+        <v>51.603931728131663</v>
       </c>
       <c r="G134" s="126">
         <f t="shared" si="17"/>
-        <v>38.76</v>
+        <v>51.603931728131663</v>
       </c>
       <c r="H134" s="123"/>
       <c r="I134" s="123"/>
@@ -12254,1071 +12324,1103 @@
     </row>
     <row r="135" spans="1:22" s="1" customFormat="1">
       <c r="A135" s="120"/>
-      <c r="B135" s="125" t="s">
-        <v>167</v>
-      </c>
+      <c r="B135" s="125"/>
       <c r="C135" s="122">
-        <v>275</v>
+        <v>1</v>
       </c>
       <c r="D135" s="12">
-        <f>2.5/3.281</f>
-        <v>0.76196281621456874</v>
+        <f>43.75/3.281-3.4</f>
+        <v>9.9343492837549512</v>
       </c>
       <c r="E135" s="12">
-        <v>0.71</v>
+        <v>3.87</v>
       </c>
       <c r="F135" s="12">
-        <f t="shared" si="16"/>
-        <v>148.77323986589454</v>
+        <f t="shared" ref="F135:F136" si="22">PRODUCT(C135:E135)</f>
+        <v>38.445931728131661</v>
       </c>
       <c r="G135" s="126">
-        <f t="shared" si="17"/>
-        <v>148.77323986589454</v>
+        <f t="shared" ref="G135:G136" si="23">F135</f>
+        <v>38.445931728131661</v>
       </c>
       <c r="H135" s="123"/>
       <c r="I135" s="123"/>
       <c r="J135" s="123"/>
       <c r="K135" s="121"/>
-      <c r="M135" s="1">
-        <f>backyard!G99*backyard!I100-V!G135*V!I137</f>
-        <v>48234.234760743668</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22" s="1" customFormat="1" ht="30">
+    </row>
+    <row r="136" spans="1:22" s="1" customFormat="1">
       <c r="A136" s="120"/>
-      <c r="B136" s="125" t="s">
-        <v>168</v>
-      </c>
+      <c r="B136" s="125"/>
       <c r="C136" s="122">
-        <f>1</f>
         <v>1</v>
       </c>
       <c r="D136" s="12">
-        <f>0.4+0.48+0.95+0.95+0.35+0.43+0.45+0.43+0.43+0.45+0.45+0.4+0.36+0.38+0.38+0.4+0.4</f>
-        <v>8.0900000000000016</v>
+        <f>(D134+D135)/2</f>
+        <v>11.63434928375495</v>
       </c>
       <c r="E136" s="12">
-        <v>2.3199999999999998</v>
+        <v>3.87</v>
       </c>
       <c r="F136" s="12">
-        <f>PRODUCT(C136:E136)</f>
-        <v>18.768800000000002</v>
+        <f t="shared" si="22"/>
+        <v>45.024931728131662</v>
       </c>
       <c r="G136" s="126">
-        <f>F136</f>
-        <v>18.768800000000002</v>
+        <f t="shared" si="23"/>
+        <v>45.024931728131662</v>
       </c>
       <c r="H136" s="123"/>
       <c r="I136" s="123"/>
       <c r="J136" s="123"/>
       <c r="K136" s="121"/>
     </row>
-    <row r="137" spans="1:22" ht="15" customHeight="1">
-      <c r="A137" s="18"/>
-      <c r="B137" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C137" s="19"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="21"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="23">
-        <f>SUM(G123:G136)</f>
-        <v>634.66515153916498</v>
-      </c>
-      <c r="H137" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="I137" s="23">
-        <v>181.17</v>
-      </c>
-      <c r="J137" s="39">
-        <f>G137*I137</f>
-        <v>114982.28550435051</v>
-      </c>
-      <c r="K137" s="21"/>
-      <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
-      <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
-      <c r="R137" s="1"/>
-      <c r="S137" s="1"/>
-      <c r="T137" s="1"/>
-      <c r="U137" s="1"/>
-      <c r="V137" s="1"/>
-    </row>
-    <row r="138" spans="1:22" ht="15" customHeight="1">
-      <c r="A138" s="18"/>
-      <c r="B138" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C138" s="19"/>
-      <c r="D138" s="20"/>
-      <c r="E138" s="21"/>
-      <c r="F138" s="21"/>
-      <c r="G138" s="23"/>
-      <c r="H138" s="22"/>
-      <c r="I138" s="23"/>
-      <c r="J138" s="39">
-        <f>0.13*G137*1871.42/18.94</f>
-        <v>8152.2839242948858</v>
-      </c>
-      <c r="K138" s="21"/>
-    </row>
-    <row r="139" spans="1:22" ht="15" customHeight="1">
-      <c r="A139" s="18"/>
-      <c r="B139" s="35"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="20"/>
-      <c r="E139" s="21"/>
-      <c r="F139" s="21"/>
-      <c r="G139" s="23"/>
-      <c r="H139" s="22"/>
-      <c r="I139" s="23"/>
-      <c r="J139" s="39"/>
-      <c r="K139" s="21"/>
-    </row>
-    <row r="140" spans="1:22" s="1" customFormat="1" ht="30">
-      <c r="A140" s="18">
-        <v>15</v>
-      </c>
-      <c r="B140" s="128" t="s">
-        <v>127</v>
-      </c>
-      <c r="C140" s="19"/>
-      <c r="D140" s="20"/>
-      <c r="E140" s="21"/>
-      <c r="F140" s="21"/>
-      <c r="G140" s="123"/>
-      <c r="H140" s="22"/>
-      <c r="I140" s="23"/>
+    <row r="137" spans="1:22" s="1" customFormat="1">
+      <c r="A137" s="120"/>
+      <c r="B137" s="125"/>
+      <c r="C137" s="122">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="D137" s="12">
+        <f>25.17/3.281</f>
+        <v>7.6714416336482785</v>
+      </c>
+      <c r="E137" s="12">
+        <v>3.87</v>
+      </c>
+      <c r="F137" s="12">
+        <f t="shared" ref="F137" si="24">PRODUCT(C137:E137)</f>
+        <v>118.75391648887535</v>
+      </c>
+      <c r="G137" s="126">
+        <f t="shared" ref="G137" si="25">F137</f>
+        <v>118.75391648887535</v>
+      </c>
+      <c r="H137" s="123"/>
+      <c r="I137" s="123"/>
+      <c r="J137" s="123"/>
+      <c r="K137" s="121"/>
+    </row>
+    <row r="138" spans="1:22" s="1" customFormat="1" ht="30">
+      <c r="A138" s="120"/>
+      <c r="B138" s="125" t="s">
+        <v>170</v>
+      </c>
+      <c r="C138" s="122">
+        <f>1*2</f>
+        <v>2</v>
+      </c>
+      <c r="D138" s="12">
+        <f>3.3+0.65+4.5+4.5+1.45+4.5+1.07+4.5+2.2+4.07+0.64+1.32</f>
+        <v>32.699999999999996</v>
+      </c>
+      <c r="E138" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="F138" s="12">
+        <f t="shared" si="16"/>
+        <v>78.47999999999999</v>
+      </c>
+      <c r="G138" s="126">
+        <f t="shared" si="17"/>
+        <v>78.47999999999999</v>
+      </c>
+      <c r="H138" s="123"/>
+      <c r="I138" s="123"/>
+      <c r="J138" s="123"/>
+      <c r="K138" s="121"/>
+    </row>
+    <row r="139" spans="1:22" s="1" customFormat="1">
+      <c r="A139" s="120"/>
+      <c r="B139" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="C139" s="122">
+        <f>34</f>
+        <v>34</v>
+      </c>
+      <c r="D139" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E139" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="F139" s="12">
+        <f t="shared" si="16"/>
+        <v>30.599999999999998</v>
+      </c>
+      <c r="G139" s="126">
+        <f t="shared" si="17"/>
+        <v>30.599999999999998</v>
+      </c>
+      <c r="H139" s="123"/>
+      <c r="I139" s="123"/>
+      <c r="J139" s="123"/>
+      <c r="K139" s="121"/>
+    </row>
+    <row r="140" spans="1:22" s="1" customFormat="1">
+      <c r="A140" s="120"/>
+      <c r="B140" s="125" t="s">
+        <v>167</v>
+      </c>
+      <c r="C140" s="122">
+        <v>274</v>
+      </c>
+      <c r="D140" s="12">
+        <f>2.5/3.281</f>
+        <v>0.76196281621456874</v>
+      </c>
+      <c r="E140" s="12">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="F140" s="12">
+        <f t="shared" si="16"/>
+        <v>147.39713501981103</v>
+      </c>
+      <c r="G140" s="126">
+        <f t="shared" si="17"/>
+        <v>147.39713501981103</v>
+      </c>
+      <c r="H140" s="123"/>
+      <c r="I140" s="123"/>
       <c r="J140" s="123"/>
-      <c r="K140" s="21"/>
-      <c r="M140"/>
-      <c r="N140"/>
-      <c r="O140"/>
-      <c r="P140"/>
-      <c r="Q140"/>
-      <c r="R140"/>
-      <c r="S140"/>
-      <c r="T140"/>
-      <c r="U140"/>
-      <c r="V140"/>
-    </row>
-    <row r="141" spans="1:22" ht="15" customHeight="1">
-      <c r="A141" s="18"/>
-      <c r="B141" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C141" s="34">
-        <v>2</v>
-      </c>
-      <c r="D141" s="36">
-        <f>7.667/3.281</f>
-        <v>2.3367875647668392</v>
-      </c>
-      <c r="E141" s="36"/>
-      <c r="F141" s="36">
-        <f>1.04</f>
-        <v>1.04</v>
-      </c>
-      <c r="G141" s="37">
-        <f>PRODUCT(C141:F141)</f>
-        <v>4.8605181347150257</v>
-      </c>
-      <c r="H141" s="38"/>
-      <c r="I141" s="38"/>
-      <c r="J141" s="38"/>
-      <c r="K141" s="185"/>
-      <c r="N141">
-        <f>5.84+1.76</f>
-        <v>7.6</v>
-      </c>
+      <c r="K140" s="121"/>
+      <c r="M140" s="1">
+        <f>backyard!G99*backyard!I100-V!G140*V!I142</f>
+        <v>48483.543675708614</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" s="1" customFormat="1" ht="30">
+      <c r="A141" s="120"/>
+      <c r="B141" s="125" t="s">
+        <v>168</v>
+      </c>
+      <c r="C141" s="122">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="D141" s="12">
+        <f>0.4+0.48+0.95+0.95+0.35+0.43+0.45+0.43+0.43+0.45+0.45+0.4+0.36+0.38+0.38+0.4+0.4</f>
+        <v>8.0900000000000016</v>
+      </c>
+      <c r="E141" s="12">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F141" s="12">
+        <f>PRODUCT(C141:E141)</f>
+        <v>18.768800000000002</v>
+      </c>
+      <c r="G141" s="126">
+        <f>F141</f>
+        <v>18.768800000000002</v>
+      </c>
+      <c r="H141" s="123"/>
+      <c r="I141" s="123"/>
+      <c r="J141" s="123"/>
+      <c r="K141" s="121"/>
     </row>
     <row r="142" spans="1:22" ht="15" customHeight="1">
       <c r="A142" s="18"/>
-      <c r="B142" s="35"/>
-      <c r="C142" s="34">
-        <v>2</v>
-      </c>
-      <c r="D142" s="36">
-        <f>(10.5-0.75)/3.281</f>
-        <v>2.9716549832368178</v>
-      </c>
-      <c r="E142" s="36"/>
-      <c r="F142" s="36">
-        <f>((0.85+0.59)/2)</f>
-        <v>0.72</v>
-      </c>
-      <c r="G142" s="37">
-        <f t="shared" ref="G142:G153" si="26">PRODUCT(C142:F142)</f>
-        <v>4.279183175861017</v>
-      </c>
-      <c r="H142" s="38"/>
-      <c r="I142" s="38"/>
-      <c r="J142" s="38"/>
-      <c r="K142" s="185"/>
+      <c r="B142" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C142" s="19"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="23">
+        <f>SUM(G128:G141)</f>
+        <v>669.14704669308139</v>
+      </c>
+      <c r="H142" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I142" s="23">
+        <v>181.17</v>
+      </c>
+      <c r="J142" s="39">
+        <f>G142*I142</f>
+        <v>121229.37044938555</v>
+      </c>
+      <c r="K142" s="21"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+      <c r="T142" s="1"/>
+      <c r="U142" s="1"/>
+      <c r="V142" s="1"/>
     </row>
     <row r="143" spans="1:22" ht="15" customHeight="1">
       <c r="A143" s="18"/>
-      <c r="B143" s="35"/>
-      <c r="C143" s="34">
-        <v>2</v>
-      </c>
-      <c r="D143" s="36">
-        <f>1.4-0.3-0.23</f>
-        <v>0.86999999999999988</v>
-      </c>
-      <c r="E143" s="36"/>
-      <c r="F143" s="36">
-        <f>0.18</f>
-        <v>0.18</v>
-      </c>
-      <c r="G143" s="37">
-        <f t="shared" si="26"/>
-        <v>0.31319999999999992</v>
-      </c>
-      <c r="H143" s="38"/>
-      <c r="I143" s="38"/>
-      <c r="J143" s="38"/>
-      <c r="K143" s="185"/>
+      <c r="B143" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C143" s="19"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="23"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="23"/>
+      <c r="J143" s="39">
+        <f>0.13*G142*1871.42/18.94</f>
+        <v>8595.2044137226821</v>
+      </c>
+      <c r="K143" s="21"/>
     </row>
     <row r="144" spans="1:22" ht="15" customHeight="1">
       <c r="A144" s="18"/>
       <c r="B144" s="35"/>
-      <c r="C144" s="34">
-        <v>2</v>
-      </c>
-      <c r="D144" s="36">
-        <f>13.833/3.281</f>
-        <v>4.2160926546784516</v>
-      </c>
-      <c r="E144" s="36"/>
-      <c r="F144" s="36">
-        <f>(0.5+0.85)/2</f>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="G144" s="37">
-        <f t="shared" si="26"/>
-        <v>5.6917250838159097</v>
-      </c>
-      <c r="H144" s="38"/>
-      <c r="I144" s="38"/>
-      <c r="J144" s="38"/>
-      <c r="K144" s="185"/>
-    </row>
-    <row r="145" spans="1:11" ht="15" customHeight="1">
-      <c r="A145" s="18"/>
-      <c r="B145" s="35"/>
-      <c r="C145" s="34">
-        <v>2</v>
-      </c>
-      <c r="D145" s="36">
-        <f>9.42/3.281</f>
-        <v>2.8710758914964947</v>
-      </c>
-      <c r="E145" s="36"/>
-      <c r="F145" s="36">
-        <f>(((0.5-0.08)+0.39)/2)</f>
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="G145" s="37">
-        <f t="shared" si="26"/>
-        <v>2.325571472112161</v>
-      </c>
-      <c r="H145" s="38"/>
-      <c r="I145" s="38"/>
-      <c r="J145" s="38"/>
-      <c r="K145" s="185"/>
-    </row>
-    <row r="146" spans="1:11" ht="15" customHeight="1">
+      <c r="C144" s="19"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="23"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="23"/>
+      <c r="J144" s="39"/>
+      <c r="K144" s="21"/>
+    </row>
+    <row r="145" spans="1:22" s="1" customFormat="1" ht="30">
+      <c r="A145" s="18">
+        <v>15</v>
+      </c>
+      <c r="B145" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="C145" s="19"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="123"/>
+      <c r="H145" s="22"/>
+      <c r="I145" s="23"/>
+      <c r="J145" s="123"/>
+      <c r="K145" s="21"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+      <c r="Q145"/>
+      <c r="R145"/>
+      <c r="S145"/>
+      <c r="T145"/>
+      <c r="U145"/>
+      <c r="V145"/>
+    </row>
+    <row r="146" spans="1:22" ht="15" customHeight="1">
       <c r="A146" s="18"/>
-      <c r="B146" s="35"/>
+      <c r="B146" s="35" t="s">
+        <v>48</v>
+      </c>
       <c r="C146" s="34">
         <v>2</v>
       </c>
       <c r="D146" s="36">
-        <f>1.35-0.31</f>
-        <v>1.04</v>
+        <f>7.667/3.281</f>
+        <v>2.3367875647668392</v>
       </c>
       <c r="E146" s="36"/>
       <c r="F146" s="36">
-        <f>((0.08+0.1)/2)</f>
-        <v>0.09</v>
+        <f>1.04</f>
+        <v>1.04</v>
       </c>
       <c r="G146" s="37">
-        <f t="shared" si="26"/>
-        <v>0.18720000000000001</v>
+        <f>PRODUCT(C146:F146)</f>
+        <v>4.8605181347150257</v>
       </c>
       <c r="H146" s="38"/>
       <c r="I146" s="38"/>
       <c r="J146" s="38"/>
       <c r="K146" s="185"/>
-    </row>
-    <row r="147" spans="1:11" ht="15" customHeight="1">
+      <c r="N146">
+        <f>5.84+1.76</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" ht="15" customHeight="1">
       <c r="A147" s="18"/>
       <c r="B147" s="35"/>
       <c r="C147" s="34">
         <v>2</v>
       </c>
       <c r="D147" s="36">
-        <f>9.42/3.281</f>
-        <v>2.8710758914964947</v>
+        <f>(10.5-0.75)/3.281</f>
+        <v>2.9716549832368178</v>
       </c>
       <c r="E147" s="36"/>
       <c r="F147" s="36">
-        <f>((0.4+0.39)/2)</f>
-        <v>0.39500000000000002</v>
+        <f>((0.85+0.59)/2)</f>
+        <v>0.72</v>
       </c>
       <c r="G147" s="37">
-        <f t="shared" si="26"/>
-        <v>2.2681499542822308</v>
+        <f t="shared" ref="G147:G158" si="26">PRODUCT(C147:F147)</f>
+        <v>4.279183175861017</v>
       </c>
       <c r="H147" s="38"/>
       <c r="I147" s="38"/>
       <c r="J147" s="38"/>
       <c r="K147" s="185"/>
     </row>
-    <row r="148" spans="1:11" ht="15" customHeight="1">
+    <row r="148" spans="1:22" ht="15" customHeight="1">
       <c r="A148" s="18"/>
       <c r="B148" s="35"/>
       <c r="C148" s="34">
         <v>2</v>
       </c>
       <c r="D148" s="36">
-        <f>1.39-0.3</f>
-        <v>1.0899999999999999</v>
+        <f>1.4-0.3-0.23</f>
+        <v>0.86999999999999988</v>
       </c>
       <c r="E148" s="36"/>
       <c r="F148" s="36">
-        <f>((0.12+0.1)/2)</f>
-        <v>0.11</v>
+        <f>0.18</f>
+        <v>0.18</v>
       </c>
       <c r="G148" s="37">
         <f t="shared" si="26"/>
-        <v>0.23979999999999996</v>
+        <v>0.31319999999999992</v>
       </c>
       <c r="H148" s="38"/>
       <c r="I148" s="38"/>
       <c r="J148" s="38"/>
       <c r="K148" s="185"/>
     </row>
-    <row r="149" spans="1:11" ht="15" customHeight="1">
+    <row r="149" spans="1:22" ht="15" customHeight="1">
       <c r="A149" s="18"/>
       <c r="B149" s="35"/>
       <c r="C149" s="34">
         <v>2</v>
       </c>
       <c r="D149" s="36">
-        <f>7.333/3.281</f>
-        <v>2.234989332520573</v>
+        <f>13.833/3.281</f>
+        <v>4.2160926546784516</v>
       </c>
       <c r="E149" s="36"/>
       <c r="F149" s="36">
-        <f>((1.02+1.08)/2)</f>
-        <v>1.05</v>
+        <f>(0.5+0.85)/2</f>
+        <v>0.67500000000000004</v>
       </c>
       <c r="G149" s="37">
         <f t="shared" si="26"/>
-        <v>4.6934775982932031</v>
+        <v>5.6917250838159097</v>
       </c>
       <c r="H149" s="38"/>
       <c r="I149" s="38"/>
       <c r="J149" s="38"/>
       <c r="K149" s="185"/>
     </row>
-    <row r="150" spans="1:11" ht="15" customHeight="1">
+    <row r="150" spans="1:22" ht="15" customHeight="1">
       <c r="A150" s="18"/>
       <c r="B150" s="35"/>
       <c r="C150" s="34">
         <v>2</v>
       </c>
       <c r="D150" s="36">
-        <f>4.27-0.3</f>
-        <v>3.9699999999999998</v>
+        <f>9.42/3.281</f>
+        <v>2.8710758914964947</v>
       </c>
       <c r="E150" s="36"/>
       <c r="F150" s="36">
-        <f>((0.5+0.85)/2)</f>
-        <v>0.67500000000000004</v>
+        <f>(((0.5-0.08)+0.39)/2)</f>
+        <v>0.40500000000000003</v>
       </c>
       <c r="G150" s="37">
         <f t="shared" si="26"/>
-        <v>5.3594999999999997</v>
+        <v>2.325571472112161</v>
       </c>
       <c r="H150" s="38"/>
       <c r="I150" s="38"/>
       <c r="J150" s="38"/>
       <c r="K150" s="185"/>
     </row>
-    <row r="151" spans="1:11" ht="15" customHeight="1">
+    <row r="151" spans="1:22" ht="15" customHeight="1">
       <c r="A151" s="18"/>
       <c r="B151" s="35"/>
       <c r="C151" s="34">
         <v>2</v>
       </c>
       <c r="D151" s="36">
-        <f>9.5/3.281</f>
-        <v>2.895458701615361</v>
+        <f>1.35-0.31</f>
+        <v>1.04</v>
       </c>
       <c r="E151" s="36"/>
       <c r="F151" s="36">
-        <f>((0.32+0.38)/2)</f>
-        <v>0.35</v>
+        <f>((0.08+0.1)/2)</f>
+        <v>0.09</v>
       </c>
       <c r="G151" s="37">
         <f t="shared" si="26"/>
-        <v>2.0268210911307527</v>
+        <v>0.18720000000000001</v>
       </c>
       <c r="H151" s="38"/>
       <c r="I151" s="38"/>
       <c r="J151" s="38"/>
       <c r="K151" s="185"/>
     </row>
-    <row r="152" spans="1:11" ht="15" customHeight="1">
+    <row r="152" spans="1:22" ht="15" customHeight="1">
       <c r="A152" s="18"/>
       <c r="B152" s="35"/>
       <c r="C152" s="34">
         <v>2</v>
       </c>
       <c r="D152" s="36">
-        <f>5.333/3.281</f>
-        <v>1.6254190795489181</v>
+        <f>9.42/3.281</f>
+        <v>2.8710758914964947</v>
       </c>
       <c r="E152" s="36"/>
       <c r="F152" s="36">
-        <f>((0.12+0.1)/2)</f>
-        <v>0.11</v>
+        <f>((0.4+0.39)/2)</f>
+        <v>0.39500000000000002</v>
       </c>
       <c r="G152" s="37">
         <f t="shared" si="26"/>
-        <v>0.35759219750076199</v>
+        <v>2.2681499542822308</v>
       </c>
       <c r="H152" s="38"/>
       <c r="I152" s="38"/>
       <c r="J152" s="38"/>
       <c r="K152" s="185"/>
     </row>
-    <row r="153" spans="1:11" ht="15" customHeight="1">
+    <row r="153" spans="1:22" ht="15" customHeight="1">
       <c r="A153" s="18"/>
       <c r="B153" s="35"/>
       <c r="C153" s="34">
         <v>2</v>
       </c>
       <c r="D153" s="36">
-        <f>25.17/3.281</f>
-        <v>7.6714416336482785</v>
+        <f>1.39-0.3</f>
+        <v>1.0899999999999999</v>
       </c>
       <c r="E153" s="36"/>
       <c r="F153" s="36">
-        <v>0.5</v>
+        <f>((0.12+0.1)/2)</f>
+        <v>0.11</v>
       </c>
       <c r="G153" s="37">
         <f t="shared" si="26"/>
-        <v>7.6714416336482785</v>
+        <v>0.23979999999999996</v>
       </c>
       <c r="H153" s="38"/>
       <c r="I153" s="38"/>
       <c r="J153" s="38"/>
       <c r="K153" s="185"/>
     </row>
-    <row r="154" spans="1:11" ht="15" customHeight="1">
+    <row r="154" spans="1:22" ht="15" customHeight="1">
       <c r="A154" s="18"/>
-      <c r="B154" s="125" t="s">
-        <v>152</v>
-      </c>
+      <c r="B154" s="35"/>
       <c r="C154" s="34">
         <v>2</v>
       </c>
       <c r="D154" s="36">
-        <f>23.333/3.281</f>
-        <v>7.1115513562938117</v>
+        <f>7.333/3.281</f>
+        <v>2.234989332520573</v>
       </c>
       <c r="E154" s="36"/>
       <c r="F154" s="36">
-        <f>0.2</f>
-        <v>0.2</v>
+        <f>((1.02+1.08)/2)</f>
+        <v>1.05</v>
       </c>
       <c r="G154" s="37">
-        <f>PRODUCT(C154:F154)</f>
-        <v>2.8446205425175251</v>
+        <f t="shared" si="26"/>
+        <v>4.6934775982932031</v>
       </c>
       <c r="H154" s="38"/>
       <c r="I154" s="38"/>
       <c r="J154" s="38"/>
       <c r="K154" s="185"/>
     </row>
-    <row r="155" spans="1:11" ht="15" customHeight="1">
+    <row r="155" spans="1:22" ht="15" customHeight="1">
       <c r="A155" s="18"/>
-      <c r="B155" s="35" t="s">
-        <v>164</v>
-      </c>
+      <c r="B155" s="35"/>
       <c r="C155" s="34">
         <v>2</v>
       </c>
       <c r="D155" s="36">
-        <f>2.1</f>
-        <v>2.1</v>
+        <f>4.27-0.3</f>
+        <v>3.9699999999999998</v>
       </c>
       <c r="E155" s="36"/>
       <c r="F155" s="36">
-        <v>1.1000000000000001</v>
+        <f>((0.5+0.85)/2)</f>
+        <v>0.67500000000000004</v>
       </c>
       <c r="G155" s="37">
-        <f t="shared" ref="G155:G169" si="27">PRODUCT(C155:F155)</f>
-        <v>4.620000000000001</v>
+        <f t="shared" si="26"/>
+        <v>5.3594999999999997</v>
       </c>
       <c r="H155" s="38"/>
       <c r="I155" s="38"/>
       <c r="J155" s="38"/>
       <c r="K155" s="185"/>
     </row>
-    <row r="156" spans="1:11" ht="15" customHeight="1">
+    <row r="156" spans="1:22" ht="15" customHeight="1">
       <c r="A156" s="18"/>
       <c r="B156" s="35"/>
       <c r="C156" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156" s="36">
-        <f>14/3.281</f>
-        <v>4.2669917708015843</v>
+        <f>9.5/3.281</f>
+        <v>2.895458701615361</v>
       </c>
       <c r="E156" s="36"/>
       <c r="F156" s="36">
-        <f>(1.85+1.55)/2</f>
-        <v>1.7000000000000002</v>
+        <f>((0.32+0.38)/2)</f>
+        <v>0.35</v>
       </c>
       <c r="G156" s="37">
-        <f t="shared" si="27"/>
-        <v>7.2538860103626943</v>
+        <f t="shared" si="26"/>
+        <v>2.0268210911307527</v>
       </c>
       <c r="H156" s="38"/>
       <c r="I156" s="38"/>
       <c r="J156" s="38"/>
       <c r="K156" s="185"/>
     </row>
-    <row r="157" spans="1:11" ht="15" customHeight="1">
+    <row r="157" spans="1:22" ht="15" customHeight="1">
       <c r="A157" s="18"/>
       <c r="B157" s="35"/>
       <c r="C157" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157" s="36">
-        <f>(22.5/3.281)</f>
-        <v>6.8576653459311183</v>
+        <f>5.333/3.281</f>
+        <v>1.6254190795489181</v>
       </c>
       <c r="E157" s="36"/>
       <c r="F157" s="36">
-        <f>(1.55+1.05)/2</f>
-        <v>1.3</v>
+        <f>((0.12+0.1)/2)</f>
+        <v>0.11</v>
       </c>
       <c r="G157" s="37">
-        <f t="shared" si="27"/>
-        <v>8.9149649497104537</v>
+        <f t="shared" si="26"/>
+        <v>0.35759219750076199</v>
       </c>
       <c r="H157" s="38"/>
       <c r="I157" s="38"/>
       <c r="J157" s="38"/>
       <c r="K157" s="185"/>
     </row>
-    <row r="158" spans="1:11" ht="15" customHeight="1">
+    <row r="158" spans="1:22" ht="15" customHeight="1">
       <c r="A158" s="18"/>
       <c r="B158" s="35"/>
       <c r="C158" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158" s="36">
-        <f>(19/3.281)</f>
-        <v>5.790917403230722</v>
+        <f>25.17/3.281</f>
+        <v>7.6714416336482785</v>
       </c>
       <c r="E158" s="36"/>
       <c r="F158" s="36">
-        <f>(1.36+0.95)/2</f>
-        <v>1.155</v>
+        <v>0.5</v>
       </c>
       <c r="G158" s="37">
-        <f t="shared" si="27"/>
-        <v>6.6885096007314839</v>
+        <f t="shared" si="26"/>
+        <v>7.6714416336482785</v>
       </c>
       <c r="H158" s="38"/>
       <c r="I158" s="38"/>
       <c r="J158" s="38"/>
       <c r="K158" s="185"/>
     </row>
-    <row r="159" spans="1:11" ht="15" customHeight="1">
+    <row r="159" spans="1:22" ht="15" customHeight="1">
       <c r="A159" s="18"/>
-      <c r="B159" s="35"/>
+      <c r="B159" s="125" t="s">
+        <v>152</v>
+      </c>
       <c r="C159" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159" s="36">
-        <f>34.5/3.281</f>
-        <v>10.515086863761049</v>
+        <f>23.333/3.281</f>
+        <v>7.1115513562938117</v>
       </c>
       <c r="E159" s="36"/>
       <c r="F159" s="36">
-        <f>(0.5+0.95)/2</f>
-        <v>0.72499999999999998</v>
+        <f>0.2</f>
+        <v>0.2</v>
       </c>
       <c r="G159" s="37">
-        <f t="shared" si="27"/>
-        <v>7.6234379762267599</v>
+        <f>PRODUCT(C159:F159)</f>
+        <v>2.8446205425175251</v>
       </c>
       <c r="H159" s="38"/>
       <c r="I159" s="38"/>
       <c r="J159" s="38"/>
       <c r="K159" s="185"/>
     </row>
-    <row r="160" spans="1:11" ht="15" customHeight="1">
+    <row r="160" spans="1:22" ht="15" customHeight="1">
       <c r="A160" s="18"/>
-      <c r="B160" s="35"/>
+      <c r="B160" s="35" t="s">
+        <v>164</v>
+      </c>
       <c r="C160" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160" s="36">
-        <f>34.75/3.281</f>
-        <v>10.591283145382505</v>
+        <f>2.1</f>
+        <v>2.1</v>
       </c>
       <c r="E160" s="36"/>
       <c r="F160" s="36">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G160" s="37">
-        <f t="shared" si="27"/>
-        <v>13.768668088997257</v>
+        <f t="shared" ref="G160:G175" si="27">PRODUCT(C160:F160)</f>
+        <v>4.620000000000001</v>
       </c>
       <c r="H160" s="38"/>
       <c r="I160" s="38"/>
       <c r="J160" s="38"/>
       <c r="K160" s="185"/>
     </row>
-    <row r="161" spans="1:22" ht="15" customHeight="1">
+    <row r="161" spans="1:11" ht="15" customHeight="1">
       <c r="A161" s="18"/>
       <c r="B161" s="35"/>
       <c r="C161" s="34">
         <v>1</v>
       </c>
       <c r="D161" s="36">
-        <f>3.12-0.3</f>
-        <v>2.8200000000000003</v>
+        <f>14/3.281</f>
+        <v>4.2669917708015843</v>
       </c>
       <c r="E161" s="36"/>
       <c r="F161" s="36">
-        <v>1.9</v>
+        <f>(1.85+1.55)/2</f>
+        <v>1.7000000000000002</v>
       </c>
       <c r="G161" s="37">
         <f t="shared" si="27"/>
-        <v>5.3580000000000005</v>
+        <v>7.2538860103626943</v>
       </c>
       <c r="H161" s="38"/>
       <c r="I161" s="38"/>
       <c r="J161" s="38"/>
       <c r="K161" s="185"/>
     </row>
-    <row r="162" spans="1:22" ht="15" customHeight="1">
+    <row r="162" spans="1:11" ht="15" customHeight="1">
       <c r="A162" s="18"/>
       <c r="B162" s="35"/>
       <c r="C162" s="34">
         <v>1</v>
       </c>
       <c r="D162" s="36">
-        <f>22.583/3.281</f>
-        <v>6.882962511429441</v>
+        <f>(22.5/3.281)</f>
+        <v>6.8576653459311183</v>
       </c>
       <c r="E162" s="36"/>
       <c r="F162" s="36">
-        <f>0.23+0.34</f>
-        <v>0.57000000000000006</v>
+        <f>(1.55+1.05)/2</f>
+        <v>1.3</v>
       </c>
       <c r="G162" s="37">
         <f t="shared" si="27"/>
-        <v>3.9232886315147817</v>
+        <v>8.9149649497104537</v>
       </c>
       <c r="H162" s="38"/>
       <c r="I162" s="38"/>
       <c r="J162" s="38"/>
       <c r="K162" s="185"/>
     </row>
-    <row r="163" spans="1:22" ht="15" customHeight="1">
+    <row r="163" spans="1:11" ht="15" customHeight="1">
       <c r="A163" s="18"/>
       <c r="B163" s="35"/>
       <c r="C163" s="34">
         <v>1</v>
       </c>
       <c r="D163" s="36">
-        <f>13/3.281</f>
-        <v>3.9622066443157573</v>
+        <f>(19/3.281)</f>
+        <v>5.790917403230722</v>
       </c>
       <c r="E163" s="36"/>
       <c r="F163" s="36">
-        <f>0.23+0.34</f>
-        <v>0.57000000000000006</v>
+        <f>(1.36+0.95)/2</f>
+        <v>1.155</v>
       </c>
       <c r="G163" s="37">
         <f t="shared" si="27"/>
-        <v>2.258457787259982</v>
+        <v>6.6885096007314839</v>
       </c>
       <c r="H163" s="38"/>
       <c r="I163" s="38"/>
       <c r="J163" s="38"/>
       <c r="K163" s="185"/>
     </row>
-    <row r="164" spans="1:22" ht="15" customHeight="1">
+    <row r="164" spans="1:11" ht="15" customHeight="1">
       <c r="A164" s="18"/>
       <c r="B164" s="35"/>
       <c r="C164" s="34">
         <v>1</v>
       </c>
       <c r="D164" s="36">
-        <f>22.583/3.281</f>
-        <v>6.882962511429441</v>
+        <f>34.5/3.281</f>
+        <v>10.515086863761049</v>
       </c>
       <c r="E164" s="36"/>
       <c r="F164" s="36">
-        <v>0.3</v>
+        <f>(0.5+0.95)/2</f>
+        <v>0.72499999999999998</v>
       </c>
       <c r="G164" s="37">
         <f t="shared" si="27"/>
-        <v>2.064888753428832</v>
+        <v>7.6234379762267599</v>
       </c>
       <c r="H164" s="38"/>
       <c r="I164" s="38"/>
       <c r="J164" s="38"/>
       <c r="K164" s="185"/>
     </row>
-    <row r="165" spans="1:22" ht="15" customHeight="1">
+    <row r="165" spans="1:11" ht="15" customHeight="1">
       <c r="A165" s="18"/>
       <c r="B165" s="35"/>
       <c r="C165" s="34">
         <v>1</v>
       </c>
       <c r="D165" s="36">
-        <v>2.1</v>
+        <f>34.75/3.281</f>
+        <v>10.591283145382505</v>
       </c>
       <c r="E165" s="36"/>
       <c r="F165" s="36">
-        <v>0.57999999999999996</v>
+        <v>1.3</v>
       </c>
       <c r="G165" s="37">
         <f t="shared" si="27"/>
-        <v>1.218</v>
+        <v>13.768668088997257</v>
       </c>
       <c r="H165" s="38"/>
       <c r="I165" s="38"/>
       <c r="J165" s="38"/>
       <c r="K165" s="185"/>
     </row>
-    <row r="166" spans="1:22" ht="15" customHeight="1">
+    <row r="166" spans="1:11" ht="15" customHeight="1">
       <c r="A166" s="18"/>
       <c r="B166" s="35"/>
       <c r="C166" s="34">
         <v>1</v>
       </c>
       <c r="D166" s="36">
-        <v>1.5</v>
+        <f>3.12-0.3</f>
+        <v>2.8200000000000003</v>
       </c>
       <c r="E166" s="36"/>
       <c r="F166" s="36">
-        <v>0.39</v>
+        <v>1.9</v>
       </c>
       <c r="G166" s="37">
         <f t="shared" si="27"/>
-        <v>0.58499999999999996</v>
+        <v>5.3580000000000005</v>
       </c>
       <c r="H166" s="38"/>
       <c r="I166" s="38"/>
       <c r="J166" s="38"/>
       <c r="K166" s="185"/>
     </row>
-    <row r="167" spans="1:22" ht="15" customHeight="1">
+    <row r="167" spans="1:11" ht="15" customHeight="1">
       <c r="A167" s="18"/>
       <c r="B167" s="35"/>
       <c r="C167" s="34">
-        <f>9*2</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D167" s="36">
-        <v>0.125</v>
+        <f>22.583/3.281</f>
+        <v>6.882962511429441</v>
       </c>
       <c r="E167" s="36"/>
       <c r="F167" s="36">
-        <v>0.94</v>
+        <f>0.23+0.34</f>
+        <v>0.57000000000000006</v>
       </c>
       <c r="G167" s="37">
         <f t="shared" si="27"/>
-        <v>2.1149999999999998</v>
+        <v>3.9232886315147817</v>
       </c>
       <c r="H167" s="38"/>
       <c r="I167" s="38"/>
       <c r="J167" s="38"/>
       <c r="K167" s="185"/>
     </row>
-    <row r="168" spans="1:22" ht="15" customHeight="1">
+    <row r="168" spans="1:11" ht="15" customHeight="1">
       <c r="A168" s="18"/>
       <c r="B168" s="35"/>
       <c r="C168" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168" s="36">
-        <f>18.25/3.281</f>
-        <v>5.5623285583663513</v>
+        <f>13/3.281</f>
+        <v>3.9622066443157573</v>
       </c>
       <c r="E168" s="36"/>
       <c r="F168" s="36">
-        <f>(1.35+1.52)/2</f>
-        <v>1.4350000000000001</v>
+        <f>0.23+0.34</f>
+        <v>0.57000000000000006</v>
       </c>
       <c r="G168" s="37">
         <f t="shared" si="27"/>
-        <v>15.963882962511429</v>
+        <v>2.258457787259982</v>
       </c>
       <c r="H168" s="38"/>
       <c r="I168" s="38"/>
       <c r="J168" s="38"/>
       <c r="K168" s="185"/>
     </row>
-    <row r="169" spans="1:22" ht="15" customHeight="1">
+    <row r="169" spans="1:11" ht="15" customHeight="1">
       <c r="A169" s="18"/>
       <c r="B169" s="35"/>
       <c r="C169" s="34">
-        <f>17*2</f>
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D169" s="36">
-        <v>0.1</v>
+        <f>22.583/3.281</f>
+        <v>6.882962511429441</v>
       </c>
       <c r="E169" s="36"/>
       <c r="F169" s="36">
-        <v>0.81</v>
+        <v>0.3</v>
       </c>
       <c r="G169" s="37">
         <f t="shared" si="27"/>
-        <v>2.7540000000000004</v>
+        <v>2.064888753428832</v>
       </c>
       <c r="H169" s="38"/>
       <c r="I169" s="38"/>
       <c r="J169" s="38"/>
       <c r="K169" s="185"/>
     </row>
-    <row r="170" spans="1:22" ht="15" customHeight="1">
+    <row r="170" spans="1:11" ht="15" customHeight="1">
       <c r="A170" s="18"/>
-      <c r="B170" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C170" s="34"/>
-      <c r="D170" s="36"/>
+      <c r="B170" s="35"/>
+      <c r="C170" s="34">
+        <v>1</v>
+      </c>
+      <c r="D170" s="36">
+        <v>2.1</v>
+      </c>
       <c r="E170" s="36"/>
-      <c r="F170" s="36"/>
+      <c r="F170" s="36">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="G170" s="37">
-        <f>SUM(G141:G169)</f>
-        <v>128.22878564462053</v>
-      </c>
-      <c r="H170" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="I170" s="38">
-        <v>405.86</v>
-      </c>
-      <c r="J170" s="38">
-        <f>G170*I170</f>
-        <v>52042.934941725689</v>
-      </c>
+        <f t="shared" si="27"/>
+        <v>1.218</v>
+      </c>
+      <c r="H170" s="38"/>
+      <c r="I170" s="38"/>
+      <c r="J170" s="38"/>
       <c r="K170" s="185"/>
     </row>
-    <row r="171" spans="1:22" s="1" customFormat="1" ht="18">
+    <row r="171" spans="1:11" ht="15" customHeight="1">
       <c r="A171" s="18"/>
-      <c r="B171" s="125" t="s">
-        <v>130</v>
-      </c>
-      <c r="C171" s="19"/>
-      <c r="D171" s="20"/>
-      <c r="E171" s="21"/>
-      <c r="F171" s="21"/>
-      <c r="G171" s="123"/>
-      <c r="H171" s="22"/>
-      <c r="I171" s="23"/>
-      <c r="J171" s="123">
-        <f>0.13*G170*11166.2/100</f>
-        <v>1861.3767461444502</v>
-      </c>
-      <c r="K171" s="21"/>
-      <c r="N171" s="186" t="s">
-        <v>143</v>
-      </c>
-      <c r="O171" s="186"/>
-      <c r="P171" s="186"/>
-      <c r="Q171" s="186"/>
-      <c r="R171" s="186"/>
-      <c r="S171" s="186"/>
-      <c r="T171" s="186"/>
-      <c r="U171"/>
-      <c r="V171"/>
-    </row>
-    <row r="172" spans="1:22" s="1" customFormat="1" ht="18">
+      <c r="B171" s="35"/>
+      <c r="C171" s="34">
+        <v>1</v>
+      </c>
+      <c r="D171" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="E171" s="36"/>
+      <c r="F171" s="36">
+        <v>0.39</v>
+      </c>
+      <c r="G171" s="37">
+        <f t="shared" si="27"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="H171" s="38"/>
+      <c r="I171" s="38"/>
+      <c r="J171" s="38"/>
+      <c r="K171" s="185"/>
+    </row>
+    <row r="172" spans="1:11" ht="15" customHeight="1">
       <c r="A172" s="18"/>
-      <c r="B172" s="125"/>
-      <c r="C172" s="19"/>
-      <c r="D172" s="20"/>
-      <c r="E172" s="21"/>
-      <c r="F172" s="21"/>
-      <c r="G172" s="123"/>
-      <c r="H172" s="22"/>
-      <c r="I172" s="23"/>
-      <c r="J172" s="123"/>
-      <c r="K172" s="21"/>
-      <c r="N172" s="186" t="s">
-        <v>144</v>
-      </c>
-      <c r="O172" s="186"/>
-      <c r="P172" s="186"/>
-      <c r="Q172" s="186"/>
-      <c r="R172" s="186"/>
-      <c r="S172" s="186"/>
-      <c r="T172" s="186"/>
-      <c r="U172"/>
-      <c r="V172"/>
-    </row>
-    <row r="173" spans="1:22" ht="30.75">
-      <c r="A173" s="18">
-        <v>16</v>
-      </c>
-      <c r="B173" s="119" t="s">
-        <v>131</v>
-      </c>
-      <c r="C173" s="19"/>
-      <c r="D173" s="20"/>
-      <c r="E173" s="21"/>
-      <c r="F173" s="21"/>
-      <c r="G173" s="23"/>
-      <c r="H173" s="22"/>
-      <c r="I173" s="23"/>
-      <c r="J173" s="39"/>
-      <c r="K173" s="21"/>
-    </row>
-    <row r="174" spans="1:22" ht="15" customHeight="1">
+      <c r="B172" s="35"/>
+      <c r="C172" s="34">
+        <f>9*2</f>
+        <v>18</v>
+      </c>
+      <c r="D172" s="36">
+        <v>0.125</v>
+      </c>
+      <c r="E172" s="36"/>
+      <c r="F172" s="36">
+        <v>0.94</v>
+      </c>
+      <c r="G172" s="37">
+        <f t="shared" si="27"/>
+        <v>2.1149999999999998</v>
+      </c>
+      <c r="H172" s="38"/>
+      <c r="I172" s="38"/>
+      <c r="J172" s="38"/>
+      <c r="K172" s="185"/>
+    </row>
+    <row r="173" spans="1:11" ht="15" customHeight="1">
+      <c r="A173" s="18"/>
+      <c r="B173" s="35"/>
+      <c r="C173" s="34">
+        <v>2</v>
+      </c>
+      <c r="D173" s="36">
+        <f>18.25/3.281</f>
+        <v>5.5623285583663513</v>
+      </c>
+      <c r="E173" s="36"/>
+      <c r="F173" s="36">
+        <f>(1.35+1.52)/2</f>
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="G173" s="37">
+        <f t="shared" si="27"/>
+        <v>15.963882962511429</v>
+      </c>
+      <c r="H173" s="38"/>
+      <c r="I173" s="38"/>
+      <c r="J173" s="38"/>
+      <c r="K173" s="185"/>
+    </row>
+    <row r="174" spans="1:11" ht="15" customHeight="1">
       <c r="A174" s="18"/>
-      <c r="B174" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="C174" s="19">
+      <c r="B174" s="35"/>
+      <c r="C174" s="34">
         <v>1</v>
       </c>
-      <c r="D174" s="20"/>
-      <c r="E174" s="21"/>
-      <c r="F174" s="21"/>
+      <c r="D174" s="36">
+        <f>12</f>
+        <v>12</v>
+      </c>
+      <c r="E174" s="36"/>
+      <c r="F174" s="36">
+        <v>0.6</v>
+      </c>
       <c r="G174" s="37">
-        <f>G170-G155</f>
-        <v>123.60878564462053</v>
-      </c>
-      <c r="H174" s="22"/>
-      <c r="I174" s="23"/>
-      <c r="J174" s="39"/>
-      <c r="K174" s="21"/>
-    </row>
-    <row r="175" spans="1:22" ht="15" customHeight="1">
+        <f t="shared" si="27"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="H174" s="38"/>
+      <c r="I174" s="38"/>
+      <c r="J174" s="38"/>
+      <c r="K174" s="185"/>
+    </row>
+    <row r="175" spans="1:11" ht="15" customHeight="1">
       <c r="A175" s="18"/>
       <c r="B175" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C175" s="19"/>
-      <c r="D175" s="20"/>
-      <c r="E175" s="21"/>
-      <c r="F175" s="21"/>
-      <c r="G175" s="23">
-        <f>0*SUM(G174:G174)</f>
-        <v>0</v>
-      </c>
-      <c r="H175" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I175" s="23">
-        <v>251.77</v>
-      </c>
-      <c r="J175" s="39">
-        <f>G175*I175</f>
-        <v>0</v>
-      </c>
-      <c r="K175" s="21"/>
-    </row>
-    <row r="176" spans="1:22" ht="15" customHeight="1">
+        <v>174</v>
+      </c>
+      <c r="C175" s="34">
+        <v>-1</v>
+      </c>
+      <c r="D175" s="36">
+        <v>0.9</v>
+      </c>
+      <c r="E175" s="36"/>
+      <c r="F175" s="36">
+        <v>0.9</v>
+      </c>
+      <c r="G175" s="37">
+        <f t="shared" si="27"/>
+        <v>-0.81</v>
+      </c>
+      <c r="H175" s="38"/>
+      <c r="I175" s="38"/>
+      <c r="J175" s="38"/>
+      <c r="K175" s="185"/>
+    </row>
+    <row r="176" spans="1:11" ht="15" customHeight="1">
       <c r="A176" s="18"/>
       <c r="B176" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C176" s="19"/>
-      <c r="D176" s="20"/>
-      <c r="E176" s="21"/>
-      <c r="F176" s="21"/>
-      <c r="G176" s="23"/>
-      <c r="H176" s="22"/>
-      <c r="I176" s="23"/>
-      <c r="J176" s="39">
-        <f>0.13*G175*12736/100</f>
-        <v>0</v>
-      </c>
-      <c r="K176" s="21"/>
-    </row>
-    <row r="177" spans="1:22" ht="15" customHeight="1">
+        <v>129</v>
+      </c>
+      <c r="C176" s="34"/>
+      <c r="D176" s="36"/>
+      <c r="E176" s="36"/>
+      <c r="F176" s="36"/>
+      <c r="G176" s="37">
+        <f>SUM(G146:G175)</f>
+        <v>131.86478564462053</v>
+      </c>
+      <c r="H176" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I176" s="38">
+        <v>405.86</v>
+      </c>
+      <c r="J176" s="38">
+        <f>G176*I176</f>
+        <v>53518.641901725685</v>
+      </c>
+      <c r="K176" s="185"/>
+    </row>
+    <row r="177" spans="1:22" s="1" customFormat="1" ht="18">
       <c r="A177" s="18"/>
-      <c r="B177" s="35"/>
+      <c r="B177" s="125" t="s">
+        <v>130</v>
+      </c>
       <c r="C177" s="19"/>
       <c r="D177" s="20"/>
       <c r="E177" s="21"/>
       <c r="F177" s="21"/>
-      <c r="G177" s="23"/>
+      <c r="G177" s="123"/>
       <c r="H177" s="22"/>
       <c r="I177" s="23"/>
-      <c r="J177" s="39"/>
+      <c r="J177" s="123">
+        <f>0.13*G176*11166.2/100</f>
+        <v>1914.1571403044502</v>
+      </c>
       <c r="K177" s="21"/>
-    </row>
-    <row r="178" spans="1:22" s="1" customFormat="1" ht="48">
-      <c r="A178" s="18">
-        <v>17</v>
-      </c>
-      <c r="B178" s="140" t="s">
-        <v>150</v>
-      </c>
-      <c r="C178" s="140"/>
+      <c r="N177" s="186" t="s">
+        <v>143</v>
+      </c>
+      <c r="O177" s="186"/>
+      <c r="P177" s="186"/>
+      <c r="Q177" s="186"/>
+      <c r="R177" s="186"/>
+      <c r="S177" s="186"/>
+      <c r="T177" s="186"/>
+      <c r="U177"/>
+      <c r="V177"/>
+    </row>
+    <row r="178" spans="1:22" s="1" customFormat="1" ht="18">
+      <c r="A178" s="18"/>
+      <c r="B178" s="125"/>
+      <c r="C178" s="19"/>
       <c r="D178" s="20"/>
-      <c r="E178" s="121"/>
-      <c r="F178" s="121"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21"/>
       <c r="G178" s="123"/>
       <c r="H178" s="22"/>
       <c r="I178" s="23"/>
       <c r="J178" s="123"/>
       <c r="K178" s="21"/>
-      <c r="M178"/>
-      <c r="N178"/>
-      <c r="O178"/>
-      <c r="P178"/>
-      <c r="Q178"/>
-      <c r="R178"/>
-      <c r="S178"/>
-      <c r="T178"/>
+      <c r="N178" s="186" t="s">
+        <v>144</v>
+      </c>
+      <c r="O178" s="186"/>
+      <c r="P178" s="186"/>
+      <c r="Q178" s="186"/>
+      <c r="R178" s="186"/>
+      <c r="S178" s="186"/>
+      <c r="T178" s="186"/>
       <c r="U178"/>
       <c r="V178"/>
     </row>
-    <row r="179" spans="1:22" ht="15" customHeight="1">
-      <c r="A179" s="18"/>
-      <c r="B179" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="C179" s="19">
-        <v>1</v>
-      </c>
-      <c r="D179" s="20">
-        <f>25.17/3.281</f>
-        <v>7.6714416336482785</v>
-      </c>
-      <c r="E179" s="21">
-        <v>2.8</v>
-      </c>
+    <row r="179" spans="1:22" ht="30.75">
+      <c r="A179" s="18">
+        <v>16</v>
+      </c>
+      <c r="B179" s="119" t="s">
+        <v>131</v>
+      </c>
+      <c r="C179" s="19"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="21"/>
       <c r="F179" s="21"/>
-      <c r="G179" s="126">
-        <f t="shared" ref="G179:G180" si="28">PRODUCT(C179:F179)</f>
-        <v>21.480036574215177</v>
-      </c>
+      <c r="G179" s="23"/>
       <c r="H179" s="22"/>
       <c r="I179" s="23"/>
       <c r="J179" s="39"/>
@@ -13327,22 +13429,17 @@
     <row r="180" spans="1:22" ht="15" customHeight="1">
       <c r="A180" s="18"/>
       <c r="B180" s="35" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C180" s="19">
         <v>1</v>
       </c>
-      <c r="D180" s="20">
-        <f>32.42/3.281</f>
-        <v>9.8811338006705274</v>
-      </c>
-      <c r="E180" s="21">
-        <v>1.53</v>
-      </c>
+      <c r="D180" s="20"/>
+      <c r="E180" s="21"/>
       <c r="F180" s="21"/>
-      <c r="G180" s="126">
-        <f t="shared" si="28"/>
-        <v>15.118134715025906</v>
+      <c r="G180" s="37">
+        <f>G176-G160</f>
+        <v>127.24478564462052</v>
       </c>
       <c r="H180" s="22"/>
       <c r="I180" s="23"/>
@@ -13353,29 +13450,24 @@
       <c r="A181" s="18"/>
       <c r="B181" s="35"/>
       <c r="C181" s="19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D181" s="20">
-        <v>3.4</v>
-      </c>
-      <c r="E181" s="21">
-        <v>3.9</v>
-      </c>
+        <f>3+8+3+(4*10/3.281)</f>
+        <v>26.191405059433102</v>
+      </c>
+      <c r="E181" s="21"/>
       <c r="F181" s="21">
-        <v>1.5328189999999999</v>
+        <v>0.45</v>
       </c>
       <c r="G181" s="37">
-        <f>C181*SQRT(M181*(M181-D181)*(M181-E181)*(M181-F181))</f>
-        <v>2.5854308705263742</v>
+        <f>G177-G161</f>
+        <v>-7.2538860103626943</v>
       </c>
       <c r="H181" s="22"/>
       <c r="I181" s="23"/>
       <c r="J181" s="39"/>
       <c r="K181" s="21"/>
-      <c r="M181">
-        <f>(D181+E181+F181)/2</f>
-        <v>4.4164095000000003</v>
-      </c>
     </row>
     <row r="182" spans="1:22" ht="15" customHeight="1">
       <c r="A182" s="18"/>
@@ -13387,18 +13479,18 @@
       <c r="E182" s="21"/>
       <c r="F182" s="21"/>
       <c r="G182" s="23">
-        <f>SUM(G179:G181)</f>
-        <v>39.183602159767453</v>
+        <f>SUM(G180:G181)</f>
+        <v>119.99089963425783</v>
       </c>
       <c r="H182" s="22" t="s">
         <v>43</v>
       </c>
       <c r="I182" s="23">
-        <v>2271.5500000000002</v>
+        <v>251.77</v>
       </c>
       <c r="J182" s="39">
         <f>G182*I182</f>
-        <v>89007.511486019765</v>
+        <v>30210.108800917096</v>
       </c>
       <c r="K182" s="21"/>
     </row>
@@ -13415,8 +13507,8 @@
       <c r="H183" s="22"/>
       <c r="I183" s="23"/>
       <c r="J183" s="39">
-        <f>0.13*G182*(20218/10)</f>
-        <v>10298.782890060318</v>
+        <f>0.13*G182*12736/100</f>
+        <v>1986.6653270644799</v>
       </c>
       <c r="K183" s="21"/>
     </row>
@@ -13433,587 +13525,562 @@
       <c r="J184" s="39"/>
       <c r="K184" s="21"/>
     </row>
-    <row r="185" spans="1:22" s="173" customFormat="1" ht="18">
-      <c r="A185" s="166">
+    <row r="185" spans="1:22" s="1" customFormat="1" ht="48">
+      <c r="A185" s="18">
+        <v>17</v>
+      </c>
+      <c r="B185" s="140" t="s">
+        <v>150</v>
+      </c>
+      <c r="C185" s="140"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="121"/>
+      <c r="F185" s="121"/>
+      <c r="G185" s="123"/>
+      <c r="H185" s="22"/>
+      <c r="I185" s="23"/>
+      <c r="J185" s="123"/>
+      <c r="K185" s="21"/>
+      <c r="M185"/>
+      <c r="N185"/>
+      <c r="O185"/>
+      <c r="P185"/>
+      <c r="Q185"/>
+      <c r="R185"/>
+      <c r="S185"/>
+      <c r="T185"/>
+      <c r="U185"/>
+      <c r="V185"/>
+    </row>
+    <row r="186" spans="1:22" ht="15" customHeight="1">
+      <c r="A186" s="18"/>
+      <c r="B186" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C186" s="19">
+        <v>1</v>
+      </c>
+      <c r="D186" s="20">
+        <f>25.17/3.281</f>
+        <v>7.6714416336482785</v>
+      </c>
+      <c r="E186" s="21">
+        <v>2.8</v>
+      </c>
+      <c r="F186" s="21"/>
+      <c r="G186" s="126">
+        <f t="shared" ref="G186:G187" si="28">PRODUCT(C186:F186)</f>
+        <v>21.480036574215177</v>
+      </c>
+      <c r="H186" s="22"/>
+      <c r="I186" s="23"/>
+      <c r="J186" s="39"/>
+      <c r="K186" s="21"/>
+    </row>
+    <row r="187" spans="1:22" ht="15" customHeight="1">
+      <c r="A187" s="18"/>
+      <c r="B187" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C187" s="19">
+        <v>1</v>
+      </c>
+      <c r="D187" s="20">
+        <f>32.42/3.281</f>
+        <v>9.8811338006705274</v>
+      </c>
+      <c r="E187" s="21">
+        <v>1.53</v>
+      </c>
+      <c r="F187" s="21"/>
+      <c r="G187" s="126">
+        <f t="shared" si="28"/>
+        <v>15.118134715025906</v>
+      </c>
+      <c r="H187" s="22"/>
+      <c r="I187" s="23"/>
+      <c r="J187" s="39"/>
+      <c r="K187" s="21"/>
+    </row>
+    <row r="188" spans="1:22" ht="15" customHeight="1">
+      <c r="A188" s="18"/>
+      <c r="B188" s="35"/>
+      <c r="C188" s="19">
+        <v>1</v>
+      </c>
+      <c r="D188" s="20">
+        <v>3.4</v>
+      </c>
+      <c r="E188" s="21">
+        <v>3.9</v>
+      </c>
+      <c r="F188" s="21">
+        <v>1.5328189999999999</v>
+      </c>
+      <c r="G188" s="37">
+        <f>C188*SQRT(M188*(M188-D188)*(M188-E188)*(M188-F188))</f>
+        <v>2.5854308705263742</v>
+      </c>
+      <c r="H188" s="22"/>
+      <c r="I188" s="23"/>
+      <c r="J188" s="39"/>
+      <c r="K188" s="21"/>
+      <c r="M188">
+        <f>(D188+E188+F188)/2</f>
+        <v>4.4164095000000003</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" ht="15" customHeight="1">
+      <c r="A189" s="18"/>
+      <c r="B189" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C189" s="19"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="21"/>
+      <c r="G189" s="23">
+        <f>SUM(G186:G188)</f>
+        <v>39.183602159767453</v>
+      </c>
+      <c r="H189" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I189" s="23">
+        <v>2271.5500000000002</v>
+      </c>
+      <c r="J189" s="39">
+        <f>G189*I189</f>
+        <v>89007.511486019765</v>
+      </c>
+      <c r="K189" s="21"/>
+    </row>
+    <row r="190" spans="1:22" ht="15" customHeight="1">
+      <c r="A190" s="18"/>
+      <c r="B190" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C190" s="19"/>
+      <c r="D190" s="20"/>
+      <c r="E190" s="21"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="23"/>
+      <c r="H190" s="22"/>
+      <c r="I190" s="23"/>
+      <c r="J190" s="39">
+        <f>0.13*G189*(20218/10)</f>
+        <v>10298.782890060318</v>
+      </c>
+      <c r="K190" s="21"/>
+    </row>
+    <row r="191" spans="1:22" ht="15" customHeight="1">
+      <c r="A191" s="18"/>
+      <c r="B191" s="35"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="20"/>
+      <c r="E191" s="21"/>
+      <c r="F191" s="21"/>
+      <c r="G191" s="23"/>
+      <c r="H191" s="22"/>
+      <c r="I191" s="23"/>
+      <c r="J191" s="39"/>
+      <c r="K191" s="21"/>
+    </row>
+    <row r="192" spans="1:22" s="173" customFormat="1" ht="18">
+      <c r="A192" s="166">
         <v>18</v>
       </c>
-      <c r="B185" s="167" t="s">
+      <c r="B192" s="167" t="s">
         <v>139</v>
-      </c>
-      <c r="C185" s="168"/>
-      <c r="D185" s="169"/>
-      <c r="E185" s="170"/>
-      <c r="F185" s="169" t="s">
-        <v>163</v>
-      </c>
-      <c r="G185" s="169"/>
-      <c r="H185" s="169"/>
-      <c r="I185" s="169"/>
-      <c r="J185" s="171"/>
-      <c r="K185" s="172"/>
-      <c r="M185" s="174"/>
-      <c r="N185" s="174"/>
-      <c r="O185" s="174"/>
-      <c r="P185" s="174"/>
-      <c r="Q185" s="174"/>
-      <c r="R185" s="174"/>
-      <c r="S185" s="174"/>
-      <c r="T185" s="174"/>
-      <c r="U185" s="174"/>
-      <c r="V185" s="174"/>
-    </row>
-    <row r="186" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
-      <c r="A186" s="144"/>
-      <c r="B186" s="146" t="s">
-        <v>140</v>
-      </c>
-      <c r="C186" s="161">
-        <v>1</v>
-      </c>
-      <c r="D186" s="162"/>
-      <c r="E186" s="175"/>
-      <c r="F186" s="176">
-        <f>CONVERT(48.3735,"ft2","m2")</f>
-        <v>4.49404520544</v>
-      </c>
-      <c r="G186" s="177">
-        <f>PRODUCT(C186:F186)</f>
-        <v>4.49404520544</v>
-      </c>
-      <c r="H186" s="163"/>
-      <c r="I186" s="163"/>
-      <c r="J186" s="163"/>
-      <c r="K186" s="149"/>
-    </row>
-    <row r="187" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
-      <c r="A187" s="144"/>
-      <c r="B187" s="146"/>
-      <c r="C187" s="161">
-        <v>1</v>
-      </c>
-      <c r="D187" s="162"/>
-      <c r="E187" s="175"/>
-      <c r="F187" s="176">
-        <f>CONVERT(224.2762,"ft2","m2")</f>
-        <v>20.835940779647999</v>
-      </c>
-      <c r="G187" s="177">
-        <f>PRODUCT(C187:F187)</f>
-        <v>20.835940779647999</v>
-      </c>
-      <c r="H187" s="163"/>
-      <c r="I187" s="163"/>
-      <c r="J187" s="163"/>
-      <c r="K187" s="149"/>
-    </row>
-    <row r="188" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
-      <c r="A188" s="144"/>
-      <c r="B188" s="146"/>
-      <c r="C188" s="161">
-        <v>1</v>
-      </c>
-      <c r="D188" s="162">
-        <f>(4.1+4.4)/2</f>
-        <v>4.25</v>
-      </c>
-      <c r="E188" s="162">
-        <f>2.6</f>
-        <v>2.6</v>
-      </c>
-      <c r="F188" s="162"/>
-      <c r="G188" s="177">
-        <f t="shared" ref="G188:G190" si="29">PRODUCT(C188:F188)</f>
-        <v>11.05</v>
-      </c>
-      <c r="H188" s="163"/>
-      <c r="I188" s="163"/>
-      <c r="J188" s="163"/>
-      <c r="K188" s="149"/>
-      <c r="M188" s="178"/>
-      <c r="N188" s="178"/>
-      <c r="O188" s="178"/>
-      <c r="P188" s="178"/>
-      <c r="Q188" s="178"/>
-      <c r="R188" s="178"/>
-      <c r="S188" s="178"/>
-      <c r="T188" s="178"/>
-      <c r="U188" s="178"/>
-      <c r="V188" s="178"/>
-    </row>
-    <row r="189" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
-      <c r="A189" s="144"/>
-      <c r="B189" s="146"/>
-      <c r="C189" s="161">
-        <v>1</v>
-      </c>
-      <c r="D189" s="162">
-        <v>7</v>
-      </c>
-      <c r="E189" s="162">
-        <f>((2.5+4.75)/2)/3.281</f>
-        <v>1.1048460835111247</v>
-      </c>
-      <c r="F189" s="162"/>
-      <c r="G189" s="177">
-        <f t="shared" si="29"/>
-        <v>7.733922584577873</v>
-      </c>
-      <c r="H189" s="163"/>
-      <c r="I189" s="163"/>
-      <c r="J189" s="163"/>
-      <c r="K189" s="149"/>
-    </row>
-    <row r="190" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
-      <c r="A190" s="144"/>
-      <c r="B190" s="146"/>
-      <c r="C190" s="161">
-        <v>1</v>
-      </c>
-      <c r="D190" s="162">
-        <v>6.55</v>
-      </c>
-      <c r="E190" s="162">
-        <f>((16.17+1)/2)/3.281</f>
-        <v>2.616580310880829</v>
-      </c>
-      <c r="F190" s="162"/>
-      <c r="G190" s="177">
-        <f t="shared" si="29"/>
-        <v>17.138601036269428</v>
-      </c>
-      <c r="H190" s="163"/>
-      <c r="I190" s="163"/>
-      <c r="J190" s="163"/>
-      <c r="K190" s="149"/>
-    </row>
-    <row r="191" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
-      <c r="A191" s="163"/>
-      <c r="B191" s="146" t="s">
-        <v>41</v>
-      </c>
-      <c r="C191" s="168"/>
-      <c r="D191" s="169"/>
-      <c r="E191" s="169"/>
-      <c r="F191" s="169"/>
-      <c r="G191" s="179">
-        <f>0*SUM(G186:G190)</f>
-        <v>0</v>
-      </c>
-      <c r="H191" s="179" t="s">
-        <v>141</v>
-      </c>
-      <c r="I191" s="179">
-        <f>35*10.7639</f>
-        <v>376.73649999999998</v>
-      </c>
-      <c r="J191" s="171">
-        <f>G191*I191</f>
-        <v>0</v>
-      </c>
-      <c r="K191" s="161"/>
-    </row>
-    <row r="192" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
-      <c r="A192" s="163"/>
-      <c r="B192" s="146" t="s">
-        <v>40</v>
       </c>
       <c r="C192" s="168"/>
       <c r="D192" s="169"/>
-      <c r="E192" s="169"/>
-      <c r="F192" s="169"/>
+      <c r="E192" s="170"/>
+      <c r="F192" s="169" t="s">
+        <v>163</v>
+      </c>
       <c r="G192" s="169"/>
       <c r="H192" s="169"/>
       <c r="I192" s="169"/>
-      <c r="J192" s="165">
-        <f>0.13*J191</f>
-        <v>0</v>
-      </c>
-      <c r="K192" s="161"/>
+      <c r="J192" s="171"/>
+      <c r="K192" s="172"/>
+      <c r="M192" s="174"/>
+      <c r="N192" s="174"/>
+      <c r="O192" s="174"/>
+      <c r="P192" s="174"/>
+      <c r="Q192" s="174"/>
+      <c r="R192" s="174"/>
+      <c r="S192" s="174"/>
+      <c r="T192" s="174"/>
+      <c r="U192" s="174"/>
+      <c r="V192" s="174"/>
     </row>
     <row r="193" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
-      <c r="A193" s="163"/>
-      <c r="B193" s="146"/>
-      <c r="C193" s="168"/>
-      <c r="D193" s="169"/>
-      <c r="E193" s="169"/>
-      <c r="F193" s="169"/>
-      <c r="G193" s="169"/>
-      <c r="H193" s="169"/>
-      <c r="I193" s="169"/>
-      <c r="J193" s="165"/>
-      <c r="K193" s="161"/>
-    </row>
-    <row r="194" spans="1:22" s="174" customFormat="1" ht="42.75">
-      <c r="A194" s="144">
-        <v>19</v>
-      </c>
-      <c r="B194" s="180" t="s">
-        <v>145</v>
-      </c>
-      <c r="C194" s="161"/>
+      <c r="A193" s="144"/>
+      <c r="B193" s="146" t="s">
+        <v>140</v>
+      </c>
+      <c r="C193" s="161">
+        <v>1</v>
+      </c>
+      <c r="D193" s="162"/>
+      <c r="E193" s="175"/>
+      <c r="F193" s="176">
+        <f>CONVERT(48.3735,"ft2","m2")</f>
+        <v>4.49404520544</v>
+      </c>
+      <c r="G193" s="177">
+        <f>PRODUCT(C193:F193)</f>
+        <v>4.49404520544</v>
+      </c>
+      <c r="H193" s="163"/>
+      <c r="I193" s="163"/>
+      <c r="J193" s="163"/>
+      <c r="K193" s="149"/>
+    </row>
+    <row r="194" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A194" s="144"/>
+      <c r="B194" s="146"/>
+      <c r="C194" s="161">
+        <v>1</v>
+      </c>
       <c r="D194" s="162"/>
-      <c r="E194" s="162"/>
-      <c r="F194" s="162"/>
-      <c r="G194" s="150"/>
+      <c r="E194" s="175"/>
+      <c r="F194" s="176">
+        <f>CONVERT(224.2762,"ft2","m2")</f>
+        <v>20.835940779647999</v>
+      </c>
+      <c r="G194" s="177">
+        <f>PRODUCT(C194:F194)</f>
+        <v>20.835940779647999</v>
+      </c>
       <c r="H194" s="163"/>
       <c r="I194" s="163"/>
-      <c r="J194" s="165"/>
+      <c r="J194" s="163"/>
       <c r="K194" s="149"/>
-      <c r="M194" s="181"/>
-      <c r="N194" s="181"/>
-      <c r="O194" s="181"/>
-      <c r="P194" s="181"/>
-      <c r="Q194" s="181"/>
-      <c r="R194" s="181"/>
-      <c r="S194" s="181"/>
-      <c r="T194" s="181"/>
-      <c r="U194" s="181"/>
-      <c r="V194" s="181"/>
     </row>
     <row r="195" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
-      <c r="A195" s="163"/>
-      <c r="B195" s="146" t="s">
-        <v>146</v>
-      </c>
-      <c r="C195" s="147"/>
-      <c r="D195" s="169"/>
-      <c r="E195" s="169"/>
-      <c r="F195" s="169"/>
-      <c r="G195" s="169">
-        <f>G191</f>
+      <c r="A195" s="144"/>
+      <c r="B195" s="146"/>
+      <c r="C195" s="161">
+        <v>1</v>
+      </c>
+      <c r="D195" s="162">
+        <f>(4.1+4.4)/2</f>
+        <v>4.25</v>
+      </c>
+      <c r="E195" s="162">
+        <f>2.6</f>
+        <v>2.6</v>
+      </c>
+      <c r="F195" s="162"/>
+      <c r="G195" s="177">
+        <f t="shared" ref="G195:G197" si="29">PRODUCT(C195:F195)</f>
+        <v>11.05</v>
+      </c>
+      <c r="H195" s="163"/>
+      <c r="I195" s="163"/>
+      <c r="J195" s="163"/>
+      <c r="K195" s="149"/>
+      <c r="M195" s="178"/>
+      <c r="N195" s="178"/>
+      <c r="O195" s="178"/>
+      <c r="P195" s="178"/>
+      <c r="Q195" s="178"/>
+      <c r="R195" s="178"/>
+      <c r="S195" s="178"/>
+      <c r="T195" s="178"/>
+      <c r="U195" s="178"/>
+      <c r="V195" s="178"/>
+    </row>
+    <row r="196" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A196" s="144"/>
+      <c r="B196" s="146"/>
+      <c r="C196" s="161">
+        <v>1</v>
+      </c>
+      <c r="D196" s="162">
+        <v>7</v>
+      </c>
+      <c r="E196" s="162">
+        <f>((2.5+4.75)/2)/3.281</f>
+        <v>1.1048460835111247</v>
+      </c>
+      <c r="F196" s="162"/>
+      <c r="G196" s="177">
+        <f t="shared" si="29"/>
+        <v>7.733922584577873</v>
+      </c>
+      <c r="H196" s="163"/>
+      <c r="I196" s="163"/>
+      <c r="J196" s="163"/>
+      <c r="K196" s="149"/>
+    </row>
+    <row r="197" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A197" s="144"/>
+      <c r="B197" s="146"/>
+      <c r="C197" s="161">
+        <v>1</v>
+      </c>
+      <c r="D197" s="162">
+        <v>6.55</v>
+      </c>
+      <c r="E197" s="162">
+        <f>((16.17+1)/2)/3.281</f>
+        <v>2.616580310880829</v>
+      </c>
+      <c r="F197" s="162"/>
+      <c r="G197" s="177">
+        <f t="shared" si="29"/>
+        <v>17.138601036269428</v>
+      </c>
+      <c r="H197" s="163"/>
+      <c r="I197" s="163"/>
+      <c r="J197" s="163"/>
+      <c r="K197" s="149"/>
+    </row>
+    <row r="198" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A198" s="163"/>
+      <c r="B198" s="146" t="s">
+        <v>41</v>
+      </c>
+      <c r="C198" s="168"/>
+      <c r="D198" s="169"/>
+      <c r="E198" s="169"/>
+      <c r="F198" s="169"/>
+      <c r="G198" s="179">
+        <f>0*SUM(G193:G197)</f>
         <v>0</v>
       </c>
-      <c r="H195" s="169"/>
-      <c r="I195" s="169"/>
-      <c r="J195" s="165"/>
-      <c r="K195" s="161"/>
-      <c r="M195" s="181"/>
-      <c r="N195" s="181"/>
-      <c r="O195" s="181"/>
-      <c r="P195" s="181"/>
-      <c r="Q195" s="181"/>
-      <c r="R195" s="181"/>
-      <c r="S195" s="181"/>
-      <c r="T195" s="181"/>
-      <c r="U195" s="181"/>
-      <c r="V195" s="181"/>
-    </row>
-    <row r="196" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
-      <c r="A196" s="163"/>
-      <c r="B196" s="146" t="str">
-        <f>B118</f>
+      <c r="H198" s="179" t="s">
+        <v>141</v>
+      </c>
+      <c r="I198" s="179">
+        <f>35*10.7639</f>
+        <v>376.73649999999998</v>
+      </c>
+      <c r="J198" s="171">
+        <f>G198*I198</f>
+        <v>0</v>
+      </c>
+      <c r="K198" s="161"/>
+    </row>
+    <row r="199" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A199" s="163"/>
+      <c r="B199" s="146" t="s">
+        <v>40</v>
+      </c>
+      <c r="C199" s="168"/>
+      <c r="D199" s="169"/>
+      <c r="E199" s="169"/>
+      <c r="F199" s="169"/>
+      <c r="G199" s="169"/>
+      <c r="H199" s="169"/>
+      <c r="I199" s="169"/>
+      <c r="J199" s="165">
+        <f>0.13*J198</f>
+        <v>0</v>
+      </c>
+      <c r="K199" s="161"/>
+    </row>
+    <row r="200" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A200" s="163"/>
+      <c r="B200" s="146"/>
+      <c r="C200" s="168"/>
+      <c r="D200" s="169"/>
+      <c r="E200" s="169"/>
+      <c r="F200" s="169"/>
+      <c r="G200" s="169"/>
+      <c r="H200" s="169"/>
+      <c r="I200" s="169"/>
+      <c r="J200" s="165"/>
+      <c r="K200" s="161"/>
+    </row>
+    <row r="201" spans="1:22" s="174" customFormat="1" ht="42.75">
+      <c r="A201" s="144">
+        <v>19</v>
+      </c>
+      <c r="B201" s="180" t="s">
+        <v>145</v>
+      </c>
+      <c r="C201" s="161"/>
+      <c r="D201" s="162"/>
+      <c r="E201" s="162"/>
+      <c r="F201" s="162"/>
+      <c r="G201" s="150"/>
+      <c r="H201" s="163"/>
+      <c r="I201" s="163"/>
+      <c r="J201" s="165"/>
+      <c r="K201" s="149"/>
+      <c r="M201" s="181"/>
+      <c r="N201" s="181"/>
+      <c r="O201" s="181"/>
+      <c r="P201" s="181"/>
+      <c r="Q201" s="181"/>
+      <c r="R201" s="181"/>
+      <c r="S201" s="181"/>
+      <c r="T201" s="181"/>
+      <c r="U201" s="181"/>
+      <c r="V201" s="181"/>
+    </row>
+    <row r="202" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A202" s="163"/>
+      <c r="B202" s="146" t="s">
+        <v>173</v>
+      </c>
+      <c r="C202" s="147">
+        <v>1</v>
+      </c>
+      <c r="D202" s="169">
+        <f>6.55</f>
+        <v>6.55</v>
+      </c>
+      <c r="E202" s="169">
+        <v>2.62</v>
+      </c>
+      <c r="F202" s="169"/>
+      <c r="G202" s="177">
+        <f t="shared" ref="G202:G203" si="30">PRODUCT(C202:F202)</f>
+        <v>17.161000000000001</v>
+      </c>
+      <c r="H202" s="169"/>
+      <c r="I202" s="169"/>
+      <c r="J202" s="165"/>
+      <c r="K202" s="161"/>
+      <c r="M202" s="181"/>
+      <c r="N202" s="181"/>
+      <c r="O202" s="181"/>
+      <c r="P202" s="181"/>
+      <c r="Q202" s="181"/>
+      <c r="R202" s="181"/>
+      <c r="S202" s="181"/>
+      <c r="T202" s="181"/>
+      <c r="U202" s="181"/>
+      <c r="V202" s="181"/>
+    </row>
+    <row r="203" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A203" s="163"/>
+      <c r="B203" s="146" t="str">
+        <f>B123</f>
         <v>-at entrance</v>
       </c>
-      <c r="C196" s="147">
+      <c r="C203" s="147">
         <v>1</v>
       </c>
-      <c r="D196" s="151">
-        <f>D118</f>
+      <c r="D203" s="151">
+        <f>D123</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E196" s="151">
-        <f>E118</f>
+      <c r="E203" s="151">
+        <f>E123</f>
         <v>0.9</v>
       </c>
-      <c r="F196" s="151"/>
-      <c r="G196" s="177">
-        <f t="shared" ref="G196" si="30">PRODUCT(C196:F196)</f>
+      <c r="F203" s="151"/>
+      <c r="G203" s="177">
+        <f t="shared" si="30"/>
         <v>1.9800000000000002</v>
       </c>
-      <c r="H196" s="169"/>
-      <c r="I196" s="169"/>
-      <c r="J196" s="165"/>
-      <c r="K196" s="161"/>
-      <c r="M196" s="181"/>
-      <c r="N196" s="181"/>
-      <c r="O196" s="181"/>
-      <c r="P196" s="181"/>
-      <c r="Q196" s="181"/>
-      <c r="R196" s="181"/>
-      <c r="S196" s="181"/>
-      <c r="T196" s="181"/>
-      <c r="U196" s="181"/>
-      <c r="V196" s="181"/>
-    </row>
-    <row r="197" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
-      <c r="A197" s="163"/>
-      <c r="B197" s="146" t="s">
+      <c r="H203" s="169"/>
+      <c r="I203" s="169"/>
+      <c r="J203" s="165"/>
+      <c r="K203" s="161"/>
+      <c r="M203" s="181"/>
+      <c r="N203" s="181"/>
+      <c r="O203" s="181"/>
+      <c r="P203" s="181"/>
+      <c r="Q203" s="181"/>
+      <c r="R203" s="181"/>
+      <c r="S203" s="181"/>
+      <c r="T203" s="181"/>
+      <c r="U203" s="181"/>
+      <c r="V203" s="181"/>
+    </row>
+    <row r="204" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A204" s="163"/>
+      <c r="B204" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="C197" s="168"/>
-      <c r="D197" s="169"/>
-      <c r="E197" s="169"/>
-      <c r="F197" s="169"/>
-      <c r="G197" s="179">
-        <f>SUM(G195:G196)</f>
-        <v>1.9800000000000002</v>
-      </c>
-      <c r="H197" s="179" t="s">
+      <c r="C204" s="168"/>
+      <c r="D204" s="169"/>
+      <c r="E204" s="169"/>
+      <c r="F204" s="169"/>
+      <c r="G204" s="179">
+        <f>SUM(G202:G203)</f>
+        <v>19.141000000000002</v>
+      </c>
+      <c r="H204" s="179" t="s">
         <v>141</v>
       </c>
-      <c r="I197" s="179">
+      <c r="I204" s="179">
         <v>9.1999999999999993</v>
       </c>
-      <c r="J197" s="171">
-        <f>G197*I197</f>
-        <v>18.216000000000001</v>
-      </c>
-      <c r="K197" s="161"/>
-      <c r="M197" s="181"/>
-      <c r="N197" s="181"/>
-      <c r="O197" s="181"/>
-      <c r="P197" s="181"/>
-      <c r="Q197" s="181"/>
-      <c r="R197" s="181"/>
-      <c r="S197" s="181"/>
-      <c r="T197" s="181"/>
-      <c r="U197" s="181"/>
-      <c r="V197" s="181"/>
-    </row>
-    <row r="198" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
-      <c r="A198" s="144"/>
-      <c r="B198" s="146"/>
-      <c r="C198" s="147"/>
-      <c r="D198" s="148"/>
-      <c r="E198" s="149"/>
-      <c r="F198" s="149"/>
-      <c r="G198" s="158"/>
-      <c r="H198" s="159"/>
-      <c r="I198" s="158"/>
-      <c r="J198" s="160"/>
-      <c r="K198" s="149"/>
-      <c r="M198" s="181"/>
-      <c r="N198" s="181"/>
-      <c r="O198" s="181"/>
-      <c r="P198" s="181"/>
-      <c r="Q198" s="181"/>
-      <c r="R198" s="181"/>
-      <c r="S198" s="181"/>
-      <c r="T198" s="181"/>
-      <c r="U198" s="181"/>
-      <c r="V198" s="181"/>
-    </row>
-    <row r="199" spans="1:22" ht="15" customHeight="1">
-      <c r="A199" s="18">
+      <c r="J204" s="171">
+        <f>G204*I204</f>
+        <v>176.09720000000002</v>
+      </c>
+      <c r="K204" s="161"/>
+      <c r="M204" s="181"/>
+      <c r="N204" s="181"/>
+      <c r="O204" s="181"/>
+      <c r="P204" s="181"/>
+      <c r="Q204" s="181"/>
+      <c r="R204" s="181"/>
+      <c r="S204" s="181"/>
+      <c r="T204" s="181"/>
+      <c r="U204" s="181"/>
+      <c r="V204" s="181"/>
+    </row>
+    <row r="205" spans="1:22" s="174" customFormat="1" ht="15" customHeight="1">
+      <c r="A205" s="144"/>
+      <c r="B205" s="146"/>
+      <c r="C205" s="147"/>
+      <c r="D205" s="148"/>
+      <c r="E205" s="149"/>
+      <c r="F205" s="149"/>
+      <c r="G205" s="158"/>
+      <c r="H205" s="159"/>
+      <c r="I205" s="158"/>
+      <c r="J205" s="160"/>
+      <c r="K205" s="149"/>
+      <c r="M205" s="181"/>
+      <c r="N205" s="181"/>
+      <c r="O205" s="181"/>
+      <c r="P205" s="181"/>
+      <c r="Q205" s="181"/>
+      <c r="R205" s="181"/>
+      <c r="S205" s="181"/>
+      <c r="T205" s="181"/>
+      <c r="U205" s="181"/>
+      <c r="V205" s="181"/>
+    </row>
+    <row r="206" spans="1:22" ht="30">
+      <c r="A206" s="18">
         <v>20</v>
       </c>
-      <c r="B199" s="142" t="s">
+      <c r="B206" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="C199" s="19">
-        <v>1</v>
-      </c>
-      <c r="D199" s="20"/>
-      <c r="E199" s="21"/>
-      <c r="F199" s="21"/>
-      <c r="G199" s="126">
-        <f t="shared" ref="G199" si="31">PRODUCT(C199:F199)</f>
-        <v>1</v>
-      </c>
-      <c r="H199" s="22" t="s">
+      <c r="C206" s="19">
+        <v>0</v>
+      </c>
+      <c r="D206" s="20"/>
+      <c r="E206" s="21"/>
+      <c r="F206" s="21"/>
+      <c r="G206" s="126">
+        <f t="shared" ref="G206" si="31">PRODUCT(C206:F206)</f>
+        <v>0</v>
+      </c>
+      <c r="H206" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="I199" s="23">
+      <c r="I206" s="23">
         <v>2000</v>
       </c>
-      <c r="J199" s="32">
-        <f>G199*I199</f>
-        <v>2000</v>
-      </c>
-      <c r="K199" s="21"/>
-      <c r="M199" s="33"/>
-      <c r="N199" s="33"/>
-      <c r="O199" s="33"/>
-      <c r="P199" s="33"/>
-      <c r="Q199" s="33"/>
-      <c r="R199" s="33"/>
-      <c r="S199" s="33"/>
-      <c r="T199" s="33"/>
-      <c r="U199" s="33"/>
-      <c r="V199" s="33"/>
-    </row>
-    <row r="200" spans="1:22" ht="15" customHeight="1">
-      <c r="A200" s="18"/>
-      <c r="B200" s="35"/>
-      <c r="C200" s="19"/>
-      <c r="D200" s="20"/>
-      <c r="E200" s="21"/>
-      <c r="F200" s="21"/>
-      <c r="G200" s="23"/>
-      <c r="H200" s="22"/>
-      <c r="I200" s="23"/>
-      <c r="J200" s="39"/>
-      <c r="K200" s="21"/>
-      <c r="M200" s="33"/>
-      <c r="N200" s="33"/>
-      <c r="O200" s="33"/>
-      <c r="P200" s="33"/>
-      <c r="Q200" s="33"/>
-      <c r="R200" s="33"/>
-      <c r="S200" s="33"/>
-      <c r="T200" s="33"/>
-      <c r="U200" s="33"/>
-      <c r="V200" s="33"/>
-    </row>
-    <row r="201" spans="1:22" ht="15" customHeight="1">
-      <c r="A201" s="18">
-        <v>21</v>
-      </c>
-      <c r="B201" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C201" s="19">
-        <v>1</v>
-      </c>
-      <c r="D201" s="20"/>
-      <c r="E201" s="21"/>
-      <c r="F201" s="21"/>
-      <c r="G201" s="32">
-        <f t="shared" ref="G201" si="32">PRODUCT(C201:F201)</f>
-        <v>1</v>
-      </c>
-      <c r="H201" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I201" s="23">
-        <v>500</v>
-      </c>
-      <c r="J201" s="32">
-        <f>G201*I201</f>
-        <v>500</v>
-      </c>
-      <c r="K201" s="21"/>
-      <c r="M201" s="33"/>
-      <c r="N201" s="33"/>
-      <c r="O201" s="33"/>
-      <c r="P201" s="33"/>
-      <c r="Q201" s="33"/>
-      <c r="R201" s="33"/>
-      <c r="S201" s="33"/>
-      <c r="T201" s="33"/>
-      <c r="U201" s="33"/>
-      <c r="V201" s="33"/>
-    </row>
-    <row r="202" spans="1:22" ht="15" customHeight="1">
-      <c r="A202" s="18"/>
-      <c r="B202" s="24"/>
-      <c r="C202" s="19"/>
-      <c r="D202" s="20"/>
-      <c r="E202" s="21"/>
-      <c r="F202" s="21"/>
-      <c r="G202" s="23"/>
-      <c r="H202" s="22"/>
-      <c r="I202" s="23"/>
-      <c r="J202" s="39"/>
-      <c r="K202" s="21"/>
-      <c r="M202" s="33"/>
-      <c r="N202" s="33"/>
-      <c r="O202" s="33"/>
-      <c r="P202" s="33"/>
-      <c r="Q202" s="33"/>
-      <c r="R202" s="33"/>
-      <c r="S202" s="33"/>
-      <c r="T202" s="33"/>
-      <c r="U202" s="33"/>
-      <c r="V202" s="33"/>
-    </row>
-    <row r="203" spans="1:22">
-      <c r="A203" s="38"/>
-      <c r="B203" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C203" s="42"/>
-      <c r="D203" s="36"/>
-      <c r="E203" s="36"/>
-      <c r="F203" s="36"/>
-      <c r="G203" s="39"/>
-      <c r="H203" s="39"/>
-      <c r="I203" s="39"/>
-      <c r="J203" s="39">
-        <f>SUM(J10:J201)</f>
-        <v>507244.98805140913</v>
-      </c>
-      <c r="K203" s="34"/>
-      <c r="M203" s="33"/>
-      <c r="N203" s="33"/>
-      <c r="O203" s="33"/>
-      <c r="P203" s="33"/>
-      <c r="Q203" s="33"/>
-      <c r="R203" s="33"/>
-      <c r="S203" s="33"/>
-      <c r="T203" s="33"/>
-      <c r="U203" s="33"/>
-      <c r="V203" s="33"/>
-    </row>
-    <row r="204" spans="1:22">
-      <c r="A204" s="53"/>
-      <c r="B204" s="56"/>
-      <c r="C204" s="57"/>
-      <c r="D204" s="54"/>
-      <c r="E204" s="54"/>
-      <c r="F204" s="54"/>
-      <c r="G204" s="55"/>
-      <c r="H204" s="55"/>
-      <c r="I204" s="55"/>
-      <c r="J204" s="55"/>
-      <c r="K204" s="52"/>
-      <c r="M204" s="33"/>
-      <c r="N204" s="33"/>
-      <c r="O204" s="33"/>
-      <c r="P204" s="33"/>
-      <c r="Q204" s="33"/>
-      <c r="R204" s="33"/>
-      <c r="S204" s="33"/>
-      <c r="T204" s="33"/>
-      <c r="U204" s="33"/>
-      <c r="V204" s="33"/>
-    </row>
-    <row r="205" spans="1:22" s="1" customFormat="1">
-      <c r="A205" s="45"/>
-      <c r="B205" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C205" s="196">
-        <f>J203</f>
-        <v>507244.98805140913</v>
-      </c>
-      <c r="D205" s="196"/>
-      <c r="E205" s="37">
-        <v>100</v>
-      </c>
-      <c r="F205" s="46"/>
-      <c r="G205" s="47"/>
-      <c r="H205" s="46"/>
-      <c r="I205" s="48"/>
-      <c r="J205" s="49"/>
-      <c r="K205" s="50"/>
-      <c r="M205" s="33"/>
-      <c r="N205" s="33"/>
-      <c r="O205" s="33"/>
-      <c r="P205" s="33"/>
-      <c r="Q205" s="33"/>
-      <c r="R205" s="33"/>
-      <c r="S205" s="33"/>
-      <c r="T205" s="33"/>
-      <c r="U205" s="33"/>
-      <c r="V205" s="33"/>
-    </row>
-    <row r="206" spans="1:22">
-      <c r="A206" s="51"/>
-      <c r="B206" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C206" s="197">
-        <v>500000</v>
-      </c>
-      <c r="D206" s="197"/>
-      <c r="E206" s="37"/>
-      <c r="F206" s="44"/>
-      <c r="G206" s="43"/>
-      <c r="H206" s="43"/>
-      <c r="I206" s="43"/>
-      <c r="J206" s="43"/>
-      <c r="K206" s="44"/>
+      <c r="J206" s="32">
+        <f>G206*I206</f>
+        <v>0</v>
+      </c>
+      <c r="K206" s="21"/>
       <c r="M206" s="33"/>
       <c r="N206" s="33"/>
       <c r="O206" s="33"/>
@@ -14025,26 +14092,18 @@
       <c r="U206" s="33"/>
       <c r="V206" s="33"/>
     </row>
-    <row r="207" spans="1:22">
-      <c r="A207" s="51"/>
-      <c r="B207" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C207" s="197">
-        <f>C206-C209-C210</f>
-        <v>475000</v>
-      </c>
-      <c r="D207" s="197"/>
-      <c r="E207" s="37">
-        <f>C207/C205*100</f>
-        <v>93.643113522860261</v>
-      </c>
-      <c r="F207" s="44"/>
-      <c r="G207" s="43"/>
-      <c r="H207" s="43"/>
-      <c r="I207" s="43"/>
-      <c r="J207" s="43"/>
-      <c r="K207" s="44"/>
+    <row r="207" spans="1:22" ht="15" customHeight="1">
+      <c r="A207" s="18"/>
+      <c r="B207" s="35"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="20"/>
+      <c r="E207" s="21"/>
+      <c r="F207" s="21"/>
+      <c r="G207" s="23"/>
+      <c r="H207" s="22"/>
+      <c r="I207" s="23"/>
+      <c r="J207" s="39"/>
+      <c r="K207" s="21"/>
       <c r="M207" s="33"/>
       <c r="N207" s="33"/>
       <c r="O207" s="33"/>
@@ -14056,26 +14115,34 @@
       <c r="U207" s="33"/>
       <c r="V207" s="33"/>
     </row>
-    <row r="208" spans="1:22">
-      <c r="A208" s="51"/>
-      <c r="B208" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C208" s="196">
-        <f>C205-C207</f>
-        <v>32244.988051409135</v>
-      </c>
-      <c r="D208" s="196"/>
-      <c r="E208" s="37">
-        <f>100-E207</f>
-        <v>6.3568864771397386</v>
-      </c>
-      <c r="F208" s="44"/>
-      <c r="G208" s="43"/>
-      <c r="H208" s="43"/>
-      <c r="I208" s="43"/>
-      <c r="J208" s="43"/>
-      <c r="K208" s="44"/>
+    <row r="208" spans="1:22" ht="15" customHeight="1">
+      <c r="A208" s="18">
+        <v>21</v>
+      </c>
+      <c r="B208" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C208" s="19">
+        <v>1</v>
+      </c>
+      <c r="D208" s="20"/>
+      <c r="E208" s="21"/>
+      <c r="F208" s="21"/>
+      <c r="G208" s="32">
+        <f t="shared" ref="G208" si="32">PRODUCT(C208:F208)</f>
+        <v>1</v>
+      </c>
+      <c r="H208" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I208" s="23">
+        <v>500</v>
+      </c>
+      <c r="J208" s="32">
+        <f>G208*I208</f>
+        <v>500</v>
+      </c>
+      <c r="K208" s="21"/>
       <c r="M208" s="33"/>
       <c r="N208" s="33"/>
       <c r="O208" s="33"/>
@@ -14087,25 +14154,18 @@
       <c r="U208" s="33"/>
       <c r="V208" s="33"/>
     </row>
-    <row r="209" spans="1:22">
-      <c r="A209" s="51"/>
-      <c r="B209" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C209" s="196">
-        <f>C206*0.03</f>
-        <v>15000</v>
-      </c>
-      <c r="D209" s="196"/>
-      <c r="E209" s="37">
-        <v>3</v>
-      </c>
-      <c r="F209" s="44"/>
-      <c r="G209" s="43"/>
-      <c r="H209" s="43"/>
-      <c r="I209" s="43"/>
-      <c r="J209" s="43"/>
-      <c r="K209" s="44"/>
+    <row r="209" spans="1:22" ht="15" customHeight="1">
+      <c r="A209" s="18"/>
+      <c r="B209" s="24"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="20"/>
+      <c r="E209" s="21"/>
+      <c r="F209" s="21"/>
+      <c r="G209" s="23"/>
+      <c r="H209" s="22"/>
+      <c r="I209" s="23"/>
+      <c r="J209" s="39"/>
+      <c r="K209" s="21"/>
       <c r="M209" s="33"/>
       <c r="N209" s="33"/>
       <c r="O209" s="33"/>
@@ -14118,24 +14178,22 @@
       <c r="V209" s="33"/>
     </row>
     <row r="210" spans="1:22">
-      <c r="A210" s="51"/>
-      <c r="B210" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C210" s="196">
-        <f>C206*0.02</f>
-        <v>10000</v>
-      </c>
-      <c r="D210" s="196"/>
-      <c r="E210" s="37">
-        <v>2</v>
-      </c>
-      <c r="F210" s="44"/>
-      <c r="G210" s="43"/>
-      <c r="H210" s="43"/>
-      <c r="I210" s="43"/>
-      <c r="J210" s="43"/>
-      <c r="K210" s="44"/>
+      <c r="A210" s="38"/>
+      <c r="B210" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C210" s="42"/>
+      <c r="D210" s="36"/>
+      <c r="E210" s="36"/>
+      <c r="F210" s="36"/>
+      <c r="G210" s="39"/>
+      <c r="H210" s="39"/>
+      <c r="I210" s="39"/>
+      <c r="J210" s="39">
+        <f>SUM(J10:J208)</f>
+        <v>560942.36792190874</v>
+      </c>
+      <c r="K210" s="34"/>
       <c r="M210" s="33"/>
       <c r="N210" s="33"/>
       <c r="O210" s="33"/>
@@ -14147,26 +14205,221 @@
       <c r="U210" s="33"/>
       <c r="V210" s="33"/>
     </row>
-    <row r="211" spans="1:22" s="33" customFormat="1">
-      <c r="A211" s="52"/>
-      <c r="B211" s="52"/>
-      <c r="C211" s="52"/>
-      <c r="D211" s="52"/>
-      <c r="E211" s="52"/>
-      <c r="F211" s="52"/>
-      <c r="G211" s="52"/>
-      <c r="H211" s="52"/>
-      <c r="I211" s="52"/>
-      <c r="J211" s="52"/>
+    <row r="211" spans="1:22">
+      <c r="A211" s="53"/>
+      <c r="B211" s="56"/>
+      <c r="C211" s="57"/>
+      <c r="D211" s="54"/>
+      <c r="E211" s="54"/>
+      <c r="F211" s="54"/>
+      <c r="G211" s="55"/>
+      <c r="H211" s="55"/>
+      <c r="I211" s="55"/>
+      <c r="J211" s="55"/>
       <c r="K211" s="52"/>
-    </row>
-    <row r="212" spans="1:22" s="33" customFormat="1"/>
-    <row r="213" spans="1:22" s="33" customFormat="1"/>
-    <row r="214" spans="1:22" s="33" customFormat="1"/>
-    <row r="215" spans="1:22" s="33" customFormat="1"/>
-    <row r="216" spans="1:22" s="33" customFormat="1"/>
-    <row r="217" spans="1:22" s="33" customFormat="1"/>
-    <row r="218" spans="1:22" s="33" customFormat="1"/>
+      <c r="M211" s="33"/>
+      <c r="N211" s="33"/>
+      <c r="O211" s="33"/>
+      <c r="P211" s="33"/>
+      <c r="Q211" s="33"/>
+      <c r="R211" s="33"/>
+      <c r="S211" s="33"/>
+      <c r="T211" s="33"/>
+      <c r="U211" s="33"/>
+      <c r="V211" s="33"/>
+    </row>
+    <row r="212" spans="1:22" s="1" customFormat="1">
+      <c r="A212" s="45"/>
+      <c r="B212" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C212" s="196">
+        <f>J210</f>
+        <v>560942.36792190874</v>
+      </c>
+      <c r="D212" s="196"/>
+      <c r="E212" s="37">
+        <v>100</v>
+      </c>
+      <c r="F212" s="46"/>
+      <c r="G212" s="47"/>
+      <c r="H212" s="46"/>
+      <c r="I212" s="48"/>
+      <c r="J212" s="49"/>
+      <c r="K212" s="50"/>
+      <c r="M212" s="33"/>
+      <c r="N212" s="33"/>
+      <c r="O212" s="33"/>
+      <c r="P212" s="33"/>
+      <c r="Q212" s="33"/>
+      <c r="R212" s="33"/>
+      <c r="S212" s="33"/>
+      <c r="T212" s="33"/>
+      <c r="U212" s="33"/>
+      <c r="V212" s="33"/>
+    </row>
+    <row r="213" spans="1:22">
+      <c r="A213" s="51"/>
+      <c r="B213" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C213" s="197">
+        <v>500000</v>
+      </c>
+      <c r="D213" s="197"/>
+      <c r="E213" s="37"/>
+      <c r="F213" s="44"/>
+      <c r="G213" s="43"/>
+      <c r="H213" s="43"/>
+      <c r="I213" s="43"/>
+      <c r="J213" s="43"/>
+      <c r="K213" s="44"/>
+      <c r="M213" s="33"/>
+      <c r="N213" s="33"/>
+      <c r="O213" s="33"/>
+      <c r="P213" s="33"/>
+      <c r="Q213" s="33"/>
+      <c r="R213" s="33"/>
+      <c r="S213" s="33"/>
+      <c r="T213" s="33"/>
+      <c r="U213" s="33"/>
+      <c r="V213" s="33"/>
+    </row>
+    <row r="214" spans="1:22">
+      <c r="A214" s="51"/>
+      <c r="B214" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C214" s="197">
+        <f>C213-C216-C217</f>
+        <v>475000</v>
+      </c>
+      <c r="D214" s="197"/>
+      <c r="E214" s="37">
+        <f>C214/C212*100</f>
+        <v>84.678930878354848</v>
+      </c>
+      <c r="F214" s="44"/>
+      <c r="G214" s="43"/>
+      <c r="H214" s="43"/>
+      <c r="I214" s="43"/>
+      <c r="J214" s="43"/>
+      <c r="K214" s="44"/>
+      <c r="M214" s="33"/>
+      <c r="N214" s="33"/>
+      <c r="O214" s="33"/>
+      <c r="P214" s="33"/>
+      <c r="Q214" s="33"/>
+      <c r="R214" s="33"/>
+      <c r="S214" s="33"/>
+      <c r="T214" s="33"/>
+      <c r="U214" s="33"/>
+      <c r="V214" s="33"/>
+    </row>
+    <row r="215" spans="1:22">
+      <c r="A215" s="51"/>
+      <c r="B215" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C215" s="196">
+        <f>C212-C214</f>
+        <v>85942.367921908735</v>
+      </c>
+      <c r="D215" s="196"/>
+      <c r="E215" s="37">
+        <f>100-E214</f>
+        <v>15.321069121645152</v>
+      </c>
+      <c r="F215" s="44"/>
+      <c r="G215" s="43"/>
+      <c r="H215" s="43"/>
+      <c r="I215" s="43"/>
+      <c r="J215" s="43"/>
+      <c r="K215" s="44"/>
+      <c r="M215" s="33"/>
+      <c r="N215" s="33"/>
+      <c r="O215" s="33"/>
+      <c r="P215" s="33"/>
+      <c r="Q215" s="33"/>
+      <c r="R215" s="33"/>
+      <c r="S215" s="33"/>
+      <c r="T215" s="33"/>
+      <c r="U215" s="33"/>
+      <c r="V215" s="33"/>
+    </row>
+    <row r="216" spans="1:22">
+      <c r="A216" s="51"/>
+      <c r="B216" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C216" s="196">
+        <f>C213*0.03</f>
+        <v>15000</v>
+      </c>
+      <c r="D216" s="196"/>
+      <c r="E216" s="37">
+        <v>3</v>
+      </c>
+      <c r="F216" s="44"/>
+      <c r="G216" s="43"/>
+      <c r="H216" s="43"/>
+      <c r="I216" s="43"/>
+      <c r="J216" s="43"/>
+      <c r="K216" s="44"/>
+      <c r="M216" s="33"/>
+      <c r="N216" s="33"/>
+      <c r="O216" s="33"/>
+      <c r="P216" s="33"/>
+      <c r="Q216" s="33"/>
+      <c r="R216" s="33"/>
+      <c r="S216" s="33"/>
+      <c r="T216" s="33"/>
+      <c r="U216" s="33"/>
+      <c r="V216" s="33"/>
+    </row>
+    <row r="217" spans="1:22">
+      <c r="A217" s="51"/>
+      <c r="B217" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C217" s="196">
+        <f>C213*0.02</f>
+        <v>10000</v>
+      </c>
+      <c r="D217" s="196"/>
+      <c r="E217" s="37">
+        <v>2</v>
+      </c>
+      <c r="F217" s="44"/>
+      <c r="G217" s="43"/>
+      <c r="H217" s="43"/>
+      <c r="I217" s="43"/>
+      <c r="J217" s="43"/>
+      <c r="K217" s="44"/>
+      <c r="M217" s="33"/>
+      <c r="N217" s="33"/>
+      <c r="O217" s="33"/>
+      <c r="P217" s="33"/>
+      <c r="Q217" s="33"/>
+      <c r="R217" s="33"/>
+      <c r="S217" s="33"/>
+      <c r="T217" s="33"/>
+      <c r="U217" s="33"/>
+      <c r="V217" s="33"/>
+    </row>
+    <row r="218" spans="1:22" s="33" customFormat="1">
+      <c r="A218" s="52"/>
+      <c r="B218" s="52"/>
+      <c r="C218" s="52"/>
+      <c r="D218" s="52"/>
+      <c r="E218" s="52"/>
+      <c r="F218" s="52"/>
+      <c r="G218" s="52"/>
+      <c r="H218" s="52"/>
+      <c r="I218" s="52"/>
+      <c r="J218" s="52"/>
+      <c r="K218" s="52"/>
+    </row>
     <row r="219" spans="1:22" s="33" customFormat="1"/>
     <row r="220" spans="1:22" s="33" customFormat="1"/>
     <row r="221" spans="1:22" s="33" customFormat="1"/>
@@ -14189,100 +14442,23 @@
     <row r="238" s="33" customFormat="1"/>
     <row r="239" s="33" customFormat="1"/>
     <row r="240" s="33" customFormat="1"/>
-    <row r="241" spans="13:22" s="33" customFormat="1"/>
-    <row r="242" spans="13:22" s="33" customFormat="1"/>
-    <row r="243" spans="13:22" s="33" customFormat="1"/>
-    <row r="244" spans="13:22" s="33" customFormat="1"/>
-    <row r="245" spans="13:22" s="33" customFormat="1"/>
-    <row r="246" spans="13:22" s="33" customFormat="1"/>
-    <row r="247" spans="13:22" s="33" customFormat="1"/>
-    <row r="248" spans="13:22" s="33" customFormat="1"/>
-    <row r="249" spans="13:22" s="33" customFormat="1"/>
-    <row r="250" spans="13:22" s="33" customFormat="1"/>
-    <row r="251" spans="13:22" s="33" customFormat="1">
-      <c r="M251"/>
-      <c r="N251"/>
-      <c r="O251"/>
-      <c r="P251"/>
-      <c r="Q251"/>
-      <c r="R251"/>
-      <c r="S251"/>
-      <c r="T251"/>
-      <c r="U251"/>
-      <c r="V251"/>
-    </row>
-    <row r="252" spans="13:22" s="33" customFormat="1">
-      <c r="M252"/>
-      <c r="N252"/>
-      <c r="O252"/>
-      <c r="P252"/>
-      <c r="Q252"/>
-      <c r="R252"/>
-      <c r="S252"/>
-      <c r="T252"/>
-      <c r="U252"/>
-      <c r="V252"/>
-    </row>
-    <row r="253" spans="13:22" s="33" customFormat="1">
-      <c r="M253"/>
-      <c r="N253"/>
-      <c r="O253"/>
-      <c r="P253"/>
-      <c r="Q253"/>
-      <c r="R253"/>
-      <c r="S253"/>
-      <c r="T253"/>
-      <c r="U253"/>
-      <c r="V253"/>
-    </row>
-    <row r="254" spans="13:22" s="33" customFormat="1">
-      <c r="M254"/>
-      <c r="N254"/>
-      <c r="O254"/>
-      <c r="P254"/>
-      <c r="Q254"/>
-      <c r="R254"/>
-      <c r="S254"/>
-      <c r="T254"/>
-      <c r="U254"/>
-      <c r="V254"/>
-    </row>
-    <row r="255" spans="13:22" s="33" customFormat="1">
-      <c r="M255"/>
-      <c r="N255"/>
-      <c r="O255"/>
-      <c r="P255"/>
-      <c r="Q255"/>
-      <c r="R255"/>
-      <c r="S255"/>
-      <c r="T255"/>
-      <c r="U255"/>
-      <c r="V255"/>
-    </row>
-    <row r="256" spans="13:22" s="33" customFormat="1">
-      <c r="M256"/>
-      <c r="N256"/>
-      <c r="O256"/>
-      <c r="P256"/>
-      <c r="Q256"/>
-      <c r="R256"/>
-      <c r="S256"/>
-      <c r="T256"/>
-      <c r="U256"/>
-      <c r="V256"/>
-    </row>
-    <row r="257" spans="13:22" s="33" customFormat="1">
-      <c r="M257"/>
-      <c r="N257"/>
-      <c r="O257"/>
-      <c r="P257"/>
-      <c r="Q257"/>
-      <c r="R257"/>
-      <c r="S257"/>
-      <c r="T257"/>
-      <c r="U257"/>
-      <c r="V257"/>
-    </row>
+    <row r="241" s="33" customFormat="1"/>
+    <row r="242" s="33" customFormat="1"/>
+    <row r="243" s="33" customFormat="1"/>
+    <row r="244" s="33" customFormat="1"/>
+    <row r="245" s="33" customFormat="1"/>
+    <row r="246" s="33" customFormat="1"/>
+    <row r="247" s="33" customFormat="1"/>
+    <row r="248" s="33" customFormat="1"/>
+    <row r="249" s="33" customFormat="1"/>
+    <row r="250" s="33" customFormat="1"/>
+    <row r="251" s="33" customFormat="1"/>
+    <row r="252" s="33" customFormat="1"/>
+    <row r="253" s="33" customFormat="1"/>
+    <row r="254" s="33" customFormat="1"/>
+    <row r="255" s="33" customFormat="1"/>
+    <row r="256" s="33" customFormat="1"/>
+    <row r="257" spans="13:22" s="33" customFormat="1"/>
     <row r="258" spans="13:22" s="33" customFormat="1">
       <c r="M258"/>
       <c r="N258"/>
@@ -14403,19 +14579,103 @@
       <c r="U267"/>
       <c r="V267"/>
     </row>
+    <row r="268" spans="13:22" s="33" customFormat="1">
+      <c r="M268"/>
+      <c r="N268"/>
+      <c r="O268"/>
+      <c r="P268"/>
+      <c r="Q268"/>
+      <c r="R268"/>
+      <c r="S268"/>
+      <c r="T268"/>
+      <c r="U268"/>
+      <c r="V268"/>
+    </row>
+    <row r="269" spans="13:22" s="33" customFormat="1">
+      <c r="M269"/>
+      <c r="N269"/>
+      <c r="O269"/>
+      <c r="P269"/>
+      <c r="Q269"/>
+      <c r="R269"/>
+      <c r="S269"/>
+      <c r="T269"/>
+      <c r="U269"/>
+      <c r="V269"/>
+    </row>
+    <row r="270" spans="13:22" s="33" customFormat="1">
+      <c r="M270"/>
+      <c r="N270"/>
+      <c r="O270"/>
+      <c r="P270"/>
+      <c r="Q270"/>
+      <c r="R270"/>
+      <c r="S270"/>
+      <c r="T270"/>
+      <c r="U270"/>
+      <c r="V270"/>
+    </row>
+    <row r="271" spans="13:22" s="33" customFormat="1">
+      <c r="M271"/>
+      <c r="N271"/>
+      <c r="O271"/>
+      <c r="P271"/>
+      <c r="Q271"/>
+      <c r="R271"/>
+      <c r="S271"/>
+      <c r="T271"/>
+      <c r="U271"/>
+      <c r="V271"/>
+    </row>
+    <row r="272" spans="13:22" s="33" customFormat="1">
+      <c r="M272"/>
+      <c r="N272"/>
+      <c r="O272"/>
+      <c r="P272"/>
+      <c r="Q272"/>
+      <c r="R272"/>
+      <c r="S272"/>
+      <c r="T272"/>
+      <c r="U272"/>
+      <c r="V272"/>
+    </row>
+    <row r="273" spans="13:22" s="33" customFormat="1">
+      <c r="M273"/>
+      <c r="N273"/>
+      <c r="O273"/>
+      <c r="P273"/>
+      <c r="Q273"/>
+      <c r="R273"/>
+      <c r="S273"/>
+      <c r="T273"/>
+      <c r="U273"/>
+      <c r="V273"/>
+    </row>
+    <row r="274" spans="13:22" s="33" customFormat="1">
+      <c r="M274"/>
+      <c r="N274"/>
+      <c r="O274"/>
+      <c r="P274"/>
+      <c r="Q274"/>
+      <c r="R274"/>
+      <c r="S274"/>
+      <c r="T274"/>
+      <c r="U274"/>
+      <c r="V274"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="N172:T172"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="N178:T178"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
-    <mergeCell ref="N83:T83"/>
-    <mergeCell ref="N171:T171"/>
+    <mergeCell ref="N88:T88"/>
+    <mergeCell ref="N177:T177"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -14425,7 +14685,7 @@
     <mergeCell ref="H6:K6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B140" r:id="rId1"/>
+    <hyperlink ref="B145" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId2"/>

--- a/ofc/estimates/परोपकार भवन मर्मत/V-परोपकार भवन मर्मत.xlsx
+++ b/ofc/estimates/परोपकार भवन मर्मत/V-परोपकार भवन मर्मत.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\परोपकार भवन मर्मत\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\परोपकार भवन मर्मत\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="backyard" sheetId="22" r:id="rId1"/>
@@ -116,7 +116,7 @@
     <definedName name="Ttile">'[1]update Rate'!$N$43</definedName>
     <definedName name="unskilled">'[2]Material rate'!$D$154</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -943,11 +943,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="52">
     <font>
@@ -1351,7 +1351,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="223">
@@ -1362,7 +1362,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1382,14 +1382,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1398,7 +1398,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1422,7 +1422,7 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1457,7 +1457,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1472,7 +1472,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1488,7 +1488,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1530,7 +1530,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1568,7 +1568,7 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1655,7 +1655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1679,7 +1679,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1712,7 +1712,7 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="42" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1761,7 +1761,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1793,8 +1793,14 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1821,13 +1827,28 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1842,26 +1863,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1874,33 +1901,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2895,131 +2895,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T211"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5">
-      <c r="A2" s="188" t="s">
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.8">
+      <c r="A2" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="189"/>
-      <c r="K4" s="189"/>
-    </row>
-    <row r="5" spans="1:14" ht="18.75">
-      <c r="A5" s="190" t="s">
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.399999999999999">
+      <c r="A5" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="190"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="190"/>
-      <c r="H5" s="190"/>
-      <c r="I5" s="190"/>
-      <c r="J5" s="190"/>
-      <c r="K5" s="190"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75">
-      <c r="A6" s="191" t="s">
+      <c r="B5" s="192"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="192"/>
+      <c r="K5" s="192"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.6">
+      <c r="A6" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="193"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="192" t="s">
+      <c r="H6" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="192"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="192"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75">
-      <c r="A7" s="193" t="s">
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.6">
+      <c r="A7" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="194" t="s">
+      <c r="H7" s="196" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="194"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="196"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -3056,7 +3056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="28.5">
+    <row r="9" spans="1:14" ht="27.6">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -3144,7 +3144,7 @@
       <c r="J12" s="40"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:14" ht="28.5">
+    <row r="13" spans="1:14" ht="27.6">
       <c r="A13" s="18">
         <v>2</v>
       </c>
@@ -3275,7 +3275,7 @@
       <c r="J18" s="40"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" ht="57">
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="55.2">
       <c r="A19" s="58">
         <v>3</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="J25" s="40"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:14" ht="28.5">
+    <row r="26" spans="1:14" ht="27.6">
       <c r="A26" s="18">
         <v>4</v>
       </c>
@@ -3533,7 +3533,7 @@
       <c r="J30" s="40"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:14" ht="28.5">
+    <row r="31" spans="1:14" ht="27.6">
       <c r="A31" s="18">
         <v>5</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="J35" s="40"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:19" ht="42.75">
+    <row r="36" spans="1:19" ht="41.4">
       <c r="A36" s="18">
         <v>6</v>
       </c>
@@ -3737,7 +3737,7 @@
       <c r="J40" s="40"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:19" ht="30.75">
+    <row r="41" spans="1:19" ht="30.6">
       <c r="A41" s="18">
         <v>7</v>
       </c>
@@ -3826,7 +3826,7 @@
       <c r="J44" s="39"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" ht="15">
       <c r="A45" s="18">
         <v>8</v>
       </c>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" ht="15">
       <c r="A58" s="18"/>
       <c r="B58" s="88"/>
       <c r="C58" s="19"/>
@@ -4144,7 +4144,7 @@
       <c r="J58" s="39"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:20" ht="39.75">
+    <row r="59" spans="1:20" ht="39">
       <c r="A59" s="18">
         <v>10</v>
       </c>
@@ -4196,15 +4196,15 @@
       <c r="I60" s="38"/>
       <c r="J60" s="38"/>
       <c r="K60" s="60"/>
-      <c r="N60" s="195" t="s">
+      <c r="N60" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="O60" s="195"/>
-      <c r="P60" s="195"/>
-      <c r="Q60" s="195"/>
-      <c r="R60" s="195"/>
-      <c r="S60" s="195"/>
-      <c r="T60" s="195"/>
+      <c r="O60" s="197"/>
+      <c r="P60" s="197"/>
+      <c r="Q60" s="197"/>
+      <c r="R60" s="197"/>
+      <c r="S60" s="197"/>
+      <c r="T60" s="197"/>
     </row>
     <row r="61" spans="1:20" ht="15" customHeight="1">
       <c r="A61" s="18"/>
@@ -4501,15 +4501,15 @@
       <c r="I73" s="38"/>
       <c r="J73" s="38"/>
       <c r="K73" s="60"/>
-      <c r="N73" s="195" t="s">
+      <c r="N73" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="O73" s="195"/>
-      <c r="P73" s="195"/>
-      <c r="Q73" s="195"/>
-      <c r="R73" s="195"/>
-      <c r="S73" s="195"/>
-      <c r="T73" s="195"/>
+      <c r="O73" s="197"/>
+      <c r="P73" s="197"/>
+      <c r="Q73" s="197"/>
+      <c r="R73" s="197"/>
+      <c r="S73" s="197"/>
+      <c r="T73" s="197"/>
     </row>
     <row r="74" spans="1:20" ht="15" customHeight="1">
       <c r="A74" s="18"/>
@@ -4705,15 +4705,15 @@
       <c r="I81" s="38"/>
       <c r="J81" s="38"/>
       <c r="K81" s="60"/>
-      <c r="N81" s="195" t="s">
+      <c r="N81" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="O81" s="195"/>
-      <c r="P81" s="195"/>
-      <c r="Q81" s="195"/>
-      <c r="R81" s="195"/>
-      <c r="S81" s="195"/>
-      <c r="T81" s="195"/>
+      <c r="O81" s="197"/>
+      <c r="P81" s="197"/>
+      <c r="Q81" s="197"/>
+      <c r="R81" s="197"/>
+      <c r="S81" s="197"/>
+      <c r="T81" s="197"/>
     </row>
     <row r="82" spans="1:20" ht="15" customHeight="1">
       <c r="A82" s="18"/>
@@ -4836,7 +4836,7 @@
       <c r="J86" s="40"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:20" ht="30.75">
+    <row r="87" spans="1:20" ht="30.6">
       <c r="A87" s="18">
         <v>14</v>
       </c>
@@ -4946,7 +4946,7 @@
       <c r="J90" s="123"/>
       <c r="K90" s="121"/>
     </row>
-    <row r="91" spans="1:20" s="1" customFormat="1" ht="30">
+    <row r="91" spans="1:20" s="1" customFormat="1" ht="27.6">
       <c r="A91" s="120"/>
       <c r="B91" s="125" t="s">
         <v>125</v>
@@ -5004,7 +5004,7 @@
       <c r="K92" s="121"/>
       <c r="M92" s="127"/>
     </row>
-    <row r="93" spans="1:20" s="1" customFormat="1" ht="45">
+    <row r="93" spans="1:20" s="1" customFormat="1" ht="41.4">
       <c r="A93" s="120"/>
       <c r="B93" s="125" t="s">
         <v>126</v>
@@ -5116,7 +5116,7 @@
       <c r="K96" s="121"/>
       <c r="M96" s="127"/>
     </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="97" spans="1:13" s="1" customFormat="1" ht="27.6">
       <c r="A97" s="120"/>
       <c r="B97" s="125" t="s">
         <v>132</v>
@@ -5600,7 +5600,7 @@
       <c r="J117" s="123"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" ht="30.75">
+    <row r="118" spans="1:11" ht="30.6">
       <c r="A118" s="18">
         <v>16</v>
       </c>
@@ -5693,7 +5693,7 @@
       <c r="J122" s="39"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" s="1" customFormat="1" ht="48">
+    <row r="123" spans="1:11" s="1" customFormat="1" ht="46.2">
       <c r="A123" s="18">
         <v>17</v>
       </c>
@@ -5816,7 +5816,7 @@
       <c r="J128" s="39"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:20" s="138" customFormat="1" ht="18">
+    <row r="129" spans="1:20" s="138" customFormat="1" ht="17.399999999999999">
       <c r="A129" s="135">
         <v>18</v>
       </c>
@@ -5941,15 +5941,15 @@
       <c r="J133" s="38"/>
       <c r="K133" s="21"/>
       <c r="M133" s="1"/>
-      <c r="N133" s="186" t="s">
+      <c r="N133" s="187" t="s">
         <v>143</v>
       </c>
-      <c r="O133" s="186"/>
-      <c r="P133" s="186"/>
-      <c r="Q133" s="186"/>
-      <c r="R133" s="186"/>
-      <c r="S133" s="186"/>
-      <c r="T133" s="186"/>
+      <c r="O133" s="187"/>
+      <c r="P133" s="187"/>
+      <c r="Q133" s="187"/>
+      <c r="R133" s="187"/>
+      <c r="S133" s="187"/>
+      <c r="T133" s="187"/>
     </row>
     <row r="134" spans="1:20" ht="15" customHeight="1">
       <c r="A134" s="18"/>
@@ -5974,15 +5974,15 @@
       <c r="J134" s="38"/>
       <c r="K134" s="21"/>
       <c r="M134" s="1"/>
-      <c r="N134" s="186" t="s">
+      <c r="N134" s="187" t="s">
         <v>144</v>
       </c>
-      <c r="O134" s="186"/>
-      <c r="P134" s="186"/>
-      <c r="Q134" s="186"/>
-      <c r="R134" s="186"/>
-      <c r="S134" s="186"/>
-      <c r="T134" s="186"/>
+      <c r="O134" s="187"/>
+      <c r="P134" s="187"/>
+      <c r="Q134" s="187"/>
+      <c r="R134" s="187"/>
+      <c r="S134" s="187"/>
+      <c r="T134" s="187"/>
     </row>
     <row r="135" spans="1:20" ht="15" customHeight="1">
       <c r="A135" s="38"/>
@@ -6041,7 +6041,7 @@
       <c r="J137" s="40"/>
       <c r="K137" s="34"/>
     </row>
-    <row r="138" spans="1:20" ht="42.75">
+    <row r="138" spans="1:20" ht="41.4">
       <c r="A138" s="18">
         <v>19</v>
       </c>
@@ -6261,11 +6261,11 @@
       <c r="B149" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C149" s="196">
+      <c r="C149" s="186">
         <f>J147</f>
         <v>564973.01951057301</v>
       </c>
-      <c r="D149" s="196"/>
+      <c r="D149" s="186"/>
       <c r="E149" s="37">
         <v>100</v>
       </c>
@@ -6281,10 +6281,10 @@
       <c r="B150" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C150" s="197">
+      <c r="C150" s="188">
         <v>500000</v>
       </c>
-      <c r="D150" s="197"/>
+      <c r="D150" s="188"/>
       <c r="E150" s="37"/>
       <c r="F150" s="44"/>
       <c r="G150" s="43"/>
@@ -6298,11 +6298,11 @@
       <c r="B151" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C151" s="197">
+      <c r="C151" s="188">
         <f>C150-C153-C154</f>
         <v>475000</v>
       </c>
-      <c r="D151" s="197"/>
+      <c r="D151" s="188"/>
       <c r="E151" s="37">
         <f>C151/C149*100</f>
         <v>84.074811291251535</v>
@@ -6319,11 +6319,11 @@
       <c r="B152" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C152" s="196">
+      <c r="C152" s="186">
         <f>C149-C151</f>
         <v>89973.019510573009</v>
       </c>
-      <c r="D152" s="196"/>
+      <c r="D152" s="186"/>
       <c r="E152" s="37">
         <f>100-E151</f>
         <v>15.925188708748465</v>
@@ -6340,11 +6340,11 @@
       <c r="B153" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C153" s="196">
+      <c r="C153" s="186">
         <f>C150*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D153" s="196"/>
+      <c r="D153" s="186"/>
       <c r="E153" s="37">
         <v>3</v>
       </c>
@@ -6360,11 +6360,11 @@
       <c r="B154" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C154" s="196">
+      <c r="C154" s="186">
         <f>C150*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D154" s="196"/>
+      <c r="D154" s="186"/>
       <c r="E154" s="37">
         <v>2</v>
       </c>
@@ -6446,13 +6446,6 @@
     <row r="211" s="33" customFormat="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="N134:T134"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
     <mergeCell ref="N133:T133"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -6466,6 +6459,13 @@
     <mergeCell ref="N60:T60"/>
     <mergeCell ref="N73:T73"/>
     <mergeCell ref="N81:T81"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="N134:T134"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B103" r:id="rId1"/>
@@ -6485,110 +6485,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-    </row>
-    <row r="2" spans="1:11" ht="25.5">
-      <c r="A2" s="201" t="s">
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+    </row>
+    <row r="2" spans="1:11" ht="24.6">
+      <c r="A2" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="189"/>
-      <c r="K4" s="189"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75">
-      <c r="A5" s="202" t="s">
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+    </row>
+    <row r="5" spans="1:11" ht="18">
+      <c r="A5" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="202"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="202"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="202"/>
-      <c r="K5" s="202"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75">
+      <c r="B5" s="209"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="209"/>
+      <c r="G5" s="209"/>
+      <c r="H5" s="209"/>
+      <c r="I5" s="209"/>
+      <c r="J5" s="209"/>
+      <c r="K5" s="209"/>
+    </row>
+    <row r="6" spans="1:11" ht="18">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="198">
+      <c r="C6" s="205">
         <f>F71</f>
         <v>564973.01951057301</v>
       </c>
-      <c r="D6" s="199"/>
+      <c r="D6" s="206"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -6596,11 +6596,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="198">
+      <c r="J6" s="205">
         <f>I71</f>
-        <v>560942.36792190874</v>
-      </c>
-      <c r="K6" s="199"/>
+        <v>567296.12317853374</v>
+      </c>
+      <c r="K6" s="206"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="25" t="s">
@@ -6609,77 +6609,77 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="205"/>
-      <c r="I7" s="206" t="s">
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="I7" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="206"/>
-      <c r="K7" s="206"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="191" t="e">
+      <c r="J7" s="201"/>
+      <c r="K7" s="201"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6">
+      <c r="A8" s="193" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="191"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="191"/>
-      <c r="I8" s="207" t="s">
+      <c r="B8" s="193"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="I8" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="207"/>
-      <c r="K8" s="207"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="208" t="e">
+      <c r="A9" s="203" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="208"/>
-      <c r="C9" s="208"/>
-      <c r="D9" s="208"/>
-      <c r="E9" s="208"/>
-      <c r="F9" s="208"/>
-      <c r="I9" s="207" t="s">
+      <c r="B9" s="203"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="203"/>
+      <c r="I9" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="207"/>
-      <c r="K9" s="207"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="203" t="s">
+      <c r="A11" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="203" t="s">
+      <c r="B11" s="198" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="203" t="s">
+      <c r="C11" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="209" t="s">
+      <c r="D11" s="204" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="209"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="209" t="s">
+      <c r="E11" s="204"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="204" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="209"/>
-      <c r="I11" s="209"/>
-      <c r="J11" s="203" t="s">
+      <c r="H11" s="204"/>
+      <c r="I11" s="204"/>
+      <c r="J11" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="204" t="s">
+      <c r="K11" s="199" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="203"/>
-      <c r="B12" s="203"/>
-      <c r="C12" s="203"/>
+      <c r="A12" s="198"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="198"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -6698,10 +6698,10 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="203"/>
-      <c r="K12" s="204"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="28.5">
+      <c r="J12" s="198"/>
+      <c r="K12" s="199"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="27.6">
       <c r="A13" s="26">
         <f>backyard!A9</f>
         <v>1</v>
@@ -6744,7 +6744,7 @@
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A14" s="26"/>
       <c r="B14" s="31"/>
       <c r="C14" s="12"/>
@@ -6757,7 +6757,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="28.5">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="27.6">
       <c r="A15" s="26">
         <f>backyard!A13</f>
         <v>2</v>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A16" s="26"/>
       <c r="B16" s="31" t="str">
         <f>backyard!B17</f>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A17" s="26"/>
       <c r="B17" s="31"/>
       <c r="C17" s="12"/>
@@ -6838,7 +6838,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="57">
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="41.4">
       <c r="A18" s="26">
         <f>backyard!A19</f>
         <v>3</v>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A19" s="26"/>
       <c r="B19" s="31" t="str">
         <f>backyard!B24</f>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A20" s="26"/>
       <c r="B20" s="31"/>
       <c r="C20" s="12"/>
@@ -6919,7 +6919,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="28.5">
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="27.6">
       <c r="A21" s="26">
         <f>backyard!A26</f>
         <v>4</v>
@@ -6962,7 +6962,7 @@
       </c>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A22" s="26"/>
       <c r="B22" s="31" t="str">
         <f>backyard!B29</f>
@@ -6987,7 +6987,7 @@
       </c>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A23" s="26"/>
       <c r="B23" s="31"/>
       <c r="C23" s="12"/>
@@ -7000,7 +7000,7 @@
       <c r="J23" s="27"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" ht="28.5">
+    <row r="24" spans="1:11" s="1" customFormat="1" ht="27.6">
       <c r="A24" s="26">
         <f>backyard!A31</f>
         <v>5</v>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A25" s="26"/>
       <c r="B25" s="31" t="str">
         <f>backyard!B34</f>
@@ -7068,7 +7068,7 @@
       </c>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="26" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A26" s="26"/>
       <c r="B26" s="31"/>
       <c r="C26" s="12"/>
@@ -7081,7 +7081,7 @@
       <c r="J26" s="27"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" ht="42.75">
+    <row r="27" spans="1:11" s="1" customFormat="1" ht="27.6">
       <c r="A27" s="26">
         <f>backyard!A36</f>
         <v>6</v>
@@ -7124,7 +7124,7 @@
       </c>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A28" s="26"/>
       <c r="B28" s="31" t="str">
         <f>backyard!B39</f>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A29" s="26"/>
       <c r="B29" s="31"/>
       <c r="C29" s="12"/>
@@ -7162,7 +7162,7 @@
       <c r="J29" s="27"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" ht="28.5">
+    <row r="30" spans="1:11" s="1" customFormat="1" ht="27.6">
       <c r="A30" s="26">
         <f>backyard!A41</f>
         <v>7</v>
@@ -7205,7 +7205,7 @@
       </c>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="31" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A31" s="26"/>
       <c r="B31" s="31"/>
       <c r="C31" s="12"/>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A33" s="26"/>
       <c r="B33" s="31" t="str">
         <f>backyard!B50</f>
@@ -7286,7 +7286,7 @@
       </c>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="34" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A34" s="26"/>
       <c r="B34" s="31"/>
       <c r="C34" s="12"/>
@@ -7299,7 +7299,7 @@
       <c r="J34" s="27"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" ht="28.5">
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="27.6">
       <c r="A35" s="26">
         <f>backyard!A52</f>
         <v>9</v>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A36" s="26"/>
       <c r="B36" s="31" t="str">
         <f>backyard!B57</f>
@@ -7367,7 +7367,7 @@
       </c>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="37" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A37" s="26"/>
       <c r="B37" s="31"/>
       <c r="C37" s="12"/>
@@ -7380,7 +7380,7 @@
       <c r="J37" s="27"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" ht="28.5">
+    <row r="38" spans="1:11" s="1" customFormat="1" ht="25.2">
       <c r="A38" s="26">
         <f>backyard!A59</f>
         <v>10</v>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="39" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A39" s="26"/>
       <c r="B39" s="31" t="str">
         <f>backyard!B62</f>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="40" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A40" s="26"/>
       <c r="B40" s="31"/>
       <c r="C40" s="12"/>
@@ -7460,7 +7460,7 @@
       <c r="J40" s="27"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" ht="28.5">
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="27.6">
       <c r="A41" s="26">
         <f>backyard!A64</f>
         <v>11</v>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="42" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A42" s="26"/>
       <c r="B42" s="31" t="str">
         <f>backyard!B70</f>
@@ -7528,7 +7528,7 @@
       </c>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="43" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A43" s="26"/>
       <c r="B43" s="31"/>
       <c r="C43" s="12"/>
@@ -7541,7 +7541,7 @@
       <c r="J43" s="27"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" ht="28.5">
+    <row r="44" spans="1:11" s="1" customFormat="1">
       <c r="A44" s="26">
         <f>backyard!A72</f>
         <v>12</v>
@@ -7584,7 +7584,7 @@
       </c>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="45" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A45" s="26"/>
       <c r="B45" s="31" t="str">
         <f>backyard!B78</f>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A46" s="26"/>
       <c r="B46" s="31"/>
       <c r="C46" s="12"/>
@@ -7622,7 +7622,7 @@
       <c r="J46" s="27"/>
       <c r="K46" s="14"/>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" ht="28.5">
+    <row r="47" spans="1:11" s="1" customFormat="1" ht="27.6">
       <c r="A47" s="26">
         <f>backyard!A80</f>
         <v>13</v>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="48" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A48" s="26"/>
       <c r="B48" s="31" t="str">
         <f>backyard!B85</f>
@@ -7690,7 +7690,7 @@
       </c>
       <c r="K48" s="14"/>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="49" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A49" s="26"/>
       <c r="B49" s="31"/>
       <c r="C49" s="12"/>
@@ -7703,7 +7703,7 @@
       <c r="J49" s="27"/>
       <c r="K49" s="14"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" ht="28.5">
+    <row r="50" spans="1:11" s="1" customFormat="1" ht="27.6">
       <c r="A50" s="26">
         <f>backyard!A87</f>
         <v>14</v>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="K50" s="14"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="51" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A51" s="26"/>
       <c r="B51" s="31" t="str">
         <f>backyard!B101</f>
@@ -7771,7 +7771,7 @@
       </c>
       <c r="K51" s="14"/>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="52" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A52" s="26"/>
       <c r="B52" s="31"/>
       <c r="C52" s="12"/>
@@ -7827,7 +7827,7 @@
       </c>
       <c r="K53" s="14"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="54" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A54" s="26"/>
       <c r="B54" s="31" t="str">
         <f>backyard!B116</f>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="K54" s="14"/>
     </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="55" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A55" s="26"/>
       <c r="B55" s="31"/>
       <c r="C55" s="12"/>
@@ -7865,7 +7865,7 @@
       <c r="J55" s="27"/>
       <c r="K55" s="14"/>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" ht="28.5">
+    <row r="56" spans="1:11" s="1" customFormat="1" ht="27.6">
       <c r="A56" s="26">
         <f>backyard!A118</f>
         <v>16</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="K56" s="14"/>
     </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="57" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A57" s="26"/>
       <c r="B57" s="31" t="str">
         <f>backyard!B121</f>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="K57" s="14"/>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="58" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A58" s="26"/>
       <c r="B58" s="31"/>
       <c r="C58" s="12"/>
@@ -7946,7 +7946,7 @@
       <c r="J58" s="27"/>
       <c r="K58" s="14"/>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" ht="54">
+    <row r="59" spans="1:11" s="1" customFormat="1" ht="52.2">
       <c r="A59" s="26">
         <f>backyard!A123</f>
         <v>17</v>
@@ -7988,7 +7988,7 @@
       </c>
       <c r="K59" s="14"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="60" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A60" s="26"/>
       <c r="B60" s="31"/>
       <c r="C60" s="12"/>
@@ -8010,7 +8010,7 @@
       </c>
       <c r="K60" s="14"/>
     </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="61" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A61" s="26"/>
       <c r="B61" s="31"/>
       <c r="C61" s="12"/>
@@ -8050,7 +8050,7 @@
       </c>
       <c r="G62" s="12">
         <f>V!G198</f>
-        <v>0</v>
+        <v>14.925000000000001</v>
       </c>
       <c r="H62" s="12">
         <f>V!I198</f>
@@ -8058,15 +8058,15 @@
       </c>
       <c r="I62" s="12">
         <f t="shared" ref="I62" si="46">G62*H62</f>
-        <v>0</v>
+        <v>5622.7922625000001</v>
       </c>
       <c r="J62" s="27">
         <f t="shared" si="42"/>
-        <v>-23076.056085156444</v>
+        <v>-17453.263822656445</v>
       </c>
       <c r="K62" s="14"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="63" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A63" s="26"/>
       <c r="B63" s="31" t="str">
         <f>backyard!B136</f>
@@ -8083,15 +8083,15 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12">
         <f>V!J199</f>
-        <v>0</v>
+        <v>730.96299412500002</v>
       </c>
       <c r="J63" s="27">
         <f t="shared" si="42"/>
-        <v>-2999.8872910703381</v>
+        <v>-2268.924296945338</v>
       </c>
       <c r="K63" s="14"/>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="64" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A64" s="26"/>
       <c r="B64" s="31"/>
       <c r="C64" s="12"/>
@@ -8104,7 +8104,7 @@
       <c r="J64" s="27"/>
       <c r="K64" s="14"/>
     </row>
-    <row r="65" spans="1:11" s="1" customFormat="1" ht="42.75">
+    <row r="65" spans="1:11" s="1" customFormat="1" ht="41.4">
       <c r="A65" s="26">
         <f>backyard!A138</f>
         <v>19</v>
@@ -8147,7 +8147,7 @@
       </c>
       <c r="K65" s="14"/>
     </row>
-    <row r="66" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="66" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A66" s="26"/>
       <c r="B66" s="31"/>
       <c r="C66" s="12"/>
@@ -8160,7 +8160,7 @@
       <c r="J66" s="27"/>
       <c r="K66" s="14"/>
     </row>
-    <row r="67" spans="1:11" s="1" customFormat="1" ht="15.75">
+    <row r="67" spans="1:11" s="1" customFormat="1" ht="15.6">
       <c r="A67" s="26">
         <f>backyard!A143</f>
         <v>20</v>
@@ -8288,16 +8288,23 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7">
         <f>SUM(I13:I69)</f>
-        <v>560942.36792190874</v>
+        <v>567296.12317853374</v>
       </c>
       <c r="J71" s="13">
         <f>I71-F71</f>
-        <v>-4030.6515886642737</v>
+        <v>2323.103667960735</v>
       </c>
       <c r="K71" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -8311,13 +8318,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8339,21 +8339,21 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="63"/>
-    <col min="2" max="2" width="11.42578125" style="63" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="63" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="63"/>
-    <col min="6" max="6" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="63" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="63" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="63"/>
+    <col min="1" max="1" width="8.88671875" style="63"/>
+    <col min="2" max="2" width="11.44140625" style="63" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="63" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="63"/>
+    <col min="6" max="6" width="10.44140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="63" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="63" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="63"/>
     <col min="10" max="10" width="12" style="63" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="63"/>
+    <col min="11" max="16384" width="8.88671875" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="61" t="e">
         <f>+#REF!+1</f>
         <v>#REF!</v>
@@ -8378,33 +8378,33 @@
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="18">
+    <row r="3" spans="1:10" ht="17.399999999999999">
       <c r="A3" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="219" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75">
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="67"/>
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211"/>
-    </row>
-    <row r="5" spans="1:10" ht="31.5">
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+    </row>
+    <row r="5" spans="1:10" ht="32.4">
       <c r="A5" s="67"/>
       <c r="B5" s="68" t="s">
         <v>52</v>
@@ -8428,9 +8428,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.25">
+    <row r="6" spans="1:10" ht="18">
       <c r="A6" s="67"/>
-      <c r="B6" s="212" t="s">
+      <c r="B6" s="221" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="68" t="s">
@@ -8451,9 +8451,9 @@
       </c>
       <c r="H6" s="73"/>
     </row>
-    <row r="7" spans="1:10" ht="17.25">
+    <row r="7" spans="1:10" ht="18">
       <c r="A7" s="67"/>
-      <c r="B7" s="213"/>
+      <c r="B7" s="222"/>
       <c r="C7" s="70" t="s">
         <v>62</v>
       </c>
@@ -8475,9 +8475,9 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="45">
+    <row r="8" spans="1:10" ht="43.8">
       <c r="A8" s="67"/>
-      <c r="B8" s="212" t="s">
+      <c r="B8" s="221" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="74" t="s">
@@ -8498,9 +8498,9 @@
       </c>
       <c r="H8" s="73"/>
     </row>
-    <row r="9" spans="1:10" ht="17.25">
+    <row r="9" spans="1:10" ht="18">
       <c r="A9" s="67"/>
-      <c r="B9" s="212"/>
+      <c r="B9" s="221"/>
       <c r="C9" s="70" t="s">
         <v>66</v>
       </c>
@@ -8519,9 +8519,9 @@
       </c>
       <c r="H9" s="76"/>
     </row>
-    <row r="10" spans="1:10" ht="17.25">
+    <row r="10" spans="1:10" ht="18">
       <c r="A10" s="67"/>
-      <c r="B10" s="212"/>
+      <c r="B10" s="221"/>
       <c r="C10" s="70" t="s">
         <v>68</v>
       </c>
@@ -8544,9 +8544,9 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17.25">
+    <row r="11" spans="1:10" ht="18">
       <c r="A11" s="67"/>
-      <c r="B11" s="212"/>
+      <c r="B11" s="221"/>
       <c r="C11" s="70" t="s">
         <v>70</v>
       </c>
@@ -8566,9 +8566,9 @@
       </c>
       <c r="H11" s="76"/>
     </row>
-    <row r="12" spans="1:10" ht="17.25">
+    <row r="12" spans="1:10" ht="18">
       <c r="A12" s="67"/>
-      <c r="B12" s="212"/>
+      <c r="B12" s="221"/>
       <c r="C12" s="70" t="s">
         <v>71</v>
       </c>
@@ -8592,9 +8592,9 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17.25">
+    <row r="13" spans="1:10" ht="18">
       <c r="A13" s="67"/>
-      <c r="B13" s="212"/>
+      <c r="B13" s="221"/>
       <c r="C13" s="70" t="s">
         <v>73</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>5504.3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17.25">
+    <row r="14" spans="1:10" ht="18">
       <c r="A14" s="67"/>
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
@@ -8632,7 +8632,7 @@
         <v>8569.2999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17.25">
+    <row r="15" spans="1:10" ht="18">
       <c r="B15" s="82" t="s">
         <v>76</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>1285.3900000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17.25">
+    <row r="16" spans="1:10" ht="18">
       <c r="A16" s="83" t="s">
         <v>78</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>9854.6899999999987</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.25">
+    <row r="17" spans="1:8" ht="18">
       <c r="A17" s="83"/>
       <c r="B17" s="84"/>
       <c r="C17" s="67"/>
@@ -8683,7 +8683,7 @@
         <v>1094.9655555555555</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17.25">
+    <row r="18" spans="1:8" ht="18">
       <c r="A18" s="83"/>
       <c r="B18" s="84"/>
       <c r="C18" s="67"/>
@@ -8698,7 +8698,7 @@
         <v>952.14396135265702</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17.25">
+    <row r="19" spans="1:8" ht="18">
       <c r="A19" s="83"/>
       <c r="B19" s="85" t="s">
         <v>83</v>
@@ -8710,43 +8710,43 @@
       <c r="G19" s="80"/>
       <c r="H19" s="84"/>
     </row>
-    <row r="22" spans="1:8" s="93" customFormat="1" ht="20.25">
+    <row r="22" spans="1:8" s="93" customFormat="1" ht="21">
       <c r="A22" s="92">
         <f>+A9+1</f>
         <v>1</v>
       </c>
-      <c r="B22" s="214"/>
-      <c r="C22" s="214"/>
-      <c r="D22" s="214"/>
-      <c r="E22" s="214"/>
-      <c r="F22" s="214"/>
-      <c r="G22" s="214"/>
-      <c r="H22" s="214"/>
-    </row>
-    <row r="23" spans="1:8" s="93" customFormat="1" ht="19.5">
+      <c r="B22" s="211"/>
+      <c r="C22" s="211"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="211"/>
+    </row>
+    <row r="23" spans="1:8" s="93" customFormat="1" ht="19.8">
       <c r="A23" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="214" t="s">
+      <c r="B23" s="211" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="214"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="214"/>
-      <c r="F23" s="214"/>
-      <c r="G23" s="214"/>
-      <c r="H23" s="214"/>
+      <c r="C23" s="211"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="211"/>
     </row>
     <row r="24" spans="1:8" s="93" customFormat="1" ht="15">
-      <c r="B24" s="216" t="s">
+      <c r="B24" s="212" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="216"/>
-      <c r="D24" s="216"/>
-      <c r="E24" s="216"/>
-      <c r="F24" s="216"/>
-      <c r="G24" s="216"/>
-      <c r="H24" s="216"/>
+      <c r="C24" s="212"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="212"/>
+      <c r="F24" s="212"/>
+      <c r="G24" s="212"/>
+      <c r="H24" s="212"/>
     </row>
     <row r="25" spans="1:8" s="93" customFormat="1" ht="30" customHeight="1">
       <c r="B25" s="95" t="s">
@@ -8772,7 +8772,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="93" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B26" s="217" t="s">
+      <c r="B26" s="213" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="96" t="s">
@@ -8793,8 +8793,8 @@
       </c>
       <c r="H26" s="101"/>
     </row>
-    <row r="27" spans="1:8" s="93" customFormat="1" ht="17.25">
-      <c r="B27" s="218"/>
+    <row r="27" spans="1:8" s="93" customFormat="1" ht="18">
+      <c r="B27" s="214"/>
       <c r="C27" s="102" t="s">
         <v>62</v>
       </c>
@@ -8816,8 +8816,8 @@
         <v>44714</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="93" customFormat="1" ht="17.25">
-      <c r="B28" s="219" t="s">
+    <row r="28" spans="1:8" s="93" customFormat="1" ht="18">
+      <c r="B28" s="215" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="98" t="s">
@@ -8838,8 +8838,8 @@
       </c>
       <c r="H28" s="101"/>
     </row>
-    <row r="29" spans="1:8" s="93" customFormat="1" ht="17.25">
-      <c r="B29" s="220"/>
+    <row r="29" spans="1:8" s="93" customFormat="1" ht="18">
+      <c r="B29" s="216"/>
       <c r="C29" s="102" t="s">
         <v>106</v>
       </c>
@@ -8859,8 +8859,8 @@
       </c>
       <c r="H29" s="106"/>
     </row>
-    <row r="30" spans="1:8" s="93" customFormat="1" ht="27.75">
-      <c r="B30" s="220"/>
+    <row r="30" spans="1:8" s="93" customFormat="1" ht="27.6">
+      <c r="B30" s="216"/>
       <c r="C30" s="109" t="s">
         <v>117</v>
       </c>
@@ -8880,8 +8880,8 @@
       </c>
       <c r="H30" s="106"/>
     </row>
-    <row r="31" spans="1:8" s="93" customFormat="1" ht="17.25">
-      <c r="B31" s="221"/>
+    <row r="31" spans="1:8" s="93" customFormat="1" ht="18">
+      <c r="B31" s="217"/>
       <c r="C31" s="104" t="s">
         <v>108</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>36690.270000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="93" customFormat="1" ht="17.25">
+    <row r="32" spans="1:8" s="93" customFormat="1" ht="18">
       <c r="F32" s="113" t="s">
         <v>75</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>81404.27</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="93" customFormat="1" ht="17.25">
+    <row r="33" spans="1:8" s="93" customFormat="1" ht="18">
       <c r="B33" s="93" t="s">
         <v>110</v>
       </c>
@@ -8958,16 +8958,16 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="93" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="222" t="s">
+      <c r="A36" s="218" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="222"/>
-      <c r="C36" s="222"/>
-      <c r="D36" s="222"/>
-      <c r="E36" s="222"/>
-      <c r="F36" s="222"/>
-      <c r="G36" s="222"/>
-      <c r="H36" s="222"/>
+      <c r="B36" s="218"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="218"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="218"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="218"/>
     </row>
     <row r="37" spans="1:8" s="93" customFormat="1" ht="12" customHeight="1">
       <c r="B37" s="118" t="s">
@@ -8975,16 +8975,16 @@
       </c>
     </row>
     <row r="38" spans="1:8" s="93" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="215" t="s">
+      <c r="A38" s="210" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="215"/>
-      <c r="C38" s="215"/>
-      <c r="D38" s="215"/>
-      <c r="E38" s="215"/>
-      <c r="F38" s="215"/>
-      <c r="G38" s="215"/>
-      <c r="H38" s="215"/>
+      <c r="B38" s="210"/>
+      <c r="C38" s="210"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="210"/>
+      <c r="F38" s="210"/>
+      <c r="G38" s="210"/>
+      <c r="H38" s="210"/>
     </row>
     <row r="39" spans="1:8" s="93" customFormat="1" ht="12" customHeight="1">
       <c r="B39" s="118" t="s">
@@ -8992,16 +8992,16 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="93" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="215" t="s">
+      <c r="A40" s="210" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="215"/>
-      <c r="C40" s="215"/>
-      <c r="D40" s="215"/>
-      <c r="E40" s="215"/>
-      <c r="F40" s="215"/>
-      <c r="G40" s="215"/>
-      <c r="H40" s="215"/>
+      <c r="B40" s="210"/>
+      <c r="C40" s="210"/>
+      <c r="D40" s="210"/>
+      <c r="E40" s="210"/>
+      <c r="F40" s="210"/>
+      <c r="G40" s="210"/>
+      <c r="H40" s="210"/>
     </row>
     <row r="41" spans="1:8" s="93" customFormat="1" ht="12" customHeight="1">
       <c r="B41" s="118" t="s">
@@ -9013,6 +9013,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B22:H22"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="B23:H23"/>
@@ -9020,11 +9025,6 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="A36:H36"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B22:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9035,132 +9035,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P200" sqref="P200"/>
+    <sheetView topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G199" sqref="G199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5">
-      <c r="A2" s="188" t="s">
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.8">
+      <c r="A2" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="189"/>
-      <c r="K4" s="189"/>
-    </row>
-    <row r="5" spans="1:14" ht="18.75">
-      <c r="A5" s="190" t="s">
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.399999999999999">
+      <c r="A5" s="192" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="190"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="190"/>
-      <c r="H5" s="190"/>
-      <c r="I5" s="190"/>
-      <c r="J5" s="190"/>
-      <c r="K5" s="190"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75">
-      <c r="A6" s="191" t="s">
+      <c r="B5" s="192"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="192"/>
+      <c r="K5" s="192"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.6">
+      <c r="A6" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="193"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="192" t="s">
+      <c r="H6" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="192"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="192"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75">
-      <c r="A7" s="193" t="s">
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.6">
+      <c r="A7" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="194" t="s">
+      <c r="H7" s="196" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="194"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="196"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -9197,7 +9197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="28.5">
+    <row r="9" spans="1:14" ht="27.6">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -9392,7 +9392,7 @@
       <c r="J16" s="40"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:14" ht="28.5">
+    <row r="17" spans="1:14" ht="27.6">
       <c r="A17" s="18">
         <v>2</v>
       </c>
@@ -9989,7 +9989,7 @@
       <c r="J40" s="40"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" ht="57">
+    <row r="41" spans="1:14" s="1" customFormat="1" ht="55.2">
       <c r="A41" s="145">
         <v>3</v>
       </c>
@@ -10144,7 +10144,7 @@
       <c r="J47" s="40"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:14" ht="28.5">
+    <row r="48" spans="1:14" ht="27.6">
       <c r="A48" s="18">
         <v>4</v>
       </c>
@@ -10247,7 +10247,7 @@
       <c r="J52" s="40"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:14" ht="28.5">
+    <row r="53" spans="1:14" ht="27.6">
       <c r="A53" s="144">
         <v>5</v>
       </c>
@@ -10347,7 +10347,7 @@
       <c r="J57" s="40"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:14" ht="42.75">
+    <row r="58" spans="1:14" ht="41.4">
       <c r="A58" s="18">
         <v>6</v>
       </c>
@@ -10504,7 +10504,7 @@
       <c r="J64" s="40"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:19" ht="30.75">
+    <row r="65" spans="1:19" ht="30.6">
       <c r="A65" s="144">
         <v>7</v>
       </c>
@@ -10593,7 +10593,7 @@
       <c r="J68" s="39"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" ht="15">
       <c r="A69" s="18">
         <v>8</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G78" s="37">
-        <f>PRODUCT(C78:F78)</f>
+        <f t="shared" ref="G78:G83" si="5">PRODUCT(C78:F78)</f>
         <v>0.5283831149039927</v>
       </c>
       <c r="H78" s="22"/>
@@ -10838,7 +10838,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G79" s="37">
-        <f>PRODUCT(C79:F79)</f>
+        <f t="shared" si="5"/>
         <v>0.43637610484608347</v>
       </c>
       <c r="H79" s="22"/>
@@ -10868,7 +10868,7 @@
         <v>0.05</v>
       </c>
       <c r="G80" s="37">
-        <f>PRODUCT(C80:F80)</f>
+        <f t="shared" si="5"/>
         <v>0.27992763029564161</v>
       </c>
       <c r="H80" s="22"/>
@@ -10894,7 +10894,7 @@
         <v>0.05</v>
       </c>
       <c r="G81" s="37">
-        <f>PRODUCT(C81:F81)</f>
+        <f t="shared" si="5"/>
         <v>3.8357208168241397E-2</v>
       </c>
       <c r="H81" s="22"/>
@@ -10920,7 +10920,7 @@
         <v>0.05</v>
       </c>
       <c r="G82" s="37">
-        <f>PRODUCT(C82:F82)</f>
+        <f t="shared" si="5"/>
         <v>2.7000000000000003E-2</v>
       </c>
       <c r="H82" s="22"/>
@@ -10950,7 +10950,7 @@
         <v>0.05</v>
       </c>
       <c r="G83" s="37">
-        <f>PRODUCT(C83:F83)</f>
+        <f t="shared" si="5"/>
         <v>0.22575000000000001</v>
       </c>
       <c r="H83" s="22"/>
@@ -11001,7 +11001,7 @@
       </c>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" ht="15">
       <c r="A86" s="18"/>
       <c r="B86" s="88"/>
       <c r="C86" s="19"/>
@@ -11014,7 +11014,7 @@
       <c r="J86" s="39"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:20" ht="39.75">
+    <row r="87" spans="1:20" ht="39">
       <c r="A87" s="18">
         <v>10</v>
       </c>
@@ -11066,15 +11066,15 @@
       <c r="I88" s="38"/>
       <c r="J88" s="38"/>
       <c r="K88" s="185"/>
-      <c r="N88" s="195" t="s">
+      <c r="N88" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="O88" s="195"/>
-      <c r="P88" s="195"/>
-      <c r="Q88" s="195"/>
-      <c r="R88" s="195"/>
-      <c r="S88" s="195"/>
-      <c r="T88" s="195"/>
+      <c r="O88" s="197"/>
+      <c r="P88" s="197"/>
+      <c r="Q88" s="197"/>
+      <c r="R88" s="197"/>
+      <c r="S88" s="197"/>
+      <c r="T88" s="197"/>
     </row>
     <row r="89" spans="1:20" ht="15" customHeight="1">
       <c r="A89" s="18"/>
@@ -11260,19 +11260,19 @@
         <v>3</v>
       </c>
       <c r="D96" s="20">
-        <f t="shared" ref="D96" si="5">0.66-0.1</f>
+        <f t="shared" ref="D96" si="6">0.66-0.1</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="E96" s="21">
-        <f t="shared" ref="E96:E99" si="6">8*8/162</f>
+        <f t="shared" ref="E96:E99" si="7">8*8/162</f>
         <v>0.39506172839506171</v>
       </c>
       <c r="F96" s="21">
-        <f t="shared" ref="F96:F99" si="7">PRODUCT(C96:E96)</f>
+        <f t="shared" ref="F96:F99" si="8">PRODUCT(C96:E96)</f>
         <v>0.66370370370370368</v>
       </c>
       <c r="G96" s="91">
-        <f t="shared" ref="G96:G99" si="8">F96/1000</f>
+        <f t="shared" ref="G96:G99" si="9">F96/1000</f>
         <v>6.6370370370370368E-4</v>
       </c>
       <c r="H96" s="22"/>
@@ -11292,15 +11292,15 @@
         <v>0.47</v>
       </c>
       <c r="E97" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F97" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.74271604938271596</v>
       </c>
       <c r="G97" s="91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.4271604938271594E-4</v>
       </c>
       <c r="H97" s="22"/>
@@ -11320,15 +11320,15 @@
         <v>1.5499999999999998</v>
       </c>
       <c r="E98" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F98" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0617283950617278</v>
       </c>
       <c r="G98" s="91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0617283950617278E-3</v>
       </c>
       <c r="H98" s="22"/>
@@ -11348,15 +11348,15 @@
         <v>0.74</v>
       </c>
       <c r="E99" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F99" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9234567901234567</v>
       </c>
       <c r="G99" s="91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.9234567901234567E-3</v>
       </c>
       <c r="H99" s="22"/>
@@ -11533,7 +11533,7 @@
         <v>0.1</v>
       </c>
       <c r="G107" s="150">
-        <f t="shared" ref="G107:G114" si="9">PRODUCT(C107:F107)</f>
+        <f t="shared" ref="G107:G114" si="10">PRODUCT(C107:F107)</f>
         <v>1.4720000000000002</v>
       </c>
       <c r="H107" s="163"/>
@@ -11556,7 +11556,7 @@
         <v>0.1</v>
       </c>
       <c r="G108" s="150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.13200000000000001</v>
       </c>
       <c r="H108" s="163"/>
@@ -11579,7 +11579,7 @@
         <v>0.1</v>
       </c>
       <c r="G109" s="150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.11399999999999999</v>
       </c>
       <c r="H109" s="163"/>
@@ -11591,7 +11591,7 @@
       <c r="A110" s="144"/>
       <c r="B110" s="146"/>
       <c r="C110" s="161">
-        <f t="shared" ref="C110:C113" si="10">2*1</f>
+        <f t="shared" ref="C110:C113" si="11">2*1</f>
         <v>2</v>
       </c>
       <c r="D110" s="162">
@@ -11602,7 +11602,7 @@
         <v>0.1</v>
       </c>
       <c r="G110" s="150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.33</v>
       </c>
       <c r="H110" s="163"/>
@@ -11614,7 +11614,7 @@
       <c r="A111" s="144"/>
       <c r="B111" s="146"/>
       <c r="C111" s="161">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="D111" s="162">
@@ -11625,7 +11625,7 @@
         <v>0.1</v>
       </c>
       <c r="G111" s="150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.16800000000000001</v>
       </c>
       <c r="H111" s="163"/>
@@ -11637,7 +11637,7 @@
       <c r="A112" s="144"/>
       <c r="B112" s="146"/>
       <c r="C112" s="161">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="D112" s="162">
@@ -11648,7 +11648,7 @@
         <v>0.1</v>
       </c>
       <c r="G112" s="150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.18400000000000002</v>
       </c>
       <c r="H112" s="163"/>
@@ -11670,7 +11670,7 @@
       <c r="A113" s="144"/>
       <c r="B113" s="146"/>
       <c r="C113" s="161">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="D113" s="162">
@@ -11681,7 +11681,7 @@
         <v>0.1</v>
       </c>
       <c r="G113" s="150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.16000000000000003</v>
       </c>
       <c r="H113" s="163"/>
@@ -11715,7 +11715,7 @@
         <v>0.1</v>
       </c>
       <c r="G114" s="150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.18000000000000002</v>
       </c>
       <c r="H114" s="163"/>
@@ -11891,7 +11891,7 @@
         <v>1</v>
       </c>
       <c r="D120" s="36">
-        <f t="shared" ref="D120" si="11">D108</f>
+        <f t="shared" ref="D120" si="12">D108</f>
         <v>0.66</v>
       </c>
       <c r="E120" s="36">
@@ -11901,7 +11901,7 @@
         <v>0.1</v>
       </c>
       <c r="G120" s="37">
-        <f t="shared" ref="G120:G122" si="12">PRODUCT(C120:F120)</f>
+        <f t="shared" ref="G120:G122" si="13">PRODUCT(C120:F120)</f>
         <v>3.7620000000000001E-2</v>
       </c>
       <c r="H120" s="38"/>
@@ -11929,7 +11929,7 @@
         <v>1</v>
       </c>
       <c r="D121" s="36">
-        <f t="shared" ref="D121" si="13">D110</f>
+        <f t="shared" ref="D121" si="14">D110</f>
         <v>1.65</v>
       </c>
       <c r="E121" s="36">
@@ -11939,7 +11939,7 @@
         <v>0.1</v>
       </c>
       <c r="G121" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.1386</v>
       </c>
       <c r="H121" s="38"/>
@@ -11964,7 +11964,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="36">
-        <f t="shared" ref="D122" si="14">D112</f>
+        <f t="shared" ref="D122" si="15">D112</f>
         <v>0.92</v>
       </c>
       <c r="E122" s="36">
@@ -11974,7 +11974,7 @@
         <v>0.1</v>
       </c>
       <c r="G122" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.3600000000000013E-2</v>
       </c>
       <c r="H122" s="38"/>
@@ -12012,7 +12012,7 @@
         <v>0.1</v>
       </c>
       <c r="G123" s="37">
-        <f t="shared" ref="G123" si="15">PRODUCT(C123:F123)</f>
+        <f t="shared" ref="G123" si="16">PRODUCT(C123:F123)</f>
         <v>0.19800000000000004</v>
       </c>
       <c r="H123" s="38"/>
@@ -12086,7 +12086,7 @@
       <c r="U126" s="1"/>
       <c r="V126" s="1"/>
     </row>
-    <row r="127" spans="1:22" ht="30.75">
+    <row r="127" spans="1:22" ht="30.6">
       <c r="A127" s="18">
         <v>14</v>
       </c>
@@ -12165,7 +12165,7 @@
       <c r="U128" s="1"/>
       <c r="V128" s="1"/>
     </row>
-    <row r="129" spans="1:22" s="1" customFormat="1" ht="30">
+    <row r="129" spans="1:22" s="1" customFormat="1" ht="27.6">
       <c r="A129" s="120"/>
       <c r="B129" s="125" t="s">
         <v>125</v>
@@ -12180,11 +12180,11 @@
         <v>2.72</v>
       </c>
       <c r="F129" s="12">
-        <f t="shared" ref="F129:F140" si="16">PRODUCT(C129:E129)</f>
+        <f t="shared" ref="F129:F140" si="17">PRODUCT(C129:E129)</f>
         <v>28.723200000000002</v>
       </c>
       <c r="G129" s="126">
-        <f t="shared" ref="G129:G140" si="17">F129</f>
+        <f t="shared" ref="G129:G140" si="18">F129</f>
         <v>28.723200000000002</v>
       </c>
       <c r="H129" s="123"/>
@@ -12205,11 +12205,11 @@
         <v>2.72</v>
       </c>
       <c r="F130" s="12">
-        <f t="shared" ref="F130:F131" si="18">PRODUCT(C130:E130)</f>
+        <f t="shared" ref="F130:F131" si="19">PRODUCT(C130:E130)</f>
         <v>4.8960000000000008</v>
       </c>
       <c r="G130" s="126">
-        <f t="shared" ref="G130:G131" si="19">F130</f>
+        <f t="shared" ref="G130:G131" si="20">F130</f>
         <v>4.8960000000000008</v>
       </c>
       <c r="H130" s="123"/>
@@ -12230,11 +12230,11 @@
         <v>2.72</v>
       </c>
       <c r="F131" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12.512</v>
       </c>
       <c r="G131" s="126">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12.512</v>
       </c>
       <c r="H131" s="123"/>
@@ -12257,11 +12257,11 @@
         <v>2.72</v>
       </c>
       <c r="F132" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>19.040000000000003</v>
       </c>
       <c r="G132" s="126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19.040000000000003</v>
       </c>
       <c r="H132" s="123"/>
@@ -12282,11 +12282,11 @@
         <v>2.72</v>
       </c>
       <c r="F133" s="12">
-        <f t="shared" ref="F133" si="20">PRODUCT(C133:E133)</f>
+        <f t="shared" ref="F133" si="21">PRODUCT(C133:E133)</f>
         <v>15.123200000000001</v>
       </c>
       <c r="G133" s="126">
-        <f t="shared" ref="G133" si="21">F133</f>
+        <f t="shared" ref="G133" si="22">F133</f>
         <v>15.123200000000001</v>
       </c>
       <c r="H133" s="123"/>
@@ -12294,7 +12294,7 @@
       <c r="J133" s="123"/>
       <c r="K133" s="121"/>
     </row>
-    <row r="134" spans="1:22" s="1" customFormat="1" ht="45">
+    <row r="134" spans="1:22" s="1" customFormat="1" ht="41.4">
       <c r="A134" s="120"/>
       <c r="B134" s="125" t="s">
         <v>126</v>
@@ -12310,11 +12310,11 @@
         <v>3.87</v>
       </c>
       <c r="F134" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>51.603931728131663</v>
       </c>
       <c r="G134" s="126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>51.603931728131663</v>
       </c>
       <c r="H134" s="123"/>
@@ -12336,11 +12336,11 @@
         <v>3.87</v>
       </c>
       <c r="F135" s="12">
-        <f t="shared" ref="F135:F136" si="22">PRODUCT(C135:E135)</f>
+        <f t="shared" ref="F135:F136" si="23">PRODUCT(C135:E135)</f>
         <v>38.445931728131661</v>
       </c>
       <c r="G135" s="126">
-        <f t="shared" ref="G135:G136" si="23">F135</f>
+        <f t="shared" ref="G135:G136" si="24">F135</f>
         <v>38.445931728131661</v>
       </c>
       <c r="H135" s="123"/>
@@ -12362,11 +12362,11 @@
         <v>3.87</v>
       </c>
       <c r="F136" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>45.024931728131662</v>
       </c>
       <c r="G136" s="126">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>45.024931728131662</v>
       </c>
       <c r="H136" s="123"/>
@@ -12389,11 +12389,11 @@
         <v>3.87</v>
       </c>
       <c r="F137" s="12">
-        <f t="shared" ref="F137" si="24">PRODUCT(C137:E137)</f>
+        <f t="shared" ref="F137" si="25">PRODUCT(C137:E137)</f>
         <v>118.75391648887535</v>
       </c>
       <c r="G137" s="126">
-        <f t="shared" ref="G137" si="25">F137</f>
+        <f t="shared" ref="G137" si="26">F137</f>
         <v>118.75391648887535</v>
       </c>
       <c r="H137" s="123"/>
@@ -12401,7 +12401,7 @@
       <c r="J137" s="123"/>
       <c r="K137" s="121"/>
     </row>
-    <row r="138" spans="1:22" s="1" customFormat="1" ht="30">
+    <row r="138" spans="1:22" s="1" customFormat="1" ht="27.6">
       <c r="A138" s="120"/>
       <c r="B138" s="125" t="s">
         <v>170</v>
@@ -12418,11 +12418,11 @@
         <v>1.2</v>
       </c>
       <c r="F138" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>78.47999999999999</v>
       </c>
       <c r="G138" s="126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>78.47999999999999</v>
       </c>
       <c r="H138" s="123"/>
@@ -12446,11 +12446,11 @@
         <v>1.2</v>
       </c>
       <c r="F139" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>30.599999999999998</v>
       </c>
       <c r="G139" s="126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30.599999999999998</v>
       </c>
       <c r="H139" s="123"/>
@@ -12474,11 +12474,11 @@
         <v>0.70599999999999996</v>
       </c>
       <c r="F140" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>147.39713501981103</v>
       </c>
       <c r="G140" s="126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>147.39713501981103</v>
       </c>
       <c r="H140" s="123"/>
@@ -12490,7 +12490,7 @@
         <v>48483.543675708614</v>
       </c>
     </row>
-    <row r="141" spans="1:22" s="1" customFormat="1" ht="30">
+    <row r="141" spans="1:22" s="1" customFormat="1" ht="27.6">
       <c r="A141" s="120"/>
       <c r="B141" s="125" t="s">
         <v>168</v>
@@ -12658,7 +12658,7 @@
         <v>0.72</v>
       </c>
       <c r="G147" s="37">
-        <f t="shared" ref="G147:G158" si="26">PRODUCT(C147:F147)</f>
+        <f t="shared" ref="G147:G158" si="27">PRODUCT(C147:F147)</f>
         <v>4.279183175861017</v>
       </c>
       <c r="H147" s="38"/>
@@ -12682,7 +12682,7 @@
         <v>0.18</v>
       </c>
       <c r="G148" s="37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.31319999999999992</v>
       </c>
       <c r="H148" s="38"/>
@@ -12706,7 +12706,7 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="G149" s="37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.6917250838159097</v>
       </c>
       <c r="H149" s="38"/>
@@ -12730,7 +12730,7 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="G150" s="37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.325571472112161</v>
       </c>
       <c r="H150" s="38"/>
@@ -12754,7 +12754,7 @@
         <v>0.09</v>
       </c>
       <c r="G151" s="37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.18720000000000001</v>
       </c>
       <c r="H151" s="38"/>
@@ -12778,7 +12778,7 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="G152" s="37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.2681499542822308</v>
       </c>
       <c r="H152" s="38"/>
@@ -12802,7 +12802,7 @@
         <v>0.11</v>
       </c>
       <c r="G153" s="37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.23979999999999996</v>
       </c>
       <c r="H153" s="38"/>
@@ -12826,7 +12826,7 @@
         <v>1.05</v>
       </c>
       <c r="G154" s="37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.6934775982932031</v>
       </c>
       <c r="H154" s="38"/>
@@ -12850,7 +12850,7 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="G155" s="37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.3594999999999997</v>
       </c>
       <c r="H155" s="38"/>
@@ -12874,7 +12874,7 @@
         <v>0.35</v>
       </c>
       <c r="G156" s="37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.0268210911307527</v>
       </c>
       <c r="H156" s="38"/>
@@ -12898,7 +12898,7 @@
         <v>0.11</v>
       </c>
       <c r="G157" s="37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.35759219750076199</v>
       </c>
       <c r="H157" s="38"/>
@@ -12921,7 +12921,7 @@
         <v>0.5</v>
       </c>
       <c r="G158" s="37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.6714416336482785</v>
       </c>
       <c r="H158" s="38"/>
@@ -12972,7 +12972,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G160" s="37">
-        <f t="shared" ref="G160:G175" si="27">PRODUCT(C160:F160)</f>
+        <f t="shared" ref="G160:G175" si="28">PRODUCT(C160:F160)</f>
         <v>4.620000000000001</v>
       </c>
       <c r="H160" s="38"/>
@@ -12996,7 +12996,7 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="G161" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.2538860103626943</v>
       </c>
       <c r="H161" s="38"/>
@@ -13020,7 +13020,7 @@
         <v>1.3</v>
       </c>
       <c r="G162" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8.9149649497104537</v>
       </c>
       <c r="H162" s="38"/>
@@ -13044,7 +13044,7 @@
         <v>1.155</v>
       </c>
       <c r="G163" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6.6885096007314839</v>
       </c>
       <c r="H163" s="38"/>
@@ -13068,7 +13068,7 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="G164" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.6234379762267599</v>
       </c>
       <c r="H164" s="38"/>
@@ -13091,7 +13091,7 @@
         <v>1.3</v>
       </c>
       <c r="G165" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>13.768668088997257</v>
       </c>
       <c r="H165" s="38"/>
@@ -13114,7 +13114,7 @@
         <v>1.9</v>
       </c>
       <c r="G166" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.3580000000000005</v>
       </c>
       <c r="H166" s="38"/>
@@ -13138,7 +13138,7 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="G167" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.9232886315147817</v>
       </c>
       <c r="H167" s="38"/>
@@ -13162,7 +13162,7 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="G168" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.258457787259982</v>
       </c>
       <c r="H168" s="38"/>
@@ -13185,7 +13185,7 @@
         <v>0.3</v>
       </c>
       <c r="G169" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.064888753428832</v>
       </c>
       <c r="H169" s="38"/>
@@ -13207,7 +13207,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G170" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.218</v>
       </c>
       <c r="H170" s="38"/>
@@ -13229,7 +13229,7 @@
         <v>0.39</v>
       </c>
       <c r="G171" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.58499999999999996</v>
       </c>
       <c r="H171" s="38"/>
@@ -13252,7 +13252,7 @@
         <v>0.94</v>
       </c>
       <c r="G172" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.1149999999999998</v>
       </c>
       <c r="H172" s="38"/>
@@ -13276,7 +13276,7 @@
         <v>1.4350000000000001</v>
       </c>
       <c r="G173" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>15.963882962511429</v>
       </c>
       <c r="H173" s="38"/>
@@ -13299,7 +13299,7 @@
         <v>0.6</v>
       </c>
       <c r="G174" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="H174" s="38"/>
@@ -13323,7 +13323,7 @@
         <v>0.9</v>
       </c>
       <c r="G175" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.81</v>
       </c>
       <c r="H175" s="38"/>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="K176" s="185"/>
     </row>
-    <row r="177" spans="1:22" s="1" customFormat="1" ht="18">
+    <row r="177" spans="1:22" s="1" customFormat="1" ht="17.399999999999999">
       <c r="A177" s="18"/>
       <c r="B177" s="125" t="s">
         <v>130</v>
@@ -13373,19 +13373,19 @@
         <v>1914.1571403044502</v>
       </c>
       <c r="K177" s="21"/>
-      <c r="N177" s="186" t="s">
+      <c r="N177" s="187" t="s">
         <v>143</v>
       </c>
-      <c r="O177" s="186"/>
-      <c r="P177" s="186"/>
-      <c r="Q177" s="186"/>
-      <c r="R177" s="186"/>
-      <c r="S177" s="186"/>
-      <c r="T177" s="186"/>
+      <c r="O177" s="187"/>
+      <c r="P177" s="187"/>
+      <c r="Q177" s="187"/>
+      <c r="R177" s="187"/>
+      <c r="S177" s="187"/>
+      <c r="T177" s="187"/>
       <c r="U177"/>
       <c r="V177"/>
     </row>
-    <row r="178" spans="1:22" s="1" customFormat="1" ht="18">
+    <row r="178" spans="1:22" s="1" customFormat="1" ht="17.399999999999999">
       <c r="A178" s="18"/>
       <c r="B178" s="125"/>
       <c r="C178" s="19"/>
@@ -13397,19 +13397,19 @@
       <c r="I178" s="23"/>
       <c r="J178" s="123"/>
       <c r="K178" s="21"/>
-      <c r="N178" s="186" t="s">
+      <c r="N178" s="187" t="s">
         <v>144</v>
       </c>
-      <c r="O178" s="186"/>
-      <c r="P178" s="186"/>
-      <c r="Q178" s="186"/>
-      <c r="R178" s="186"/>
-      <c r="S178" s="186"/>
-      <c r="T178" s="186"/>
+      <c r="O178" s="187"/>
+      <c r="P178" s="187"/>
+      <c r="Q178" s="187"/>
+      <c r="R178" s="187"/>
+      <c r="S178" s="187"/>
+      <c r="T178" s="187"/>
       <c r="U178"/>
       <c r="V178"/>
     </row>
-    <row r="179" spans="1:22" ht="30.75">
+    <row r="179" spans="1:22" ht="30.6">
       <c r="A179" s="18">
         <v>16</v>
       </c>
@@ -13525,7 +13525,7 @@
       <c r="J184" s="39"/>
       <c r="K184" s="21"/>
     </row>
-    <row r="185" spans="1:22" s="1" customFormat="1" ht="48">
+    <row r="185" spans="1:22" s="1" customFormat="1" ht="46.2">
       <c r="A185" s="18">
         <v>17</v>
       </c>
@@ -13569,7 +13569,7 @@
       </c>
       <c r="F186" s="21"/>
       <c r="G186" s="126">
-        <f t="shared" ref="G186:G187" si="28">PRODUCT(C186:F186)</f>
+        <f t="shared" ref="G186:G187" si="29">PRODUCT(C186:F186)</f>
         <v>21.480036574215177</v>
       </c>
       <c r="H186" s="22"/>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="F187" s="21"/>
       <c r="G187" s="126">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15.118134715025906</v>
       </c>
       <c r="H187" s="22"/>
@@ -13686,7 +13686,7 @@
       <c r="J191" s="39"/>
       <c r="K191" s="21"/>
     </row>
-    <row r="192" spans="1:22" s="173" customFormat="1" ht="18">
+    <row r="192" spans="1:22" s="173" customFormat="1" ht="17.399999999999999">
       <c r="A192" s="166">
         <v>18</v>
       </c>
@@ -13723,15 +13723,17 @@
       <c r="C193" s="161">
         <v>1</v>
       </c>
-      <c r="D193" s="162"/>
-      <c r="E193" s="175"/>
-      <c r="F193" s="176">
-        <f>CONVERT(48.3735,"ft2","m2")</f>
-        <v>4.49404520544</v>
-      </c>
+      <c r="D193" s="162">
+        <f>(1.1+1.2)/2</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E193" s="175">
+        <v>2.5</v>
+      </c>
+      <c r="F193" s="176"/>
       <c r="G193" s="177">
         <f>PRODUCT(C193:F193)</f>
-        <v>4.49404520544</v>
+        <v>2.875</v>
       </c>
       <c r="H193" s="163"/>
       <c r="I193" s="163"/>
@@ -13744,15 +13746,16 @@
       <c r="C194" s="161">
         <v>1</v>
       </c>
-      <c r="D194" s="162"/>
-      <c r="E194" s="175"/>
-      <c r="F194" s="176">
-        <f>CONVERT(224.2762,"ft2","m2")</f>
-        <v>20.835940779647999</v>
-      </c>
+      <c r="D194" s="162">
+        <v>1.7</v>
+      </c>
+      <c r="E194" s="175">
+        <v>2.4</v>
+      </c>
+      <c r="F194" s="176"/>
       <c r="G194" s="177">
         <f>PRODUCT(C194:F194)</f>
-        <v>20.835940779647999</v>
+        <v>4.08</v>
       </c>
       <c r="H194" s="163"/>
       <c r="I194" s="163"/>
@@ -13766,17 +13769,16 @@
         <v>1</v>
       </c>
       <c r="D195" s="162">
-        <f>(4.1+4.4)/2</f>
-        <v>4.25</v>
+        <f>(1.2+1.5)/2</f>
+        <v>1.35</v>
       </c>
       <c r="E195" s="162">
-        <f>2.6</f>
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="F195" s="162"/>
       <c r="G195" s="177">
-        <f t="shared" ref="G195:G197" si="29">PRODUCT(C195:F195)</f>
-        <v>11.05</v>
+        <f t="shared" ref="G195:G197" si="30">PRODUCT(C195:F195)</f>
+        <v>1.89</v>
       </c>
       <c r="H195" s="163"/>
       <c r="I195" s="163"/>
@@ -13800,16 +13802,16 @@
         <v>1</v>
       </c>
       <c r="D196" s="162">
-        <v>7</v>
+        <f>(1.6+1.55)/2</f>
+        <v>1.5750000000000002</v>
       </c>
       <c r="E196" s="162">
-        <f>((2.5+4.75)/2)/3.281</f>
-        <v>1.1048460835111247</v>
+        <v>3.2</v>
       </c>
       <c r="F196" s="162"/>
       <c r="G196" s="177">
-        <f t="shared" si="29"/>
-        <v>7.733922584577873</v>
+        <f t="shared" si="30"/>
+        <v>5.0400000000000009</v>
       </c>
       <c r="H196" s="163"/>
       <c r="I196" s="163"/>
@@ -13823,16 +13825,15 @@
         <v>1</v>
       </c>
       <c r="D197" s="162">
-        <v>6.55</v>
+        <v>1.6</v>
       </c>
       <c r="E197" s="162">
-        <f>((16.17+1)/2)/3.281</f>
-        <v>2.616580310880829</v>
+        <v>0.65</v>
       </c>
       <c r="F197" s="162"/>
       <c r="G197" s="177">
-        <f t="shared" si="29"/>
-        <v>17.138601036269428</v>
+        <f t="shared" si="30"/>
+        <v>1.04</v>
       </c>
       <c r="H197" s="163"/>
       <c r="I197" s="163"/>
@@ -13849,8 +13850,8 @@
       <c r="E198" s="169"/>
       <c r="F198" s="169"/>
       <c r="G198" s="179">
-        <f>0*SUM(G193:G197)</f>
-        <v>0</v>
+        <f>SUM(G193:G197)</f>
+        <v>14.925000000000001</v>
       </c>
       <c r="H198" s="179" t="s">
         <v>141</v>
@@ -13861,7 +13862,7 @@
       </c>
       <c r="J198" s="171">
         <f>G198*I198</f>
-        <v>0</v>
+        <v>5622.7922625000001</v>
       </c>
       <c r="K198" s="161"/>
     </row>
@@ -13879,7 +13880,7 @@
       <c r="I199" s="169"/>
       <c r="J199" s="165">
         <f>0.13*J198</f>
-        <v>0</v>
+        <v>730.96299412500002</v>
       </c>
       <c r="K199" s="161"/>
     </row>
@@ -13896,7 +13897,7 @@
       <c r="J200" s="165"/>
       <c r="K200" s="161"/>
     </row>
-    <row r="201" spans="1:22" s="174" customFormat="1" ht="42.75">
+    <row r="201" spans="1:22" s="174" customFormat="1" ht="41.4">
       <c r="A201" s="144">
         <v>19</v>
       </c>
@@ -13940,7 +13941,7 @@
       </c>
       <c r="F202" s="169"/>
       <c r="G202" s="177">
-        <f t="shared" ref="G202:G203" si="30">PRODUCT(C202:F202)</f>
+        <f t="shared" ref="G202:G203" si="31">PRODUCT(C202:F202)</f>
         <v>17.161000000000001</v>
       </c>
       <c r="H202" s="169"/>
@@ -13977,7 +13978,7 @@
       </c>
       <c r="F203" s="151"/>
       <c r="G203" s="177">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.9800000000000002</v>
       </c>
       <c r="H203" s="169"/>
@@ -14053,7 +14054,7 @@
       <c r="U205" s="181"/>
       <c r="V205" s="181"/>
     </row>
-    <row r="206" spans="1:22" ht="30">
+    <row r="206" spans="1:22" ht="28.2">
       <c r="A206" s="18">
         <v>20</v>
       </c>
@@ -14067,7 +14068,7 @@
       <c r="E206" s="21"/>
       <c r="F206" s="21"/>
       <c r="G206" s="126">
-        <f t="shared" ref="G206" si="31">PRODUCT(C206:F206)</f>
+        <f t="shared" ref="G206" si="32">PRODUCT(C206:F206)</f>
         <v>0</v>
       </c>
       <c r="H206" s="22" t="s">
@@ -14129,7 +14130,7 @@
       <c r="E208" s="21"/>
       <c r="F208" s="21"/>
       <c r="G208" s="32">
-        <f t="shared" ref="G208" si="32">PRODUCT(C208:F208)</f>
+        <f t="shared" ref="G208" si="33">PRODUCT(C208:F208)</f>
         <v>1</v>
       </c>
       <c r="H208" s="22" t="s">
@@ -14191,7 +14192,7 @@
       <c r="I210" s="39"/>
       <c r="J210" s="39">
         <f>SUM(J10:J208)</f>
-        <v>560942.36792190874</v>
+        <v>567296.12317853374</v>
       </c>
       <c r="K210" s="34"/>
       <c r="M210" s="33"/>
@@ -14233,11 +14234,11 @@
       <c r="B212" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="C212" s="196">
+      <c r="C212" s="186">
         <f>J210</f>
-        <v>560942.36792190874</v>
-      </c>
-      <c r="D212" s="196"/>
+        <v>567296.12317853374</v>
+      </c>
+      <c r="D212" s="186"/>
       <c r="E212" s="37">
         <v>100</v>
       </c>
@@ -14263,10 +14264,10 @@
       <c r="B213" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C213" s="197">
+      <c r="C213" s="188">
         <v>500000</v>
       </c>
-      <c r="D213" s="197"/>
+      <c r="D213" s="188"/>
       <c r="E213" s="37"/>
       <c r="F213" s="44"/>
       <c r="G213" s="43"/>
@@ -14290,14 +14291,14 @@
       <c r="B214" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C214" s="197">
+      <c r="C214" s="188">
         <f>C213-C216-C217</f>
         <v>475000</v>
       </c>
-      <c r="D214" s="197"/>
+      <c r="D214" s="188"/>
       <c r="E214" s="37">
         <f>C214/C212*100</f>
-        <v>84.678930878354848</v>
+        <v>83.730521079290497</v>
       </c>
       <c r="F214" s="44"/>
       <c r="G214" s="43"/>
@@ -14321,14 +14322,14 @@
       <c r="B215" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C215" s="196">
+      <c r="C215" s="186">
         <f>C212-C214</f>
-        <v>85942.367921908735</v>
-      </c>
-      <c r="D215" s="196"/>
+        <v>92296.123178533744</v>
+      </c>
+      <c r="D215" s="186"/>
       <c r="E215" s="37">
         <f>100-E214</f>
-        <v>15.321069121645152</v>
+        <v>16.269478920709503</v>
       </c>
       <c r="F215" s="44"/>
       <c r="G215" s="43"/>
@@ -14352,11 +14353,11 @@
       <c r="B216" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C216" s="196">
+      <c r="C216" s="186">
         <f>C213*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D216" s="196"/>
+      <c r="D216" s="186"/>
       <c r="E216" s="37">
         <v>3</v>
       </c>
@@ -14382,11 +14383,11 @@
       <c r="B217" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C217" s="196">
+      <c r="C217" s="186">
         <f>C213*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D217" s="196"/>
+      <c r="D217" s="186"/>
       <c r="E217" s="37">
         <v>2</v>
       </c>
@@ -14665,13 +14666,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C217:D217"/>
-    <mergeCell ref="N178:T178"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C216:D216"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="N88:T88"/>
@@ -14683,6 +14677,13 @@
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="N178:T178"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B145" r:id="rId1"/>
